--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -670,7 +670,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q28" activeCellId="0" sqref="Q28"/>
+      <selection pane="bottomLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -830,10 +830,7 @@
         <f aca="true">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S3" s="30" t="str">
-        <f aca="true">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="26" t="str">
@@ -880,10 +877,7 @@
         <f aca="true">IF(Q4 = "", "", Q4 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S4" s="30" t="str">
-        <f aca="true">IF(J4="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="26" t="str">
@@ -930,10 +924,7 @@
         <f aca="true">IF(Q5 = "", "", Q5 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S5" s="30" t="str">
-        <f aca="true">IF(J5="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="26" t="str">
@@ -980,10 +971,7 @@
         <f aca="true">IF(Q6 = "", "", Q6 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S6" s="30" t="str">
-        <f aca="true">IF(J6="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="26" t="str">
@@ -1030,10 +1018,7 @@
         <f aca="true">IF(Q7 = "", "", Q7 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S7" s="30" t="str">
-        <f aca="true">IF(J7="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="26" t="str">
@@ -1080,10 +1065,7 @@
         <f aca="true">IF(Q8 = "", "", Q8 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S8" s="30" t="str">
-        <f aca="true">IF(J8="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="26" t="str">
@@ -1130,10 +1112,7 @@
         <f aca="true">IF(Q9 = "", "", Q9 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S9" s="30" t="str">
-        <f aca="true">IF(J9="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="26" t="str">
@@ -1180,10 +1159,7 @@
         <f aca="true">IF(Q10 = "", "", Q10 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S10" s="30" t="str">
-        <f aca="true">IF(J10="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="26" t="str">
@@ -1230,10 +1206,7 @@
         <f aca="true">IF(Q11 = "", "", Q11 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S11" s="30" t="str">
-        <f aca="true">IF(J11="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="26" t="str">
@@ -1280,10 +1253,7 @@
         <f aca="true">IF(Q12 = "", "", Q12 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S12" s="30" t="str">
-        <f aca="true">IF(J12="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="26" t="str">
@@ -1330,10 +1300,7 @@
         <f aca="true">IF(Q13 = "", "", Q13 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S13" s="30" t="str">
-        <f aca="true">IF(J13="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="26" t="str">
@@ -1380,10 +1347,7 @@
         <f aca="true">IF(Q14 = "", "", Q14 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S14" s="30" t="str">
-        <f aca="true">IF(J14="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="26" t="str">
@@ -1430,10 +1394,7 @@
         <f aca="true">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S15" s="30" t="str">
-        <f aca="true">IF(J15="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="26" t="str">
@@ -1480,10 +1441,7 @@
         <f aca="true">IF(Q16 = "", "", Q16 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S16" s="30" t="str">
-        <f aca="true">IF(J16="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="26" t="str">
@@ -1530,10 +1488,7 @@
         <f aca="true">IF(Q17 = "", "", Q17 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S17" s="30" t="str">
-        <f aca="true">IF(J17="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="26" t="str">
@@ -1580,10 +1535,7 @@
         <f aca="true">IF(Q18 = "", "", Q18 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S18" s="30" t="str">
-        <f aca="true">IF(J18="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="26" t="str">
@@ -1630,10 +1582,7 @@
         <f aca="true">IF(Q19 = "", "", Q19 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S19" s="30" t="str">
-        <f aca="true">IF(J19="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="26" t="str">
@@ -1680,10 +1629,7 @@
         <f aca="true">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S20" s="30" t="str">
-        <f aca="true">IF(J20="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="26" t="str">
@@ -1730,10 +1676,7 @@
         <f aca="true">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S21" s="30" t="str">
-        <f aca="true">IF(J21="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="26" t="str">
@@ -1780,10 +1723,7 @@
         <f aca="true">IF(Q22 = "", "", Q22 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S22" s="30" t="str">
-        <f aca="true">IF(J22="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="26" t="str">
@@ -1830,10 +1770,7 @@
         <f aca="true">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S23" s="30" t="str">
-        <f aca="true">IF(J23="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="26" t="str">
@@ -1880,10 +1817,7 @@
         <f aca="true">IF(Q24 = "", "", Q24 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S24" s="30" t="str">
-        <f aca="true">IF(J24="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="26" t="str">
@@ -1930,10 +1864,7 @@
         <f aca="true">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S25" s="30" t="str">
-        <f aca="true">IF(J25="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="26" t="str">
@@ -1980,10 +1911,7 @@
         <f aca="true">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S26" s="30" t="str">
-        <f aca="true">IF(J26="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="26" t="str">
@@ -2030,10 +1958,7 @@
         <f aca="true">IF(Q27 = "", "", Q27 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S27" s="30" t="str">
-        <f aca="true">IF(J27="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="26" t="str">
@@ -2080,10 +2005,7 @@
         <f aca="true">IF(Q28 = "", "", Q28 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S28" s="30" t="str">
-        <f aca="true">IF(J28="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="26" t="str">
@@ -2130,10 +2052,7 @@
         <f aca="true">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S29" s="30" t="str">
-        <f aca="true">IF(J29="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="26" t="str">
@@ -2180,10 +2099,7 @@
         <f aca="true">IF(Q30 = "", "", Q30 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S30" s="30" t="str">
-        <f aca="true">IF(J30="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="26" t="str">
@@ -2230,10 +2146,7 @@
         <f aca="true">IF(Q31 = "", "", Q31 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S31" s="30" t="str">
-        <f aca="true">IF(J31="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="26" t="str">
@@ -2280,10 +2193,7 @@
         <f aca="true">IF(Q32 = "", "", Q32 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S32" s="30" t="str">
-        <f aca="true">IF(J32="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="26" t="str">
@@ -2330,10 +2240,7 @@
         <f aca="true">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S33" s="30" t="str">
-        <f aca="true">IF(J33="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="26" t="str">
@@ -2380,10 +2287,7 @@
         <f aca="true">IF(Q34 = "", "", Q34 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S34" s="30" t="str">
-        <f aca="true">IF(J34="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="26" t="str">
@@ -2430,10 +2334,7 @@
         <f aca="true">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S35" s="30" t="str">
-        <f aca="true">IF(J35="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="26" t="str">
@@ -2480,10 +2381,7 @@
         <f aca="true">IF(Q36 = "", "", Q36 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S36" s="30" t="str">
-        <f aca="true">IF(J36="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="26" t="str">
@@ -2530,10 +2428,7 @@
         <f aca="true">IF(Q37 = "", "", Q37 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S37" s="30" t="str">
-        <f aca="true">IF(J37="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="26" t="str">
@@ -2580,10 +2475,7 @@
         <f aca="true">IF(Q38 = "", "", Q38 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S38" s="30" t="str">
-        <f aca="true">IF(J38="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="26" t="str">
@@ -2630,10 +2522,7 @@
         <f aca="true">IF(Q39 = "", "", Q39 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S39" s="30" t="str">
-        <f aca="true">IF(J39="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="26" t="str">
@@ -2680,10 +2569,7 @@
         <f aca="true">IF(Q40 = "", "", Q40 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S40" s="30" t="str">
-        <f aca="true">IF(J40="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="26" t="str">
@@ -2730,10 +2616,7 @@
         <f aca="true">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S41" s="30" t="str">
-        <f aca="true">IF(J41="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="26" t="str">
@@ -2780,10 +2663,7 @@
         <f aca="true">IF(Q42 = "", "", Q42 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S42" s="30" t="str">
-        <f aca="true">IF(J42="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="26" t="str">
@@ -2830,10 +2710,7 @@
         <f aca="true">IF(Q43 = "", "", Q43 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S43" s="30" t="str">
-        <f aca="true">IF(J43="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="26" t="str">
@@ -2880,10 +2757,7 @@
         <f aca="true">IF(Q44 = "", "", Q44 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S44" s="30" t="str">
-        <f aca="true">IF(J44="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="26" t="str">
@@ -2930,10 +2804,7 @@
         <f aca="true">IF(Q45 = "", "", Q45 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S45" s="30" t="str">
-        <f aca="true">IF(J45="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S45" s="30"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="26" t="str">
@@ -2980,10 +2851,7 @@
         <f aca="true">IF(Q46 = "", "", Q46 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S46" s="30" t="str">
-        <f aca="true">IF(J46="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S46" s="30"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="26" t="str">
@@ -3030,10 +2898,7 @@
         <f aca="true">IF(Q47 = "", "", Q47 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S47" s="30" t="str">
-        <f aca="true">IF(J47="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S47" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="26" t="str">
@@ -3080,10 +2945,7 @@
         <f aca="true">IF(Q48 = "", "", Q48 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S48" s="30" t="str">
-        <f aca="true">IF(J48="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S48" s="30"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="26" t="str">
@@ -3130,10 +2992,7 @@
         <f aca="true">IF(Q49 = "", "", Q49 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S49" s="30" t="str">
-        <f aca="true">IF(J49="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S49" s="30"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="26" t="str">
@@ -3180,10 +3039,7 @@
         <f aca="true">IF(Q50 = "", "", Q50 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S50" s="30" t="str">
-        <f aca="true">IF(J50="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S50" s="30"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="26" t="str">
@@ -3230,10 +3086,7 @@
         <f aca="true">IF(Q51 = "", "", Q51 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S51" s="30" t="str">
-        <f aca="true">IF(J51="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S51" s="30"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="26" t="str">
@@ -3280,10 +3133,7 @@
         <f aca="true">IF(Q52 = "", "", Q52 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S52" s="30" t="str">
-        <f aca="true">IF(J52="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S52" s="30"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="26" t="str">
@@ -3330,10 +3180,7 @@
         <f aca="true">IF(Q53 = "", "", Q53 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S53" s="30" t="str">
-        <f aca="true">IF(J53="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S53" s="30"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="26" t="str">
@@ -3380,10 +3227,7 @@
         <f aca="true">IF(Q54 = "", "", Q54 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S54" s="30" t="str">
-        <f aca="true">IF(J54="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S54" s="30"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="26" t="str">
@@ -3430,10 +3274,7 @@
         <f aca="true">IF(Q55 = "", "", Q55 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S55" s="30" t="str">
-        <f aca="true">IF(J55="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S55" s="30"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="26" t="str">
@@ -3480,10 +3321,7 @@
         <f aca="true">IF(Q56 = "", "", Q56 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S56" s="30" t="str">
-        <f aca="true">IF(J56="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S56" s="30"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="26" t="str">
@@ -3530,10 +3368,7 @@
         <f aca="true">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S57" s="30" t="str">
-        <f aca="true">IF(J57="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S57" s="30"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="26" t="str">
@@ -3580,10 +3415,7 @@
         <f aca="true">IF(Q58 = "", "", Q58 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S58" s="30" t="str">
-        <f aca="true">IF(J58="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S58" s="30"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="26" t="str">
@@ -3630,10 +3462,7 @@
         <f aca="true">IF(Q59 = "", "", Q59 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S59" s="30" t="str">
-        <f aca="true">IF(J59="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S59" s="30"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="26" t="str">
@@ -3680,10 +3509,7 @@
         <f aca="true">IF(Q60 = "", "", Q60 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S60" s="30" t="str">
-        <f aca="true">IF(J60="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S60" s="30"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="str">
@@ -3730,10 +3556,7 @@
         <f aca="true">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S61" s="30" t="str">
-        <f aca="true">IF(J61="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S61" s="30"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="26" t="str">
@@ -3780,10 +3603,7 @@
         <f aca="true">IF(Q62 = "", "", Q62 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S62" s="30" t="str">
-        <f aca="true">IF(J62="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S62" s="30"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="26" t="str">
@@ -3830,10 +3650,7 @@
         <f aca="true">IF(Q63 = "", "", Q63 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S63" s="30" t="str">
-        <f aca="true">IF(J63="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S63" s="30"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="26" t="str">
@@ -3880,10 +3697,7 @@
         <f aca="true">IF(Q64 = "", "", Q64 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S64" s="30" t="str">
-        <f aca="true">IF(J64="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S64" s="30"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="26" t="str">
@@ -3930,10 +3744,7 @@
         <f aca="true">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S65" s="30" t="str">
-        <f aca="true">IF(J65="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S65" s="30"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="26" t="str">
@@ -3980,10 +3791,7 @@
         <f aca="true">IF(Q66 = "", "", Q66 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S66" s="30" t="str">
-        <f aca="true">IF(J66="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S66" s="30"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="26" t="str">
@@ -4030,10 +3838,7 @@
         <f aca="true">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S67" s="30" t="str">
-        <f aca="true">IF(J67="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S67" s="30"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="26" t="str">
@@ -4080,10 +3885,7 @@
         <f aca="true">IF(Q68 = "", "", Q68 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S68" s="30" t="str">
-        <f aca="true">IF(J68="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S68" s="30"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="26" t="str">
@@ -4130,10 +3932,7 @@
         <f aca="true">IF(Q69 = "", "", Q69 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S69" s="30" t="str">
-        <f aca="true">IF(J69="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S69" s="30"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="26" t="str">
@@ -4180,10 +3979,7 @@
         <f aca="true">IF(Q70 = "", "", Q70 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S70" s="30" t="str">
-        <f aca="true">IF(J70="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S70" s="30"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="26" t="str">
@@ -4230,10 +4026,7 @@
         <f aca="true">IF(Q71 = "", "", Q71 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S71" s="30" t="str">
-        <f aca="true">IF(J71="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S71" s="30"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="26" t="str">
@@ -4280,10 +4073,7 @@
         <f aca="true">IF(Q72 = "", "", Q72 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S72" s="30" t="str">
-        <f aca="true">IF(J72="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S72" s="30"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="26" t="str">
@@ -4330,10 +4120,7 @@
         <f aca="true">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S73" s="30" t="str">
-        <f aca="true">IF(J73="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S73" s="30"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="26" t="str">
@@ -4380,10 +4167,7 @@
         <f aca="true">IF(Q74 = "", "", Q74 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S74" s="30" t="str">
-        <f aca="true">IF(J74="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S74" s="30"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="26" t="str">
@@ -4430,10 +4214,7 @@
         <f aca="true">IF(Q75 = "", "", Q75 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S75" s="30" t="str">
-        <f aca="true">IF(J75="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S75" s="30"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="26" t="str">
@@ -4480,10 +4261,7 @@
         <f aca="true">IF(Q76 = "", "", Q76 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S76" s="30" t="str">
-        <f aca="true">IF(J76="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="26" t="str">
@@ -4530,10 +4308,7 @@
         <f aca="true">IF(Q77 = "", "", Q77 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S77" s="30" t="str">
-        <f aca="true">IF(J77="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S77" s="30"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="26" t="str">
@@ -4580,10 +4355,7 @@
         <f aca="true">IF(Q78 = "", "", Q78 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S78" s="30" t="str">
-        <f aca="true">IF(J78="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S78" s="30"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="26" t="str">
@@ -4630,10 +4402,7 @@
         <f aca="true">IF(Q79 = "", "", Q79 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S79" s="30" t="str">
-        <f aca="true">IF(J79="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S79" s="30"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="26" t="str">
@@ -4680,10 +4449,7 @@
         <f aca="true">IF(Q80 = "", "", Q80 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S80" s="30" t="str">
-        <f aca="true">IF(J80="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S80" s="30"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="26" t="str">
@@ -4730,10 +4496,7 @@
         <f aca="true">IF(Q81 = "", "", Q81 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S81" s="30" t="str">
-        <f aca="true">IF(J81="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S81" s="30"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="26" t="str">
@@ -4780,10 +4543,7 @@
         <f aca="true">IF(Q82 = "", "", Q82 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S82" s="30" t="str">
-        <f aca="true">IF(J82="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S82" s="30"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="26" t="str">
@@ -4830,10 +4590,7 @@
         <f aca="true">IF(Q83 = "", "", Q83 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S83" s="30" t="str">
-        <f aca="true">IF(J83="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S83" s="30"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="26" t="str">
@@ -4880,10 +4637,7 @@
         <f aca="true">IF(Q84 = "", "", Q84 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S84" s="30" t="str">
-        <f aca="true">IF(J84="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S84" s="30"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="26" t="str">
@@ -4930,10 +4684,7 @@
         <f aca="true">IF(Q85 = "", "", Q85 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S85" s="30" t="str">
-        <f aca="true">IF(J85="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S85" s="30"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="26" t="str">
@@ -4980,10 +4731,7 @@
         <f aca="true">IF(Q86 = "", "", Q86 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S86" s="30" t="str">
-        <f aca="true">IF(J86="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S86" s="30"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="26" t="str">
@@ -5030,10 +4778,7 @@
         <f aca="true">IF(Q87 = "", "", Q87 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S87" s="30" t="str">
-        <f aca="true">IF(J87="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S87" s="30"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="26" t="str">
@@ -5080,10 +4825,7 @@
         <f aca="true">IF(Q88 = "", "", Q88 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S88" s="30" t="str">
-        <f aca="true">IF(J88="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S88" s="30"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="26" t="str">
@@ -5130,10 +4872,7 @@
         <f aca="true">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S89" s="30" t="str">
-        <f aca="true">IF(J89="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S89" s="30"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="26" t="str">
@@ -5180,10 +4919,7 @@
         <f aca="true">IF(Q90 = "", "", Q90 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S90" s="30" t="str">
-        <f aca="true">IF(J90="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="26" t="str">
@@ -5230,10 +4966,7 @@
         <f aca="true">IF(Q91 = "", "", Q91 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S91" s="30" t="str">
-        <f aca="true">IF(J91="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S91" s="30"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="26" t="str">
@@ -5280,10 +5013,7 @@
         <f aca="true">IF(Q92 = "", "", Q92 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S92" s="30" t="str">
-        <f aca="true">IF(J92="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S92" s="30"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="26" t="str">
@@ -5330,10 +5060,7 @@
         <f aca="true">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S93" s="30" t="str">
-        <f aca="true">IF(J93="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S93" s="30"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="26" t="str">
@@ -5380,10 +5107,7 @@
         <f aca="true">IF(Q94 = "", "", Q94 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S94" s="30" t="str">
-        <f aca="true">IF(J94="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S94" s="30"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="26" t="str">
@@ -5430,10 +5154,7 @@
         <f aca="true">IF(Q95 = "", "", Q95 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S95" s="30" t="str">
-        <f aca="true">IF(J95="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S95" s="30"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="26" t="str">
@@ -5480,10 +5201,7 @@
         <f aca="true">IF(Q96 = "", "", Q96 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S96" s="30" t="str">
-        <f aca="true">IF(J96="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S96" s="30"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="26" t="str">
@@ -5530,10 +5248,7 @@
         <f aca="true">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S97" s="30" t="str">
-        <f aca="true">IF(J97="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S97" s="30"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="26" t="str">
@@ -5580,10 +5295,7 @@
         <f aca="true">IF(Q98 = "", "", Q98 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S98" s="30" t="str">
-        <f aca="true">IF(J98="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S98" s="30"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="26" t="str">
@@ -5630,10 +5342,7 @@
         <f aca="true">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S99" s="30" t="str">
-        <f aca="true">IF(J99="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S99" s="30"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="26" t="str">
@@ -5680,10 +5389,7 @@
         <f aca="true">IF(Q100 = "", "", Q100 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S100" s="30" t="str">
-        <f aca="true">IF(J100="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S100" s="30"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="26" t="str">
@@ -5730,10 +5436,7 @@
         <f aca="true">IF(Q101 = "", "", Q101 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S101" s="30" t="str">
-        <f aca="true">IF(J101="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S101" s="30"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="26" t="str">
@@ -5780,10 +5483,7 @@
         <f aca="true">IF(Q102 = "", "", Q102 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S102" s="30" t="str">
-        <f aca="true">IF(J102="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S102" s="30"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="26" t="str">
@@ -5830,10 +5530,7 @@
         <f aca="true">IF(Q103 = "", "", Q103 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S103" s="30" t="str">
-        <f aca="true">IF(J103="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S103" s="30"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="26" t="str">
@@ -5880,10 +5577,7 @@
         <f aca="true">IF(Q104 = "", "", Q104 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S104" s="30" t="str">
-        <f aca="true">IF(J104="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S104" s="30"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="26" t="str">
@@ -5930,10 +5624,7 @@
         <f aca="true">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S105" s="30" t="str">
-        <f aca="true">IF(J105="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S105" s="30"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="26" t="str">
@@ -5980,10 +5671,7 @@
         <f aca="true">IF(Q106 = "", "", Q106 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S106" s="30" t="str">
-        <f aca="true">IF(J106="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S106" s="30"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="26" t="str">
@@ -6030,10 +5718,7 @@
         <f aca="true">IF(Q107 = "", "", Q107 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S107" s="30" t="str">
-        <f aca="true">IF(J107="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S107" s="30"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="26" t="str">
@@ -6080,10 +5765,7 @@
         <f aca="true">IF(Q108 = "", "", Q108 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S108" s="30" t="str">
-        <f aca="true">IF(J108="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S108" s="30"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="26" t="str">
@@ -6130,10 +5812,7 @@
         <f aca="true">IF(Q109 = "", "", Q109 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S109" s="30" t="str">
-        <f aca="true">IF(J109="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S109" s="30"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="26" t="str">
@@ -6180,10 +5859,7 @@
         <f aca="true">IF(Q110 = "", "", Q110 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S110" s="30" t="str">
-        <f aca="true">IF(J110="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S110" s="30"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="26" t="str">
@@ -6230,10 +5906,7 @@
         <f aca="true">IF(Q111 = "", "", Q111 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S111" s="30" t="str">
-        <f aca="true">IF(J111="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S111" s="30"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="26" t="str">
@@ -6280,10 +5953,7 @@
         <f aca="true">IF(Q112 = "", "", Q112 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S112" s="30" t="str">
-        <f aca="true">IF(J112="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S112" s="30"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="26" t="str">
@@ -6330,10 +6000,7 @@
         <f aca="true">IF(Q113 = "", "", Q113 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S113" s="30" t="str">
-        <f aca="true">IF(J113="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S113" s="30"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="26" t="str">
@@ -6380,10 +6047,7 @@
         <f aca="true">IF(Q114 = "", "", Q114 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S114" s="30" t="str">
-        <f aca="true">IF(J114="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S114" s="30"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="26" t="str">
@@ -6430,10 +6094,7 @@
         <f aca="true">IF(Q115 = "", "", Q115 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S115" s="30" t="str">
-        <f aca="true">IF(J115="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S115" s="30"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="26" t="str">
@@ -6480,10 +6141,7 @@
         <f aca="true">IF(Q116 = "", "", Q116 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S116" s="30" t="str">
-        <f aca="true">IF(J116="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S116" s="30"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="26" t="str">
@@ -6530,10 +6188,7 @@
         <f aca="true">IF(Q117 = "", "", Q117 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S117" s="30" t="str">
-        <f aca="true">IF(J117="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S117" s="30"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="26" t="str">
@@ -6580,10 +6235,7 @@
         <f aca="true">IF(Q118 = "", "", Q118 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S118" s="30" t="str">
-        <f aca="true">IF(J118="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S118" s="30"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="26" t="str">
@@ -6630,10 +6282,7 @@
         <f aca="true">IF(Q119 = "", "", Q119 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S119" s="30" t="str">
-        <f aca="true">IF(J119="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S119" s="30"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="26" t="str">
@@ -6680,10 +6329,7 @@
         <f aca="true">IF(Q120 = "", "", Q120 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S120" s="30" t="str">
-        <f aca="true">IF(J120="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S120" s="30"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="26" t="str">
@@ -6730,10 +6376,7 @@
         <f aca="true">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S121" s="30" t="str">
-        <f aca="true">IF(J121="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S121" s="30"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="26" t="str">
@@ -6780,10 +6423,7 @@
         <f aca="true">IF(Q122 = "", "", Q122 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S122" s="30" t="str">
-        <f aca="true">IF(J122="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S122" s="30"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="26"/>
@@ -6827,10 +6467,7 @@
         <f aca="true">IF(Q123 = "", "", Q123 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S123" s="30" t="str">
-        <f aca="true">IF(J123="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S123" s="30"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="26"/>
@@ -6854,10 +6491,7 @@
         <f aca="true">IF(Q124 = "", "", Q124 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S124" s="30" t="str">
-        <f aca="true">IF(J124="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S124" s="30"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="26"/>
@@ -6881,10 +6515,7 @@
         <f aca="true">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S125" s="30" t="str">
-        <f aca="true">IF(J125="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S125" s="30"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="26"/>
@@ -6908,10 +6539,7 @@
         <f aca="true">IF(Q126 = "", "", Q126 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S126" s="30" t="str">
-        <f aca="true">IF(J126="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S126" s="30"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="26"/>
@@ -6935,10 +6563,7 @@
         <f aca="true">IF(Q127 = "", "", Q127 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S127" s="30" t="str">
-        <f aca="true">IF(J127="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S127" s="30"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="26"/>
@@ -6962,10 +6587,7 @@
         <f aca="true">IF(Q128 = "", "", Q128 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S128" s="30" t="str">
-        <f aca="true">IF(J128="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S128" s="30"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="26"/>
@@ -6989,10 +6611,7 @@
         <f aca="true">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S129" s="30" t="str">
-        <f aca="true">IF(J129="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S129" s="30"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="26"/>
@@ -7016,10 +6635,7 @@
         <f aca="true">IF(Q130 = "", "", Q130 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S130" s="30" t="str">
-        <f aca="true">IF(J130="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S130" s="30"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="26"/>
@@ -7043,10 +6659,7 @@
         <f aca="true">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S131" s="30" t="str">
-        <f aca="true">IF(J131="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S131" s="30"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="26"/>
@@ -7070,10 +6683,7 @@
         <f aca="true">IF(Q132 = "", "", Q132 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S132" s="30" t="str">
-        <f aca="true">IF(J132="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S132" s="30"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="26"/>
@@ -7097,10 +6707,7 @@
         <f aca="true">IF(Q133 = "", "", Q133 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S133" s="30" t="str">
-        <f aca="true">IF(J133="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S133" s="30"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="26"/>
@@ -7124,10 +6731,7 @@
         <f aca="true">IF(Q134 = "", "", Q134 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S134" s="30" t="str">
-        <f aca="true">IF(J134="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S134" s="30"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="26"/>
@@ -7148,10 +6752,7 @@
         <f aca="true">IF(Q135 = "", "", Q135 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S135" s="30" t="str">
-        <f aca="true">IF(J135="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S135" s="30"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="26"/>
@@ -7172,10 +6773,7 @@
         <f aca="true">IF(Q136 = "", "", Q136 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S136" s="30" t="str">
-        <f aca="true">IF(J136="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S136" s="30"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="26"/>
@@ -7196,10 +6794,7 @@
         <f aca="true">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S137" s="30" t="str">
-        <f aca="true">IF(J137="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S137" s="30"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="26"/>
@@ -7220,10 +6815,7 @@
         <f aca="true">IF(Q138 = "", "", Q138 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S138" s="30" t="str">
-        <f aca="true">IF(J138="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S138" s="30"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="26"/>
@@ -7244,10 +6836,7 @@
         <f aca="true">IF(Q139 = "", "", Q139 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S139" s="30" t="str">
-        <f aca="true">IF(J139="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S139" s="30"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="26"/>
@@ -7268,10 +6857,7 @@
         <f aca="true">IF(Q140 = "", "", Q140 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S140" s="30" t="str">
-        <f aca="true">IF(J140="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S140" s="30"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="26"/>
@@ -7292,10 +6878,7 @@
         <f aca="true">IF(Q141 = "", "", Q141 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S141" s="30" t="str">
-        <f aca="true">IF(J141="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S141" s="30"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="26"/>
@@ -7316,10 +6899,7 @@
         <f aca="true">IF(Q142 = "", "", Q142 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S142" s="30" t="str">
-        <f aca="true">IF(J142="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S142" s="30"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="26"/>
@@ -7340,10 +6920,7 @@
         <f aca="true">IF(Q143 = "", "", Q143 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S143" s="30" t="str">
-        <f aca="true">IF(J143="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S143" s="30"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="26"/>
@@ -7364,10 +6941,7 @@
         <f aca="true">IF(Q144 = "", "", Q144 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S144" s="30" t="str">
-        <f aca="true">IF(J144="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S144" s="30"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="26"/>
@@ -7388,10 +6962,7 @@
         <f aca="true">IF(Q145 = "", "", Q145 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S145" s="30" t="str">
-        <f aca="true">IF(J145="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S145" s="30"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="26"/>
@@ -7412,10 +6983,7 @@
         <f aca="true">IF(Q146 = "", "", Q146 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S146" s="30" t="str">
-        <f aca="true">IF(J146="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S146" s="30"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="26"/>
@@ -7436,10 +7004,7 @@
         <f aca="true">IF(Q147 = "", "", Q147 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S147" s="30" t="str">
-        <f aca="true">IF(J147="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S147" s="30"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="26"/>
@@ -7460,10 +7025,7 @@
         <f aca="true">IF(Q148 = "", "", Q148 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S148" s="30" t="str">
-        <f aca="true">IF(J148="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S148" s="30"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="26"/>
@@ -7484,10 +7046,7 @@
         <f aca="true">IF(Q149 = "", "", Q149 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S149" s="30" t="str">
-        <f aca="true">IF(J149="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S149" s="30"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="26"/>
@@ -7505,10 +7064,7 @@
         <f aca="true">IF(Q150 = "", "", Q150 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S150" s="30" t="str">
-        <f aca="true">IF(J150="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S150" s="30"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="26"/>
@@ -7526,10 +7082,7 @@
         <f aca="true">IF(Q151 = "", "", Q151 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S151" s="30" t="str">
-        <f aca="true">IF(J151="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S151" s="30"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="26"/>
@@ -7547,10 +7100,7 @@
         <f aca="true">IF(Q152 = "", "", Q152 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S152" s="30" t="str">
-        <f aca="true">IF(J152="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S152" s="30"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="26"/>
@@ -7568,10 +7118,7 @@
         <f aca="true">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S153" s="30" t="str">
-        <f aca="true">IF(J153="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S153" s="30"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="26"/>
@@ -7589,10 +7136,7 @@
         <f aca="true">IF(Q154 = "", "", Q154 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S154" s="30" t="str">
-        <f aca="true">IF(J154="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S154" s="30"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="26"/>
@@ -7610,10 +7154,7 @@
         <f aca="true">IF(Q155 = "", "", Q155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S155" s="30" t="str">
-        <f aca="true">IF(J155="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S155" s="30"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="26"/>
@@ -7631,10 +7172,7 @@
         <f aca="true">IF(Q156 = "", "", Q156 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S156" s="30" t="str">
-        <f aca="true">IF(J156="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S156" s="30"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="26"/>
@@ -7652,10 +7190,7 @@
         <f aca="true">IF(Q157 = "", "", Q157 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S157" s="30" t="str">
-        <f aca="true">IF(J157="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S157" s="30"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="26"/>
@@ -7673,10 +7208,7 @@
         <f aca="true">IF(Q158 = "", "", Q158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S158" s="30" t="str">
-        <f aca="true">IF(J158="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="S158" s="30"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="26"/>

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Нормативные остатки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неучтенные остатки</t>
   </si>
   <si>
     <t xml:space="preserve">План производства</t>
@@ -132,7 +135,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,6 +164,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="7"/>
@@ -272,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,6 +299,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,7 +326,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,15 +338,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,27 +346,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,23 +390,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,33 +589,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="17" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,32 +634,35 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O2" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +686,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,9 +696,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="10" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="11" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="4"/>
@@ -690,8 +706,8 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="12" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="13" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.02"/>
@@ -700,113 +716,113 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="J1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="Q1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>27</v>
       </c>
+      <c r="V1" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24" t="n">
+      <c r="M2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25" t="n">
         <f aca="false">SUMPRODUCT(H3:H122, R3:R122)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="25" t="n">
+      <c r="V2" s="26" t="n">
         <f aca="false">T2-U2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="27" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="27" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="27" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G3" s="27" t="str">
+      <c r="G3" s="28" t="str">
         <f aca="false">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
-      <c r="H3" s="28" t="str">
+      <c r="H3" s="29" t="str">
         <f aca="true">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I3" s="28" t="str">
+      <c r="I3" s="29" t="str">
         <f aca="true">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -826,34 +842,34 @@
         <f aca="true">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="29" t="str">
+      <c r="R3" s="30" t="str">
         <f aca="true">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S3" s="30"/>
+      <c r="S3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="27" t="str">
         <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="27" t="str">
         <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="27" t="str">
         <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G4" s="27" t="str">
+      <c r="G4" s="28" t="str">
         <f aca="false">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
         <v/>
       </c>
-      <c r="H4" s="28" t="str">
+      <c r="H4" s="29" t="str">
         <f aca="true">IF(J4 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I4" s="28" t="str">
+      <c r="I4" s="29" t="str">
         <f aca="true">IF(J4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -873,34 +889,34 @@
         <f aca="true">IF(L4 = 0, INDIRECT("N" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="29" t="str">
+      <c r="R4" s="30" t="str">
         <f aca="true">IF(Q4 = "", "", Q4 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S4" s="30"/>
+      <c r="S4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="27" t="str">
         <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="27" t="str">
         <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="27" t="str">
         <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G5" s="27" t="str">
+      <c r="G5" s="28" t="str">
         <f aca="false">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
-      <c r="H5" s="28" t="str">
+      <c r="H5" s="29" t="str">
         <f aca="true">IF(J5 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I5" s="28" t="str">
+      <c r="I5" s="29" t="str">
         <f aca="true">IF(J5 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -920,34 +936,34 @@
         <f aca="true">IF(L5 = 0, INDIRECT("N" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="29" t="str">
+      <c r="R5" s="30" t="str">
         <f aca="true">IF(Q5 = "", "", Q5 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S5" s="30"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="27" t="str">
         <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="27" t="str">
         <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="27" t="str">
         <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G6" s="27" t="str">
+      <c r="G6" s="28" t="str">
         <f aca="false">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v/>
       </c>
-      <c r="H6" s="28" t="str">
+      <c r="H6" s="29" t="str">
         <f aca="true">IF(J6 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I6" s="28" t="str">
+      <c r="I6" s="29" t="str">
         <f aca="true">IF(J6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -967,34 +983,34 @@
         <f aca="true">IF(L6 = 0, INDIRECT("N" &amp; ROW() - 1), L6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="29" t="str">
+      <c r="R6" s="30" t="str">
         <f aca="true">IF(Q6 = "", "", Q6 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S6" s="30"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="27" t="str">
         <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="27" t="str">
         <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="27" t="str">
         <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="G7" s="28" t="str">
         <f aca="false">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
-      <c r="H7" s="28" t="str">
+      <c r="H7" s="29" t="str">
         <f aca="true">IF(J7 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I7" s="28" t="str">
+      <c r="I7" s="29" t="str">
         <f aca="true">IF(J7 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1014,34 +1030,34 @@
         <f aca="true">IF(L7 = 0, INDIRECT("N" &amp; ROW() - 1), L7)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="29" t="str">
+      <c r="R7" s="30" t="str">
         <f aca="true">IF(Q7 = "", "", Q7 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="27" t="str">
         <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="27" t="str">
         <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="27" t="str">
         <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="G8" s="28" t="str">
         <f aca="false">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
-      <c r="H8" s="28" t="str">
+      <c r="H8" s="29" t="str">
         <f aca="true">IF(J8 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="29" t="str">
         <f aca="true">IF(J8 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1061,34 +1077,34 @@
         <f aca="true">IF(L8 = 0, INDIRECT("N" &amp; ROW() - 1), L8)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="29" t="str">
+      <c r="R8" s="30" t="str">
         <f aca="true">IF(Q8 = "", "", Q8 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S8" s="30"/>
+      <c r="S8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="27" t="str">
         <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="27" t="str">
         <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="27" t="str">
         <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="28" t="str">
         <f aca="false">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v/>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="29" t="str">
         <f aca="true">IF(J9 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="29" t="str">
         <f aca="true">IF(J9 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1108,34 +1124,34 @@
         <f aca="true">IF(L9 = 0, INDIRECT("N" &amp; ROW() - 1), L9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="29" t="str">
+      <c r="R9" s="30" t="str">
         <f aca="true">IF(Q9 = "", "", Q9 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S9" s="30"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="27" t="str">
         <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="27" t="str">
         <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="27" t="str">
         <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="28" t="str">
         <f aca="false">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
-      <c r="H10" s="28" t="str">
+      <c r="H10" s="29" t="str">
         <f aca="true">IF(J10 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I10" s="28" t="str">
+      <c r="I10" s="29" t="str">
         <f aca="true">IF(J10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1155,34 +1171,34 @@
         <f aca="true">IF(L10 = 0, INDIRECT("N" &amp; ROW() - 1), L10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="29" t="str">
+      <c r="R10" s="30" t="str">
         <f aca="true">IF(Q10 = "", "", Q10 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S10" s="30"/>
+      <c r="S10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="27" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="27" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="27" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="28" t="str">
         <f aca="false">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v/>
       </c>
-      <c r="H11" s="28" t="str">
+      <c r="H11" s="29" t="str">
         <f aca="true">IF(J11 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I11" s="28" t="str">
+      <c r="I11" s="29" t="str">
         <f aca="true">IF(J11 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1202,34 +1218,34 @@
         <f aca="true">IF(L11 = 0, INDIRECT("N" &amp; ROW() - 1), L11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="29" t="str">
+      <c r="R11" s="30" t="str">
         <f aca="true">IF(Q11 = "", "", Q11 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S11" s="30"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="27" t="str">
         <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="27" t="str">
         <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="27" t="str">
         <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="28" t="str">
         <f aca="false">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
-      <c r="H12" s="28" t="str">
+      <c r="H12" s="29" t="str">
         <f aca="true">IF(J12 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="29" t="str">
         <f aca="true">IF(J12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1249,34 +1265,34 @@
         <f aca="true">IF(L12 = 0, INDIRECT("N" &amp; ROW() - 1), L12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="29" t="str">
+      <c r="R12" s="30" t="str">
         <f aca="true">IF(Q12 = "", "", Q12 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S12" s="30"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="27" t="str">
         <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="27" t="str">
         <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="27" t="str">
         <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f aca="false">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v/>
       </c>
-      <c r="H13" s="28" t="str">
+      <c r="H13" s="29" t="str">
         <f aca="true">IF(J13 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I13" s="28" t="str">
+      <c r="I13" s="29" t="str">
         <f aca="true">IF(J13 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1296,34 +1312,34 @@
         <f aca="true">IF(L13 = 0, INDIRECT("N" &amp; ROW() - 1), L13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="29" t="str">
+      <c r="R13" s="30" t="str">
         <f aca="true">IF(Q13 = "", "", Q13 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S13" s="30"/>
+      <c r="S13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="27" t="str">
         <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="27" t="str">
         <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="27" t="str">
         <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="28" t="str">
         <f aca="false">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
-      <c r="H14" s="28" t="str">
+      <c r="H14" s="29" t="str">
         <f aca="true">IF(J14 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I14" s="28" t="str">
+      <c r="I14" s="29" t="str">
         <f aca="true">IF(J14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1343,34 +1359,34 @@
         <f aca="true">IF(L14 = 0, INDIRECT("N" &amp; ROW() - 1), L14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="29" t="str">
+      <c r="R14" s="30" t="str">
         <f aca="true">IF(Q14 = "", "", Q14 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S14" s="30"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="27" t="str">
         <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="27" t="str">
         <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="27" t="str">
         <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="28" t="str">
         <f aca="false">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
-      <c r="H15" s="28" t="str">
+      <c r="H15" s="29" t="str">
         <f aca="true">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I15" s="28" t="str">
+      <c r="I15" s="29" t="str">
         <f aca="true">IF(J15 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1390,34 +1406,34 @@
         <f aca="true">IF(L15 = 0, INDIRECT("N" &amp; ROW() - 1), L15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="29" t="str">
+      <c r="R15" s="30" t="str">
         <f aca="true">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="27" t="str">
         <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="27" t="str">
         <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="27" t="str">
         <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="28" t="str">
         <f aca="false">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="29" t="str">
         <f aca="true">IF(J16 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="29" t="str">
         <f aca="true">IF(J16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1437,34 +1453,34 @@
         <f aca="true">IF(L16 = 0, INDIRECT("N" &amp; ROW() - 1), L16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="29" t="str">
+      <c r="R16" s="30" t="str">
         <f aca="true">IF(Q16 = "", "", Q16 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="27" t="str">
         <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="27" t="str">
         <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="27" t="str">
         <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="28" t="str">
         <f aca="false">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
         <v/>
       </c>
-      <c r="H17" s="28" t="str">
+      <c r="H17" s="29" t="str">
         <f aca="true">IF(J17 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="29" t="str">
         <f aca="true">IF(J17 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1484,34 +1500,34 @@
         <f aca="true">IF(L17 = 0, INDIRECT("N" &amp; ROW() - 1), L17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="29" t="str">
+      <c r="R17" s="30" t="str">
         <f aca="true">IF(Q17 = "", "", Q17 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S17" s="30"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="27" t="str">
         <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="27" t="str">
         <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="27" t="str">
         <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G18" s="27" t="str">
+      <c r="G18" s="28" t="str">
         <f aca="false">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
         <v/>
       </c>
-      <c r="H18" s="28" t="str">
+      <c r="H18" s="29" t="str">
         <f aca="true">IF(J18 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I18" s="28" t="str">
+      <c r="I18" s="29" t="str">
         <f aca="true">IF(J18 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1531,34 +1547,34 @@
         <f aca="true">IF(L18 = 0, INDIRECT("N" &amp; ROW() - 1), L18)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="29" t="str">
+      <c r="R18" s="30" t="str">
         <f aca="true">IF(Q18 = "", "", Q18 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S18" s="30"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="27" t="str">
         <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="27" t="str">
         <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D19" s="26" t="str">
+      <c r="D19" s="27" t="str">
         <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G19" s="27" t="str">
+      <c r="G19" s="28" t="str">
         <f aca="false">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
-      <c r="H19" s="28" t="str">
+      <c r="H19" s="29" t="str">
         <f aca="true">IF(J19 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I19" s="28" t="str">
+      <c r="I19" s="29" t="str">
         <f aca="true">IF(J19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1578,34 +1594,34 @@
         <f aca="true">IF(L19 = 0, INDIRECT("N" &amp; ROW() - 1), L19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="29" t="str">
+      <c r="R19" s="30" t="str">
         <f aca="true">IF(Q19 = "", "", Q19 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S19" s="30"/>
+      <c r="S19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="27" t="str">
         <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="27" t="str">
         <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D20" s="26" t="str">
+      <c r="D20" s="27" t="str">
         <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="28" t="str">
         <f aca="false">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v/>
       </c>
-      <c r="H20" s="28" t="str">
+      <c r="H20" s="29" t="str">
         <f aca="true">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I20" s="28" t="str">
+      <c r="I20" s="29" t="str">
         <f aca="true">IF(J20 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1625,34 +1641,34 @@
         <f aca="true">IF(L20 = 0, INDIRECT("N" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="29" t="str">
+      <c r="R20" s="30" t="str">
         <f aca="true">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S20" s="30"/>
+      <c r="S20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="27" t="str">
         <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="27" t="str">
         <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="27" t="str">
         <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="28" t="str">
         <f aca="false">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
-      <c r="H21" s="28" t="str">
+      <c r="H21" s="29" t="str">
         <f aca="true">IF(J21 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I21" s="28" t="str">
+      <c r="I21" s="29" t="str">
         <f aca="true">IF(J21 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1672,34 +1688,34 @@
         <f aca="true">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="29" t="str">
+      <c r="R21" s="30" t="str">
         <f aca="true">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S21" s="30"/>
+      <c r="S21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="27" t="str">
         <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="27" t="str">
         <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D22" s="26" t="str">
+      <c r="D22" s="27" t="str">
         <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G22" s="27" t="str">
+      <c r="G22" s="28" t="str">
         <f aca="false">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
         <v/>
       </c>
-      <c r="H22" s="28" t="str">
+      <c r="H22" s="29" t="str">
         <f aca="true">IF(J22 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I22" s="28" t="str">
+      <c r="I22" s="29" t="str">
         <f aca="true">IF(J22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1719,34 +1735,34 @@
         <f aca="true">IF(L22 = 0, INDIRECT("N" &amp; ROW() - 1), L22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="29" t="str">
+      <c r="R22" s="30" t="str">
         <f aca="true">IF(Q22 = "", "", Q22 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S22" s="30"/>
+      <c r="S22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="27" t="str">
         <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="27" t="str">
         <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D23" s="26" t="str">
+      <c r="D23" s="27" t="str">
         <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G23" s="27" t="str">
+      <c r="G23" s="28" t="str">
         <f aca="false">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
-      <c r="H23" s="28" t="str">
+      <c r="H23" s="29" t="str">
         <f aca="true">IF(J23 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I23" s="28" t="str">
+      <c r="I23" s="29" t="str">
         <f aca="true">IF(J23 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1766,34 +1782,34 @@
         <f aca="true">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="29" t="str">
+      <c r="R23" s="30" t="str">
         <f aca="true">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S23" s="30"/>
+      <c r="S23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="27" t="str">
         <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C24" s="26" t="str">
+      <c r="C24" s="27" t="str">
         <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D24" s="26" t="str">
+      <c r="D24" s="27" t="str">
         <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G24" s="27" t="str">
+      <c r="G24" s="28" t="str">
         <f aca="false">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
-      <c r="H24" s="28" t="str">
+      <c r="H24" s="29" t="str">
         <f aca="true">IF(J24 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I24" s="28" t="str">
+      <c r="I24" s="29" t="str">
         <f aca="true">IF(J24 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1813,34 +1829,34 @@
         <f aca="true">IF(L24 = 0, INDIRECT("N" &amp; ROW() - 1), L24)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="29" t="str">
+      <c r="R24" s="30" t="str">
         <f aca="true">IF(Q24 = "", "", Q24 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S24" s="30"/>
+      <c r="S24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="27" t="str">
         <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C25" s="26" t="str">
+      <c r="C25" s="27" t="str">
         <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D25" s="26" t="str">
+      <c r="D25" s="27" t="str">
         <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="28" t="str">
         <f aca="false">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
-      <c r="H25" s="28" t="str">
+      <c r="H25" s="29" t="str">
         <f aca="true">IF(J25 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I25" s="28" t="str">
+      <c r="I25" s="29" t="str">
         <f aca="true">IF(J25 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1860,34 +1876,34 @@
         <f aca="true">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="29" t="str">
+      <c r="R25" s="30" t="str">
         <f aca="true">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S25" s="30"/>
+      <c r="S25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="27" t="str">
         <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C26" s="26" t="str">
+      <c r="C26" s="27" t="str">
         <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D26" s="26" t="str">
+      <c r="D26" s="27" t="str">
         <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="28" t="str">
         <f aca="false">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
-      <c r="H26" s="28" t="str">
+      <c r="H26" s="29" t="str">
         <f aca="true">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I26" s="28" t="str">
+      <c r="I26" s="29" t="str">
         <f aca="true">IF(J26 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1907,34 +1923,34 @@
         <f aca="true">IF(L26 = 0, INDIRECT("N" &amp; ROW() - 1), L26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="29" t="str">
+      <c r="R26" s="30" t="str">
         <f aca="true">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S26" s="30"/>
+      <c r="S26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26" t="str">
+      <c r="B27" s="27" t="str">
         <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C27" s="26" t="str">
+      <c r="C27" s="27" t="str">
         <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D27" s="26" t="str">
+      <c r="D27" s="27" t="str">
         <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="28" t="str">
         <f aca="false">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
-      <c r="H27" s="28" t="str">
+      <c r="H27" s="29" t="str">
         <f aca="true">IF(J27 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I27" s="28" t="str">
+      <c r="I27" s="29" t="str">
         <f aca="true">IF(J27 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1954,34 +1970,34 @@
         <f aca="true">IF(L27 = 0, INDIRECT("N" &amp; ROW() - 1), L27)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="29" t="str">
+      <c r="R27" s="30" t="str">
         <f aca="true">IF(Q27 = "", "", Q27 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S27" s="30"/>
+      <c r="S27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26" t="str">
+      <c r="B28" s="27" t="str">
         <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C28" s="26" t="str">
+      <c r="C28" s="27" t="str">
         <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D28" s="26" t="str">
+      <c r="D28" s="27" t="str">
         <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G28" s="27" t="str">
+      <c r="G28" s="28" t="str">
         <f aca="false">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
+      <c r="H28" s="29" t="str">
         <f aca="true">IF(J28 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I28" s="28" t="str">
+      <c r="I28" s="29" t="str">
         <f aca="true">IF(J28 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2001,34 +2017,34 @@
         <f aca="true">IF(L28 = 0, INDIRECT("N" &amp; ROW() - 1), L28)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="29" t="str">
+      <c r="R28" s="30" t="str">
         <f aca="true">IF(Q28 = "", "", Q28 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S28" s="30"/>
+      <c r="S28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="26" t="str">
+      <c r="B29" s="27" t="str">
         <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="27" t="str">
         <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D29" s="26" t="str">
+      <c r="D29" s="27" t="str">
         <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G29" s="27" t="str">
+      <c r="G29" s="28" t="str">
         <f aca="false">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
-      <c r="H29" s="28" t="str">
+      <c r="H29" s="29" t="str">
         <f aca="true">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I29" s="28" t="str">
+      <c r="I29" s="29" t="str">
         <f aca="true">IF(J29 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2048,34 +2064,34 @@
         <f aca="true">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="29" t="str">
+      <c r="R29" s="30" t="str">
         <f aca="true">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S29" s="30"/>
+      <c r="S29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26" t="str">
+      <c r="B30" s="27" t="str">
         <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="26" t="str">
+      <c r="C30" s="27" t="str">
         <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D30" s="26" t="str">
+      <c r="D30" s="27" t="str">
         <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="28" t="str">
         <f aca="false">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
-      <c r="H30" s="28" t="str">
+      <c r="H30" s="29" t="str">
         <f aca="true">IF(J30 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I30" s="28" t="str">
+      <c r="I30" s="29" t="str">
         <f aca="true">IF(J30 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2095,34 +2111,34 @@
         <f aca="true">IF(L30 = 0, INDIRECT("N" &amp; ROW() - 1), L30)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="29" t="str">
+      <c r="R30" s="30" t="str">
         <f aca="true">IF(Q30 = "", "", Q30 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S30" s="30"/>
+      <c r="S30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26" t="str">
+      <c r="B31" s="27" t="str">
         <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="26" t="str">
+      <c r="C31" s="27" t="str">
         <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D31" s="26" t="str">
+      <c r="D31" s="27" t="str">
         <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G31" s="27" t="str">
+      <c r="G31" s="28" t="str">
         <f aca="false">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
-      <c r="H31" s="28" t="str">
+      <c r="H31" s="29" t="str">
         <f aca="true">IF(J31 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I31" s="28" t="str">
+      <c r="I31" s="29" t="str">
         <f aca="true">IF(J31 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2142,34 +2158,34 @@
         <f aca="true">IF(L31 = 0, INDIRECT("N" &amp; ROW() - 1), L31)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="29" t="str">
+      <c r="R31" s="30" t="str">
         <f aca="true">IF(Q31 = "", "", Q31 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S31" s="30"/>
+      <c r="S31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26" t="str">
+      <c r="B32" s="27" t="str">
         <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="26" t="str">
+      <c r="C32" s="27" t="str">
         <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D32" s="26" t="str">
+      <c r="D32" s="27" t="str">
         <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G32" s="27" t="str">
+      <c r="G32" s="28" t="str">
         <f aca="false">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
-      <c r="H32" s="28" t="str">
+      <c r="H32" s="29" t="str">
         <f aca="true">IF(J32 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I32" s="28" t="str">
+      <c r="I32" s="29" t="str">
         <f aca="true">IF(J32 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2189,34 +2205,34 @@
         <f aca="true">IF(L32 = 0, INDIRECT("N" &amp; ROW() - 1), L32)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="29" t="str">
+      <c r="R32" s="30" t="str">
         <f aca="true">IF(Q32 = "", "", Q32 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S32" s="30"/>
+      <c r="S32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="26" t="str">
+      <c r="B33" s="27" t="str">
         <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="27" t="str">
         <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D33" s="26" t="str">
+      <c r="D33" s="27" t="str">
         <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G33" s="27" t="str">
+      <c r="G33" s="28" t="str">
         <f aca="false">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
-      <c r="H33" s="28" t="str">
+      <c r="H33" s="29" t="str">
         <f aca="true">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I33" s="28" t="str">
+      <c r="I33" s="29" t="str">
         <f aca="true">IF(J33 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2236,34 +2252,34 @@
         <f aca="true">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="29" t="str">
+      <c r="R33" s="30" t="str">
         <f aca="true">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S33" s="30"/>
+      <c r="S33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="26" t="str">
+      <c r="B34" s="27" t="str">
         <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="27" t="str">
         <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D34" s="26" t="str">
+      <c r="D34" s="27" t="str">
         <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G34" s="27" t="str">
+      <c r="G34" s="28" t="str">
         <f aca="false">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
-      <c r="H34" s="28" t="str">
+      <c r="H34" s="29" t="str">
         <f aca="true">IF(J34 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I34" s="28" t="str">
+      <c r="I34" s="29" t="str">
         <f aca="true">IF(J34 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2283,34 +2299,34 @@
         <f aca="true">IF(L34 = 0, INDIRECT("N" &amp; ROW() - 1), L34)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="29" t="str">
+      <c r="R34" s="30" t="str">
         <f aca="true">IF(Q34 = "", "", Q34 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="26" t="str">
+      <c r="B35" s="27" t="str">
         <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="26" t="str">
+      <c r="C35" s="27" t="str">
         <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D35" s="26" t="str">
+      <c r="D35" s="27" t="str">
         <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G35" s="27" t="str">
+      <c r="G35" s="28" t="str">
         <f aca="false">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
-      <c r="H35" s="28" t="str">
+      <c r="H35" s="29" t="str">
         <f aca="true">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I35" s="28" t="str">
+      <c r="I35" s="29" t="str">
         <f aca="true">IF(J35 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2330,34 +2346,34 @@
         <f aca="true">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="29" t="str">
+      <c r="R35" s="30" t="str">
         <f aca="true">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S35" s="30"/>
+      <c r="S35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="26" t="str">
+      <c r="B36" s="27" t="str">
         <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="26" t="str">
+      <c r="C36" s="27" t="str">
         <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D36" s="26" t="str">
+      <c r="D36" s="27" t="str">
         <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G36" s="27" t="str">
+      <c r="G36" s="28" t="str">
         <f aca="false">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
-      <c r="H36" s="28" t="str">
+      <c r="H36" s="29" t="str">
         <f aca="true">IF(J36 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I36" s="28" t="str">
+      <c r="I36" s="29" t="str">
         <f aca="true">IF(J36 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2377,34 +2393,34 @@
         <f aca="true">IF(L36 = 0, INDIRECT("N" &amp; ROW() - 1), L36)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="29" t="str">
+      <c r="R36" s="30" t="str">
         <f aca="true">IF(Q36 = "", "", Q36 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S36" s="30"/>
+      <c r="S36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="26" t="str">
+      <c r="B37" s="27" t="str">
         <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="26" t="str">
+      <c r="C37" s="27" t="str">
         <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D37" s="26" t="str">
+      <c r="D37" s="27" t="str">
         <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G37" s="27" t="str">
+      <c r="G37" s="28" t="str">
         <f aca="false">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
         <v/>
       </c>
-      <c r="H37" s="28" t="str">
+      <c r="H37" s="29" t="str">
         <f aca="true">IF(J37 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I37" s="28" t="str">
+      <c r="I37" s="29" t="str">
         <f aca="true">IF(J37 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2424,34 +2440,34 @@
         <f aca="true">IF(L37 = 0, INDIRECT("N" &amp; ROW() - 1), L37)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="29" t="str">
+      <c r="R37" s="30" t="str">
         <f aca="true">IF(Q37 = "", "", Q37 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S37" s="30"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="26" t="str">
+      <c r="B38" s="27" t="str">
         <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="26" t="str">
+      <c r="C38" s="27" t="str">
         <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D38" s="26" t="str">
+      <c r="D38" s="27" t="str">
         <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G38" s="27" t="str">
+      <c r="G38" s="28" t="str">
         <f aca="false">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
-      <c r="H38" s="28" t="str">
+      <c r="H38" s="29" t="str">
         <f aca="true">IF(J38 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I38" s="28" t="str">
+      <c r="I38" s="29" t="str">
         <f aca="true">IF(J38 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2471,34 +2487,34 @@
         <f aca="true">IF(L38 = 0, INDIRECT("N" &amp; ROW() - 1), L38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="29" t="str">
+      <c r="R38" s="30" t="str">
         <f aca="true">IF(Q38 = "", "", Q38 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S38" s="30"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="26" t="str">
+      <c r="B39" s="27" t="str">
         <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="26" t="str">
+      <c r="C39" s="27" t="str">
         <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D39" s="26" t="str">
+      <c r="D39" s="27" t="str">
         <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G39" s="27" t="str">
+      <c r="G39" s="28" t="str">
         <f aca="false">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
         <v/>
       </c>
-      <c r="H39" s="28" t="str">
+      <c r="H39" s="29" t="str">
         <f aca="true">IF(J39 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I39" s="28" t="str">
+      <c r="I39" s="29" t="str">
         <f aca="true">IF(J39 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2518,34 +2534,34 @@
         <f aca="true">IF(L39 = 0, INDIRECT("N" &amp; ROW() - 1), L39)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="29" t="str">
+      <c r="R39" s="30" t="str">
         <f aca="true">IF(Q39 = "", "", Q39 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S39" s="30"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="26" t="str">
+      <c r="B40" s="27" t="str">
         <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="26" t="str">
+      <c r="C40" s="27" t="str">
         <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D40" s="26" t="str">
+      <c r="D40" s="27" t="str">
         <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G40" s="27" t="str">
+      <c r="G40" s="28" t="str">
         <f aca="false">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
-      <c r="H40" s="28" t="str">
+      <c r="H40" s="29" t="str">
         <f aca="true">IF(J40 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I40" s="28" t="str">
+      <c r="I40" s="29" t="str">
         <f aca="true">IF(J40 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2565,34 +2581,34 @@
         <f aca="true">IF(L40 = 0, INDIRECT("N" &amp; ROW() - 1), L40)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="29" t="str">
+      <c r="R40" s="30" t="str">
         <f aca="true">IF(Q40 = "", "", Q40 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S40" s="30"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="26" t="str">
+      <c r="B41" s="27" t="str">
         <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="26" t="str">
+      <c r="C41" s="27" t="str">
         <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D41" s="26" t="str">
+      <c r="D41" s="27" t="str">
         <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G41" s="27" t="str">
+      <c r="G41" s="28" t="str">
         <f aca="false">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
-      <c r="H41" s="28" t="str">
+      <c r="H41" s="29" t="str">
         <f aca="true">IF(J41 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I41" s="28" t="str">
+      <c r="I41" s="29" t="str">
         <f aca="true">IF(J41 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2612,34 +2628,34 @@
         <f aca="true">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="29" t="str">
+      <c r="R41" s="30" t="str">
         <f aca="true">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S41" s="30"/>
+      <c r="S41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="26" t="str">
+      <c r="B42" s="27" t="str">
         <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="26" t="str">
+      <c r="C42" s="27" t="str">
         <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D42" s="26" t="str">
+      <c r="D42" s="27" t="str">
         <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G42" s="27" t="str">
+      <c r="G42" s="28" t="str">
         <f aca="false">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
-      <c r="H42" s="28" t="str">
+      <c r="H42" s="29" t="str">
         <f aca="true">IF(J42 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I42" s="28" t="str">
+      <c r="I42" s="29" t="str">
         <f aca="true">IF(J42 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2659,34 +2675,34 @@
         <f aca="true">IF(L42 = 0, INDIRECT("N" &amp; ROW() - 1), L42)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="29" t="str">
+      <c r="R42" s="30" t="str">
         <f aca="true">IF(Q42 = "", "", Q42 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S42" s="30"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="26" t="str">
+      <c r="B43" s="27" t="str">
         <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="26" t="str">
+      <c r="C43" s="27" t="str">
         <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D43" s="26" t="str">
+      <c r="D43" s="27" t="str">
         <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G43" s="27" t="str">
+      <c r="G43" s="28" t="str">
         <f aca="false">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
         <v/>
       </c>
-      <c r="H43" s="28" t="str">
+      <c r="H43" s="29" t="str">
         <f aca="true">IF(J43 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I43" s="28" t="str">
+      <c r="I43" s="29" t="str">
         <f aca="true">IF(J43 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2706,34 +2722,34 @@
         <f aca="true">IF(L43 = 0, INDIRECT("N" &amp; ROW() - 1), L43)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="29" t="str">
+      <c r="R43" s="30" t="str">
         <f aca="true">IF(Q43 = "", "", Q43 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S43" s="30"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="26" t="str">
+      <c r="B44" s="27" t="str">
         <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="26" t="str">
+      <c r="C44" s="27" t="str">
         <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D44" s="26" t="str">
+      <c r="D44" s="27" t="str">
         <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G44" s="27" t="str">
+      <c r="G44" s="28" t="str">
         <f aca="false">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
-      <c r="H44" s="28" t="str">
+      <c r="H44" s="29" t="str">
         <f aca="true">IF(J44 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I44" s="28" t="str">
+      <c r="I44" s="29" t="str">
         <f aca="true">IF(J44 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2753,34 +2769,34 @@
         <f aca="true">IF(L44 = 0, INDIRECT("N" &amp; ROW() - 1), L44)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="29" t="str">
+      <c r="R44" s="30" t="str">
         <f aca="true">IF(Q44 = "", "", Q44 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S44" s="30"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="26" t="str">
+      <c r="B45" s="27" t="str">
         <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C45" s="26" t="str">
+      <c r="C45" s="27" t="str">
         <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D45" s="26" t="str">
+      <c r="D45" s="27" t="str">
         <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G45" s="27" t="str">
+      <c r="G45" s="28" t="str">
         <f aca="false">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
-      <c r="H45" s="28" t="str">
+      <c r="H45" s="29" t="str">
         <f aca="true">IF(J45 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I45" s="28" t="str">
+      <c r="I45" s="29" t="str">
         <f aca="true">IF(J45 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2800,34 +2816,34 @@
         <f aca="true">IF(L45 = 0, INDIRECT("N" &amp; ROW() - 1), L45)</f>
         <v>0</v>
       </c>
-      <c r="R45" s="29" t="str">
+      <c r="R45" s="30" t="str">
         <f aca="true">IF(Q45 = "", "", Q45 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S45" s="30"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="26" t="str">
+      <c r="B46" s="27" t="str">
         <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C46" s="26" t="str">
+      <c r="C46" s="27" t="str">
         <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D46" s="26" t="str">
+      <c r="D46" s="27" t="str">
         <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G46" s="27" t="str">
+      <c r="G46" s="28" t="str">
         <f aca="false">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
         <v/>
       </c>
-      <c r="H46" s="28" t="str">
+      <c r="H46" s="29" t="str">
         <f aca="true">IF(J46 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I46" s="28" t="str">
+      <c r="I46" s="29" t="str">
         <f aca="true">IF(J46 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2847,34 +2863,34 @@
         <f aca="true">IF(L46 = 0, INDIRECT("N" &amp; ROW() - 1), L46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="29" t="str">
+      <c r="R46" s="30" t="str">
         <f aca="true">IF(Q46 = "", "", Q46 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S46" s="30"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="26" t="str">
+      <c r="B47" s="27" t="str">
         <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C47" s="26" t="str">
+      <c r="C47" s="27" t="str">
         <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D47" s="26" t="str">
+      <c r="D47" s="27" t="str">
         <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G47" s="27" t="str">
+      <c r="G47" s="28" t="str">
         <f aca="false">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
-      <c r="H47" s="28" t="str">
+      <c r="H47" s="29" t="str">
         <f aca="true">IF(J47 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I47" s="28" t="str">
+      <c r="I47" s="29" t="str">
         <f aca="true">IF(J47 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2894,34 +2910,34 @@
         <f aca="true">IF(L47 = 0, INDIRECT("N" &amp; ROW() - 1), L47)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="29" t="str">
+      <c r="R47" s="30" t="str">
         <f aca="true">IF(Q47 = "", "", Q47 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S47" s="30"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="26" t="str">
+      <c r="B48" s="27" t="str">
         <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="C48" s="27" t="str">
         <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D48" s="26" t="str">
+      <c r="D48" s="27" t="str">
         <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G48" s="27" t="str">
+      <c r="G48" s="28" t="str">
         <f aca="false">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
         <v/>
       </c>
-      <c r="H48" s="28" t="str">
+      <c r="H48" s="29" t="str">
         <f aca="true">IF(J48 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I48" s="28" t="str">
+      <c r="I48" s="29" t="str">
         <f aca="true">IF(J48 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2941,34 +2957,34 @@
         <f aca="true">IF(L48 = 0, INDIRECT("N" &amp; ROW() - 1), L48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="29" t="str">
+      <c r="R48" s="30" t="str">
         <f aca="true">IF(Q48 = "", "", Q48 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S48" s="30"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="26" t="str">
+      <c r="B49" s="27" t="str">
         <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C49" s="26" t="str">
+      <c r="C49" s="27" t="str">
         <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D49" s="26" t="str">
+      <c r="D49" s="27" t="str">
         <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G49" s="27" t="str">
+      <c r="G49" s="28" t="str">
         <f aca="false">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
-      <c r="H49" s="28" t="str">
+      <c r="H49" s="29" t="str">
         <f aca="true">IF(J49 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I49" s="28" t="str">
+      <c r="I49" s="29" t="str">
         <f aca="true">IF(J49 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2988,34 +3004,34 @@
         <f aca="true">IF(L49 = 0, INDIRECT("N" &amp; ROW() - 1), L49)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="29" t="str">
+      <c r="R49" s="30" t="str">
         <f aca="true">IF(Q49 = "", "", Q49 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S49" s="30"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="26" t="str">
+      <c r="B50" s="27" t="str">
         <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C50" s="26" t="str">
+      <c r="C50" s="27" t="str">
         <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D50" s="26" t="str">
+      <c r="D50" s="27" t="str">
         <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G50" s="27" t="str">
+      <c r="G50" s="28" t="str">
         <f aca="false">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
-      <c r="H50" s="28" t="str">
+      <c r="H50" s="29" t="str">
         <f aca="true">IF(J50 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I50" s="28" t="str">
+      <c r="I50" s="29" t="str">
         <f aca="true">IF(J50 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3035,34 +3051,34 @@
         <f aca="true">IF(L50 = 0, INDIRECT("N" &amp; ROW() - 1), L50)</f>
         <v>0</v>
       </c>
-      <c r="R50" s="29" t="str">
+      <c r="R50" s="30" t="str">
         <f aca="true">IF(Q50 = "", "", Q50 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S50" s="30"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="26" t="str">
+      <c r="B51" s="27" t="str">
         <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C51" s="26" t="str">
+      <c r="C51" s="27" t="str">
         <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D51" s="26" t="str">
+      <c r="D51" s="27" t="str">
         <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G51" s="27" t="str">
+      <c r="G51" s="28" t="str">
         <f aca="false">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
         <v/>
       </c>
-      <c r="H51" s="28" t="str">
+      <c r="H51" s="29" t="str">
         <f aca="true">IF(J51 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I51" s="28" t="str">
+      <c r="I51" s="29" t="str">
         <f aca="true">IF(J51 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3082,34 +3098,34 @@
         <f aca="true">IF(L51 = 0, INDIRECT("N" &amp; ROW() - 1), L51)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="29" t="str">
+      <c r="R51" s="30" t="str">
         <f aca="true">IF(Q51 = "", "", Q51 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S51" s="30"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="26" t="str">
+      <c r="B52" s="27" t="str">
         <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C52" s="26" t="str">
+      <c r="C52" s="27" t="str">
         <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D52" s="26" t="str">
+      <c r="D52" s="27" t="str">
         <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G52" s="27" t="str">
+      <c r="G52" s="28" t="str">
         <f aca="false">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
-      <c r="H52" s="28" t="str">
+      <c r="H52" s="29" t="str">
         <f aca="true">IF(J52 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I52" s="28" t="str">
+      <c r="I52" s="29" t="str">
         <f aca="true">IF(J52 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3129,34 +3145,34 @@
         <f aca="true">IF(L52 = 0, INDIRECT("N" &amp; ROW() - 1), L52)</f>
         <v>0</v>
       </c>
-      <c r="R52" s="29" t="str">
+      <c r="R52" s="30" t="str">
         <f aca="true">IF(Q52 = "", "", Q52 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S52" s="30"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="26" t="str">
+      <c r="B53" s="27" t="str">
         <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C53" s="26" t="str">
+      <c r="C53" s="27" t="str">
         <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D53" s="26" t="str">
+      <c r="D53" s="27" t="str">
         <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G53" s="27" t="str">
+      <c r="G53" s="28" t="str">
         <f aca="false">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
-      <c r="H53" s="28" t="str">
+      <c r="H53" s="29" t="str">
         <f aca="true">IF(J53 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I53" s="28" t="str">
+      <c r="I53" s="29" t="str">
         <f aca="true">IF(J53 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3176,34 +3192,34 @@
         <f aca="true">IF(L53 = 0, INDIRECT("N" &amp; ROW() - 1), L53)</f>
         <v>0</v>
       </c>
-      <c r="R53" s="29" t="str">
+      <c r="R53" s="30" t="str">
         <f aca="true">IF(Q53 = "", "", Q53 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S53" s="30"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="26" t="str">
+      <c r="B54" s="27" t="str">
         <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C54" s="26" t="str">
+      <c r="C54" s="27" t="str">
         <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D54" s="26" t="str">
+      <c r="D54" s="27" t="str">
         <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G54" s="27" t="str">
+      <c r="G54" s="28" t="str">
         <f aca="false">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
-      <c r="H54" s="28" t="str">
+      <c r="H54" s="29" t="str">
         <f aca="true">IF(J54 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I54" s="28" t="str">
+      <c r="I54" s="29" t="str">
         <f aca="true">IF(J54 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3223,34 +3239,34 @@
         <f aca="true">IF(L54 = 0, INDIRECT("N" &amp; ROW() - 1), L54)</f>
         <v>0</v>
       </c>
-      <c r="R54" s="29" t="str">
+      <c r="R54" s="30" t="str">
         <f aca="true">IF(Q54 = "", "", Q54 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S54" s="30"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="26" t="str">
+      <c r="B55" s="27" t="str">
         <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C55" s="26" t="str">
+      <c r="C55" s="27" t="str">
         <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D55" s="26" t="str">
+      <c r="D55" s="27" t="str">
         <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G55" s="27" t="str">
+      <c r="G55" s="28" t="str">
         <f aca="false">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
-      <c r="H55" s="28" t="str">
+      <c r="H55" s="29" t="str">
         <f aca="true">IF(J55 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I55" s="28" t="str">
+      <c r="I55" s="29" t="str">
         <f aca="true">IF(J55 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3270,34 +3286,34 @@
         <f aca="true">IF(L55 = 0, INDIRECT("N" &amp; ROW() - 1), L55)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="29" t="str">
+      <c r="R55" s="30" t="str">
         <f aca="true">IF(Q55 = "", "", Q55 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S55" s="30"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="26" t="str">
+      <c r="B56" s="27" t="str">
         <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C56" s="26" t="str">
+      <c r="C56" s="27" t="str">
         <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D56" s="26" t="str">
+      <c r="D56" s="27" t="str">
         <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G56" s="27" t="str">
+      <c r="G56" s="28" t="str">
         <f aca="false">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
-      <c r="H56" s="28" t="str">
+      <c r="H56" s="29" t="str">
         <f aca="true">IF(J56 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I56" s="28" t="str">
+      <c r="I56" s="29" t="str">
         <f aca="true">IF(J56 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3317,34 +3333,34 @@
         <f aca="true">IF(L56 = 0, INDIRECT("N" &amp; ROW() - 1), L56)</f>
         <v>0</v>
       </c>
-      <c r="R56" s="29" t="str">
+      <c r="R56" s="30" t="str">
         <f aca="true">IF(Q56 = "", "", Q56 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S56" s="30"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="26" t="str">
+      <c r="B57" s="27" t="str">
         <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C57" s="26" t="str">
+      <c r="C57" s="27" t="str">
         <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D57" s="26" t="str">
+      <c r="D57" s="27" t="str">
         <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G57" s="27" t="str">
+      <c r="G57" s="28" t="str">
         <f aca="false">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
-      <c r="H57" s="28" t="str">
+      <c r="H57" s="29" t="str">
         <f aca="true">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I57" s="28" t="str">
+      <c r="I57" s="29" t="str">
         <f aca="true">IF(J57 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3364,34 +3380,34 @@
         <f aca="true">IF(L57 = 0, INDIRECT("N" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
-      <c r="R57" s="29" t="str">
+      <c r="R57" s="30" t="str">
         <f aca="true">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S57" s="30"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="26" t="str">
+      <c r="B58" s="27" t="str">
         <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C58" s="26" t="str">
+      <c r="C58" s="27" t="str">
         <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D58" s="26" t="str">
+      <c r="D58" s="27" t="str">
         <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G58" s="27" t="str">
+      <c r="G58" s="28" t="str">
         <f aca="false">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
-      <c r="H58" s="28" t="str">
+      <c r="H58" s="29" t="str">
         <f aca="true">IF(J58 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I58" s="28" t="str">
+      <c r="I58" s="29" t="str">
         <f aca="true">IF(J58 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3411,34 +3427,34 @@
         <f aca="true">IF(L58 = 0, INDIRECT("N" &amp; ROW() - 1), L58)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="29" t="str">
+      <c r="R58" s="30" t="str">
         <f aca="true">IF(Q58 = "", "", Q58 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S58" s="30"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="26" t="str">
+      <c r="B59" s="27" t="str">
         <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C59" s="26" t="str">
+      <c r="C59" s="27" t="str">
         <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D59" s="26" t="str">
+      <c r="D59" s="27" t="str">
         <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G59" s="27" t="str">
+      <c r="G59" s="28" t="str">
         <f aca="false">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
-      <c r="H59" s="28" t="str">
+      <c r="H59" s="29" t="str">
         <f aca="true">IF(J59 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I59" s="28" t="str">
+      <c r="I59" s="29" t="str">
         <f aca="true">IF(J59 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3458,34 +3474,34 @@
         <f aca="true">IF(L59 = 0, INDIRECT("N" &amp; ROW() - 1), L59)</f>
         <v>0</v>
       </c>
-      <c r="R59" s="29" t="str">
+      <c r="R59" s="30" t="str">
         <f aca="true">IF(Q59 = "", "", Q59 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S59" s="30"/>
+      <c r="S59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="26" t="str">
+      <c r="B60" s="27" t="str">
         <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C60" s="26" t="str">
+      <c r="C60" s="27" t="str">
         <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D60" s="26" t="str">
+      <c r="D60" s="27" t="str">
         <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G60" s="27" t="str">
+      <c r="G60" s="28" t="str">
         <f aca="false">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
-      <c r="H60" s="28" t="str">
+      <c r="H60" s="29" t="str">
         <f aca="true">IF(J60 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I60" s="28" t="str">
+      <c r="I60" s="29" t="str">
         <f aca="true">IF(J60 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3505,34 +3521,34 @@
         <f aca="true">IF(L60 = 0, INDIRECT("N" &amp; ROW() - 1), L60)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="29" t="str">
+      <c r="R60" s="30" t="str">
         <f aca="true">IF(Q60 = "", "", Q60 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S60" s="30"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="26" t="str">
+      <c r="B61" s="27" t="str">
         <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C61" s="26" t="str">
+      <c r="C61" s="27" t="str">
         <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D61" s="26" t="str">
+      <c r="D61" s="27" t="str">
         <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G61" s="27" t="str">
+      <c r="G61" s="28" t="str">
         <f aca="false">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
-      <c r="H61" s="28" t="str">
+      <c r="H61" s="29" t="str">
         <f aca="true">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I61" s="28" t="str">
+      <c r="I61" s="29" t="str">
         <f aca="true">IF(J61 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3552,34 +3568,34 @@
         <f aca="true">IF(L61 = 0, INDIRECT("N" &amp; ROW() - 1), L61)</f>
         <v>0</v>
       </c>
-      <c r="R61" s="29" t="str">
+      <c r="R61" s="30" t="str">
         <f aca="true">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S61" s="30"/>
+      <c r="S61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="26" t="str">
+      <c r="B62" s="27" t="str">
         <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C62" s="26" t="str">
+      <c r="C62" s="27" t="str">
         <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D62" s="26" t="str">
+      <c r="D62" s="27" t="str">
         <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G62" s="27" t="str">
+      <c r="G62" s="28" t="str">
         <f aca="false">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
-      <c r="H62" s="28" t="str">
+      <c r="H62" s="29" t="str">
         <f aca="true">IF(J62 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I62" s="28" t="str">
+      <c r="I62" s="29" t="str">
         <f aca="true">IF(J62 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3599,34 +3615,34 @@
         <f aca="true">IF(L62 = 0, INDIRECT("N" &amp; ROW() - 1), L62)</f>
         <v>0</v>
       </c>
-      <c r="R62" s="29" t="str">
+      <c r="R62" s="30" t="str">
         <f aca="true">IF(Q62 = "", "", Q62 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S62" s="30"/>
+      <c r="S62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="26" t="str">
+      <c r="B63" s="27" t="str">
         <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C63" s="26" t="str">
+      <c r="C63" s="27" t="str">
         <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D63" s="26" t="str">
+      <c r="D63" s="27" t="str">
         <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G63" s="27" t="str">
+      <c r="G63" s="28" t="str">
         <f aca="false">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
-      <c r="H63" s="28" t="str">
+      <c r="H63" s="29" t="str">
         <f aca="true">IF(J63 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I63" s="28" t="str">
+      <c r="I63" s="29" t="str">
         <f aca="true">IF(J63 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3646,34 +3662,34 @@
         <f aca="true">IF(L63 = 0, INDIRECT("N" &amp; ROW() - 1), L63)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="29" t="str">
+      <c r="R63" s="30" t="str">
         <f aca="true">IF(Q63 = "", "", Q63 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S63" s="30"/>
+      <c r="S63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="26" t="str">
+      <c r="B64" s="27" t="str">
         <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C64" s="26" t="str">
+      <c r="C64" s="27" t="str">
         <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D64" s="26" t="str">
+      <c r="D64" s="27" t="str">
         <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G64" s="27" t="str">
+      <c r="G64" s="28" t="str">
         <f aca="false">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
-      <c r="H64" s="28" t="str">
+      <c r="H64" s="29" t="str">
         <f aca="true">IF(J64 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I64" s="28" t="str">
+      <c r="I64" s="29" t="str">
         <f aca="true">IF(J64 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3693,34 +3709,34 @@
         <f aca="true">IF(L64 = 0, INDIRECT("N" &amp; ROW() - 1), L64)</f>
         <v>0</v>
       </c>
-      <c r="R64" s="29" t="str">
+      <c r="R64" s="30" t="str">
         <f aca="true">IF(Q64 = "", "", Q64 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S64" s="30"/>
+      <c r="S64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="26" t="str">
+      <c r="B65" s="27" t="str">
         <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C65" s="26" t="str">
+      <c r="C65" s="27" t="str">
         <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D65" s="26" t="str">
+      <c r="D65" s="27" t="str">
         <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G65" s="27" t="str">
+      <c r="G65" s="28" t="str">
         <f aca="false">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
-      <c r="H65" s="28" t="str">
+      <c r="H65" s="29" t="str">
         <f aca="true">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I65" s="28" t="str">
+      <c r="I65" s="29" t="str">
         <f aca="true">IF(J65 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3740,34 +3756,34 @@
         <f aca="true">IF(L65 = 0, INDIRECT("N" &amp; ROW() - 1), L65)</f>
         <v>0</v>
       </c>
-      <c r="R65" s="29" t="str">
+      <c r="R65" s="30" t="str">
         <f aca="true">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S65" s="30"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="26" t="str">
+      <c r="B66" s="27" t="str">
         <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C66" s="26" t="str">
+      <c r="C66" s="27" t="str">
         <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D66" s="26" t="str">
+      <c r="D66" s="27" t="str">
         <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G66" s="27" t="str">
+      <c r="G66" s="28" t="str">
         <f aca="false">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
-      <c r="H66" s="28" t="str">
+      <c r="H66" s="29" t="str">
         <f aca="true">IF(J66 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I66" s="28" t="str">
+      <c r="I66" s="29" t="str">
         <f aca="true">IF(J66 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3787,34 +3803,34 @@
         <f aca="true">IF(L66 = 0, INDIRECT("N" &amp; ROW() - 1), L66)</f>
         <v>0</v>
       </c>
-      <c r="R66" s="29" t="str">
+      <c r="R66" s="30" t="str">
         <f aca="true">IF(Q66 = "", "", Q66 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S66" s="30"/>
+      <c r="S66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="26" t="str">
+      <c r="B67" s="27" t="str">
         <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C67" s="26" t="str">
+      <c r="C67" s="27" t="str">
         <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D67" s="26" t="str">
+      <c r="D67" s="27" t="str">
         <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G67" s="27" t="str">
+      <c r="G67" s="28" t="str">
         <f aca="false">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
-      <c r="H67" s="28" t="str">
+      <c r="H67" s="29" t="str">
         <f aca="true">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I67" s="28" t="str">
+      <c r="I67" s="29" t="str">
         <f aca="true">IF(J67 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3834,34 +3850,34 @@
         <f aca="true">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
         <v>0</v>
       </c>
-      <c r="R67" s="29" t="str">
+      <c r="R67" s="30" t="str">
         <f aca="true">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S67" s="30"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="26" t="str">
+      <c r="B68" s="27" t="str">
         <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C68" s="26" t="str">
+      <c r="C68" s="27" t="str">
         <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D68" s="26" t="str">
+      <c r="D68" s="27" t="str">
         <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G68" s="27" t="str">
+      <c r="G68" s="28" t="str">
         <f aca="false">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
-      <c r="H68" s="28" t="str">
+      <c r="H68" s="29" t="str">
         <f aca="true">IF(J68 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I68" s="28" t="str">
+      <c r="I68" s="29" t="str">
         <f aca="true">IF(J68 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3881,34 +3897,34 @@
         <f aca="true">IF(L68 = 0, INDIRECT("N" &amp; ROW() - 1), L68)</f>
         <v>0</v>
       </c>
-      <c r="R68" s="29" t="str">
+      <c r="R68" s="30" t="str">
         <f aca="true">IF(Q68 = "", "", Q68 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S68" s="30"/>
+      <c r="S68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="26" t="str">
+      <c r="B69" s="27" t="str">
         <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C69" s="26" t="str">
+      <c r="C69" s="27" t="str">
         <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D69" s="26" t="str">
+      <c r="D69" s="27" t="str">
         <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G69" s="27" t="str">
+      <c r="G69" s="28" t="str">
         <f aca="false">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
-      <c r="H69" s="28" t="str">
+      <c r="H69" s="29" t="str">
         <f aca="true">IF(J69 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I69" s="28" t="str">
+      <c r="I69" s="29" t="str">
         <f aca="true">IF(J69 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3928,34 +3944,34 @@
         <f aca="true">IF(L69 = 0, INDIRECT("N" &amp; ROW() - 1), L69)</f>
         <v>0</v>
       </c>
-      <c r="R69" s="29" t="str">
+      <c r="R69" s="30" t="str">
         <f aca="true">IF(Q69 = "", "", Q69 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S69" s="30"/>
+      <c r="S69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="26" t="str">
+      <c r="B70" s="27" t="str">
         <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C70" s="26" t="str">
+      <c r="C70" s="27" t="str">
         <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D70" s="26" t="str">
+      <c r="D70" s="27" t="str">
         <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G70" s="27" t="str">
+      <c r="G70" s="28" t="str">
         <f aca="false">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
-      <c r="H70" s="28" t="str">
+      <c r="H70" s="29" t="str">
         <f aca="true">IF(J70 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I70" s="28" t="str">
+      <c r="I70" s="29" t="str">
         <f aca="true">IF(J70 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3975,34 +3991,34 @@
         <f aca="true">IF(L70 = 0, INDIRECT("N" &amp; ROW() - 1), L70)</f>
         <v>0</v>
       </c>
-      <c r="R70" s="29" t="str">
+      <c r="R70" s="30" t="str">
         <f aca="true">IF(Q70 = "", "", Q70 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S70" s="30"/>
+      <c r="S70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="26" t="str">
+      <c r="B71" s="27" t="str">
         <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C71" s="26" t="str">
+      <c r="C71" s="27" t="str">
         <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D71" s="26" t="str">
+      <c r="D71" s="27" t="str">
         <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G71" s="27" t="str">
+      <c r="G71" s="28" t="str">
         <f aca="false">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
-      <c r="H71" s="28" t="str">
+      <c r="H71" s="29" t="str">
         <f aca="true">IF(J71 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I71" s="28" t="str">
+      <c r="I71" s="29" t="str">
         <f aca="true">IF(J71 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4022,34 +4038,34 @@
         <f aca="true">IF(L71 = 0, INDIRECT("N" &amp; ROW() - 1), L71)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="29" t="str">
+      <c r="R71" s="30" t="str">
         <f aca="true">IF(Q71 = "", "", Q71 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S71" s="30"/>
+      <c r="S71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="26" t="str">
+      <c r="B72" s="27" t="str">
         <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C72" s="26" t="str">
+      <c r="C72" s="27" t="str">
         <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D72" s="26" t="str">
+      <c r="D72" s="27" t="str">
         <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G72" s="27" t="str">
+      <c r="G72" s="28" t="str">
         <f aca="false">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
-      <c r="H72" s="28" t="str">
+      <c r="H72" s="29" t="str">
         <f aca="true">IF(J72 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I72" s="28" t="str">
+      <c r="I72" s="29" t="str">
         <f aca="true">IF(J72 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4069,34 +4085,34 @@
         <f aca="true">IF(L72 = 0, INDIRECT("N" &amp; ROW() - 1), L72)</f>
         <v>0</v>
       </c>
-      <c r="R72" s="29" t="str">
+      <c r="R72" s="30" t="str">
         <f aca="true">IF(Q72 = "", "", Q72 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S72" s="30"/>
+      <c r="S72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="26" t="str">
+      <c r="B73" s="27" t="str">
         <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C73" s="26" t="str">
+      <c r="C73" s="27" t="str">
         <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D73" s="26" t="str">
+      <c r="D73" s="27" t="str">
         <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G73" s="27" t="str">
+      <c r="G73" s="28" t="str">
         <f aca="false">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
-      <c r="H73" s="28" t="str">
+      <c r="H73" s="29" t="str">
         <f aca="true">IF(J73 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I73" s="28" t="str">
+      <c r="I73" s="29" t="str">
         <f aca="true">IF(J73 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4116,34 +4132,34 @@
         <f aca="true">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
-      <c r="R73" s="29" t="str">
+      <c r="R73" s="30" t="str">
         <f aca="true">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S73" s="30"/>
+      <c r="S73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="26" t="str">
+      <c r="B74" s="27" t="str">
         <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C74" s="26" t="str">
+      <c r="C74" s="27" t="str">
         <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D74" s="26" t="str">
+      <c r="D74" s="27" t="str">
         <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G74" s="27" t="str">
+      <c r="G74" s="28" t="str">
         <f aca="false">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
-      <c r="H74" s="28" t="str">
+      <c r="H74" s="29" t="str">
         <f aca="true">IF(J74 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I74" s="28" t="str">
+      <c r="I74" s="29" t="str">
         <f aca="true">IF(J74 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4163,34 +4179,34 @@
         <f aca="true">IF(L74 = 0, INDIRECT("N" &amp; ROW() - 1), L74)</f>
         <v>0</v>
       </c>
-      <c r="R74" s="29" t="str">
+      <c r="R74" s="30" t="str">
         <f aca="true">IF(Q74 = "", "", Q74 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S74" s="30"/>
+      <c r="S74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="26" t="str">
+      <c r="B75" s="27" t="str">
         <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C75" s="26" t="str">
+      <c r="C75" s="27" t="str">
         <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D75" s="26" t="str">
+      <c r="D75" s="27" t="str">
         <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G75" s="27" t="str">
+      <c r="G75" s="28" t="str">
         <f aca="false">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
-      <c r="H75" s="28" t="str">
+      <c r="H75" s="29" t="str">
         <f aca="true">IF(J75 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I75" s="28" t="str">
+      <c r="I75" s="29" t="str">
         <f aca="true">IF(J75 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4210,34 +4226,34 @@
         <f aca="true">IF(L75 = 0, INDIRECT("N" &amp; ROW() - 1), L75)</f>
         <v>0</v>
       </c>
-      <c r="R75" s="29" t="str">
+      <c r="R75" s="30" t="str">
         <f aca="true">IF(Q75 = "", "", Q75 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S75" s="30"/>
+      <c r="S75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="26" t="str">
+      <c r="B76" s="27" t="str">
         <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C76" s="26" t="str">
+      <c r="C76" s="27" t="str">
         <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D76" s="26" t="str">
+      <c r="D76" s="27" t="str">
         <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G76" s="27" t="str">
+      <c r="G76" s="28" t="str">
         <f aca="false">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
-      <c r="H76" s="28" t="str">
+      <c r="H76" s="29" t="str">
         <f aca="true">IF(J76 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I76" s="28" t="str">
+      <c r="I76" s="29" t="str">
         <f aca="true">IF(J76 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4257,34 +4273,34 @@
         <f aca="true">IF(L76 = 0, INDIRECT("N" &amp; ROW() - 1), L76)</f>
         <v>0</v>
       </c>
-      <c r="R76" s="29" t="str">
+      <c r="R76" s="30" t="str">
         <f aca="true">IF(Q76 = "", "", Q76 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S76" s="30"/>
+      <c r="S76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="26" t="str">
+      <c r="B77" s="27" t="str">
         <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C77" s="26" t="str">
+      <c r="C77" s="27" t="str">
         <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D77" s="26" t="str">
+      <c r="D77" s="27" t="str">
         <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G77" s="27" t="str">
+      <c r="G77" s="28" t="str">
         <f aca="false">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
-      <c r="H77" s="28" t="str">
+      <c r="H77" s="29" t="str">
         <f aca="true">IF(J77 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I77" s="28" t="str">
+      <c r="I77" s="29" t="str">
         <f aca="true">IF(J77 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4304,34 +4320,34 @@
         <f aca="true">IF(L77 = 0, INDIRECT("N" &amp; ROW() - 1), L77)</f>
         <v>0</v>
       </c>
-      <c r="R77" s="29" t="str">
+      <c r="R77" s="30" t="str">
         <f aca="true">IF(Q77 = "", "", Q77 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S77" s="30"/>
+      <c r="S77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="26" t="str">
+      <c r="B78" s="27" t="str">
         <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C78" s="26" t="str">
+      <c r="C78" s="27" t="str">
         <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D78" s="26" t="str">
+      <c r="D78" s="27" t="str">
         <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G78" s="27" t="str">
+      <c r="G78" s="28" t="str">
         <f aca="false">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
-      <c r="H78" s="28" t="str">
+      <c r="H78" s="29" t="str">
         <f aca="true">IF(J78 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I78" s="28" t="str">
+      <c r="I78" s="29" t="str">
         <f aca="true">IF(J78 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4351,34 +4367,34 @@
         <f aca="true">IF(L78 = 0, INDIRECT("N" &amp; ROW() - 1), L78)</f>
         <v>0</v>
       </c>
-      <c r="R78" s="29" t="str">
+      <c r="R78" s="30" t="str">
         <f aca="true">IF(Q78 = "", "", Q78 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S78" s="30"/>
+      <c r="S78" s="31"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="26" t="str">
+      <c r="B79" s="27" t="str">
         <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="27" t="str">
         <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D79" s="26" t="str">
+      <c r="D79" s="27" t="str">
         <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G79" s="27" t="str">
+      <c r="G79" s="28" t="str">
         <f aca="false">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
-      <c r="H79" s="28" t="str">
+      <c r="H79" s="29" t="str">
         <f aca="true">IF(J79 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I79" s="28" t="str">
+      <c r="I79" s="29" t="str">
         <f aca="true">IF(J79 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4398,34 +4414,34 @@
         <f aca="true">IF(L79 = 0, INDIRECT("N" &amp; ROW() - 1), L79)</f>
         <v>0</v>
       </c>
-      <c r="R79" s="29" t="str">
+      <c r="R79" s="30" t="str">
         <f aca="true">IF(Q79 = "", "", Q79 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S79" s="30"/>
+      <c r="S79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="26" t="str">
+      <c r="B80" s="27" t="str">
         <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C80" s="26" t="str">
+      <c r="C80" s="27" t="str">
         <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D80" s="26" t="str">
+      <c r="D80" s="27" t="str">
         <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G80" s="27" t="str">
+      <c r="G80" s="28" t="str">
         <f aca="false">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
-      <c r="H80" s="28" t="str">
+      <c r="H80" s="29" t="str">
         <f aca="true">IF(J80 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I80" s="28" t="str">
+      <c r="I80" s="29" t="str">
         <f aca="true">IF(J80 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4445,34 +4461,34 @@
         <f aca="true">IF(L80 = 0, INDIRECT("N" &amp; ROW() - 1), L80)</f>
         <v>0</v>
       </c>
-      <c r="R80" s="29" t="str">
+      <c r="R80" s="30" t="str">
         <f aca="true">IF(Q80 = "", "", Q80 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S80" s="30"/>
+      <c r="S80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="26" t="str">
+      <c r="B81" s="27" t="str">
         <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C81" s="26" t="str">
+      <c r="C81" s="27" t="str">
         <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D81" s="26" t="str">
+      <c r="D81" s="27" t="str">
         <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G81" s="27" t="str">
+      <c r="G81" s="28" t="str">
         <f aca="false">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
-      <c r="H81" s="28" t="str">
+      <c r="H81" s="29" t="str">
         <f aca="true">IF(J81 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I81" s="28" t="str">
+      <c r="I81" s="29" t="str">
         <f aca="true">IF(J81 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4492,34 +4508,34 @@
         <f aca="true">IF(L81 = 0, INDIRECT("N" &amp; ROW() - 1), L81)</f>
         <v>0</v>
       </c>
-      <c r="R81" s="29" t="str">
+      <c r="R81" s="30" t="str">
         <f aca="true">IF(Q81 = "", "", Q81 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S81" s="30"/>
+      <c r="S81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="26" t="str">
+      <c r="B82" s="27" t="str">
         <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C82" s="26" t="str">
+      <c r="C82" s="27" t="str">
         <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D82" s="26" t="str">
+      <c r="D82" s="27" t="str">
         <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G82" s="27" t="str">
+      <c r="G82" s="28" t="str">
         <f aca="false">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
-      <c r="H82" s="28" t="str">
+      <c r="H82" s="29" t="str">
         <f aca="true">IF(J82 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I82" s="28" t="str">
+      <c r="I82" s="29" t="str">
         <f aca="true">IF(J82 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4539,34 +4555,34 @@
         <f aca="true">IF(L82 = 0, INDIRECT("N" &amp; ROW() - 1), L82)</f>
         <v>0</v>
       </c>
-      <c r="R82" s="29" t="str">
+      <c r="R82" s="30" t="str">
         <f aca="true">IF(Q82 = "", "", Q82 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S82" s="30"/>
+      <c r="S82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="26" t="str">
+      <c r="B83" s="27" t="str">
         <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C83" s="26" t="str">
+      <c r="C83" s="27" t="str">
         <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D83" s="26" t="str">
+      <c r="D83" s="27" t="str">
         <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G83" s="27" t="str">
+      <c r="G83" s="28" t="str">
         <f aca="false">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
-      <c r="H83" s="28" t="str">
+      <c r="H83" s="29" t="str">
         <f aca="true">IF(J83 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I83" s="28" t="str">
+      <c r="I83" s="29" t="str">
         <f aca="true">IF(J83 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4586,34 +4602,34 @@
         <f aca="true">IF(L83 = 0, INDIRECT("N" &amp; ROW() - 1), L83)</f>
         <v>0</v>
       </c>
-      <c r="R83" s="29" t="str">
+      <c r="R83" s="30" t="str">
         <f aca="true">IF(Q83 = "", "", Q83 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S83" s="30"/>
+      <c r="S83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="26" t="str">
+      <c r="B84" s="27" t="str">
         <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C84" s="26" t="str">
+      <c r="C84" s="27" t="str">
         <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D84" s="26" t="str">
+      <c r="D84" s="27" t="str">
         <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G84" s="27" t="str">
+      <c r="G84" s="28" t="str">
         <f aca="false">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
-      <c r="H84" s="28" t="str">
+      <c r="H84" s="29" t="str">
         <f aca="true">IF(J84 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I84" s="28" t="str">
+      <c r="I84" s="29" t="str">
         <f aca="true">IF(J84 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4633,34 +4649,34 @@
         <f aca="true">IF(L84 = 0, INDIRECT("N" &amp; ROW() - 1), L84)</f>
         <v>0</v>
       </c>
-      <c r="R84" s="29" t="str">
+      <c r="R84" s="30" t="str">
         <f aca="true">IF(Q84 = "", "", Q84 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S84" s="30"/>
+      <c r="S84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="26" t="str">
+      <c r="B85" s="27" t="str">
         <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C85" s="26" t="str">
+      <c r="C85" s="27" t="str">
         <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D85" s="26" t="str">
+      <c r="D85" s="27" t="str">
         <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G85" s="27" t="str">
+      <c r="G85" s="28" t="str">
         <f aca="false">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
-      <c r="H85" s="28" t="str">
+      <c r="H85" s="29" t="str">
         <f aca="true">IF(J85 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I85" s="28" t="str">
+      <c r="I85" s="29" t="str">
         <f aca="true">IF(J85 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4680,34 +4696,34 @@
         <f aca="true">IF(L85 = 0, INDIRECT("N" &amp; ROW() - 1), L85)</f>
         <v>0</v>
       </c>
-      <c r="R85" s="29" t="str">
+      <c r="R85" s="30" t="str">
         <f aca="true">IF(Q85 = "", "", Q85 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S85" s="30"/>
+      <c r="S85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="26" t="str">
+      <c r="B86" s="27" t="str">
         <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C86" s="26" t="str">
+      <c r="C86" s="27" t="str">
         <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D86" s="26" t="str">
+      <c r="D86" s="27" t="str">
         <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G86" s="27" t="str">
+      <c r="G86" s="28" t="str">
         <f aca="false">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
-      <c r="H86" s="28" t="str">
+      <c r="H86" s="29" t="str">
         <f aca="true">IF(J86 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I86" s="28" t="str">
+      <c r="I86" s="29" t="str">
         <f aca="true">IF(J86 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4727,34 +4743,34 @@
         <f aca="true">IF(L86 = 0, INDIRECT("N" &amp; ROW() - 1), L86)</f>
         <v>0</v>
       </c>
-      <c r="R86" s="29" t="str">
+      <c r="R86" s="30" t="str">
         <f aca="true">IF(Q86 = "", "", Q86 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S86" s="30"/>
+      <c r="S86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="26" t="str">
+      <c r="B87" s="27" t="str">
         <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C87" s="26" t="str">
+      <c r="C87" s="27" t="str">
         <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D87" s="26" t="str">
+      <c r="D87" s="27" t="str">
         <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G87" s="27" t="str">
+      <c r="G87" s="28" t="str">
         <f aca="false">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
-      <c r="H87" s="28" t="str">
+      <c r="H87" s="29" t="str">
         <f aca="true">IF(J87 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I87" s="28" t="str">
+      <c r="I87" s="29" t="str">
         <f aca="true">IF(J87 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4774,34 +4790,34 @@
         <f aca="true">IF(L87 = 0, INDIRECT("N" &amp; ROW() - 1), L87)</f>
         <v>0</v>
       </c>
-      <c r="R87" s="29" t="str">
+      <c r="R87" s="30" t="str">
         <f aca="true">IF(Q87 = "", "", Q87 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S87" s="30"/>
+      <c r="S87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="26" t="str">
+      <c r="B88" s="27" t="str">
         <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C88" s="26" t="str">
+      <c r="C88" s="27" t="str">
         <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D88" s="26" t="str">
+      <c r="D88" s="27" t="str">
         <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G88" s="27" t="str">
+      <c r="G88" s="28" t="str">
         <f aca="false">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
-      <c r="H88" s="28" t="str">
+      <c r="H88" s="29" t="str">
         <f aca="true">IF(J88 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I88" s="28" t="str">
+      <c r="I88" s="29" t="str">
         <f aca="true">IF(J88 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4821,34 +4837,34 @@
         <f aca="true">IF(L88 = 0, INDIRECT("N" &amp; ROW() - 1), L88)</f>
         <v>0</v>
       </c>
-      <c r="R88" s="29" t="str">
+      <c r="R88" s="30" t="str">
         <f aca="true">IF(Q88 = "", "", Q88 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S88" s="30"/>
+      <c r="S88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="26" t="str">
+      <c r="B89" s="27" t="str">
         <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C89" s="26" t="str">
+      <c r="C89" s="27" t="str">
         <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D89" s="26" t="str">
+      <c r="D89" s="27" t="str">
         <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G89" s="27" t="str">
+      <c r="G89" s="28" t="str">
         <f aca="false">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
-      <c r="H89" s="28" t="str">
+      <c r="H89" s="29" t="str">
         <f aca="true">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I89" s="28" t="str">
+      <c r="I89" s="29" t="str">
         <f aca="true">IF(J89 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4868,34 +4884,34 @@
         <f aca="true">IF(L89 = 0, INDIRECT("N" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
-      <c r="R89" s="29" t="str">
+      <c r="R89" s="30" t="str">
         <f aca="true">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S89" s="30"/>
+      <c r="S89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="26" t="str">
+      <c r="B90" s="27" t="str">
         <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C90" s="26" t="str">
+      <c r="C90" s="27" t="str">
         <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D90" s="26" t="str">
+      <c r="D90" s="27" t="str">
         <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G90" s="27" t="str">
+      <c r="G90" s="28" t="str">
         <f aca="false">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
-      <c r="H90" s="28" t="str">
+      <c r="H90" s="29" t="str">
         <f aca="true">IF(J90 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I90" s="28" t="str">
+      <c r="I90" s="29" t="str">
         <f aca="true">IF(J90 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4915,34 +4931,34 @@
         <f aca="true">IF(L90 = 0, INDIRECT("N" &amp; ROW() - 1), L90)</f>
         <v>0</v>
       </c>
-      <c r="R90" s="29" t="str">
+      <c r="R90" s="30" t="str">
         <f aca="true">IF(Q90 = "", "", Q90 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S90" s="30"/>
+      <c r="S90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="26" t="str">
+      <c r="B91" s="27" t="str">
         <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C91" s="26" t="str">
+      <c r="C91" s="27" t="str">
         <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D91" s="26" t="str">
+      <c r="D91" s="27" t="str">
         <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G91" s="27" t="str">
+      <c r="G91" s="28" t="str">
         <f aca="false">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
-      <c r="H91" s="28" t="str">
+      <c r="H91" s="29" t="str">
         <f aca="true">IF(J91 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I91" s="28" t="str">
+      <c r="I91" s="29" t="str">
         <f aca="true">IF(J91 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4962,34 +4978,34 @@
         <f aca="true">IF(L91 = 0, INDIRECT("N" &amp; ROW() - 1), L91)</f>
         <v>0</v>
       </c>
-      <c r="R91" s="29" t="str">
+      <c r="R91" s="30" t="str">
         <f aca="true">IF(Q91 = "", "", Q91 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S91" s="30"/>
+      <c r="S91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="26" t="str">
+      <c r="B92" s="27" t="str">
         <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C92" s="26" t="str">
+      <c r="C92" s="27" t="str">
         <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D92" s="26" t="str">
+      <c r="D92" s="27" t="str">
         <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G92" s="27" t="str">
+      <c r="G92" s="28" t="str">
         <f aca="false">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
-      <c r="H92" s="28" t="str">
+      <c r="H92" s="29" t="str">
         <f aca="true">IF(J92 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I92" s="28" t="str">
+      <c r="I92" s="29" t="str">
         <f aca="true">IF(J92 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5009,34 +5025,34 @@
         <f aca="true">IF(L92 = 0, INDIRECT("N" &amp; ROW() - 1), L92)</f>
         <v>0</v>
       </c>
-      <c r="R92" s="29" t="str">
+      <c r="R92" s="30" t="str">
         <f aca="true">IF(Q92 = "", "", Q92 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S92" s="30"/>
+      <c r="S92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="26" t="str">
+      <c r="B93" s="27" t="str">
         <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C93" s="26" t="str">
+      <c r="C93" s="27" t="str">
         <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D93" s="26" t="str">
+      <c r="D93" s="27" t="str">
         <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G93" s="27" t="str">
+      <c r="G93" s="28" t="str">
         <f aca="false">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
-      <c r="H93" s="28" t="str">
+      <c r="H93" s="29" t="str">
         <f aca="true">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I93" s="28" t="str">
+      <c r="I93" s="29" t="str">
         <f aca="true">IF(J93 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5056,34 +5072,34 @@
         <f aca="true">IF(L93 = 0, INDIRECT("N" &amp; ROW() - 1), L93)</f>
         <v>0</v>
       </c>
-      <c r="R93" s="29" t="str">
+      <c r="R93" s="30" t="str">
         <f aca="true">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S93" s="30"/>
+      <c r="S93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="26" t="str">
+      <c r="B94" s="27" t="str">
         <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C94" s="26" t="str">
+      <c r="C94" s="27" t="str">
         <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D94" s="26" t="str">
+      <c r="D94" s="27" t="str">
         <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G94" s="27" t="str">
+      <c r="G94" s="28" t="str">
         <f aca="false">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
-      <c r="H94" s="28" t="str">
+      <c r="H94" s="29" t="str">
         <f aca="true">IF(J94 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I94" s="28" t="str">
+      <c r="I94" s="29" t="str">
         <f aca="true">IF(J94 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5103,34 +5119,34 @@
         <f aca="true">IF(L94 = 0, INDIRECT("N" &amp; ROW() - 1), L94)</f>
         <v>0</v>
       </c>
-      <c r="R94" s="29" t="str">
+      <c r="R94" s="30" t="str">
         <f aca="true">IF(Q94 = "", "", Q94 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S94" s="30"/>
+      <c r="S94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="26" t="str">
+      <c r="B95" s="27" t="str">
         <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C95" s="26" t="str">
+      <c r="C95" s="27" t="str">
         <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D95" s="26" t="str">
+      <c r="D95" s="27" t="str">
         <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G95" s="27" t="str">
+      <c r="G95" s="28" t="str">
         <f aca="false">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
-      <c r="H95" s="28" t="str">
+      <c r="H95" s="29" t="str">
         <f aca="true">IF(J95 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I95" s="28" t="str">
+      <c r="I95" s="29" t="str">
         <f aca="true">IF(J95 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5150,34 +5166,34 @@
         <f aca="true">IF(L95 = 0, INDIRECT("N" &amp; ROW() - 1), L95)</f>
         <v>0</v>
       </c>
-      <c r="R95" s="29" t="str">
+      <c r="R95" s="30" t="str">
         <f aca="true">IF(Q95 = "", "", Q95 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S95" s="30"/>
+      <c r="S95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="26" t="str">
+      <c r="B96" s="27" t="str">
         <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C96" s="26" t="str">
+      <c r="C96" s="27" t="str">
         <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D96" s="26" t="str">
+      <c r="D96" s="27" t="str">
         <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G96" s="27" t="str">
+      <c r="G96" s="28" t="str">
         <f aca="false">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
-      <c r="H96" s="28" t="str">
+      <c r="H96" s="29" t="str">
         <f aca="true">IF(J96 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I96" s="28" t="str">
+      <c r="I96" s="29" t="str">
         <f aca="true">IF(J96 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5197,34 +5213,34 @@
         <f aca="true">IF(L96 = 0, INDIRECT("N" &amp; ROW() - 1), L96)</f>
         <v>0</v>
       </c>
-      <c r="R96" s="29" t="str">
+      <c r="R96" s="30" t="str">
         <f aca="true">IF(Q96 = "", "", Q96 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S96" s="30"/>
+      <c r="S96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="26" t="str">
+      <c r="B97" s="27" t="str">
         <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C97" s="26" t="str">
+      <c r="C97" s="27" t="str">
         <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D97" s="26" t="str">
+      <c r="D97" s="27" t="str">
         <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G97" s="27" t="str">
+      <c r="G97" s="28" t="str">
         <f aca="false">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
-      <c r="H97" s="28" t="str">
+      <c r="H97" s="29" t="str">
         <f aca="true">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I97" s="28" t="str">
+      <c r="I97" s="29" t="str">
         <f aca="true">IF(J97 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5244,34 +5260,34 @@
         <f aca="true">IF(L97 = 0, INDIRECT("N" &amp; ROW() - 1), L97)</f>
         <v>0</v>
       </c>
-      <c r="R97" s="29" t="str">
+      <c r="R97" s="30" t="str">
         <f aca="true">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S97" s="30"/>
+      <c r="S97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="26" t="str">
+      <c r="B98" s="27" t="str">
         <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C98" s="26" t="str">
+      <c r="C98" s="27" t="str">
         <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D98" s="26" t="str">
+      <c r="D98" s="27" t="str">
         <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G98" s="27" t="str">
+      <c r="G98" s="28" t="str">
         <f aca="false">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
-      <c r="H98" s="28" t="str">
+      <c r="H98" s="29" t="str">
         <f aca="true">IF(J98 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I98" s="28" t="str">
+      <c r="I98" s="29" t="str">
         <f aca="true">IF(J98 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5291,34 +5307,34 @@
         <f aca="true">IF(L98 = 0, INDIRECT("N" &amp; ROW() - 1), L98)</f>
         <v>0</v>
       </c>
-      <c r="R98" s="29" t="str">
+      <c r="R98" s="30" t="str">
         <f aca="true">IF(Q98 = "", "", Q98 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S98" s="30"/>
+      <c r="S98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="26" t="str">
+      <c r="B99" s="27" t="str">
         <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C99" s="26" t="str">
+      <c r="C99" s="27" t="str">
         <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D99" s="26" t="str">
+      <c r="D99" s="27" t="str">
         <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G99" s="27" t="str">
+      <c r="G99" s="28" t="str">
         <f aca="false">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
-      <c r="H99" s="28" t="str">
+      <c r="H99" s="29" t="str">
         <f aca="true">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I99" s="28" t="str">
+      <c r="I99" s="29" t="str">
         <f aca="true">IF(J99 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5338,34 +5354,34 @@
         <f aca="true">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
         <v>0</v>
       </c>
-      <c r="R99" s="29" t="str">
+      <c r="R99" s="30" t="str">
         <f aca="true">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S99" s="30"/>
+      <c r="S99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="26" t="str">
+      <c r="B100" s="27" t="str">
         <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C100" s="26" t="str">
+      <c r="C100" s="27" t="str">
         <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D100" s="26" t="str">
+      <c r="D100" s="27" t="str">
         <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G100" s="27" t="str">
+      <c r="G100" s="28" t="str">
         <f aca="false">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
-      <c r="H100" s="28" t="str">
+      <c r="H100" s="29" t="str">
         <f aca="true">IF(J100 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I100" s="28" t="str">
+      <c r="I100" s="29" t="str">
         <f aca="true">IF(J100 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5385,34 +5401,34 @@
         <f aca="true">IF(L100 = 0, INDIRECT("N" &amp; ROW() - 1), L100)</f>
         <v>0</v>
       </c>
-      <c r="R100" s="29" t="str">
+      <c r="R100" s="30" t="str">
         <f aca="true">IF(Q100 = "", "", Q100 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S100" s="30"/>
+      <c r="S100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="26" t="str">
+      <c r="B101" s="27" t="str">
         <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C101" s="26" t="str">
+      <c r="C101" s="27" t="str">
         <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D101" s="26" t="str">
+      <c r="D101" s="27" t="str">
         <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G101" s="27" t="str">
+      <c r="G101" s="28" t="str">
         <f aca="false">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
-      <c r="H101" s="28" t="str">
+      <c r="H101" s="29" t="str">
         <f aca="true">IF(J101 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I101" s="28" t="str">
+      <c r="I101" s="29" t="str">
         <f aca="true">IF(J101 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5432,34 +5448,34 @@
         <f aca="true">IF(L101 = 0, INDIRECT("N" &amp; ROW() - 1), L101)</f>
         <v>0</v>
       </c>
-      <c r="R101" s="29" t="str">
+      <c r="R101" s="30" t="str">
         <f aca="true">IF(Q101 = "", "", Q101 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S101" s="30"/>
+      <c r="S101" s="31"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="26" t="str">
+      <c r="B102" s="27" t="str">
         <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C102" s="26" t="str">
+      <c r="C102" s="27" t="str">
         <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D102" s="26" t="str">
+      <c r="D102" s="27" t="str">
         <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G102" s="27" t="str">
+      <c r="G102" s="28" t="str">
         <f aca="false">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
-      <c r="H102" s="28" t="str">
+      <c r="H102" s="29" t="str">
         <f aca="true">IF(J102 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I102" s="28" t="str">
+      <c r="I102" s="29" t="str">
         <f aca="true">IF(J102 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5479,34 +5495,34 @@
         <f aca="true">IF(L102 = 0, INDIRECT("N" &amp; ROW() - 1), L102)</f>
         <v>0</v>
       </c>
-      <c r="R102" s="29" t="str">
+      <c r="R102" s="30" t="str">
         <f aca="true">IF(Q102 = "", "", Q102 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S102" s="30"/>
+      <c r="S102" s="31"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="26" t="str">
+      <c r="B103" s="27" t="str">
         <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C103" s="26" t="str">
+      <c r="C103" s="27" t="str">
         <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D103" s="26" t="str">
+      <c r="D103" s="27" t="str">
         <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G103" s="27" t="str">
+      <c r="G103" s="28" t="str">
         <f aca="false">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
-      <c r="H103" s="28" t="str">
+      <c r="H103" s="29" t="str">
         <f aca="true">IF(J103 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I103" s="28" t="str">
+      <c r="I103" s="29" t="str">
         <f aca="true">IF(J103 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5526,34 +5542,34 @@
         <f aca="true">IF(L103 = 0, INDIRECT("N" &amp; ROW() - 1), L103)</f>
         <v>0</v>
       </c>
-      <c r="R103" s="29" t="str">
+      <c r="R103" s="30" t="str">
         <f aca="true">IF(Q103 = "", "", Q103 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S103" s="30"/>
+      <c r="S103" s="31"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="26" t="str">
+      <c r="B104" s="27" t="str">
         <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C104" s="26" t="str">
+      <c r="C104" s="27" t="str">
         <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D104" s="26" t="str">
+      <c r="D104" s="27" t="str">
         <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G104" s="27" t="str">
+      <c r="G104" s="28" t="str">
         <f aca="false">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
-      <c r="H104" s="28" t="str">
+      <c r="H104" s="29" t="str">
         <f aca="true">IF(J104 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I104" s="28" t="str">
+      <c r="I104" s="29" t="str">
         <f aca="true">IF(J104 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5573,34 +5589,34 @@
         <f aca="true">IF(L104 = 0, INDIRECT("N" &amp; ROW() - 1), L104)</f>
         <v>0</v>
       </c>
-      <c r="R104" s="29" t="str">
+      <c r="R104" s="30" t="str">
         <f aca="true">IF(Q104 = "", "", Q104 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S104" s="30"/>
+      <c r="S104" s="31"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="26" t="str">
+      <c r="B105" s="27" t="str">
         <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C105" s="26" t="str">
+      <c r="C105" s="27" t="str">
         <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D105" s="26" t="str">
+      <c r="D105" s="27" t="str">
         <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G105" s="27" t="str">
+      <c r="G105" s="28" t="str">
         <f aca="false">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
-      <c r="H105" s="28" t="str">
+      <c r="H105" s="29" t="str">
         <f aca="true">IF(J105 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I105" s="28" t="str">
+      <c r="I105" s="29" t="str">
         <f aca="true">IF(J105 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5620,34 +5636,34 @@
         <f aca="true">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
         <v>0</v>
       </c>
-      <c r="R105" s="29" t="str">
+      <c r="R105" s="30" t="str">
         <f aca="true">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S105" s="30"/>
+      <c r="S105" s="31"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="26" t="str">
+      <c r="B106" s="27" t="str">
         <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C106" s="26" t="str">
+      <c r="C106" s="27" t="str">
         <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D106" s="26" t="str">
+      <c r="D106" s="27" t="str">
         <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G106" s="27" t="str">
+      <c r="G106" s="28" t="str">
         <f aca="false">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
-      <c r="H106" s="28" t="str">
+      <c r="H106" s="29" t="str">
         <f aca="true">IF(J106 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I106" s="28" t="str">
+      <c r="I106" s="29" t="str">
         <f aca="true">IF(J106 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5667,34 +5683,34 @@
         <f aca="true">IF(L106 = 0, INDIRECT("N" &amp; ROW() - 1), L106)</f>
         <v>0</v>
       </c>
-      <c r="R106" s="29" t="str">
+      <c r="R106" s="30" t="str">
         <f aca="true">IF(Q106 = "", "", Q106 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S106" s="30"/>
+      <c r="S106" s="31"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="26" t="str">
+      <c r="B107" s="27" t="str">
         <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C107" s="26" t="str">
+      <c r="C107" s="27" t="str">
         <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D107" s="26" t="str">
+      <c r="D107" s="27" t="str">
         <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G107" s="27" t="str">
+      <c r="G107" s="28" t="str">
         <f aca="false">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
-      <c r="H107" s="28" t="str">
+      <c r="H107" s="29" t="str">
         <f aca="true">IF(J107 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I107" s="28" t="str">
+      <c r="I107" s="29" t="str">
         <f aca="true">IF(J107 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5714,34 +5730,34 @@
         <f aca="true">IF(L107 = 0, INDIRECT("N" &amp; ROW() - 1), L107)</f>
         <v>0</v>
       </c>
-      <c r="R107" s="29" t="str">
+      <c r="R107" s="30" t="str">
         <f aca="true">IF(Q107 = "", "", Q107 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S107" s="30"/>
+      <c r="S107" s="31"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="26" t="str">
+      <c r="B108" s="27" t="str">
         <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C108" s="26" t="str">
+      <c r="C108" s="27" t="str">
         <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D108" s="26" t="str">
+      <c r="D108" s="27" t="str">
         <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G108" s="27" t="str">
+      <c r="G108" s="28" t="str">
         <f aca="false">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
-      <c r="H108" s="28" t="str">
+      <c r="H108" s="29" t="str">
         <f aca="true">IF(J108 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I108" s="28" t="str">
+      <c r="I108" s="29" t="str">
         <f aca="true">IF(J108 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5761,34 +5777,34 @@
         <f aca="true">IF(L108 = 0, INDIRECT("N" &amp; ROW() - 1), L108)</f>
         <v>0</v>
       </c>
-      <c r="R108" s="29" t="str">
+      <c r="R108" s="30" t="str">
         <f aca="true">IF(Q108 = "", "", Q108 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S108" s="30"/>
+      <c r="S108" s="31"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="26" t="str">
+      <c r="B109" s="27" t="str">
         <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C109" s="26" t="str">
+      <c r="C109" s="27" t="str">
         <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D109" s="26" t="str">
+      <c r="D109" s="27" t="str">
         <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G109" s="27" t="str">
+      <c r="G109" s="28" t="str">
         <f aca="false">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
-      <c r="H109" s="28" t="str">
+      <c r="H109" s="29" t="str">
         <f aca="true">IF(J109 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I109" s="28" t="str">
+      <c r="I109" s="29" t="str">
         <f aca="true">IF(J109 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5808,34 +5824,34 @@
         <f aca="true">IF(L109 = 0, INDIRECT("N" &amp; ROW() - 1), L109)</f>
         <v>0</v>
       </c>
-      <c r="R109" s="29" t="str">
+      <c r="R109" s="30" t="str">
         <f aca="true">IF(Q109 = "", "", Q109 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S109" s="30"/>
+      <c r="S109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="26" t="str">
+      <c r="B110" s="27" t="str">
         <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C110" s="26" t="str">
+      <c r="C110" s="27" t="str">
         <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D110" s="26" t="str">
+      <c r="D110" s="27" t="str">
         <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G110" s="27" t="str">
+      <c r="G110" s="28" t="str">
         <f aca="false">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
-      <c r="H110" s="28" t="str">
+      <c r="H110" s="29" t="str">
         <f aca="true">IF(J110 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I110" s="28" t="str">
+      <c r="I110" s="29" t="str">
         <f aca="true">IF(J110 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5855,34 +5871,34 @@
         <f aca="true">IF(L110 = 0, INDIRECT("N" &amp; ROW() - 1), L110)</f>
         <v>0</v>
       </c>
-      <c r="R110" s="29" t="str">
+      <c r="R110" s="30" t="str">
         <f aca="true">IF(Q110 = "", "", Q110 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S110" s="30"/>
+      <c r="S110" s="31"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="26" t="str">
+      <c r="B111" s="27" t="str">
         <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C111" s="26" t="str">
+      <c r="C111" s="27" t="str">
         <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D111" s="26" t="str">
+      <c r="D111" s="27" t="str">
         <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G111" s="27" t="str">
+      <c r="G111" s="28" t="str">
         <f aca="false">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
-      <c r="H111" s="28" t="str">
+      <c r="H111" s="29" t="str">
         <f aca="true">IF(J111 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I111" s="28" t="str">
+      <c r="I111" s="29" t="str">
         <f aca="true">IF(J111 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5902,34 +5918,34 @@
         <f aca="true">IF(L111 = 0, INDIRECT("N" &amp; ROW() - 1), L111)</f>
         <v>0</v>
       </c>
-      <c r="R111" s="29" t="str">
+      <c r="R111" s="30" t="str">
         <f aca="true">IF(Q111 = "", "", Q111 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S111" s="30"/>
+      <c r="S111" s="31"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="26" t="str">
+      <c r="B112" s="27" t="str">
         <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C112" s="26" t="str">
+      <c r="C112" s="27" t="str">
         <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D112" s="26" t="str">
+      <c r="D112" s="27" t="str">
         <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G112" s="27" t="str">
+      <c r="G112" s="28" t="str">
         <f aca="false">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
-      <c r="H112" s="28" t="str">
+      <c r="H112" s="29" t="str">
         <f aca="true">IF(J112 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I112" s="28" t="str">
+      <c r="I112" s="29" t="str">
         <f aca="true">IF(J112 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5949,34 +5965,34 @@
         <f aca="true">IF(L112 = 0, INDIRECT("N" &amp; ROW() - 1), L112)</f>
         <v>0</v>
       </c>
-      <c r="R112" s="29" t="str">
+      <c r="R112" s="30" t="str">
         <f aca="true">IF(Q112 = "", "", Q112 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S112" s="30"/>
+      <c r="S112" s="31"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="26" t="str">
+      <c r="B113" s="27" t="str">
         <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C113" s="26" t="str">
+      <c r="C113" s="27" t="str">
         <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D113" s="26" t="str">
+      <c r="D113" s="27" t="str">
         <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G113" s="27" t="str">
+      <c r="G113" s="28" t="str">
         <f aca="false">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
-      <c r="H113" s="28" t="str">
+      <c r="H113" s="29" t="str">
         <f aca="true">IF(J113 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I113" s="28" t="str">
+      <c r="I113" s="29" t="str">
         <f aca="true">IF(J113 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5996,34 +6012,34 @@
         <f aca="true">IF(L113 = 0, INDIRECT("N" &amp; ROW() - 1), L113)</f>
         <v>0</v>
       </c>
-      <c r="R113" s="29" t="str">
+      <c r="R113" s="30" t="str">
         <f aca="true">IF(Q113 = "", "", Q113 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S113" s="30"/>
+      <c r="S113" s="31"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="26" t="str">
+      <c r="B114" s="27" t="str">
         <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C114" s="26" t="str">
+      <c r="C114" s="27" t="str">
         <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D114" s="26" t="str">
+      <c r="D114" s="27" t="str">
         <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G114" s="27" t="str">
+      <c r="G114" s="28" t="str">
         <f aca="false">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
-      <c r="H114" s="28" t="str">
+      <c r="H114" s="29" t="str">
         <f aca="true">IF(J114 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I114" s="28" t="str">
+      <c r="I114" s="29" t="str">
         <f aca="true">IF(J114 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6043,34 +6059,34 @@
         <f aca="true">IF(L114 = 0, INDIRECT("N" &amp; ROW() - 1), L114)</f>
         <v>0</v>
       </c>
-      <c r="R114" s="29" t="str">
+      <c r="R114" s="30" t="str">
         <f aca="true">IF(Q114 = "", "", Q114 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S114" s="30"/>
+      <c r="S114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="26" t="str">
+      <c r="B115" s="27" t="str">
         <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C115" s="26" t="str">
+      <c r="C115" s="27" t="str">
         <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D115" s="26" t="str">
+      <c r="D115" s="27" t="str">
         <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G115" s="27" t="str">
+      <c r="G115" s="28" t="str">
         <f aca="false">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
-      <c r="H115" s="28" t="str">
+      <c r="H115" s="29" t="str">
         <f aca="true">IF(J115 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I115" s="28" t="str">
+      <c r="I115" s="29" t="str">
         <f aca="true">IF(J115 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6090,34 +6106,34 @@
         <f aca="true">IF(L115 = 0, INDIRECT("N" &amp; ROW() - 1), L115)</f>
         <v>0</v>
       </c>
-      <c r="R115" s="29" t="str">
+      <c r="R115" s="30" t="str">
         <f aca="true">IF(Q115 = "", "", Q115 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S115" s="30"/>
+      <c r="S115" s="31"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="26" t="str">
+      <c r="B116" s="27" t="str">
         <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C116" s="26" t="str">
+      <c r="C116" s="27" t="str">
         <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D116" s="26" t="str">
+      <c r="D116" s="27" t="str">
         <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G116" s="27" t="str">
+      <c r="G116" s="28" t="str">
         <f aca="false">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
-      <c r="H116" s="28" t="str">
+      <c r="H116" s="29" t="str">
         <f aca="true">IF(J116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I116" s="28" t="str">
+      <c r="I116" s="29" t="str">
         <f aca="true">IF(J116 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6137,34 +6153,34 @@
         <f aca="true">IF(L116 = 0, INDIRECT("N" &amp; ROW() - 1), L116)</f>
         <v>0</v>
       </c>
-      <c r="R116" s="29" t="str">
+      <c r="R116" s="30" t="str">
         <f aca="true">IF(Q116 = "", "", Q116 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S116" s="30"/>
+      <c r="S116" s="31"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="26" t="str">
+      <c r="B117" s="27" t="str">
         <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C117" s="26" t="str">
+      <c r="C117" s="27" t="str">
         <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D117" s="26" t="str">
+      <c r="D117" s="27" t="str">
         <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G117" s="27" t="str">
+      <c r="G117" s="28" t="str">
         <f aca="false">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
-      <c r="H117" s="28" t="str">
+      <c r="H117" s="29" t="str">
         <f aca="true">IF(J117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I117" s="28" t="str">
+      <c r="I117" s="29" t="str">
         <f aca="true">IF(J117 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6184,34 +6200,34 @@
         <f aca="true">IF(L117 = 0, INDIRECT("N" &amp; ROW() - 1), L117)</f>
         <v>0</v>
       </c>
-      <c r="R117" s="29" t="str">
+      <c r="R117" s="30" t="str">
         <f aca="true">IF(Q117 = "", "", Q117 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S117" s="30"/>
+      <c r="S117" s="31"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="26" t="str">
+      <c r="B118" s="27" t="str">
         <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C118" s="26" t="str">
+      <c r="C118" s="27" t="str">
         <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D118" s="26" t="str">
+      <c r="D118" s="27" t="str">
         <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G118" s="27" t="str">
+      <c r="G118" s="28" t="str">
         <f aca="false">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
-      <c r="H118" s="28" t="str">
+      <c r="H118" s="29" t="str">
         <f aca="true">IF(J118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I118" s="28" t="str">
+      <c r="I118" s="29" t="str">
         <f aca="true">IF(J118 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6231,34 +6247,34 @@
         <f aca="true">IF(L118 = 0, INDIRECT("N" &amp; ROW() - 1), L118)</f>
         <v>0</v>
       </c>
-      <c r="R118" s="29" t="str">
+      <c r="R118" s="30" t="str">
         <f aca="true">IF(Q118 = "", "", Q118 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S118" s="30"/>
+      <c r="S118" s="31"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="26" t="str">
+      <c r="B119" s="27" t="str">
         <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C119" s="26" t="str">
+      <c r="C119" s="27" t="str">
         <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D119" s="26" t="str">
+      <c r="D119" s="27" t="str">
         <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G119" s="27" t="str">
+      <c r="G119" s="28" t="str">
         <f aca="false">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
-      <c r="H119" s="28" t="str">
+      <c r="H119" s="29" t="str">
         <f aca="true">IF(J119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I119" s="28" t="str">
+      <c r="I119" s="29" t="str">
         <f aca="true">IF(J119 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6278,34 +6294,34 @@
         <f aca="true">IF(L119 = 0, INDIRECT("N" &amp; ROW() - 1), L119)</f>
         <v>0</v>
       </c>
-      <c r="R119" s="29" t="str">
+      <c r="R119" s="30" t="str">
         <f aca="true">IF(Q119 = "", "", Q119 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S119" s="30"/>
+      <c r="S119" s="31"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="26" t="str">
+      <c r="B120" s="27" t="str">
         <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C120" s="26" t="str">
+      <c r="C120" s="27" t="str">
         <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D120" s="26" t="str">
+      <c r="D120" s="27" t="str">
         <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G120" s="27" t="str">
+      <c r="G120" s="28" t="str">
         <f aca="false">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
-      <c r="H120" s="28" t="str">
+      <c r="H120" s="29" t="str">
         <f aca="true">IF(J120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I120" s="28" t="str">
+      <c r="I120" s="29" t="str">
         <f aca="true">IF(J120 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6325,34 +6341,34 @@
         <f aca="true">IF(L120 = 0, INDIRECT("N" &amp; ROW() - 1), L120)</f>
         <v>0</v>
       </c>
-      <c r="R120" s="29" t="str">
+      <c r="R120" s="30" t="str">
         <f aca="true">IF(Q120 = "", "", Q120 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S120" s="30"/>
+      <c r="S120" s="31"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="26" t="str">
+      <c r="B121" s="27" t="str">
         <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C121" s="26" t="str">
+      <c r="C121" s="27" t="str">
         <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D121" s="26" t="str">
+      <c r="D121" s="27" t="str">
         <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G121" s="27" t="str">
+      <c r="G121" s="28" t="str">
         <f aca="false">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
-      <c r="H121" s="28" t="str">
+      <c r="H121" s="29" t="str">
         <f aca="true">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I121" s="28" t="str">
+      <c r="I121" s="29" t="str">
         <f aca="true">IF(J121 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6372,34 +6388,34 @@
         <f aca="true">IF(L121 = 0, INDIRECT("N" &amp; ROW() - 1), L121)</f>
         <v>0</v>
       </c>
-      <c r="R121" s="29" t="str">
+      <c r="R121" s="30" t="str">
         <f aca="true">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S121" s="30"/>
+      <c r="S121" s="31"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="26" t="str">
+      <c r="B122" s="27" t="str">
         <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C122" s="26" t="str">
+      <c r="C122" s="27" t="str">
         <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D122" s="26" t="str">
+      <c r="D122" s="27" t="str">
         <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G122" s="27" t="str">
+      <c r="G122" s="28" t="str">
         <f aca="false">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
-      <c r="H122" s="28" t="str">
+      <c r="H122" s="29" t="str">
         <f aca="true">IF(J122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I122" s="28" t="str">
+      <c r="I122" s="29" t="str">
         <f aca="true">IF(J122 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6419,31 +6435,31 @@
         <f aca="true">IF(L122 = 0, INDIRECT("N" &amp; ROW() - 1), L122)</f>
         <v>0</v>
       </c>
-      <c r="R122" s="29" t="str">
+      <c r="R122" s="30" t="str">
         <f aca="true">IF(Q122 = "", "", Q122 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S122" s="30"/>
+      <c r="S122" s="31"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="26"/>
-      <c r="C123" s="26" t="str">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27" t="str">
         <f aca="false">IF(E123="","",VLOOKUP(E123,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D123" s="26" t="str">
+      <c r="D123" s="27" t="str">
         <f aca="false">IF(E123="","",VLOOKUP(E123,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G123" s="27" t="str">
+      <c r="G123" s="28" t="str">
         <f aca="false">IF(H123="", IF(J123="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N123)),IF(J123="", "", INDIRECT("N" &amp; ROW() - 1) - N123))</f>
         <v/>
       </c>
-      <c r="H123" s="28" t="str">
+      <c r="H123" s="29" t="str">
         <f aca="true">IF(J123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I123" s="28" t="str">
+      <c r="I123" s="29" t="str">
         <f aca="true">IF(J123 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6463,2768 +6479,2768 @@
         <f aca="true">IF(L123 = 0, INDIRECT("N" &amp; ROW() - 1), L123)</f>
         <v>0</v>
       </c>
-      <c r="R123" s="29" t="str">
+      <c r="R123" s="30" t="str">
         <f aca="true">IF(Q123 = "", "", Q123 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S123" s="30"/>
+      <c r="S123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="26"/>
-      <c r="C124" s="26" t="str">
+      <c r="B124" s="27"/>
+      <c r="C124" s="27" t="str">
         <f aca="false">IF(E124="","",VLOOKUP(E124,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D124" s="26" t="str">
+      <c r="D124" s="27" t="str">
         <f aca="false">IF(E124="","",VLOOKUP(E124,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H124" s="28" t="str">
+      <c r="H124" s="29" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I124" s="28" t="str">
+      <c r="I124" s="29" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R124" s="29" t="str">
+      <c r="R124" s="30" t="str">
         <f aca="true">IF(Q124 = "", "", Q124 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S124" s="30"/>
+      <c r="S124" s="31"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="26"/>
-      <c r="C125" s="26" t="str">
+      <c r="B125" s="27"/>
+      <c r="C125" s="27" t="str">
         <f aca="false">IF(E125="","",VLOOKUP(E125,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D125" s="26" t="str">
+      <c r="D125" s="27" t="str">
         <f aca="false">IF(E125="","",VLOOKUP(E125,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H125" s="28" t="str">
+      <c r="H125" s="29" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I125" s="28" t="str">
+      <c r="I125" s="29" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R125" s="29" t="str">
+      <c r="R125" s="30" t="str">
         <f aca="true">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S125" s="30"/>
+      <c r="S125" s="31"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="26"/>
-      <c r="C126" s="26" t="str">
+      <c r="B126" s="27"/>
+      <c r="C126" s="27" t="str">
         <f aca="false">IF(E126="","",VLOOKUP(E126,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D126" s="26" t="str">
+      <c r="D126" s="27" t="str">
         <f aca="false">IF(E126="","",VLOOKUP(E126,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H126" s="28" t="str">
+      <c r="H126" s="29" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I126" s="28" t="str">
+      <c r="I126" s="29" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R126" s="29" t="str">
+      <c r="R126" s="30" t="str">
         <f aca="true">IF(Q126 = "", "", Q126 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S126" s="30"/>
+      <c r="S126" s="31"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="26"/>
-      <c r="C127" s="26" t="str">
+      <c r="B127" s="27"/>
+      <c r="C127" s="27" t="str">
         <f aca="false">IF(E127="","",VLOOKUP(E127,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D127" s="26" t="str">
+      <c r="D127" s="27" t="str">
         <f aca="false">IF(E127="","",VLOOKUP(E127,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H127" s="28" t="str">
+      <c r="H127" s="29" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I127" s="28" t="str">
+      <c r="I127" s="29" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R127" s="29" t="str">
+      <c r="R127" s="30" t="str">
         <f aca="true">IF(Q127 = "", "", Q127 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S127" s="30"/>
+      <c r="S127" s="31"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="26"/>
-      <c r="C128" s="26" t="str">
+      <c r="B128" s="27"/>
+      <c r="C128" s="27" t="str">
         <f aca="false">IF(E128="","",VLOOKUP(E128,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D128" s="26" t="str">
+      <c r="D128" s="27" t="str">
         <f aca="false">IF(E128="","",VLOOKUP(E128,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H128" s="28" t="str">
+      <c r="H128" s="29" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I128" s="28" t="str">
+      <c r="I128" s="29" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R128" s="29" t="str">
+      <c r="R128" s="30" t="str">
         <f aca="true">IF(Q128 = "", "", Q128 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S128" s="30"/>
+      <c r="S128" s="31"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="26"/>
-      <c r="C129" s="26" t="str">
+      <c r="B129" s="27"/>
+      <c r="C129" s="27" t="str">
         <f aca="false">IF(E129="","",VLOOKUP(E129,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D129" s="26" t="str">
+      <c r="D129" s="27" t="str">
         <f aca="false">IF(E129="","",VLOOKUP(E129,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H129" s="28" t="str">
+      <c r="H129" s="29" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I129" s="28" t="str">
+      <c r="I129" s="29" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R129" s="29" t="str">
+      <c r="R129" s="30" t="str">
         <f aca="true">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S129" s="30"/>
+      <c r="S129" s="31"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="26"/>
-      <c r="C130" s="26" t="str">
+      <c r="B130" s="27"/>
+      <c r="C130" s="27" t="str">
         <f aca="false">IF(E130="","",VLOOKUP(E130,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D130" s="26" t="str">
+      <c r="D130" s="27" t="str">
         <f aca="false">IF(E130="","",VLOOKUP(E130,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H130" s="28" t="str">
+      <c r="H130" s="29" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I130" s="28" t="str">
+      <c r="I130" s="29" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R130" s="29" t="str">
+      <c r="R130" s="30" t="str">
         <f aca="true">IF(Q130 = "", "", Q130 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S130" s="30"/>
+      <c r="S130" s="31"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="26"/>
-      <c r="C131" s="26" t="str">
+      <c r="B131" s="27"/>
+      <c r="C131" s="27" t="str">
         <f aca="false">IF(E131="","",VLOOKUP(E131,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D131" s="26" t="str">
+      <c r="D131" s="27" t="str">
         <f aca="false">IF(E131="","",VLOOKUP(E131,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H131" s="28" t="str">
+      <c r="H131" s="29" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I131" s="28" t="str">
+      <c r="I131" s="29" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R131" s="29" t="str">
+      <c r="R131" s="30" t="str">
         <f aca="true">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S131" s="30"/>
+      <c r="S131" s="31"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="26"/>
-      <c r="C132" s="26" t="str">
+      <c r="B132" s="27"/>
+      <c r="C132" s="27" t="str">
         <f aca="false">IF(E132="","",VLOOKUP(E132,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D132" s="26" t="str">
+      <c r="D132" s="27" t="str">
         <f aca="false">IF(E132="","",VLOOKUP(E132,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H132" s="28" t="str">
+      <c r="H132" s="29" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I132" s="28" t="str">
+      <c r="I132" s="29" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R132" s="29" t="str">
+      <c r="R132" s="30" t="str">
         <f aca="true">IF(Q132 = "", "", Q132 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S132" s="30"/>
+      <c r="S132" s="31"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="26"/>
-      <c r="C133" s="26" t="str">
+      <c r="B133" s="27"/>
+      <c r="C133" s="27" t="str">
         <f aca="false">IF(E133="","",VLOOKUP(E133,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D133" s="26" t="str">
+      <c r="D133" s="27" t="str">
         <f aca="false">IF(E133="","",VLOOKUP(E133,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H133" s="28" t="str">
+      <c r="H133" s="29" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I133" s="28" t="str">
+      <c r="I133" s="29" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R133" s="29" t="str">
+      <c r="R133" s="30" t="str">
         <f aca="true">IF(Q133 = "", "", Q133 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S133" s="30"/>
+      <c r="S133" s="31"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="26"/>
-      <c r="C134" s="26" t="str">
+      <c r="B134" s="27"/>
+      <c r="C134" s="27" t="str">
         <f aca="false">IF(E134="","",VLOOKUP(E134,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D134" s="26" t="str">
+      <c r="D134" s="27" t="str">
         <f aca="false">IF(E134="","",VLOOKUP(E134,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H134" s="28" t="str">
+      <c r="H134" s="29" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I134" s="28" t="str">
+      <c r="I134" s="29" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R134" s="29" t="str">
+      <c r="R134" s="30" t="str">
         <f aca="true">IF(Q134 = "", "", Q134 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S134" s="30"/>
+      <c r="S134" s="31"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="26"/>
-      <c r="C135" s="26" t="str">
+      <c r="B135" s="27"/>
+      <c r="C135" s="27" t="str">
         <f aca="false">IF(E135="","",VLOOKUP(E135,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D135" s="26"/>
-      <c r="H135" s="28" t="str">
+      <c r="D135" s="27"/>
+      <c r="H135" s="29" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I135" s="28" t="str">
+      <c r="I135" s="29" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R135" s="29" t="str">
+      <c r="R135" s="30" t="str">
         <f aca="true">IF(Q135 = "", "", Q135 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S135" s="30"/>
+      <c r="S135" s="31"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="26"/>
-      <c r="C136" s="26" t="str">
+      <c r="B136" s="27"/>
+      <c r="C136" s="27" t="str">
         <f aca="false">IF(E136="","",VLOOKUP(E136,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D136" s="26"/>
-      <c r="H136" s="28" t="str">
+      <c r="D136" s="27"/>
+      <c r="H136" s="29" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I136" s="28" t="str">
+      <c r="I136" s="29" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R136" s="29" t="str">
+      <c r="R136" s="30" t="str">
         <f aca="true">IF(Q136 = "", "", Q136 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S136" s="30"/>
+      <c r="S136" s="31"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="26"/>
-      <c r="C137" s="26" t="str">
+      <c r="B137" s="27"/>
+      <c r="C137" s="27" t="str">
         <f aca="false">IF(E137="","",VLOOKUP(E137,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D137" s="26"/>
-      <c r="H137" s="28" t="str">
+      <c r="D137" s="27"/>
+      <c r="H137" s="29" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I137" s="28" t="str">
+      <c r="I137" s="29" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R137" s="29" t="str">
+      <c r="R137" s="30" t="str">
         <f aca="true">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S137" s="30"/>
+      <c r="S137" s="31"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="26"/>
-      <c r="C138" s="26" t="str">
+      <c r="B138" s="27"/>
+      <c r="C138" s="27" t="str">
         <f aca="false">IF(E138="","",VLOOKUP(E138,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D138" s="26"/>
-      <c r="H138" s="28" t="str">
+      <c r="D138" s="27"/>
+      <c r="H138" s="29" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I138" s="28" t="str">
+      <c r="I138" s="29" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R138" s="29" t="str">
+      <c r="R138" s="30" t="str">
         <f aca="true">IF(Q138 = "", "", Q138 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S138" s="30"/>
+      <c r="S138" s="31"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="26"/>
-      <c r="C139" s="26" t="str">
+      <c r="B139" s="27"/>
+      <c r="C139" s="27" t="str">
         <f aca="false">IF(E139="","",VLOOKUP(E139,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D139" s="26"/>
-      <c r="H139" s="28" t="str">
+      <c r="D139" s="27"/>
+      <c r="H139" s="29" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I139" s="28" t="str">
+      <c r="I139" s="29" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R139" s="29" t="str">
+      <c r="R139" s="30" t="str">
         <f aca="true">IF(Q139 = "", "", Q139 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S139" s="30"/>
+      <c r="S139" s="31"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="26"/>
-      <c r="C140" s="26" t="str">
+      <c r="B140" s="27"/>
+      <c r="C140" s="27" t="str">
         <f aca="false">IF(E140="","",VLOOKUP(E140,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D140" s="26"/>
-      <c r="H140" s="28" t="str">
+      <c r="D140" s="27"/>
+      <c r="H140" s="29" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I140" s="28" t="str">
+      <c r="I140" s="29" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R140" s="29" t="str">
+      <c r="R140" s="30" t="str">
         <f aca="true">IF(Q140 = "", "", Q140 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S140" s="30"/>
+      <c r="S140" s="31"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="26"/>
-      <c r="C141" s="26" t="str">
+      <c r="B141" s="27"/>
+      <c r="C141" s="27" t="str">
         <f aca="false">IF(E141="","",VLOOKUP(E141,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D141" s="26"/>
-      <c r="H141" s="28" t="str">
+      <c r="D141" s="27"/>
+      <c r="H141" s="29" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I141" s="28" t="str">
+      <c r="I141" s="29" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R141" s="29" t="str">
+      <c r="R141" s="30" t="str">
         <f aca="true">IF(Q141 = "", "", Q141 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S141" s="30"/>
+      <c r="S141" s="31"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="26"/>
-      <c r="C142" s="26" t="str">
+      <c r="B142" s="27"/>
+      <c r="C142" s="27" t="str">
         <f aca="false">IF(E142="","",VLOOKUP(E142,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D142" s="26"/>
-      <c r="H142" s="28" t="str">
+      <c r="D142" s="27"/>
+      <c r="H142" s="29" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I142" s="28" t="str">
+      <c r="I142" s="29" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R142" s="29" t="str">
+      <c r="R142" s="30" t="str">
         <f aca="true">IF(Q142 = "", "", Q142 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S142" s="30"/>
+      <c r="S142" s="31"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="26"/>
-      <c r="C143" s="26" t="str">
+      <c r="B143" s="27"/>
+      <c r="C143" s="27" t="str">
         <f aca="false">IF(E143="","",VLOOKUP(E143,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D143" s="26"/>
-      <c r="H143" s="28" t="str">
+      <c r="D143" s="27"/>
+      <c r="H143" s="29" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I143" s="28" t="str">
+      <c r="I143" s="29" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R143" s="29" t="str">
+      <c r="R143" s="30" t="str">
         <f aca="true">IF(Q143 = "", "", Q143 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S143" s="30"/>
+      <c r="S143" s="31"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="26"/>
-      <c r="C144" s="26" t="str">
+      <c r="B144" s="27"/>
+      <c r="C144" s="27" t="str">
         <f aca="false">IF(E144="","",VLOOKUP(E144,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D144" s="26"/>
-      <c r="H144" s="28" t="str">
+      <c r="D144" s="27"/>
+      <c r="H144" s="29" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I144" s="28" t="str">
+      <c r="I144" s="29" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R144" s="29" t="str">
+      <c r="R144" s="30" t="str">
         <f aca="true">IF(Q144 = "", "", Q144 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S144" s="30"/>
+      <c r="S144" s="31"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="26"/>
-      <c r="C145" s="26" t="str">
+      <c r="B145" s="27"/>
+      <c r="C145" s="27" t="str">
         <f aca="false">IF(E145="","",VLOOKUP(E145,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D145" s="26"/>
-      <c r="H145" s="28" t="str">
+      <c r="D145" s="27"/>
+      <c r="H145" s="29" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I145" s="28" t="str">
+      <c r="I145" s="29" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R145" s="29" t="str">
+      <c r="R145" s="30" t="str">
         <f aca="true">IF(Q145 = "", "", Q145 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S145" s="30"/>
+      <c r="S145" s="31"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="26"/>
-      <c r="C146" s="26" t="str">
+      <c r="B146" s="27"/>
+      <c r="C146" s="27" t="str">
         <f aca="false">IF(E146="","",VLOOKUP(E146,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D146" s="26"/>
-      <c r="H146" s="28" t="str">
+      <c r="D146" s="27"/>
+      <c r="H146" s="29" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I146" s="28" t="str">
+      <c r="I146" s="29" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R146" s="29" t="str">
+      <c r="R146" s="30" t="str">
         <f aca="true">IF(Q146 = "", "", Q146 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S146" s="30"/>
+      <c r="S146" s="31"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="26"/>
-      <c r="C147" s="26" t="str">
+      <c r="B147" s="27"/>
+      <c r="C147" s="27" t="str">
         <f aca="false">IF(E147="","",VLOOKUP(E147,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D147" s="26"/>
-      <c r="H147" s="28" t="str">
+      <c r="D147" s="27"/>
+      <c r="H147" s="29" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I147" s="28" t="str">
+      <c r="I147" s="29" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R147" s="29" t="str">
+      <c r="R147" s="30" t="str">
         <f aca="true">IF(Q147 = "", "", Q147 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S147" s="30"/>
+      <c r="S147" s="31"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="26"/>
-      <c r="C148" s="26" t="str">
+      <c r="B148" s="27"/>
+      <c r="C148" s="27" t="str">
         <f aca="false">IF(E148="","",VLOOKUP(E148,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D148" s="26"/>
-      <c r="H148" s="28" t="str">
+      <c r="D148" s="27"/>
+      <c r="H148" s="29" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I148" s="28" t="str">
+      <c r="I148" s="29" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R148" s="29" t="str">
+      <c r="R148" s="30" t="str">
         <f aca="true">IF(Q148 = "", "", Q148 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S148" s="30"/>
+      <c r="S148" s="31"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="26"/>
-      <c r="C149" s="26" t="str">
+      <c r="B149" s="27"/>
+      <c r="C149" s="27" t="str">
         <f aca="false">IF(E149="","",VLOOKUP(E149,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D149" s="26"/>
-      <c r="H149" s="28" t="str">
+      <c r="D149" s="27"/>
+      <c r="H149" s="29" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I149" s="28" t="str">
+      <c r="I149" s="29" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R149" s="29" t="str">
+      <c r="R149" s="30" t="str">
         <f aca="true">IF(Q149 = "", "", Q149 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S149" s="30"/>
+      <c r="S149" s="31"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="H150" s="28" t="str">
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="H150" s="29" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I150" s="28" t="str">
+      <c r="I150" s="29" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R150" s="29" t="str">
+      <c r="R150" s="30" t="str">
         <f aca="true">IF(Q150 = "", "", Q150 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S150" s="30"/>
+      <c r="S150" s="31"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="H151" s="28" t="str">
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="H151" s="29" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I151" s="28" t="str">
+      <c r="I151" s="29" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R151" s="29" t="str">
+      <c r="R151" s="30" t="str">
         <f aca="true">IF(Q151 = "", "", Q151 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S151" s="30"/>
+      <c r="S151" s="31"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="H152" s="28" t="str">
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="H152" s="29" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I152" s="28" t="str">
+      <c r="I152" s="29" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R152" s="29" t="str">
+      <c r="R152" s="30" t="str">
         <f aca="true">IF(Q152 = "", "", Q152 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S152" s="30"/>
+      <c r="S152" s="31"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="H153" s="28" t="str">
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="H153" s="29" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I153" s="28" t="str">
+      <c r="I153" s="29" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R153" s="29" t="str">
+      <c r="R153" s="30" t="str">
         <f aca="true">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S153" s="30"/>
+      <c r="S153" s="31"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="H154" s="28" t="str">
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="H154" s="29" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I154" s="28" t="str">
+      <c r="I154" s="29" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R154" s="29" t="str">
+      <c r="R154" s="30" t="str">
         <f aca="true">IF(Q154 = "", "", Q154 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S154" s="30"/>
+      <c r="S154" s="31"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="H155" s="28" t="str">
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="H155" s="29" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I155" s="28" t="str">
+      <c r="I155" s="29" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R155" s="29" t="str">
+      <c r="R155" s="30" t="str">
         <f aca="true">IF(Q155 = "", "", Q155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S155" s="30"/>
+      <c r="S155" s="31"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="H156" s="28" t="str">
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="H156" s="29" t="str">
         <f aca="true">IF(J156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I156" s="28" t="str">
+      <c r="I156" s="29" t="str">
         <f aca="true">IF(J156 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R156" s="29" t="str">
+      <c r="R156" s="30" t="str">
         <f aca="true">IF(Q156 = "", "", Q156 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S156" s="30"/>
+      <c r="S156" s="31"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="H157" s="28" t="str">
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="H157" s="29" t="str">
         <f aca="true">IF(J157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I157" s="28" t="str">
+      <c r="I157" s="29" t="str">
         <f aca="true">IF(J157 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R157" s="29" t="str">
+      <c r="R157" s="30" t="str">
         <f aca="true">IF(Q157 = "", "", Q157 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S157" s="30"/>
+      <c r="S157" s="31"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="H158" s="28" t="str">
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="H158" s="29" t="str">
         <f aca="true">IF(J158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I158" s="28" t="str">
+      <c r="I158" s="29" t="str">
         <f aca="true">IF(J158 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R158" s="29" t="str">
+      <c r="R158" s="30" t="str">
         <f aca="true">IF(Q158 = "", "", Q158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S158" s="30"/>
+      <c r="S158" s="31"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="H159" s="28" t="str">
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="H159" s="29" t="str">
         <f aca="true">IF(J159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I159" s="28" t="str">
+      <c r="I159" s="29" t="str">
         <f aca="true">IF(J159 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R159" s="29" t="str">
+      <c r="R159" s="30" t="str">
         <f aca="true">IF(Q159 = "", "", Q159 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S159" s="30" t="str">
+      <c r="S159" s="31" t="str">
         <f aca="true">IF(J159="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="H160" s="28" t="str">
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="H160" s="29" t="str">
         <f aca="true">IF(J160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I160" s="28" t="str">
+      <c r="I160" s="29" t="str">
         <f aca="true">IF(J160 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R160" s="29" t="str">
+      <c r="R160" s="30" t="str">
         <f aca="true">IF(Q160 = "", "", Q160 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S160" s="30" t="str">
+      <c r="S160" s="31" t="str">
         <f aca="true">IF(J160="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="H161" s="28" t="str">
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="H161" s="29" t="str">
         <f aca="true">IF(J161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I161" s="28" t="str">
+      <c r="I161" s="29" t="str">
         <f aca="true">IF(J161 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R161" s="29" t="str">
+      <c r="R161" s="30" t="str">
         <f aca="true">IF(Q161 = "", "", Q161 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S161" s="30" t="str">
+      <c r="S161" s="31" t="str">
         <f aca="true">IF(J161="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="H162" s="28" t="str">
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="H162" s="29" t="str">
         <f aca="true">IF(J162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I162" s="28" t="str">
+      <c r="I162" s="29" t="str">
         <f aca="true">IF(J162 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R162" s="29" t="str">
+      <c r="R162" s="30" t="str">
         <f aca="true">IF(Q162 = "", "", Q162 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S162" s="30" t="str">
+      <c r="S162" s="31" t="str">
         <f aca="true">IF(J162="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="H163" s="28" t="str">
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="H163" s="29" t="str">
         <f aca="true">IF(J163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I163" s="28" t="str">
+      <c r="I163" s="29" t="str">
         <f aca="true">IF(J163 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R163" s="29" t="str">
+      <c r="R163" s="30" t="str">
         <f aca="true">IF(Q163 = "", "", Q163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S163" s="30" t="str">
+      <c r="S163" s="31" t="str">
         <f aca="true">IF(J163="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="H164" s="28" t="str">
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="H164" s="29" t="str">
         <f aca="true">IF(J164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I164" s="28" t="str">
+      <c r="I164" s="29" t="str">
         <f aca="true">IF(J164 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R164" s="29" t="str">
+      <c r="R164" s="30" t="str">
         <f aca="true">IF(Q164 = "", "", Q164 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S164" s="30" t="str">
+      <c r="S164" s="31" t="str">
         <f aca="true">IF(J164="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="H165" s="28" t="str">
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="H165" s="29" t="str">
         <f aca="true">IF(J165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I165" s="28" t="str">
+      <c r="I165" s="29" t="str">
         <f aca="true">IF(J165 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R165" s="29" t="str">
+      <c r="R165" s="30" t="str">
         <f aca="true">IF(Q165 = "", "", Q165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S165" s="30" t="str">
+      <c r="S165" s="31" t="str">
         <f aca="true">IF(J165="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="I166" s="28" t="str">
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="I166" s="29" t="str">
         <f aca="true">IF(J166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R166" s="29" t="str">
+      <c r="R166" s="30" t="str">
         <f aca="true">IF(Q166 = "", "", Q166 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S166" s="30" t="str">
+      <c r="S166" s="31" t="str">
         <f aca="true">IF(J166="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="I167" s="28" t="str">
+      <c r="B167" s="27"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="I167" s="29" t="str">
         <f aca="true">IF(J167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R167" s="29" t="str">
+      <c r="R167" s="30" t="str">
         <f aca="true">IF(Q167 = "", "", Q167 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S167" s="30" t="str">
+      <c r="S167" s="31" t="str">
         <f aca="true">IF(J167="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="I168" s="28" t="str">
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="I168" s="29" t="str">
         <f aca="true">IF(J168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R168" s="29" t="str">
+      <c r="R168" s="30" t="str">
         <f aca="true">IF(Q168 = "", "", Q168 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S168" s="30" t="str">
+      <c r="S168" s="31" t="str">
         <f aca="true">IF(J168="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="I169" s="28" t="str">
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="I169" s="29" t="str">
         <f aca="true">IF(J169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R169" s="29" t="str">
+      <c r="R169" s="30" t="str">
         <f aca="true">IF(Q169 = "", "", Q169 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S169" s="30" t="str">
+      <c r="S169" s="31" t="str">
         <f aca="true">IF(J169="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="I170" s="28" t="str">
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="I170" s="29" t="str">
         <f aca="true">IF(J170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R170" s="29" t="str">
+      <c r="R170" s="30" t="str">
         <f aca="true">IF(Q170 = "", "", Q170 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S170" s="30" t="str">
+      <c r="S170" s="31" t="str">
         <f aca="true">IF(J170="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="I171" s="28" t="str">
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="I171" s="29" t="str">
         <f aca="true">IF(J171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R171" s="29" t="str">
+      <c r="R171" s="30" t="str">
         <f aca="true">IF(Q171 = "", "", Q171 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S171" s="30" t="str">
+      <c r="S171" s="31" t="str">
         <f aca="true">IF(J171="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="I172" s="28" t="str">
+      <c r="B172" s="27"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="I172" s="29" t="str">
         <f aca="true">IF(J172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R172" s="29" t="str">
+      <c r="R172" s="30" t="str">
         <f aca="true">IF(Q172 = "", "", Q172 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S172" s="30" t="str">
+      <c r="S172" s="31" t="str">
         <f aca="true">IF(J172="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="I173" s="28" t="str">
+      <c r="B173" s="27"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="I173" s="29" t="str">
         <f aca="true">IF(J173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R173" s="29" t="str">
+      <c r="R173" s="30" t="str">
         <f aca="true">IF(Q173 = "", "", Q173 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S173" s="30" t="str">
+      <c r="S173" s="31" t="str">
         <f aca="true">IF(J173="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="I174" s="28" t="str">
+      <c r="B174" s="27"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="I174" s="29" t="str">
         <f aca="true">IF(J174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R174" s="29" t="str">
+      <c r="R174" s="30" t="str">
         <f aca="true">IF(Q174 = "", "", Q174 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S174" s="30" t="str">
+      <c r="S174" s="31" t="str">
         <f aca="true">IF(J174="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="I175" s="28" t="str">
+      <c r="B175" s="27"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="I175" s="29" t="str">
         <f aca="true">IF(J175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R175" s="29" t="str">
+      <c r="R175" s="30" t="str">
         <f aca="true">IF(Q175 = "", "", Q175 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S175" s="30" t="str">
+      <c r="S175" s="31" t="str">
         <f aca="true">IF(J175="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="I176" s="28" t="str">
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="I176" s="29" t="str">
         <f aca="true">IF(J176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R176" s="29" t="str">
+      <c r="R176" s="30" t="str">
         <f aca="true">IF(Q176 = "", "", Q176 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S176" s="30" t="str">
+      <c r="S176" s="31" t="str">
         <f aca="true">IF(J176="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="I177" s="28" t="str">
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="I177" s="29" t="str">
         <f aca="true">IF(J177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R177" s="29" t="str">
+      <c r="R177" s="30" t="str">
         <f aca="true">IF(Q177 = "", "", Q177 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S177" s="30" t="str">
+      <c r="S177" s="31" t="str">
         <f aca="true">IF(J177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="I178" s="28" t="str">
+      <c r="B178" s="27"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="I178" s="29" t="str">
         <f aca="true">IF(J178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R178" s="29" t="str">
+      <c r="R178" s="30" t="str">
         <f aca="true">IF(Q178 = "", "", Q178 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S178" s="30" t="str">
+      <c r="S178" s="31" t="str">
         <f aca="true">IF(J178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="I179" s="28" t="str">
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="I179" s="29" t="str">
         <f aca="true">IF(J179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R179" s="29" t="str">
+      <c r="R179" s="30" t="str">
         <f aca="true">IF(Q179 = "", "", Q179 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S179" s="30" t="str">
+      <c r="S179" s="31" t="str">
         <f aca="true">IF(J179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="I180" s="28" t="str">
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="I180" s="29" t="str">
         <f aca="true">IF(J180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R180" s="29" t="str">
+      <c r="R180" s="30" t="str">
         <f aca="true">IF(Q180 = "", "", Q180 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S180" s="30" t="str">
+      <c r="S180" s="31" t="str">
         <f aca="true">IF(J180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="I181" s="28" t="str">
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="I181" s="29" t="str">
         <f aca="true">IF(J181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R181" s="29" t="str">
+      <c r="R181" s="30" t="str">
         <f aca="true">IF(Q181 = "", "", Q181 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S181" s="30" t="str">
+      <c r="S181" s="31" t="str">
         <f aca="true">IF(J181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="I182" s="28" t="str">
+      <c r="B182" s="27"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="I182" s="29" t="str">
         <f aca="true">IF(J182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R182" s="29" t="str">
+      <c r="R182" s="30" t="str">
         <f aca="true">IF(Q182 = "", "", Q182 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S182" s="30" t="str">
+      <c r="S182" s="31" t="str">
         <f aca="true">IF(J182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="I183" s="28" t="str">
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="I183" s="29" t="str">
         <f aca="true">IF(J183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R183" s="29" t="str">
+      <c r="R183" s="30" t="str">
         <f aca="true">IF(Q183 = "", "", Q183 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S183" s="30" t="str">
+      <c r="S183" s="31" t="str">
         <f aca="true">IF(J183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="I184" s="28" t="str">
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="I184" s="29" t="str">
         <f aca="true">IF(J184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R184" s="29" t="str">
+      <c r="R184" s="30" t="str">
         <f aca="true">IF(Q184 = "", "", Q184 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S184" s="30" t="str">
+      <c r="S184" s="31" t="str">
         <f aca="true">IF(J184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="I185" s="28" t="str">
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="I185" s="29" t="str">
         <f aca="true">IF(J185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R185" s="29"/>
-      <c r="S185" s="30" t="str">
+      <c r="R185" s="30"/>
+      <c r="S185" s="31" t="str">
         <f aca="true">IF(J185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="I186" s="28" t="str">
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="I186" s="29" t="str">
         <f aca="true">IF(J186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R186" s="29"/>
-      <c r="S186" s="30" t="str">
+      <c r="R186" s="30"/>
+      <c r="S186" s="31" t="str">
         <f aca="true">IF(J186="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="I187" s="28" t="str">
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="I187" s="29" t="str">
         <f aca="true">IF(J187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R187" s="29"/>
-      <c r="S187" s="30" t="str">
+      <c r="R187" s="30"/>
+      <c r="S187" s="31" t="str">
         <f aca="true">IF(J187="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="I188" s="28" t="str">
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="I188" s="29" t="str">
         <f aca="true">IF(J188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R188" s="29"/>
-      <c r="S188" s="30" t="str">
+      <c r="R188" s="30"/>
+      <c r="S188" s="31" t="str">
         <f aca="true">IF(J188="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="I189" s="28" t="str">
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="I189" s="29" t="str">
         <f aca="true">IF(J189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R189" s="29"/>
-      <c r="S189" s="30" t="str">
+      <c r="R189" s="30"/>
+      <c r="S189" s="31" t="str">
         <f aca="true">IF(J189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="I190" s="28" t="str">
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="I190" s="29" t="str">
         <f aca="true">IF(J190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R190" s="29"/>
-      <c r="S190" s="30" t="str">
+      <c r="R190" s="30"/>
+      <c r="S190" s="31" t="str">
         <f aca="true">IF(J190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="I191" s="28" t="str">
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="I191" s="29" t="str">
         <f aca="true">IF(J191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R191" s="29"/>
-      <c r="S191" s="30" t="str">
+      <c r="R191" s="30"/>
+      <c r="S191" s="31" t="str">
         <f aca="true">IF(J191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="I192" s="28" t="str">
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="I192" s="29" t="str">
         <f aca="true">IF(J192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R192" s="29"/>
-      <c r="S192" s="30" t="str">
+      <c r="R192" s="30"/>
+      <c r="S192" s="31" t="str">
         <f aca="true">IF(J192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="I193" s="28" t="str">
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="I193" s="29" t="str">
         <f aca="true">IF(J193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R193" s="29"/>
-      <c r="S193" s="30" t="str">
+      <c r="R193" s="30"/>
+      <c r="S193" s="31" t="str">
         <f aca="true">IF(J193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="I194" s="28" t="str">
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="I194" s="29" t="str">
         <f aca="true">IF(J194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R194" s="29"/>
-      <c r="S194" s="30" t="str">
+      <c r="R194" s="30"/>
+      <c r="S194" s="31" t="str">
         <f aca="true">IF(J194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="I195" s="28" t="str">
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="I195" s="29" t="str">
         <f aca="true">IF(J195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R195" s="29"/>
-      <c r="S195" s="30" t="str">
+      <c r="R195" s="30"/>
+      <c r="S195" s="31" t="str">
         <f aca="true">IF(J195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="I196" s="28" t="str">
+      <c r="B196" s="27"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="I196" s="29" t="str">
         <f aca="true">IF(J196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R196" s="29"/>
-      <c r="S196" s="30" t="str">
+      <c r="R196" s="30"/>
+      <c r="S196" s="31" t="str">
         <f aca="true">IF(J196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="I197" s="28" t="str">
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="I197" s="29" t="str">
         <f aca="true">IF(J197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R197" s="29"/>
-      <c r="S197" s="30" t="str">
+      <c r="R197" s="30"/>
+      <c r="S197" s="31" t="str">
         <f aca="true">IF(J197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="I198" s="28" t="str">
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="I198" s="29" t="str">
         <f aca="true">IF(J198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R198" s="29"/>
-      <c r="S198" s="30" t="str">
+      <c r="R198" s="30"/>
+      <c r="S198" s="31" t="str">
         <f aca="true">IF(J198="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
-      <c r="I199" s="28" t="str">
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="I199" s="29" t="str">
         <f aca="true">IF(J199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R199" s="29"/>
-      <c r="S199" s="30" t="str">
+      <c r="R199" s="30"/>
+      <c r="S199" s="31" t="str">
         <f aca="true">IF(J199="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="I200" s="28" t="str">
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="27"/>
+      <c r="I200" s="29" t="str">
         <f aca="true">IF(J200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R200" s="29"/>
-      <c r="S200" s="30" t="str">
+      <c r="R200" s="30"/>
+      <c r="S200" s="31" t="str">
         <f aca="true">IF(J200="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="I201" s="28" t="str">
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="I201" s="29" t="str">
         <f aca="true">IF(J201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R201" s="29"/>
-      <c r="S201" s="30" t="str">
+      <c r="R201" s="30"/>
+      <c r="S201" s="31" t="str">
         <f aca="true">IF(J201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="I202" s="28" t="str">
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="I202" s="29" t="str">
         <f aca="true">IF(J202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R202" s="29"/>
-      <c r="S202" s="30" t="str">
+      <c r="R202" s="30"/>
+      <c r="S202" s="31" t="str">
         <f aca="true">IF(J202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="I203" s="28" t="str">
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="I203" s="29" t="str">
         <f aca="true">IF(J203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R203" s="29"/>
-      <c r="S203" s="30" t="str">
+      <c r="R203" s="30"/>
+      <c r="S203" s="31" t="str">
         <f aca="true">IF(J203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="I204" s="28" t="str">
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="I204" s="29" t="str">
         <f aca="true">IF(J204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R204" s="29"/>
-      <c r="S204" s="30" t="str">
+      <c r="R204" s="30"/>
+      <c r="S204" s="31" t="str">
         <f aca="true">IF(J204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="I205" s="28" t="str">
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="I205" s="29" t="str">
         <f aca="true">IF(J205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R205" s="29"/>
-      <c r="S205" s="30" t="str">
+      <c r="R205" s="30"/>
+      <c r="S205" s="31" t="str">
         <f aca="true">IF(J205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="I206" s="28" t="str">
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="I206" s="29" t="str">
         <f aca="true">IF(J206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R206" s="29"/>
-      <c r="S206" s="30" t="str">
+      <c r="R206" s="30"/>
+      <c r="S206" s="31" t="str">
         <f aca="true">IF(J206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
-      <c r="I207" s="28" t="str">
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="I207" s="29" t="str">
         <f aca="true">IF(J207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R207" s="29"/>
-      <c r="S207" s="30" t="str">
+      <c r="R207" s="30"/>
+      <c r="S207" s="31" t="str">
         <f aca="true">IF(J207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="I208" s="28" t="str">
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="27"/>
+      <c r="I208" s="29" t="str">
         <f aca="true">IF(J208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R208" s="29"/>
-      <c r="S208" s="30" t="str">
+      <c r="R208" s="30"/>
+      <c r="S208" s="31" t="str">
         <f aca="true">IF(J208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
-      <c r="I209" s="28" t="str">
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="I209" s="29" t="str">
         <f aca="true">IF(J209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R209" s="29"/>
-      <c r="S209" s="30" t="str">
+      <c r="R209" s="30"/>
+      <c r="S209" s="31" t="str">
         <f aca="true">IF(J209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="I210" s="28" t="str">
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="I210" s="29" t="str">
         <f aca="true">IF(J210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R210" s="29"/>
-      <c r="S210" s="30" t="str">
+      <c r="R210" s="30"/>
+      <c r="S210" s="31" t="str">
         <f aca="true">IF(J210="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="I211" s="28" t="str">
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
+      <c r="I211" s="29" t="str">
         <f aca="true">IF(J211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R211" s="29"/>
-      <c r="S211" s="30" t="str">
+      <c r="R211" s="30"/>
+      <c r="S211" s="31" t="str">
         <f aca="true">IF(J211="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="I212" s="28" t="str">
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="I212" s="29" t="str">
         <f aca="true">IF(J212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R212" s="29"/>
-      <c r="S212" s="30" t="str">
+      <c r="R212" s="30"/>
+      <c r="S212" s="31" t="str">
         <f aca="true">IF(J212="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="I213" s="28" t="str">
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="I213" s="29" t="str">
         <f aca="true">IF(J213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R213" s="29"/>
-      <c r="S213" s="30" t="str">
+      <c r="R213" s="30"/>
+      <c r="S213" s="31" t="str">
         <f aca="true">IF(J213="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="I214" s="28" t="str">
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="I214" s="29" t="str">
         <f aca="true">IF(J214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R214" s="29"/>
-      <c r="S214" s="30" t="str">
+      <c r="R214" s="30"/>
+      <c r="S214" s="31" t="str">
         <f aca="true">IF(J214="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
-      <c r="I215" s="28" t="str">
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="I215" s="29" t="str">
         <f aca="true">IF(J215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R215" s="29"/>
-      <c r="S215" s="30" t="str">
+      <c r="R215" s="30"/>
+      <c r="S215" s="31" t="str">
         <f aca="true">IF(J215="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
-      <c r="I216" s="28" t="str">
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="I216" s="29" t="str">
         <f aca="true">IF(J216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R216" s="29"/>
-      <c r="S216" s="30" t="str">
+      <c r="R216" s="30"/>
+      <c r="S216" s="31" t="str">
         <f aca="true">IF(J216="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="I217" s="28" t="str">
+      <c r="B217" s="27"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="I217" s="29" t="str">
         <f aca="true">IF(J217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R217" s="29"/>
-      <c r="S217" s="30" t="str">
+      <c r="R217" s="30"/>
+      <c r="S217" s="31" t="str">
         <f aca="true">IF(J217="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="I218" s="28" t="str">
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="I218" s="29" t="str">
         <f aca="true">IF(J218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R218" s="29"/>
-      <c r="S218" s="30" t="str">
+      <c r="R218" s="30"/>
+      <c r="S218" s="31" t="str">
         <f aca="true">IF(J218="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="I219" s="28" t="str">
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="I219" s="29" t="str">
         <f aca="true">IF(J219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R219" s="29"/>
-      <c r="S219" s="30" t="str">
+      <c r="R219" s="30"/>
+      <c r="S219" s="31" t="str">
         <f aca="true">IF(J219="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="26"/>
-      <c r="I220" s="28" t="str">
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="I220" s="29" t="str">
         <f aca="true">IF(J220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R220" s="29"/>
-      <c r="S220" s="30" t="str">
+      <c r="R220" s="30"/>
+      <c r="S220" s="31" t="str">
         <f aca="true">IF(J220="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="I221" s="28" t="str">
+      <c r="B221" s="27"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="27"/>
+      <c r="I221" s="29" t="str">
         <f aca="true">IF(J221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R221" s="29"/>
-      <c r="S221" s="30" t="str">
+      <c r="R221" s="30"/>
+      <c r="S221" s="31" t="str">
         <f aca="true">IF(J221="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="26"/>
-      <c r="I222" s="28" t="str">
+      <c r="B222" s="27"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="27"/>
+      <c r="I222" s="29" t="str">
         <f aca="true">IF(J222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R222" s="29"/>
-      <c r="S222" s="30" t="str">
+      <c r="R222" s="30"/>
+      <c r="S222" s="31" t="str">
         <f aca="true">IF(J222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26"/>
-      <c r="I223" s="28" t="str">
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+      <c r="I223" s="29" t="str">
         <f aca="true">IF(J223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R223" s="29"/>
-      <c r="S223" s="30" t="str">
+      <c r="R223" s="30"/>
+      <c r="S223" s="31" t="str">
         <f aca="true">IF(J223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="26"/>
-      <c r="I224" s="28" t="str">
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+      <c r="I224" s="29" t="str">
         <f aca="true">IF(J224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R224" s="29"/>
-      <c r="S224" s="30" t="str">
+      <c r="R224" s="30"/>
+      <c r="S224" s="31" t="str">
         <f aca="true">IF(J224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
-      <c r="I225" s="28" t="str">
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="27"/>
+      <c r="I225" s="29" t="str">
         <f aca="true">IF(J225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R225" s="29"/>
-      <c r="S225" s="30" t="str">
+      <c r="R225" s="30"/>
+      <c r="S225" s="31" t="str">
         <f aca="true">IF(J225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="I226" s="28" t="str">
+      <c r="B226" s="27"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="I226" s="29" t="str">
         <f aca="true">IF(J226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R226" s="29"/>
-      <c r="S226" s="30" t="str">
+      <c r="R226" s="30"/>
+      <c r="S226" s="31" t="str">
         <f aca="true">IF(J226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="I227" s="28" t="str">
+      <c r="B227" s="27"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="27"/>
+      <c r="I227" s="29" t="str">
         <f aca="true">IF(J227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R227" s="29"/>
-      <c r="S227" s="30" t="str">
+      <c r="R227" s="30"/>
+      <c r="S227" s="31" t="str">
         <f aca="true">IF(J227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="I228" s="28" t="str">
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="27"/>
+      <c r="I228" s="29" t="str">
         <f aca="true">IF(J228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R228" s="29"/>
-      <c r="S228" s="30" t="str">
+      <c r="R228" s="30"/>
+      <c r="S228" s="31" t="str">
         <f aca="true">IF(J228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
-      <c r="I229" s="28" t="str">
+      <c r="B229" s="27"/>
+      <c r="C229" s="27"/>
+      <c r="D229" s="27"/>
+      <c r="I229" s="29" t="str">
         <f aca="true">IF(J229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R229" s="29"/>
-      <c r="S229" s="30" t="str">
+      <c r="R229" s="30"/>
+      <c r="S229" s="31" t="str">
         <f aca="true">IF(J229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="I230" s="28" t="str">
+      <c r="B230" s="27"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="27"/>
+      <c r="I230" s="29" t="str">
         <f aca="true">IF(J230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R230" s="29"/>
-      <c r="S230" s="30"/>
+      <c r="R230" s="30"/>
+      <c r="S230" s="31"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="I231" s="28" t="str">
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="27"/>
+      <c r="I231" s="29" t="str">
         <f aca="true">IF(J231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R231" s="29"/>
-      <c r="S231" s="30"/>
+      <c r="R231" s="30"/>
+      <c r="S231" s="31"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="I232" s="28" t="str">
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="27"/>
+      <c r="I232" s="29" t="str">
         <f aca="true">IF(J232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R232" s="29"/>
-      <c r="S232" s="30"/>
+      <c r="R232" s="30"/>
+      <c r="S232" s="31"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="I233" s="28" t="str">
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="27"/>
+      <c r="I233" s="29" t="str">
         <f aca="true">IF(J233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R233" s="29"/>
-      <c r="S233" s="30"/>
+      <c r="R233" s="30"/>
+      <c r="S233" s="31"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="I234" s="28" t="str">
+      <c r="B234" s="27"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="27"/>
+      <c r="I234" s="29" t="str">
         <f aca="true">IF(J234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R234" s="29"/>
-      <c r="S234" s="30"/>
+      <c r="R234" s="30"/>
+      <c r="S234" s="31"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="26"/>
-      <c r="I235" s="28" t="str">
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="27"/>
+      <c r="I235" s="29" t="str">
         <f aca="true">IF(J235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R235" s="29"/>
-      <c r="S235" s="30"/>
+      <c r="R235" s="30"/>
+      <c r="S235" s="31"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
-      <c r="I236" s="28" t="str">
+      <c r="B236" s="27"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="27"/>
+      <c r="I236" s="29" t="str">
         <f aca="true">IF(J236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R236" s="29"/>
-      <c r="S236" s="30"/>
+      <c r="R236" s="30"/>
+      <c r="S236" s="31"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="26"/>
-      <c r="I237" s="28" t="str">
+      <c r="B237" s="27"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="27"/>
+      <c r="I237" s="29" t="str">
         <f aca="true">IF(J237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R237" s="29"/>
-      <c r="S237" s="30"/>
+      <c r="R237" s="30"/>
+      <c r="S237" s="31"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
-      <c r="I238" s="28" t="str">
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="27"/>
+      <c r="I238" s="29" t="str">
         <f aca="true">IF(J238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R238" s="29"/>
-      <c r="S238" s="30"/>
+      <c r="R238" s="30"/>
+      <c r="S238" s="31"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
-      <c r="I239" s="28" t="str">
+      <c r="B239" s="27"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="27"/>
+      <c r="I239" s="29" t="str">
         <f aca="true">IF(J239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R239" s="29"/>
-      <c r="S239" s="30"/>
+      <c r="R239" s="30"/>
+      <c r="S239" s="31"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="I240" s="28" t="str">
+      <c r="B240" s="27"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="27"/>
+      <c r="I240" s="29" t="str">
         <f aca="true">IF(J240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R240" s="29"/>
-      <c r="S240" s="30"/>
+      <c r="R240" s="30"/>
+      <c r="S240" s="31"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26"/>
-      <c r="I241" s="28" t="str">
+      <c r="B241" s="27"/>
+      <c r="C241" s="27"/>
+      <c r="D241" s="27"/>
+      <c r="I241" s="29" t="str">
         <f aca="true">IF(J241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R241" s="29"/>
-      <c r="S241" s="30"/>
+      <c r="R241" s="30"/>
+      <c r="S241" s="31"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="I242" s="28" t="str">
+      <c r="B242" s="27"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="27"/>
+      <c r="I242" s="29" t="str">
         <f aca="true">IF(J242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R242" s="29"/>
-      <c r="S242" s="30"/>
+      <c r="R242" s="30"/>
+      <c r="S242" s="31"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="I243" s="28" t="str">
+      <c r="B243" s="27"/>
+      <c r="C243" s="27"/>
+      <c r="D243" s="27"/>
+      <c r="I243" s="29" t="str">
         <f aca="true">IF(J243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R243" s="29"/>
-      <c r="S243" s="30"/>
+      <c r="R243" s="30"/>
+      <c r="S243" s="31"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
-      <c r="I244" s="28" t="str">
+      <c r="B244" s="27"/>
+      <c r="C244" s="27"/>
+      <c r="D244" s="27"/>
+      <c r="I244" s="29" t="str">
         <f aca="true">IF(J244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R244" s="29"/>
-      <c r="S244" s="30"/>
+      <c r="R244" s="30"/>
+      <c r="S244" s="31"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
-      <c r="I245" s="28" t="str">
+      <c r="B245" s="27"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="27"/>
+      <c r="I245" s="29" t="str">
         <f aca="true">IF(J245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R245" s="29"/>
-      <c r="S245" s="30"/>
+      <c r="R245" s="30"/>
+      <c r="S245" s="31"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="26"/>
-      <c r="I246" s="28" t="str">
+      <c r="B246" s="27"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="27"/>
+      <c r="I246" s="29" t="str">
         <f aca="true">IF(J246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R246" s="29"/>
-      <c r="S246" s="30"/>
+      <c r="R246" s="30"/>
+      <c r="S246" s="31"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
-      <c r="I247" s="28" t="str">
+      <c r="B247" s="27"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="27"/>
+      <c r="I247" s="29" t="str">
         <f aca="true">IF(J247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R247" s="29"/>
-      <c r="S247" s="30"/>
+      <c r="R247" s="30"/>
+      <c r="S247" s="31"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="26"/>
-      <c r="I248" s="28" t="str">
+      <c r="B248" s="27"/>
+      <c r="C248" s="27"/>
+      <c r="D248" s="27"/>
+      <c r="I248" s="29" t="str">
         <f aca="true">IF(J248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R248" s="29"/>
-      <c r="S248" s="30"/>
+      <c r="R248" s="30"/>
+      <c r="S248" s="31"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="26"/>
-      <c r="I249" s="28" t="str">
+      <c r="B249" s="27"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="27"/>
+      <c r="I249" s="29" t="str">
         <f aca="true">IF(J249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R249" s="29"/>
-      <c r="S249" s="30"/>
+      <c r="R249" s="30"/>
+      <c r="S249" s="31"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
-      <c r="D250" s="26"/>
-      <c r="I250" s="28" t="str">
+      <c r="B250" s="27"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="27"/>
+      <c r="I250" s="29" t="str">
         <f aca="true">IF(J250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R250" s="29"/>
-      <c r="S250" s="30"/>
+      <c r="R250" s="30"/>
+      <c r="S250" s="31"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
-      <c r="I251" s="28" t="str">
+      <c r="B251" s="27"/>
+      <c r="C251" s="27"/>
+      <c r="D251" s="27"/>
+      <c r="I251" s="29" t="str">
         <f aca="true">IF(J251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R251" s="29"/>
-      <c r="S251" s="30"/>
+      <c r="R251" s="30"/>
+      <c r="S251" s="31"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="26"/>
-      <c r="I252" s="28" t="str">
+      <c r="B252" s="27"/>
+      <c r="C252" s="27"/>
+      <c r="D252" s="27"/>
+      <c r="I252" s="29" t="str">
         <f aca="true">IF(J252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R252" s="29"/>
-      <c r="S252" s="30"/>
+      <c r="R252" s="30"/>
+      <c r="S252" s="31"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
-      <c r="I253" s="28" t="str">
+      <c r="B253" s="27"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="27"/>
+      <c r="I253" s="29" t="str">
         <f aca="true">IF(J253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R253" s="29"/>
-      <c r="S253" s="30"/>
+      <c r="R253" s="30"/>
+      <c r="S253" s="31"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="26"/>
-      <c r="I254" s="28" t="str">
+      <c r="B254" s="27"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="27"/>
+      <c r="I254" s="29" t="str">
         <f aca="true">IF(J254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R254" s="29"/>
-      <c r="S254" s="30"/>
+      <c r="R254" s="30"/>
+      <c r="S254" s="31"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="26"/>
-      <c r="I255" s="28" t="str">
+      <c r="B255" s="27"/>
+      <c r="C255" s="27"/>
+      <c r="D255" s="27"/>
+      <c r="I255" s="29" t="str">
         <f aca="true">IF(J255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R255" s="29"/>
-      <c r="S255" s="30"/>
+      <c r="R255" s="30"/>
+      <c r="S255" s="31"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="26"/>
-      <c r="I256" s="28" t="str">
+      <c r="B256" s="27"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="27"/>
+      <c r="I256" s="29" t="str">
         <f aca="true">IF(J256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R256" s="29"/>
-      <c r="S256" s="30"/>
+      <c r="R256" s="30"/>
+      <c r="S256" s="31"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26"/>
-      <c r="I257" s="28" t="str">
+      <c r="B257" s="27"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="27"/>
+      <c r="I257" s="29" t="str">
         <f aca="true">IF(J257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R257" s="29"/>
-      <c r="S257" s="30"/>
+      <c r="R257" s="30"/>
+      <c r="S257" s="31"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="26"/>
-      <c r="I258" s="28" t="str">
+      <c r="B258" s="27"/>
+      <c r="C258" s="27"/>
+      <c r="D258" s="27"/>
+      <c r="I258" s="29" t="str">
         <f aca="true">IF(J258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R258" s="29"/>
-      <c r="S258" s="30"/>
+      <c r="R258" s="30"/>
+      <c r="S258" s="31"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="26"/>
-      <c r="I259" s="28" t="str">
+      <c r="B259" s="27"/>
+      <c r="C259" s="27"/>
+      <c r="D259" s="27"/>
+      <c r="I259" s="29" t="str">
         <f aca="true">IF(J259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R259" s="29"/>
-      <c r="S259" s="30"/>
+      <c r="R259" s="30"/>
+      <c r="S259" s="31"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="26"/>
-      <c r="I260" s="28" t="str">
+      <c r="B260" s="27"/>
+      <c r="C260" s="27"/>
+      <c r="D260" s="27"/>
+      <c r="I260" s="29" t="str">
         <f aca="true">IF(J260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R260" s="29"/>
-      <c r="S260" s="30"/>
+      <c r="R260" s="30"/>
+      <c r="S260" s="31"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
-      <c r="I261" s="28" t="str">
+      <c r="B261" s="27"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="27"/>
+      <c r="I261" s="29" t="str">
         <f aca="true">IF(J261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R261" s="29"/>
-      <c r="S261" s="30"/>
+      <c r="R261" s="30"/>
+      <c r="S261" s="31"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="26"/>
-      <c r="I262" s="28" t="str">
+      <c r="B262" s="27"/>
+      <c r="C262" s="27"/>
+      <c r="D262" s="27"/>
+      <c r="I262" s="29" t="str">
         <f aca="true">IF(J262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R262" s="29"/>
-      <c r="S262" s="30"/>
+      <c r="R262" s="30"/>
+      <c r="S262" s="31"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="26"/>
-      <c r="I263" s="28" t="str">
+      <c r="B263" s="27"/>
+      <c r="C263" s="27"/>
+      <c r="D263" s="27"/>
+      <c r="I263" s="29" t="str">
         <f aca="true">IF(J263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R263" s="29"/>
-      <c r="S263" s="30"/>
+      <c r="R263" s="30"/>
+      <c r="S263" s="31"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="26"/>
-      <c r="I264" s="28" t="str">
+      <c r="B264" s="27"/>
+      <c r="C264" s="27"/>
+      <c r="D264" s="27"/>
+      <c r="I264" s="29" t="str">
         <f aca="true">IF(J264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R264" s="29"/>
-      <c r="S264" s="30"/>
+      <c r="R264" s="30"/>
+      <c r="S264" s="31"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="26"/>
-      <c r="I265" s="28" t="str">
+      <c r="B265" s="27"/>
+      <c r="C265" s="27"/>
+      <c r="D265" s="27"/>
+      <c r="I265" s="29" t="str">
         <f aca="true">IF(J265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R265" s="29"/>
-      <c r="S265" s="30"/>
+      <c r="R265" s="30"/>
+      <c r="S265" s="31"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
-      <c r="D266" s="26"/>
-      <c r="I266" s="28" t="str">
+      <c r="B266" s="27"/>
+      <c r="C266" s="27"/>
+      <c r="D266" s="27"/>
+      <c r="I266" s="29" t="str">
         <f aca="true">IF(J266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R266" s="29"/>
-      <c r="S266" s="30"/>
+      <c r="R266" s="30"/>
+      <c r="S266" s="31"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="I267" s="28" t="str">
+      <c r="B267" s="27"/>
+      <c r="C267" s="27"/>
+      <c r="D267" s="27"/>
+      <c r="I267" s="29" t="str">
         <f aca="true">IF(J267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R267" s="29"/>
-      <c r="S267" s="30"/>
+      <c r="R267" s="30"/>
+      <c r="S267" s="31"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="26"/>
-      <c r="I268" s="28" t="str">
+      <c r="B268" s="27"/>
+      <c r="C268" s="27"/>
+      <c r="D268" s="27"/>
+      <c r="I268" s="29" t="str">
         <f aca="true">IF(J268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="26"/>
-      <c r="I269" s="28" t="str">
+      <c r="B269" s="27"/>
+      <c r="C269" s="27"/>
+      <c r="D269" s="27"/>
+      <c r="I269" s="29" t="str">
         <f aca="true">IF(J269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="26"/>
-      <c r="I270" s="28" t="str">
+      <c r="B270" s="27"/>
+      <c r="C270" s="27"/>
+      <c r="D270" s="27"/>
+      <c r="I270" s="29" t="str">
         <f aca="true">IF(J270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
-      <c r="D271" s="26"/>
-      <c r="I271" s="28" t="str">
+      <c r="B271" s="27"/>
+      <c r="C271" s="27"/>
+      <c r="D271" s="27"/>
+      <c r="I271" s="29" t="str">
         <f aca="true">IF(J271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="I272" s="28" t="str">
+      <c r="B272" s="27"/>
+      <c r="C272" s="27"/>
+      <c r="D272" s="27"/>
+      <c r="I272" s="29" t="str">
         <f aca="true">IF(J272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="26"/>
-      <c r="I273" s="28" t="str">
+      <c r="B273" s="27"/>
+      <c r="C273" s="27"/>
+      <c r="D273" s="27"/>
+      <c r="I273" s="29" t="str">
         <f aca="true">IF(J273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
-      <c r="D274" s="26"/>
-      <c r="I274" s="28" t="str">
+      <c r="B274" s="27"/>
+      <c r="C274" s="27"/>
+      <c r="D274" s="27"/>
+      <c r="I274" s="29" t="str">
         <f aca="true">IF(J274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="D275" s="26"/>
-      <c r="I275" s="28" t="str">
+      <c r="B275" s="27"/>
+      <c r="C275" s="27"/>
+      <c r="D275" s="27"/>
+      <c r="I275" s="29" t="str">
         <f aca="true">IF(J275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="26"/>
-      <c r="I276" s="28" t="str">
+      <c r="B276" s="27"/>
+      <c r="C276" s="27"/>
+      <c r="D276" s="27"/>
+      <c r="I276" s="29" t="str">
         <f aca="true">IF(J276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
-      <c r="D277" s="26"/>
-      <c r="I277" s="28" t="str">
+      <c r="B277" s="27"/>
+      <c r="C277" s="27"/>
+      <c r="D277" s="27"/>
+      <c r="I277" s="29" t="str">
         <f aca="true">IF(J277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
-      <c r="D278" s="26"/>
-      <c r="I278" s="28" t="str">
+      <c r="B278" s="27"/>
+      <c r="C278" s="27"/>
+      <c r="D278" s="27"/>
+      <c r="I278" s="29" t="str">
         <f aca="true">IF(J278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
-      <c r="D279" s="26"/>
-      <c r="I279" s="28" t="str">
+      <c r="B279" s="27"/>
+      <c r="C279" s="27"/>
+      <c r="D279" s="27"/>
+      <c r="I279" s="29" t="str">
         <f aca="true">IF(J279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
-      <c r="D280" s="26"/>
-      <c r="I280" s="28" t="str">
+      <c r="B280" s="27"/>
+      <c r="C280" s="27"/>
+      <c r="D280" s="27"/>
+      <c r="I280" s="29" t="str">
         <f aca="true">IF(J280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
-      <c r="D281" s="26"/>
-      <c r="I281" s="28" t="str">
+      <c r="B281" s="27"/>
+      <c r="C281" s="27"/>
+      <c r="D281" s="27"/>
+      <c r="I281" s="29" t="str">
         <f aca="true">IF(J281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="26"/>
-      <c r="C282" s="26"/>
-      <c r="D282" s="26"/>
-      <c r="I282" s="28" t="str">
+      <c r="B282" s="27"/>
+      <c r="C282" s="27"/>
+      <c r="D282" s="27"/>
+      <c r="I282" s="29" t="str">
         <f aca="true">IF(J282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
-      <c r="D283" s="26"/>
-      <c r="I283" s="28" t="str">
+      <c r="B283" s="27"/>
+      <c r="C283" s="27"/>
+      <c r="D283" s="27"/>
+      <c r="I283" s="29" t="str">
         <f aca="true">IF(J283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
-      <c r="D284" s="26"/>
-      <c r="I284" s="28" t="str">
+      <c r="B284" s="27"/>
+      <c r="C284" s="27"/>
+      <c r="D284" s="27"/>
+      <c r="I284" s="29" t="str">
         <f aca="true">IF(J284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
-      <c r="D285" s="26"/>
-      <c r="I285" s="28" t="str">
+      <c r="B285" s="27"/>
+      <c r="C285" s="27"/>
+      <c r="D285" s="27"/>
+      <c r="I285" s="29" t="str">
         <f aca="true">IF(J285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="26"/>
-      <c r="C286" s="26"/>
-      <c r="D286" s="26"/>
-      <c r="I286" s="28" t="str">
+      <c r="B286" s="27"/>
+      <c r="C286" s="27"/>
+      <c r="D286" s="27"/>
+      <c r="I286" s="29" t="str">
         <f aca="true">IF(J286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
-      <c r="D287" s="26"/>
-      <c r="I287" s="28" t="str">
+      <c r="B287" s="27"/>
+      <c r="C287" s="27"/>
+      <c r="D287" s="27"/>
+      <c r="I287" s="29" t="str">
         <f aca="true">IF(J287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="26"/>
-      <c r="C288" s="26"/>
-      <c r="D288" s="26"/>
-      <c r="I288" s="28" t="str">
+      <c r="B288" s="27"/>
+      <c r="C288" s="27"/>
+      <c r="D288" s="27"/>
+      <c r="I288" s="29" t="str">
         <f aca="true">IF(J288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="26"/>
-      <c r="C289" s="26"/>
-      <c r="D289" s="26"/>
-      <c r="I289" s="28" t="str">
+      <c r="B289" s="27"/>
+      <c r="C289" s="27"/>
+      <c r="D289" s="27"/>
+      <c r="I289" s="29" t="str">
         <f aca="true">IF(J289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="26"/>
-      <c r="C290" s="26"/>
-      <c r="D290" s="26"/>
-      <c r="I290" s="28" t="str">
+      <c r="B290" s="27"/>
+      <c r="C290" s="27"/>
+      <c r="D290" s="27"/>
+      <c r="I290" s="29" t="str">
         <f aca="true">IF(J290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
-      <c r="D291" s="26"/>
-      <c r="I291" s="28" t="str">
+      <c r="B291" s="27"/>
+      <c r="C291" s="27"/>
+      <c r="D291" s="27"/>
+      <c r="I291" s="29" t="str">
         <f aca="true">IF(J291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="26"/>
-      <c r="C292" s="26"/>
-      <c r="D292" s="26"/>
-      <c r="I292" s="28" t="str">
+      <c r="B292" s="27"/>
+      <c r="C292" s="27"/>
+      <c r="D292" s="27"/>
+      <c r="I292" s="29" t="str">
         <f aca="true">IF(J292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="26"/>
-      <c r="C293" s="26"/>
-      <c r="D293" s="26"/>
-      <c r="I293" s="28" t="str">
+      <c r="B293" s="27"/>
+      <c r="C293" s="27"/>
+      <c r="D293" s="27"/>
+      <c r="I293" s="29" t="str">
         <f aca="true">IF(J293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
-      <c r="D294" s="26"/>
-      <c r="I294" s="28" t="str">
+      <c r="B294" s="27"/>
+      <c r="C294" s="27"/>
+      <c r="D294" s="27"/>
+      <c r="I294" s="29" t="str">
         <f aca="true">IF(J294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="26"/>
-      <c r="C295" s="26"/>
-      <c r="D295" s="26"/>
-      <c r="I295" s="28" t="str">
+      <c r="B295" s="27"/>
+      <c r="C295" s="27"/>
+      <c r="D295" s="27"/>
+      <c r="I295" s="29" t="str">
         <f aca="true">IF(J295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
-      <c r="D296" s="26"/>
-      <c r="I296" s="28" t="str">
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
+      <c r="D296" s="27"/>
+      <c r="I296" s="29" t="str">
         <f aca="true">IF(J296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="26"/>
-      <c r="C297" s="26"/>
-      <c r="D297" s="26"/>
-      <c r="I297" s="28" t="str">
+      <c r="B297" s="27"/>
+      <c r="C297" s="27"/>
+      <c r="D297" s="27"/>
+      <c r="I297" s="29" t="str">
         <f aca="true">IF(J297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
-      <c r="D298" s="26"/>
-      <c r="I298" s="28" t="str">
+      <c r="B298" s="27"/>
+      <c r="C298" s="27"/>
+      <c r="D298" s="27"/>
+      <c r="I298" s="29" t="str">
         <f aca="true">IF(J298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="26"/>
-      <c r="C299" s="26"/>
-      <c r="D299" s="26"/>
-      <c r="I299" s="28" t="str">
+      <c r="B299" s="27"/>
+      <c r="C299" s="27"/>
+      <c r="D299" s="27"/>
+      <c r="I299" s="29" t="str">
         <f aca="true">IF(J299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="26"/>
-      <c r="C300" s="26"/>
-      <c r="D300" s="26"/>
-      <c r="I300" s="28" t="str">
+      <c r="B300" s="27"/>
+      <c r="C300" s="27"/>
+      <c r="D300" s="27"/>
+      <c r="I300" s="29" t="str">
         <f aca="true">IF(J300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="26"/>
-      <c r="C301" s="26"/>
-      <c r="D301" s="26"/>
-      <c r="I301" s="28" t="str">
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
+      <c r="D301" s="27"/>
+      <c r="I301" s="29" t="str">
         <f aca="true">IF(J301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
-      <c r="D302" s="26"/>
-      <c r="I302" s="28" t="str">
+      <c r="B302" s="27"/>
+      <c r="C302" s="27"/>
+      <c r="D302" s="27"/>
+      <c r="I302" s="29" t="str">
         <f aca="true">IF(J302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="26"/>
-      <c r="C303" s="26"/>
-      <c r="D303" s="26"/>
-      <c r="I303" s="28" t="str">
+      <c r="B303" s="27"/>
+      <c r="C303" s="27"/>
+      <c r="D303" s="27"/>
+      <c r="I303" s="29" t="str">
         <f aca="true">IF(J303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
-      <c r="D304" s="26"/>
-      <c r="I304" s="28" t="str">
+      <c r="B304" s="27"/>
+      <c r="C304" s="27"/>
+      <c r="D304" s="27"/>
+      <c r="I304" s="29" t="str">
         <f aca="true">IF(J304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="26"/>
-      <c r="C305" s="26"/>
-      <c r="D305" s="26"/>
-      <c r="I305" s="28" t="str">
+      <c r="B305" s="27"/>
+      <c r="C305" s="27"/>
+      <c r="D305" s="27"/>
+      <c r="I305" s="29" t="str">
         <f aca="true">IF(J305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
-      <c r="D306" s="26"/>
-      <c r="I306" s="28" t="str">
+      <c r="B306" s="27"/>
+      <c r="C306" s="27"/>
+      <c r="D306" s="27"/>
+      <c r="I306" s="29" t="str">
         <f aca="true">IF(J306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="26"/>
-      <c r="C307" s="26"/>
-      <c r="D307" s="26"/>
-      <c r="I307" s="28" t="str">
+      <c r="B307" s="27"/>
+      <c r="C307" s="27"/>
+      <c r="D307" s="27"/>
+      <c r="I307" s="29" t="str">
         <f aca="true">IF(J307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="26"/>
-      <c r="C308" s="26"/>
-      <c r="D308" s="26"/>
-      <c r="I308" s="28" t="str">
+      <c r="B308" s="27"/>
+      <c r="C308" s="27"/>
+      <c r="D308" s="27"/>
+      <c r="I308" s="29" t="str">
         <f aca="true">IF(J308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="26"/>
-      <c r="C309" s="26"/>
-      <c r="D309" s="26"/>
-      <c r="I309" s="28" t="str">
+      <c r="B309" s="27"/>
+      <c r="C309" s="27"/>
+      <c r="D309" s="27"/>
+      <c r="I309" s="29" t="str">
         <f aca="true">IF(J309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="26"/>
-      <c r="C310" s="26"/>
-      <c r="D310" s="26"/>
-      <c r="I310" s="28" t="str">
+      <c r="B310" s="27"/>
+      <c r="C310" s="27"/>
+      <c r="D310" s="27"/>
+      <c r="I310" s="29" t="str">
         <f aca="true">IF(J310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="26"/>
-      <c r="C311" s="26"/>
-      <c r="D311" s="26"/>
-      <c r="I311" s="28" t="str">
+      <c r="B311" s="27"/>
+      <c r="C311" s="27"/>
+      <c r="D311" s="27"/>
+      <c r="I311" s="29" t="str">
         <f aca="true">IF(J311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
-      <c r="D312" s="26"/>
-      <c r="I312" s="28" t="str">
+      <c r="B312" s="27"/>
+      <c r="C312" s="27"/>
+      <c r="D312" s="27"/>
+      <c r="I312" s="29" t="str">
         <f aca="true">IF(J312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="26"/>
-      <c r="C313" s="26"/>
-      <c r="D313" s="26"/>
-      <c r="I313" s="28" t="str">
+      <c r="B313" s="27"/>
+      <c r="C313" s="27"/>
+      <c r="D313" s="27"/>
+      <c r="I313" s="29" t="str">
         <f aca="true">IF(J313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="26"/>
-      <c r="C314" s="26"/>
-      <c r="D314" s="26"/>
-      <c r="I314" s="28" t="str">
+      <c r="B314" s="27"/>
+      <c r="C314" s="27"/>
+      <c r="D314" s="27"/>
+      <c r="I314" s="29" t="str">
         <f aca="true">IF(J314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="26"/>
-      <c r="C315" s="26"/>
-      <c r="D315" s="26"/>
-      <c r="I315" s="28" t="str">
+      <c r="B315" s="27"/>
+      <c r="C315" s="27"/>
+      <c r="D315" s="27"/>
+      <c r="I315" s="29" t="str">
         <f aca="true">IF(J315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
-      <c r="D316" s="26"/>
-      <c r="I316" s="28" t="str">
+      <c r="B316" s="27"/>
+      <c r="C316" s="27"/>
+      <c r="D316" s="27"/>
+      <c r="I316" s="29" t="str">
         <f aca="true">IF(J316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="28" t="str">
+      <c r="I317" s="29" t="str">
         <f aca="true">IF(J317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="28" t="str">
+      <c r="I318" s="29" t="str">
         <f aca="true">IF(J318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="28" t="str">
+      <c r="I319" s="29" t="str">
         <f aca="true">IF(J319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="28" t="str">
+      <c r="I320" s="29" t="str">
         <f aca="true">IF(J320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="28" t="str">
+      <c r="I321" s="29" t="str">
         <f aca="true">IF(J321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="28" t="str">
+      <c r="I322" s="29" t="str">
         <f aca="true">IF(J322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="28" t="str">
+      <c r="I323" s="29" t="str">
         <f aca="true">IF(J323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="28" t="str">
+      <c r="I324" s="29" t="str">
         <f aca="true">IF(J324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="28" t="str">
+      <c r="I325" s="29" t="str">
         <f aca="true">IF(J325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="28" t="str">
+      <c r="I326" s="29" t="str">
         <f aca="true">IF(J326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Количество варок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер первой ванны</t>
   </si>
   <si>
     <t xml:space="preserve">Общий объем сыворотки, кг</t>
@@ -270,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,10 +316,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,10 +337,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,7 +364,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,10 +377,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,12 +648,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T326"/>
+  <dimension ref="A1:S326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,116 +664,110 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="10" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="15" min="14" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="12" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="P1" s="18" t="s">
+      <c r="I1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="22" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24" t="n">
+      <c r="M2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22" t="n">
         <f aca="false">SUMPRODUCT(G3:G122, P3:P122)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="25" t="n">
-        <f aca="false">R2-S2</f>
+      <c r="S2" s="23" t="n">
+        <f aca="false">Q2-R2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="24" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="24" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="F3" s="25" t="str">
         <f aca="true">IF(G3="", IF(I3="","",(INDIRECT("M" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("M" &amp; ROW() - 1) - M3))</f>
         <v/>
       </c>
-      <c r="G3" s="28" t="str">
+      <c r="G3" s="26" t="str">
         <f aca="true">IF(I3 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H3" s="28" t="str">
+      <c r="H3" s="26" t="str">
         <f aca="true">IF(I3 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -808,27 +787,26 @@
         <f aca="true">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="24" t="str">
         <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="24" t="str">
         <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F4" s="27" t="str">
+      <c r="F4" s="25" t="str">
         <f aca="true">IF(G4="", IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("M" &amp; ROW() - 1) - M4))</f>
         <v/>
       </c>
-      <c r="G4" s="28" t="str">
+      <c r="G4" s="26" t="str">
         <f aca="true">IF(I4 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H4" s="28" t="str">
+      <c r="H4" s="26" t="str">
         <f aca="true">IF(I4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -848,27 +826,26 @@
         <f aca="true">IF(K4 = 0, INDIRECT("M" &amp; ROW() - 1), K4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="24" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="24" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F5" s="27" t="str">
+      <c r="F5" s="25" t="str">
         <f aca="true">IF(G5="", IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("M" &amp; ROW() - 1) - M5))</f>
         <v/>
       </c>
-      <c r="G5" s="28" t="str">
+      <c r="G5" s="26" t="str">
         <f aca="true">IF(I5 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H5" s="28" t="str">
+      <c r="H5" s="26" t="str">
         <f aca="true">IF(I5 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -888,27 +865,26 @@
         <f aca="true">IF(K5 = 0, INDIRECT("M" &amp; ROW() - 1), K5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="24" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="24" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F6" s="27" t="str">
+      <c r="F6" s="25" t="str">
         <f aca="true">IF(G6="", IF(I6="","",(INDIRECT("M" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("M" &amp; ROW() - 1) - M6))</f>
         <v/>
       </c>
-      <c r="G6" s="28" t="str">
+      <c r="G6" s="26" t="str">
         <f aca="true">IF(I6 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H6" s="28" t="str">
+      <c r="H6" s="26" t="str">
         <f aca="true">IF(I6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -928,27 +904,26 @@
         <f aca="true">IF(K6 = 0, INDIRECT("M" &amp; ROW() - 1), K6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="24" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="24" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="25" t="str">
         <f aca="true">IF(G7="", IF(I7="","",(INDIRECT("M" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("M" &amp; ROW() - 1) - M7))</f>
         <v/>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="G7" s="26" t="str">
         <f aca="true">IF(I7 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H7" s="28" t="str">
+      <c r="H7" s="26" t="str">
         <f aca="true">IF(I7 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -968,27 +943,26 @@
         <f aca="true">IF(K7 = 0, INDIRECT("M" &amp; ROW() - 1), K7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="24" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="24" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="F8" s="25" t="str">
         <f aca="true">IF(G8="", IF(I8="","",(INDIRECT("M" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("M" &amp; ROW() - 1) - M8))</f>
         <v/>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="26" t="str">
         <f aca="true">IF(I8 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H8" s="28" t="str">
+      <c r="H8" s="26" t="str">
         <f aca="true">IF(I8 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1008,27 +982,26 @@
         <f aca="true">IF(K8 = 0, INDIRECT("M" &amp; ROW() - 1), K8)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="24" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="24" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F9" s="27" t="str">
+      <c r="F9" s="25" t="str">
         <f aca="true">IF(G9="", IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("M" &amp; ROW() - 1) - M9))</f>
         <v/>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="26" t="str">
         <f aca="true">IF(I9 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="26" t="str">
         <f aca="true">IF(I9 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1048,27 +1021,26 @@
         <f aca="true">IF(K9 = 0, INDIRECT("M" &amp; ROW() - 1), K9)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="24" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="24" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="25" t="str">
         <f aca="true">IF(G10="", IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("M" &amp; ROW() - 1) - M10))</f>
         <v/>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G10" s="26" t="str">
         <f aca="true">IF(I10 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H10" s="28" t="str">
+      <c r="H10" s="26" t="str">
         <f aca="true">IF(I10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1088,27 +1060,26 @@
         <f aca="true">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="24" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="24" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="25" t="str">
         <f aca="true">IF(G11="", IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("M" &amp; ROW() - 1) - M11))</f>
         <v/>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="26" t="str">
         <f aca="true">IF(I11 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H11" s="28" t="str">
+      <c r="H11" s="26" t="str">
         <f aca="true">IF(I11 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1128,27 +1099,26 @@
         <f aca="true">IF(K11 = 0, INDIRECT("M" &amp; ROW() - 1), K11)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="24" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="24" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="25" t="str">
         <f aca="true">IF(G12="", IF(I12="","",(INDIRECT("M" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("M" &amp; ROW() - 1) - M12))</f>
         <v/>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="26" t="str">
         <f aca="true">IF(I12 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H12" s="28" t="str">
+      <c r="H12" s="26" t="str">
         <f aca="true">IF(I12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1168,27 +1138,26 @@
         <f aca="true">IF(K12 = 0, INDIRECT("M" &amp; ROW() - 1), K12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="24" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="24" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="25" t="str">
         <f aca="true">IF(G13="", IF(I13="","",(INDIRECT("M" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("M" &amp; ROW() - 1) - M13))</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="26" t="str">
         <f aca="true">IF(I13 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H13" s="28" t="str">
+      <c r="H13" s="26" t="str">
         <f aca="true">IF(I13 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1208,27 +1177,26 @@
         <f aca="true">IF(K13 = 0, INDIRECT("M" &amp; ROW() - 1), K13)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="24" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="24" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="25" t="str">
         <f aca="true">IF(G14="", IF(I14="","",(INDIRECT("M" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("M" &amp; ROW() - 1) - M14))</f>
         <v/>
       </c>
-      <c r="G14" s="28" t="str">
+      <c r="G14" s="26" t="str">
         <f aca="true">IF(I14 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H14" s="28" t="str">
+      <c r="H14" s="26" t="str">
         <f aca="true">IF(I14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1248,27 +1216,26 @@
         <f aca="true">IF(K14 = 0, INDIRECT("M" &amp; ROW() - 1), K14)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="24" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="24" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="25" t="str">
         <f aca="true">IF(G15="", IF(I15="","",(INDIRECT("M" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("M" &amp; ROW() - 1) - M15))</f>
         <v/>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="26" t="str">
         <f aca="true">IF(I15 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H15" s="28" t="str">
+      <c r="H15" s="26" t="str">
         <f aca="true">IF(I15 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1288,27 +1255,26 @@
         <f aca="true">IF(K15 = 0, INDIRECT("M" &amp; ROW() - 1), K15)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="24" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="24" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="25" t="str">
         <f aca="true">IF(G16="", IF(I16="","",(INDIRECT("M" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("M" &amp; ROW() - 1) - M16))</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="26" t="str">
         <f aca="true">IF(I16 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="26" t="str">
         <f aca="true">IF(I16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1328,27 +1294,26 @@
         <f aca="true">IF(K16 = 0, INDIRECT("M" &amp; ROW() - 1), K16)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="24" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="24" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="25" t="str">
         <f aca="true">IF(G17="", IF(I17="","",(INDIRECT("M" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("M" &amp; ROW() - 1) - M17))</f>
         <v/>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="26" t="str">
         <f aca="true">IF(I17 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H17" s="28" t="str">
+      <c r="H17" s="26" t="str">
         <f aca="true">IF(I17 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1368,27 +1333,26 @@
         <f aca="true">IF(K17 = 0, INDIRECT("M" &amp; ROW() - 1), K17)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="24" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="24" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F18" s="27" t="str">
+      <c r="F18" s="25" t="str">
         <f aca="true">IF(G18="", IF(I18="","",(INDIRECT("M" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("M" &amp; ROW() - 1) - M18))</f>
         <v/>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="26" t="str">
         <f aca="true">IF(I18 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H18" s="28" t="str">
+      <c r="H18" s="26" t="str">
         <f aca="true">IF(I18 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1408,27 +1372,26 @@
         <f aca="true">IF(K18 = 0, INDIRECT("M" &amp; ROW() - 1), K18)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="24" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="24" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F19" s="27" t="str">
+      <c r="F19" s="25" t="str">
         <f aca="true">IF(G19="", IF(I19="","",(INDIRECT("M" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("M" &amp; ROW() - 1) - M19))</f>
         <v/>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="26" t="str">
         <f aca="true">IF(I19 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H19" s="28" t="str">
+      <c r="H19" s="26" t="str">
         <f aca="true">IF(I19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1448,27 +1411,26 @@
         <f aca="true">IF(K19 = 0, INDIRECT("M" &amp; ROW() - 1), K19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="24" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="24" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F20" s="27" t="str">
+      <c r="F20" s="25" t="str">
         <f aca="true">IF(G20="", IF(I20="","",(INDIRECT("M" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("M" &amp; ROW() - 1) - M20))</f>
         <v/>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="26" t="str">
         <f aca="true">IF(I20 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H20" s="28" t="str">
+      <c r="H20" s="26" t="str">
         <f aca="true">IF(I20 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1488,27 +1450,26 @@
         <f aca="true">IF(K20 = 0, INDIRECT("M" &amp; ROW() - 1), K20)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="24" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="24" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F21" s="27" t="str">
+      <c r="F21" s="25" t="str">
         <f aca="true">IF(G21="", IF(I21="","",(INDIRECT("M" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("M" &amp; ROW() - 1) - M21))</f>
         <v/>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="26" t="str">
         <f aca="true">IF(I21 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H21" s="28" t="str">
+      <c r="H21" s="26" t="str">
         <f aca="true">IF(I21 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1528,27 +1489,26 @@
         <f aca="true">IF(K21 = 0, INDIRECT("M" &amp; ROW() - 1), K21)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="24" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="24" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F22" s="27" t="str">
+      <c r="F22" s="25" t="str">
         <f aca="true">IF(G22="", IF(I22="","",(INDIRECT("M" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("M" &amp; ROW() - 1) - M22))</f>
         <v/>
       </c>
-      <c r="G22" s="28" t="str">
+      <c r="G22" s="26" t="str">
         <f aca="true">IF(I22 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H22" s="28" t="str">
+      <c r="H22" s="26" t="str">
         <f aca="true">IF(I22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1568,27 +1528,26 @@
         <f aca="true">IF(K22 = 0, INDIRECT("M" &amp; ROW() - 1), K22)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="24" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="24" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F23" s="27" t="str">
+      <c r="F23" s="25" t="str">
         <f aca="true">IF(G23="", IF(I23="","",(INDIRECT("M" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("M" &amp; ROW() - 1) - M23))</f>
         <v/>
       </c>
-      <c r="G23" s="28" t="str">
+      <c r="G23" s="26" t="str">
         <f aca="true">IF(I23 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H23" s="28" t="str">
+      <c r="H23" s="26" t="str">
         <f aca="true">IF(I23 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1608,27 +1567,26 @@
         <f aca="true">IF(K23 = 0, INDIRECT("M" &amp; ROW() - 1), K23)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="24" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C24" s="26" t="str">
+      <c r="C24" s="24" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F24" s="27" t="str">
+      <c r="F24" s="25" t="str">
         <f aca="true">IF(G24="", IF(I24="","",(INDIRECT("M" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("M" &amp; ROW() - 1) - M24))</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="26" t="str">
         <f aca="true">IF(I24 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H24" s="28" t="str">
+      <c r="H24" s="26" t="str">
         <f aca="true">IF(I24 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1648,27 +1606,26 @@
         <f aca="true">IF(K24 = 0, INDIRECT("M" &amp; ROW() - 1), K24)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
+      <c r="P24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="24" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C25" s="26" t="str">
+      <c r="C25" s="24" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F25" s="27" t="str">
+      <c r="F25" s="25" t="str">
         <f aca="true">IF(G25="", IF(I25="","",(INDIRECT("M" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("M" &amp; ROW() - 1) - M25))</f>
         <v/>
       </c>
-      <c r="G25" s="28" t="str">
+      <c r="G25" s="26" t="str">
         <f aca="true">IF(I25 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H25" s="28" t="str">
+      <c r="H25" s="26" t="str">
         <f aca="true">IF(I25 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1688,27 +1645,26 @@
         <f aca="true">IF(K25 = 0, INDIRECT("M" &amp; ROW() - 1), K25)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="24" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C26" s="26" t="str">
+      <c r="C26" s="24" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F26" s="27" t="str">
+      <c r="F26" s="25" t="str">
         <f aca="true">IF(G26="", IF(I26="","",(INDIRECT("M" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("M" &amp; ROW() - 1) - M26))</f>
         <v/>
       </c>
-      <c r="G26" s="28" t="str">
+      <c r="G26" s="26" t="str">
         <f aca="true">IF(I26 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H26" s="28" t="str">
+      <c r="H26" s="26" t="str">
         <f aca="true">IF(I26 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1728,27 +1684,26 @@
         <f aca="true">IF(K26 = 0, INDIRECT("M" &amp; ROW() - 1), K26)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
+      <c r="P26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26" t="str">
+      <c r="B27" s="24" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C27" s="26" t="str">
+      <c r="C27" s="24" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F27" s="27" t="str">
+      <c r="F27" s="25" t="str">
         <f aca="true">IF(G27="", IF(I27="","",(INDIRECT("M" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("M" &amp; ROW() - 1) - M27))</f>
         <v/>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="26" t="str">
         <f aca="true">IF(I27 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H27" s="28" t="str">
+      <c r="H27" s="26" t="str">
         <f aca="true">IF(I27 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1768,27 +1723,26 @@
         <f aca="true">IF(K27 = 0, INDIRECT("M" &amp; ROW() - 1), K27)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
+      <c r="P27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26" t="str">
+      <c r="B28" s="24" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C28" s="26" t="str">
+      <c r="C28" s="24" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F28" s="27" t="str">
+      <c r="F28" s="25" t="str">
         <f aca="true">IF(G28="", IF(I28="","",(INDIRECT("M" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("M" &amp; ROW() - 1) - M28))</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="26" t="str">
         <f aca="true">IF(I28 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
+      <c r="H28" s="26" t="str">
         <f aca="true">IF(I28 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1808,27 +1762,26 @@
         <f aca="true">IF(K28 = 0, INDIRECT("M" &amp; ROW() - 1), K28)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="26" t="str">
+      <c r="B29" s="24" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="24" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F29" s="27" t="str">
+      <c r="F29" s="25" t="str">
         <f aca="true">IF(G29="", IF(I29="","",(INDIRECT("M" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("M" &amp; ROW() - 1) - M29))</f>
         <v/>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="26" t="str">
         <f aca="true">IF(I29 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H29" s="28" t="str">
+      <c r="H29" s="26" t="str">
         <f aca="true">IF(I29 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1848,27 +1801,26 @@
         <f aca="true">IF(K29 = 0, INDIRECT("M" &amp; ROW() - 1), K29)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26" t="str">
+      <c r="B30" s="24" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="26" t="str">
+      <c r="C30" s="24" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F30" s="27" t="str">
+      <c r="F30" s="25" t="str">
         <f aca="true">IF(G30="", IF(I30="","",(INDIRECT("M" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("M" &amp; ROW() - 1) - M30))</f>
         <v/>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="26" t="str">
         <f aca="true">IF(I30 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H30" s="28" t="str">
+      <c r="H30" s="26" t="str">
         <f aca="true">IF(I30 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1888,27 +1840,26 @@
         <f aca="true">IF(K30 = 0, INDIRECT("M" &amp; ROW() - 1), K30)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
+      <c r="P30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26" t="str">
+      <c r="B31" s="24" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="26" t="str">
+      <c r="C31" s="24" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F31" s="27" t="str">
+      <c r="F31" s="25" t="str">
         <f aca="true">IF(G31="", IF(I31="","",(INDIRECT("M" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("M" &amp; ROW() - 1) - M31))</f>
         <v/>
       </c>
-      <c r="G31" s="28" t="str">
+      <c r="G31" s="26" t="str">
         <f aca="true">IF(I31 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H31" s="28" t="str">
+      <c r="H31" s="26" t="str">
         <f aca="true">IF(I31 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1928,27 +1879,26 @@
         <f aca="true">IF(K31 = 0, INDIRECT("M" &amp; ROW() - 1), K31)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="30"/>
+      <c r="P31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26" t="str">
+      <c r="B32" s="24" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="26" t="str">
+      <c r="C32" s="24" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F32" s="27" t="str">
+      <c r="F32" s="25" t="str">
         <f aca="true">IF(G32="", IF(I32="","",(INDIRECT("M" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("M" &amp; ROW() - 1) - M32))</f>
         <v/>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="26" t="str">
         <f aca="true">IF(I32 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H32" s="28" t="str">
+      <c r="H32" s="26" t="str">
         <f aca="true">IF(I32 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1968,27 +1918,26 @@
         <f aca="true">IF(K32 = 0, INDIRECT("M" &amp; ROW() - 1), K32)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30"/>
+      <c r="P32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="26" t="str">
+      <c r="B33" s="24" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="24" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F33" s="27" t="str">
+      <c r="F33" s="25" t="str">
         <f aca="true">IF(G33="", IF(I33="","",(INDIRECT("M" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("M" &amp; ROW() - 1) - M33))</f>
         <v/>
       </c>
-      <c r="G33" s="28" t="str">
+      <c r="G33" s="26" t="str">
         <f aca="true">IF(I33 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H33" s="28" t="str">
+      <c r="H33" s="26" t="str">
         <f aca="true">IF(I33 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2008,27 +1957,26 @@
         <f aca="true">IF(K33 = 0, INDIRECT("M" &amp; ROW() - 1), K33)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
+      <c r="P33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="26" t="str">
+      <c r="B34" s="24" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="24" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F34" s="27" t="str">
+      <c r="F34" s="25" t="str">
         <f aca="true">IF(G34="", IF(I34="","",(INDIRECT("M" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("M" &amp; ROW() - 1) - M34))</f>
         <v/>
       </c>
-      <c r="G34" s="28" t="str">
+      <c r="G34" s="26" t="str">
         <f aca="true">IF(I34 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H34" s="28" t="str">
+      <c r="H34" s="26" t="str">
         <f aca="true">IF(I34 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2048,27 +1996,26 @@
         <f aca="true">IF(K34 = 0, INDIRECT("M" &amp; ROW() - 1), K34)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
+      <c r="P34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="26" t="str">
+      <c r="B35" s="24" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="26" t="str">
+      <c r="C35" s="24" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F35" s="27" t="str">
+      <c r="F35" s="25" t="str">
         <f aca="true">IF(G35="", IF(I35="","",(INDIRECT("M" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("M" &amp; ROW() - 1) - M35))</f>
         <v/>
       </c>
-      <c r="G35" s="28" t="str">
+      <c r="G35" s="26" t="str">
         <f aca="true">IF(I35 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H35" s="28" t="str">
+      <c r="H35" s="26" t="str">
         <f aca="true">IF(I35 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2088,27 +2035,26 @@
         <f aca="true">IF(K35 = 0, INDIRECT("M" &amp; ROW() - 1), K35)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
+      <c r="P35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="26" t="str">
+      <c r="B36" s="24" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="26" t="str">
+      <c r="C36" s="24" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F36" s="27" t="str">
+      <c r="F36" s="25" t="str">
         <f aca="true">IF(G36="", IF(I36="","",(INDIRECT("M" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("M" &amp; ROW() - 1) - M36))</f>
         <v/>
       </c>
-      <c r="G36" s="28" t="str">
+      <c r="G36" s="26" t="str">
         <f aca="true">IF(I36 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H36" s="28" t="str">
+      <c r="H36" s="26" t="str">
         <f aca="true">IF(I36 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2128,27 +2074,26 @@
         <f aca="true">IF(K36 = 0, INDIRECT("M" &amp; ROW() - 1), K36)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
+      <c r="P36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="26" t="str">
+      <c r="B37" s="24" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="26" t="str">
+      <c r="C37" s="24" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F37" s="27" t="str">
+      <c r="F37" s="25" t="str">
         <f aca="true">IF(G37="", IF(I37="","",(INDIRECT("M" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("M" &amp; ROW() - 1) - M37))</f>
         <v/>
       </c>
-      <c r="G37" s="28" t="str">
+      <c r="G37" s="26" t="str">
         <f aca="true">IF(I37 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H37" s="28" t="str">
+      <c r="H37" s="26" t="str">
         <f aca="true">IF(I37 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2168,27 +2113,26 @@
         <f aca="true">IF(K37 = 0, INDIRECT("M" &amp; ROW() - 1), K37)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
+      <c r="P37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="26" t="str">
+      <c r="B38" s="24" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="26" t="str">
+      <c r="C38" s="24" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F38" s="27" t="str">
+      <c r="F38" s="25" t="str">
         <f aca="true">IF(G38="", IF(I38="","",(INDIRECT("M" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("M" &amp; ROW() - 1) - M38))</f>
         <v/>
       </c>
-      <c r="G38" s="28" t="str">
+      <c r="G38" s="26" t="str">
         <f aca="true">IF(I38 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H38" s="28" t="str">
+      <c r="H38" s="26" t="str">
         <f aca="true">IF(I38 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2208,27 +2152,26 @@
         <f aca="true">IF(K38 = 0, INDIRECT("M" &amp; ROW() - 1), K38)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="30"/>
+      <c r="P38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="26" t="str">
+      <c r="B39" s="24" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="26" t="str">
+      <c r="C39" s="24" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F39" s="27" t="str">
+      <c r="F39" s="25" t="str">
         <f aca="true">IF(G39="", IF(I39="","",(INDIRECT("M" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("M" &amp; ROW() - 1) - M39))</f>
         <v/>
       </c>
-      <c r="G39" s="28" t="str">
+      <c r="G39" s="26" t="str">
         <f aca="true">IF(I39 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H39" s="28" t="str">
+      <c r="H39" s="26" t="str">
         <f aca="true">IF(I39 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2248,27 +2191,26 @@
         <f aca="true">IF(K39 = 0, INDIRECT("M" &amp; ROW() - 1), K39)</f>
         <v>0</v>
       </c>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
+      <c r="P39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="26" t="str">
+      <c r="B40" s="24" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="26" t="str">
+      <c r="C40" s="24" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F40" s="27" t="str">
+      <c r="F40" s="25" t="str">
         <f aca="true">IF(G40="", IF(I40="","",(INDIRECT("M" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("M" &amp; ROW() - 1) - M40))</f>
         <v/>
       </c>
-      <c r="G40" s="28" t="str">
+      <c r="G40" s="26" t="str">
         <f aca="true">IF(I40 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H40" s="28" t="str">
+      <c r="H40" s="26" t="str">
         <f aca="true">IF(I40 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2288,27 +2230,26 @@
         <f aca="true">IF(K40 = 0, INDIRECT("M" &amp; ROW() - 1), K40)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
+      <c r="P40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="26" t="str">
+      <c r="B41" s="24" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="26" t="str">
+      <c r="C41" s="24" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F41" s="27" t="str">
+      <c r="F41" s="25" t="str">
         <f aca="true">IF(G41="", IF(I41="","",(INDIRECT("M" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("M" &amp; ROW() - 1) - M41))</f>
         <v/>
       </c>
-      <c r="G41" s="28" t="str">
+      <c r="G41" s="26" t="str">
         <f aca="true">IF(I41 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H41" s="28" t="str">
+      <c r="H41" s="26" t="str">
         <f aca="true">IF(I41 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2328,27 +2269,26 @@
         <f aca="true">IF(K41 = 0, INDIRECT("M" &amp; ROW() - 1), K41)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="30"/>
+      <c r="P41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="26" t="str">
+      <c r="B42" s="24" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="26" t="str">
+      <c r="C42" s="24" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F42" s="27" t="str">
+      <c r="F42" s="25" t="str">
         <f aca="true">IF(G42="", IF(I42="","",(INDIRECT("M" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("M" &amp; ROW() - 1) - M42))</f>
         <v/>
       </c>
-      <c r="G42" s="28" t="str">
+      <c r="G42" s="26" t="str">
         <f aca="true">IF(I42 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H42" s="28" t="str">
+      <c r="H42" s="26" t="str">
         <f aca="true">IF(I42 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2368,27 +2308,26 @@
         <f aca="true">IF(K42 = 0, INDIRECT("M" &amp; ROW() - 1), K42)</f>
         <v>0</v>
       </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="30"/>
+      <c r="P42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="26" t="str">
+      <c r="B43" s="24" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="26" t="str">
+      <c r="C43" s="24" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F43" s="27" t="str">
+      <c r="F43" s="25" t="str">
         <f aca="true">IF(G43="", IF(I43="","",(INDIRECT("M" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("M" &amp; ROW() - 1) - M43))</f>
         <v/>
       </c>
-      <c r="G43" s="28" t="str">
+      <c r="G43" s="26" t="str">
         <f aca="true">IF(I43 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H43" s="28" t="str">
+      <c r="H43" s="26" t="str">
         <f aca="true">IF(I43 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2408,27 +2347,26 @@
         <f aca="true">IF(K43 = 0, INDIRECT("M" &amp; ROW() - 1), K43)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30"/>
+      <c r="P43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="26" t="str">
+      <c r="B44" s="24" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="26" t="str">
+      <c r="C44" s="24" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F44" s="27" t="str">
+      <c r="F44" s="25" t="str">
         <f aca="true">IF(G44="", IF(I44="","",(INDIRECT("M" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("M" &amp; ROW() - 1) - M44))</f>
         <v/>
       </c>
-      <c r="G44" s="28" t="str">
+      <c r="G44" s="26" t="str">
         <f aca="true">IF(I44 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H44" s="28" t="str">
+      <c r="H44" s="26" t="str">
         <f aca="true">IF(I44 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2448,27 +2386,26 @@
         <f aca="true">IF(K44 = 0, INDIRECT("M" &amp; ROW() - 1), K44)</f>
         <v>0</v>
       </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
+      <c r="P44" s="27"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="26" t="str">
+      <c r="B45" s="24" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C45" s="26" t="str">
+      <c r="C45" s="24" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F45" s="27" t="str">
+      <c r="F45" s="25" t="str">
         <f aca="true">IF(G45="", IF(I45="","",(INDIRECT("M" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("M" &amp; ROW() - 1) - M45))</f>
         <v/>
       </c>
-      <c r="G45" s="28" t="str">
+      <c r="G45" s="26" t="str">
         <f aca="true">IF(I45 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H45" s="28" t="str">
+      <c r="H45" s="26" t="str">
         <f aca="true">IF(I45 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2488,27 +2425,26 @@
         <f aca="true">IF(K45 = 0, INDIRECT("M" &amp; ROW() - 1), K45)</f>
         <v>0</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
+      <c r="P45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="26" t="str">
+      <c r="B46" s="24" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C46" s="26" t="str">
+      <c r="C46" s="24" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F46" s="27" t="str">
+      <c r="F46" s="25" t="str">
         <f aca="true">IF(G46="", IF(I46="","",(INDIRECT("M" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("M" &amp; ROW() - 1) - M46))</f>
         <v/>
       </c>
-      <c r="G46" s="28" t="str">
+      <c r="G46" s="26" t="str">
         <f aca="true">IF(I46 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H46" s="28" t="str">
+      <c r="H46" s="26" t="str">
         <f aca="true">IF(I46 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2528,27 +2464,26 @@
         <f aca="true">IF(K46 = 0, INDIRECT("M" &amp; ROW() - 1), K46)</f>
         <v>0</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="30"/>
+      <c r="P46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="26" t="str">
+      <c r="B47" s="24" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C47" s="26" t="str">
+      <c r="C47" s="24" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F47" s="27" t="str">
+      <c r="F47" s="25" t="str">
         <f aca="true">IF(G47="", IF(I47="","",(INDIRECT("M" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("M" &amp; ROW() - 1) - M47))</f>
         <v/>
       </c>
-      <c r="G47" s="28" t="str">
+      <c r="G47" s="26" t="str">
         <f aca="true">IF(I47 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H47" s="28" t="str">
+      <c r="H47" s="26" t="str">
         <f aca="true">IF(I47 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2568,27 +2503,26 @@
         <f aca="true">IF(K47 = 0, INDIRECT("M" &amp; ROW() - 1), K47)</f>
         <v>0</v>
       </c>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="30"/>
+      <c r="P47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="26" t="str">
+      <c r="B48" s="24" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="C48" s="24" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F48" s="27" t="str">
+      <c r="F48" s="25" t="str">
         <f aca="true">IF(G48="", IF(I48="","",(INDIRECT("M" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("M" &amp; ROW() - 1) - M48))</f>
         <v/>
       </c>
-      <c r="G48" s="28" t="str">
+      <c r="G48" s="26" t="str">
         <f aca="true">IF(I48 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H48" s="28" t="str">
+      <c r="H48" s="26" t="str">
         <f aca="true">IF(I48 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2608,27 +2542,26 @@
         <f aca="true">IF(K48 = 0, INDIRECT("M" &amp; ROW() - 1), K48)</f>
         <v>0</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="30"/>
+      <c r="P48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="26" t="str">
+      <c r="B49" s="24" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C49" s="26" t="str">
+      <c r="C49" s="24" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F49" s="27" t="str">
+      <c r="F49" s="25" t="str">
         <f aca="true">IF(G49="", IF(I49="","",(INDIRECT("M" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("M" &amp; ROW() - 1) - M49))</f>
         <v/>
       </c>
-      <c r="G49" s="28" t="str">
+      <c r="G49" s="26" t="str">
         <f aca="true">IF(I49 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H49" s="28" t="str">
+      <c r="H49" s="26" t="str">
         <f aca="true">IF(I49 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2648,27 +2581,26 @@
         <f aca="true">IF(K49 = 0, INDIRECT("M" &amp; ROW() - 1), K49)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="30"/>
+      <c r="P49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="26" t="str">
+      <c r="B50" s="24" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C50" s="26" t="str">
+      <c r="C50" s="24" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F50" s="27" t="str">
+      <c r="F50" s="25" t="str">
         <f aca="true">IF(G50="", IF(I50="","",(INDIRECT("M" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("M" &amp; ROW() - 1) - M50))</f>
         <v/>
       </c>
-      <c r="G50" s="28" t="str">
+      <c r="G50" s="26" t="str">
         <f aca="true">IF(I50 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H50" s="28" t="str">
+      <c r="H50" s="26" t="str">
         <f aca="true">IF(I50 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2688,27 +2620,26 @@
         <f aca="true">IF(K50 = 0, INDIRECT("M" &amp; ROW() - 1), K50)</f>
         <v>0</v>
       </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="30"/>
+      <c r="P50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="26" t="str">
+      <c r="B51" s="24" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C51" s="26" t="str">
+      <c r="C51" s="24" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F51" s="27" t="str">
+      <c r="F51" s="25" t="str">
         <f aca="true">IF(G51="", IF(I51="","",(INDIRECT("M" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("M" &amp; ROW() - 1) - M51))</f>
         <v/>
       </c>
-      <c r="G51" s="28" t="str">
+      <c r="G51" s="26" t="str">
         <f aca="true">IF(I51 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H51" s="28" t="str">
+      <c r="H51" s="26" t="str">
         <f aca="true">IF(I51 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2728,27 +2659,26 @@
         <f aca="true">IF(K51 = 0, INDIRECT("M" &amp; ROW() - 1), K51)</f>
         <v>0</v>
       </c>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="30"/>
+      <c r="P51" s="27"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="26" t="str">
+      <c r="B52" s="24" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C52" s="26" t="str">
+      <c r="C52" s="24" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F52" s="27" t="str">
+      <c r="F52" s="25" t="str">
         <f aca="true">IF(G52="", IF(I52="","",(INDIRECT("M" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("M" &amp; ROW() - 1) - M52))</f>
         <v/>
       </c>
-      <c r="G52" s="28" t="str">
+      <c r="G52" s="26" t="str">
         <f aca="true">IF(I52 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H52" s="28" t="str">
+      <c r="H52" s="26" t="str">
         <f aca="true">IF(I52 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2768,27 +2698,26 @@
         <f aca="true">IF(K52 = 0, INDIRECT("M" &amp; ROW() - 1), K52)</f>
         <v>0</v>
       </c>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="30"/>
+      <c r="P52" s="27"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="26" t="str">
+      <c r="B53" s="24" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C53" s="26" t="str">
+      <c r="C53" s="24" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F53" s="27" t="str">
+      <c r="F53" s="25" t="str">
         <f aca="true">IF(G53="", IF(I53="","",(INDIRECT("M" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("M" &amp; ROW() - 1) - M53))</f>
         <v/>
       </c>
-      <c r="G53" s="28" t="str">
+      <c r="G53" s="26" t="str">
         <f aca="true">IF(I53 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H53" s="28" t="str">
+      <c r="H53" s="26" t="str">
         <f aca="true">IF(I53 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2808,27 +2737,26 @@
         <f aca="true">IF(K53 = 0, INDIRECT("M" &amp; ROW() - 1), K53)</f>
         <v>0</v>
       </c>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="30"/>
+      <c r="P53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="26" t="str">
+      <c r="B54" s="24" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C54" s="26" t="str">
+      <c r="C54" s="24" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F54" s="27" t="str">
+      <c r="F54" s="25" t="str">
         <f aca="true">IF(G54="", IF(I54="","",(INDIRECT("M" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("M" &amp; ROW() - 1) - M54))</f>
         <v/>
       </c>
-      <c r="G54" s="28" t="str">
+      <c r="G54" s="26" t="str">
         <f aca="true">IF(I54 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H54" s="28" t="str">
+      <c r="H54" s="26" t="str">
         <f aca="true">IF(I54 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2848,27 +2776,26 @@
         <f aca="true">IF(K54 = 0, INDIRECT("M" &amp; ROW() - 1), K54)</f>
         <v>0</v>
       </c>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="30"/>
+      <c r="P54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="26" t="str">
+      <c r="B55" s="24" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C55" s="26" t="str">
+      <c r="C55" s="24" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F55" s="27" t="str">
+      <c r="F55" s="25" t="str">
         <f aca="true">IF(G55="", IF(I55="","",(INDIRECT("M" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("M" &amp; ROW() - 1) - M55))</f>
         <v/>
       </c>
-      <c r="G55" s="28" t="str">
+      <c r="G55" s="26" t="str">
         <f aca="true">IF(I55 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H55" s="28" t="str">
+      <c r="H55" s="26" t="str">
         <f aca="true">IF(I55 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2888,27 +2815,26 @@
         <f aca="true">IF(K55 = 0, INDIRECT("M" &amp; ROW() - 1), K55)</f>
         <v>0</v>
       </c>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="30"/>
+      <c r="P55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="26" t="str">
+      <c r="B56" s="24" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C56" s="26" t="str">
+      <c r="C56" s="24" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F56" s="27" t="str">
+      <c r="F56" s="25" t="str">
         <f aca="true">IF(G56="", IF(I56="","",(INDIRECT("M" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("M" &amp; ROW() - 1) - M56))</f>
         <v/>
       </c>
-      <c r="G56" s="28" t="str">
+      <c r="G56" s="26" t="str">
         <f aca="true">IF(I56 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H56" s="28" t="str">
+      <c r="H56" s="26" t="str">
         <f aca="true">IF(I56 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2928,27 +2854,26 @@
         <f aca="true">IF(K56 = 0, INDIRECT("M" &amp; ROW() - 1), K56)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="30"/>
+      <c r="P56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="26" t="str">
+      <c r="B57" s="24" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C57" s="26" t="str">
+      <c r="C57" s="24" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F57" s="27" t="str">
+      <c r="F57" s="25" t="str">
         <f aca="true">IF(G57="", IF(I57="","",(INDIRECT("M" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("M" &amp; ROW() - 1) - M57))</f>
         <v/>
       </c>
-      <c r="G57" s="28" t="str">
+      <c r="G57" s="26" t="str">
         <f aca="true">IF(I57 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H57" s="28" t="str">
+      <c r="H57" s="26" t="str">
         <f aca="true">IF(I57 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2968,27 +2893,26 @@
         <f aca="true">IF(K57 = 0, INDIRECT("M" &amp; ROW() - 1), K57)</f>
         <v>0</v>
       </c>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="30"/>
+      <c r="P57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="26" t="str">
+      <c r="B58" s="24" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C58" s="26" t="str">
+      <c r="C58" s="24" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F58" s="27" t="str">
+      <c r="F58" s="25" t="str">
         <f aca="true">IF(G58="", IF(I58="","",(INDIRECT("M" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("M" &amp; ROW() - 1) - M58))</f>
         <v/>
       </c>
-      <c r="G58" s="28" t="str">
+      <c r="G58" s="26" t="str">
         <f aca="true">IF(I58 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H58" s="28" t="str">
+      <c r="H58" s="26" t="str">
         <f aca="true">IF(I58 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3008,27 +2932,26 @@
         <f aca="true">IF(K58 = 0, INDIRECT("M" &amp; ROW() - 1), K58)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="30"/>
+      <c r="P58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="26" t="str">
+      <c r="B59" s="24" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C59" s="26" t="str">
+      <c r="C59" s="24" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F59" s="27" t="str">
+      <c r="F59" s="25" t="str">
         <f aca="true">IF(G59="", IF(I59="","",(INDIRECT("M" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("M" &amp; ROW() - 1) - M59))</f>
         <v/>
       </c>
-      <c r="G59" s="28" t="str">
+      <c r="G59" s="26" t="str">
         <f aca="true">IF(I59 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H59" s="28" t="str">
+      <c r="H59" s="26" t="str">
         <f aca="true">IF(I59 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3048,27 +2971,26 @@
         <f aca="true">IF(K59 = 0, INDIRECT("M" &amp; ROW() - 1), K59)</f>
         <v>0</v>
       </c>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="30"/>
+      <c r="P59" s="27"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="26" t="str">
+      <c r="B60" s="24" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C60" s="26" t="str">
+      <c r="C60" s="24" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F60" s="27" t="str">
+      <c r="F60" s="25" t="str">
         <f aca="true">IF(G60="", IF(I60="","",(INDIRECT("M" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("M" &amp; ROW() - 1) - M60))</f>
         <v/>
       </c>
-      <c r="G60" s="28" t="str">
+      <c r="G60" s="26" t="str">
         <f aca="true">IF(I60 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H60" s="28" t="str">
+      <c r="H60" s="26" t="str">
         <f aca="true">IF(I60 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3088,27 +3010,26 @@
         <f aca="true">IF(K60 = 0, INDIRECT("M" &amp; ROW() - 1), K60)</f>
         <v>0</v>
       </c>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="30"/>
+      <c r="P60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="26" t="str">
+      <c r="B61" s="24" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C61" s="26" t="str">
+      <c r="C61" s="24" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F61" s="27" t="str">
+      <c r="F61" s="25" t="str">
         <f aca="true">IF(G61="", IF(I61="","",(INDIRECT("M" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("M" &amp; ROW() - 1) - M61))</f>
         <v/>
       </c>
-      <c r="G61" s="28" t="str">
+      <c r="G61" s="26" t="str">
         <f aca="true">IF(I61 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H61" s="28" t="str">
+      <c r="H61" s="26" t="str">
         <f aca="true">IF(I61 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3128,27 +3049,26 @@
         <f aca="true">IF(K61 = 0, INDIRECT("M" &amp; ROW() - 1), K61)</f>
         <v>0</v>
       </c>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="30"/>
+      <c r="P61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="26" t="str">
+      <c r="B62" s="24" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C62" s="26" t="str">
+      <c r="C62" s="24" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F62" s="27" t="str">
+      <c r="F62" s="25" t="str">
         <f aca="true">IF(G62="", IF(I62="","",(INDIRECT("M" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("M" &amp; ROW() - 1) - M62))</f>
         <v/>
       </c>
-      <c r="G62" s="28" t="str">
+      <c r="G62" s="26" t="str">
         <f aca="true">IF(I62 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H62" s="28" t="str">
+      <c r="H62" s="26" t="str">
         <f aca="true">IF(I62 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3168,27 +3088,26 @@
         <f aca="true">IF(K62 = 0, INDIRECT("M" &amp; ROW() - 1), K62)</f>
         <v>0</v>
       </c>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="30"/>
+      <c r="P62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="26" t="str">
+      <c r="B63" s="24" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C63" s="26" t="str">
+      <c r="C63" s="24" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F63" s="27" t="str">
+      <c r="F63" s="25" t="str">
         <f aca="true">IF(G63="", IF(I63="","",(INDIRECT("M" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("M" &amp; ROW() - 1) - M63))</f>
         <v/>
       </c>
-      <c r="G63" s="28" t="str">
+      <c r="G63" s="26" t="str">
         <f aca="true">IF(I63 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H63" s="28" t="str">
+      <c r="H63" s="26" t="str">
         <f aca="true">IF(I63 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3208,27 +3127,26 @@
         <f aca="true">IF(K63 = 0, INDIRECT("M" &amp; ROW() - 1), K63)</f>
         <v>0</v>
       </c>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="30"/>
+      <c r="P63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="26" t="str">
+      <c r="B64" s="24" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C64" s="26" t="str">
+      <c r="C64" s="24" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F64" s="27" t="str">
+      <c r="F64" s="25" t="str">
         <f aca="true">IF(G64="", IF(I64="","",(INDIRECT("M" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("M" &amp; ROW() - 1) - M64))</f>
         <v/>
       </c>
-      <c r="G64" s="28" t="str">
+      <c r="G64" s="26" t="str">
         <f aca="true">IF(I64 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H64" s="28" t="str">
+      <c r="H64" s="26" t="str">
         <f aca="true">IF(I64 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3248,27 +3166,26 @@
         <f aca="true">IF(K64 = 0, INDIRECT("M" &amp; ROW() - 1), K64)</f>
         <v>0</v>
       </c>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="30"/>
+      <c r="P64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="26" t="str">
+      <c r="B65" s="24" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C65" s="26" t="str">
+      <c r="C65" s="24" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F65" s="27" t="str">
+      <c r="F65" s="25" t="str">
         <f aca="true">IF(G65="", IF(I65="","",(INDIRECT("M" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("M" &amp; ROW() - 1) - M65))</f>
         <v/>
       </c>
-      <c r="G65" s="28" t="str">
+      <c r="G65" s="26" t="str">
         <f aca="true">IF(I65 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H65" s="28" t="str">
+      <c r="H65" s="26" t="str">
         <f aca="true">IF(I65 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3288,27 +3205,26 @@
         <f aca="true">IF(K65 = 0, INDIRECT("M" &amp; ROW() - 1), K65)</f>
         <v>0</v>
       </c>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="30"/>
+      <c r="P65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="26" t="str">
+      <c r="B66" s="24" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C66" s="26" t="str">
+      <c r="C66" s="24" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F66" s="27" t="str">
+      <c r="F66" s="25" t="str">
         <f aca="true">IF(G66="", IF(I66="","",(INDIRECT("M" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("M" &amp; ROW() - 1) - M66))</f>
         <v/>
       </c>
-      <c r="G66" s="28" t="str">
+      <c r="G66" s="26" t="str">
         <f aca="true">IF(I66 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H66" s="28" t="str">
+      <c r="H66" s="26" t="str">
         <f aca="true">IF(I66 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3328,27 +3244,26 @@
         <f aca="true">IF(K66 = 0, INDIRECT("M" &amp; ROW() - 1), K66)</f>
         <v>0</v>
       </c>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="30"/>
+      <c r="P66" s="27"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="26" t="str">
+      <c r="B67" s="24" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C67" s="26" t="str">
+      <c r="C67" s="24" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F67" s="27" t="str">
+      <c r="F67" s="25" t="str">
         <f aca="true">IF(G67="", IF(I67="","",(INDIRECT("M" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("M" &amp; ROW() - 1) - M67))</f>
         <v/>
       </c>
-      <c r="G67" s="28" t="str">
+      <c r="G67" s="26" t="str">
         <f aca="true">IF(I67 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H67" s="28" t="str">
+      <c r="H67" s="26" t="str">
         <f aca="true">IF(I67 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3368,27 +3283,26 @@
         <f aca="true">IF(K67 = 0, INDIRECT("M" &amp; ROW() - 1), K67)</f>
         <v>0</v>
       </c>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="30"/>
+      <c r="P67" s="27"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="26" t="str">
+      <c r="B68" s="24" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C68" s="26" t="str">
+      <c r="C68" s="24" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F68" s="27" t="str">
+      <c r="F68" s="25" t="str">
         <f aca="true">IF(G68="", IF(I68="","",(INDIRECT("M" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("M" &amp; ROW() - 1) - M68))</f>
         <v/>
       </c>
-      <c r="G68" s="28" t="str">
+      <c r="G68" s="26" t="str">
         <f aca="true">IF(I68 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H68" s="28" t="str">
+      <c r="H68" s="26" t="str">
         <f aca="true">IF(I68 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3408,27 +3322,26 @@
         <f aca="true">IF(K68 = 0, INDIRECT("M" &amp; ROW() - 1), K68)</f>
         <v>0</v>
       </c>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="30"/>
+      <c r="P68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="26" t="str">
+      <c r="B69" s="24" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C69" s="26" t="str">
+      <c r="C69" s="24" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F69" s="27" t="str">
+      <c r="F69" s="25" t="str">
         <f aca="true">IF(G69="", IF(I69="","",(INDIRECT("M" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("M" &amp; ROW() - 1) - M69))</f>
         <v/>
       </c>
-      <c r="G69" s="28" t="str">
+      <c r="G69" s="26" t="str">
         <f aca="true">IF(I69 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H69" s="28" t="str">
+      <c r="H69" s="26" t="str">
         <f aca="true">IF(I69 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3448,27 +3361,26 @@
         <f aca="true">IF(K69 = 0, INDIRECT("M" &amp; ROW() - 1), K69)</f>
         <v>0</v>
       </c>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="30"/>
+      <c r="P69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="26" t="str">
+      <c r="B70" s="24" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C70" s="26" t="str">
+      <c r="C70" s="24" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F70" s="27" t="str">
+      <c r="F70" s="25" t="str">
         <f aca="true">IF(G70="", IF(I70="","",(INDIRECT("M" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("M" &amp; ROW() - 1) - M70))</f>
         <v/>
       </c>
-      <c r="G70" s="28" t="str">
+      <c r="G70" s="26" t="str">
         <f aca="true">IF(I70 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H70" s="28" t="str">
+      <c r="H70" s="26" t="str">
         <f aca="true">IF(I70 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3488,27 +3400,26 @@
         <f aca="true">IF(K70 = 0, INDIRECT("M" &amp; ROW() - 1), K70)</f>
         <v>0</v>
       </c>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="30"/>
+      <c r="P70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="26" t="str">
+      <c r="B71" s="24" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C71" s="26" t="str">
+      <c r="C71" s="24" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F71" s="27" t="str">
+      <c r="F71" s="25" t="str">
         <f aca="true">IF(G71="", IF(I71="","",(INDIRECT("M" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("M" &amp; ROW() - 1) - M71))</f>
         <v/>
       </c>
-      <c r="G71" s="28" t="str">
+      <c r="G71" s="26" t="str">
         <f aca="true">IF(I71 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H71" s="28" t="str">
+      <c r="H71" s="26" t="str">
         <f aca="true">IF(I71 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3528,27 +3439,26 @@
         <f aca="true">IF(K71 = 0, INDIRECT("M" &amp; ROW() - 1), K71)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="30"/>
+      <c r="P71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="26" t="str">
+      <c r="B72" s="24" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C72" s="26" t="str">
+      <c r="C72" s="24" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F72" s="27" t="str">
+      <c r="F72" s="25" t="str">
         <f aca="true">IF(G72="", IF(I72="","",(INDIRECT("M" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("M" &amp; ROW() - 1) - M72))</f>
         <v/>
       </c>
-      <c r="G72" s="28" t="str">
+      <c r="G72" s="26" t="str">
         <f aca="true">IF(I72 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H72" s="28" t="str">
+      <c r="H72" s="26" t="str">
         <f aca="true">IF(I72 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3568,27 +3478,26 @@
         <f aca="true">IF(K72 = 0, INDIRECT("M" &amp; ROW() - 1), K72)</f>
         <v>0</v>
       </c>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="30"/>
+      <c r="P72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="26" t="str">
+      <c r="B73" s="24" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C73" s="26" t="str">
+      <c r="C73" s="24" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F73" s="27" t="str">
+      <c r="F73" s="25" t="str">
         <f aca="true">IF(G73="", IF(I73="","",(INDIRECT("M" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("M" &amp; ROW() - 1) - M73))</f>
         <v/>
       </c>
-      <c r="G73" s="28" t="str">
+      <c r="G73" s="26" t="str">
         <f aca="true">IF(I73 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H73" s="28" t="str">
+      <c r="H73" s="26" t="str">
         <f aca="true">IF(I73 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3608,27 +3517,26 @@
         <f aca="true">IF(K73 = 0, INDIRECT("M" &amp; ROW() - 1), K73)</f>
         <v>0</v>
       </c>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="30"/>
+      <c r="P73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="26" t="str">
+      <c r="B74" s="24" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C74" s="26" t="str">
+      <c r="C74" s="24" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F74" s="27" t="str">
+      <c r="F74" s="25" t="str">
         <f aca="true">IF(G74="", IF(I74="","",(INDIRECT("M" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("M" &amp; ROW() - 1) - M74))</f>
         <v/>
       </c>
-      <c r="G74" s="28" t="str">
+      <c r="G74" s="26" t="str">
         <f aca="true">IF(I74 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H74" s="28" t="str">
+      <c r="H74" s="26" t="str">
         <f aca="true">IF(I74 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3648,27 +3556,26 @@
         <f aca="true">IF(K74 = 0, INDIRECT("M" &amp; ROW() - 1), K74)</f>
         <v>0</v>
       </c>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="30"/>
+      <c r="P74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="26" t="str">
+      <c r="B75" s="24" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C75" s="26" t="str">
+      <c r="C75" s="24" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F75" s="27" t="str">
+      <c r="F75" s="25" t="str">
         <f aca="true">IF(G75="", IF(I75="","",(INDIRECT("M" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("M" &amp; ROW() - 1) - M75))</f>
         <v/>
       </c>
-      <c r="G75" s="28" t="str">
+      <c r="G75" s="26" t="str">
         <f aca="true">IF(I75 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H75" s="28" t="str">
+      <c r="H75" s="26" t="str">
         <f aca="true">IF(I75 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3688,27 +3595,26 @@
         <f aca="true">IF(K75 = 0, INDIRECT("M" &amp; ROW() - 1), K75)</f>
         <v>0</v>
       </c>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="30"/>
+      <c r="P75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="26" t="str">
+      <c r="B76" s="24" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C76" s="26" t="str">
+      <c r="C76" s="24" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F76" s="27" t="str">
+      <c r="F76" s="25" t="str">
         <f aca="true">IF(G76="", IF(I76="","",(INDIRECT("M" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("M" &amp; ROW() - 1) - M76))</f>
         <v/>
       </c>
-      <c r="G76" s="28" t="str">
+      <c r="G76" s="26" t="str">
         <f aca="true">IF(I76 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H76" s="28" t="str">
+      <c r="H76" s="26" t="str">
         <f aca="true">IF(I76 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3728,27 +3634,26 @@
         <f aca="true">IF(K76 = 0, INDIRECT("M" &amp; ROW() - 1), K76)</f>
         <v>0</v>
       </c>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="30"/>
+      <c r="P76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="26" t="str">
+      <c r="B77" s="24" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C77" s="26" t="str">
+      <c r="C77" s="24" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F77" s="27" t="str">
+      <c r="F77" s="25" t="str">
         <f aca="true">IF(G77="", IF(I77="","",(INDIRECT("M" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("M" &amp; ROW() - 1) - M77))</f>
         <v/>
       </c>
-      <c r="G77" s="28" t="str">
+      <c r="G77" s="26" t="str">
         <f aca="true">IF(I77 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H77" s="28" t="str">
+      <c r="H77" s="26" t="str">
         <f aca="true">IF(I77 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3768,27 +3673,26 @@
         <f aca="true">IF(K77 = 0, INDIRECT("M" &amp; ROW() - 1), K77)</f>
         <v>0</v>
       </c>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="30"/>
+      <c r="P77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="26" t="str">
+      <c r="B78" s="24" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C78" s="26" t="str">
+      <c r="C78" s="24" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F78" s="27" t="str">
+      <c r="F78" s="25" t="str">
         <f aca="true">IF(G78="", IF(I78="","",(INDIRECT("M" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("M" &amp; ROW() - 1) - M78))</f>
         <v/>
       </c>
-      <c r="G78" s="28" t="str">
+      <c r="G78" s="26" t="str">
         <f aca="true">IF(I78 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H78" s="28" t="str">
+      <c r="H78" s="26" t="str">
         <f aca="true">IF(I78 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3808,27 +3712,26 @@
         <f aca="true">IF(K78 = 0, INDIRECT("M" &amp; ROW() - 1), K78)</f>
         <v>0</v>
       </c>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="30"/>
+      <c r="P78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="26" t="str">
+      <c r="B79" s="24" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="24" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F79" s="27" t="str">
+      <c r="F79" s="25" t="str">
         <f aca="true">IF(G79="", IF(I79="","",(INDIRECT("M" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("M" &amp; ROW() - 1) - M79))</f>
         <v/>
       </c>
-      <c r="G79" s="28" t="str">
+      <c r="G79" s="26" t="str">
         <f aca="true">IF(I79 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H79" s="28" t="str">
+      <c r="H79" s="26" t="str">
         <f aca="true">IF(I79 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3848,27 +3751,26 @@
         <f aca="true">IF(K79 = 0, INDIRECT("M" &amp; ROW() - 1), K79)</f>
         <v>0</v>
       </c>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="30"/>
+      <c r="P79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="26" t="str">
+      <c r="B80" s="24" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C80" s="26" t="str">
+      <c r="C80" s="24" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F80" s="27" t="str">
+      <c r="F80" s="25" t="str">
         <f aca="true">IF(G80="", IF(I80="","",(INDIRECT("M" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("M" &amp; ROW() - 1) - M80))</f>
         <v/>
       </c>
-      <c r="G80" s="28" t="str">
+      <c r="G80" s="26" t="str">
         <f aca="true">IF(I80 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H80" s="28" t="str">
+      <c r="H80" s="26" t="str">
         <f aca="true">IF(I80 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3888,27 +3790,26 @@
         <f aca="true">IF(K80 = 0, INDIRECT("M" &amp; ROW() - 1), K80)</f>
         <v>0</v>
       </c>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="30"/>
+      <c r="P80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="26" t="str">
+      <c r="B81" s="24" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C81" s="26" t="str">
+      <c r="C81" s="24" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F81" s="27" t="str">
+      <c r="F81" s="25" t="str">
         <f aca="true">IF(G81="", IF(I81="","",(INDIRECT("M" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("M" &amp; ROW() - 1) - M81))</f>
         <v/>
       </c>
-      <c r="G81" s="28" t="str">
+      <c r="G81" s="26" t="str">
         <f aca="true">IF(I81 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H81" s="28" t="str">
+      <c r="H81" s="26" t="str">
         <f aca="true">IF(I81 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3928,27 +3829,26 @@
         <f aca="true">IF(K81 = 0, INDIRECT("M" &amp; ROW() - 1), K81)</f>
         <v>0</v>
       </c>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="30"/>
+      <c r="P81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="26" t="str">
+      <c r="B82" s="24" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C82" s="26" t="str">
+      <c r="C82" s="24" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F82" s="27" t="str">
+      <c r="F82" s="25" t="str">
         <f aca="true">IF(G82="", IF(I82="","",(INDIRECT("M" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("M" &amp; ROW() - 1) - M82))</f>
         <v/>
       </c>
-      <c r="G82" s="28" t="str">
+      <c r="G82" s="26" t="str">
         <f aca="true">IF(I82 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H82" s="28" t="str">
+      <c r="H82" s="26" t="str">
         <f aca="true">IF(I82 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3968,27 +3868,26 @@
         <f aca="true">IF(K82 = 0, INDIRECT("M" &amp; ROW() - 1), K82)</f>
         <v>0</v>
       </c>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="30"/>
+      <c r="P82" s="27"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="26" t="str">
+      <c r="B83" s="24" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C83" s="26" t="str">
+      <c r="C83" s="24" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F83" s="27" t="str">
+      <c r="F83" s="25" t="str">
         <f aca="true">IF(G83="", IF(I83="","",(INDIRECT("M" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("M" &amp; ROW() - 1) - M83))</f>
         <v/>
       </c>
-      <c r="G83" s="28" t="str">
+      <c r="G83" s="26" t="str">
         <f aca="true">IF(I83 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H83" s="28" t="str">
+      <c r="H83" s="26" t="str">
         <f aca="true">IF(I83 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4008,27 +3907,26 @@
         <f aca="true">IF(K83 = 0, INDIRECT("M" &amp; ROW() - 1), K83)</f>
         <v>0</v>
       </c>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="30"/>
+      <c r="P83" s="27"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="26" t="str">
+      <c r="B84" s="24" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C84" s="26" t="str">
+      <c r="C84" s="24" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F84" s="27" t="str">
+      <c r="F84" s="25" t="str">
         <f aca="true">IF(G84="", IF(I84="","",(INDIRECT("M" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("M" &amp; ROW() - 1) - M84))</f>
         <v/>
       </c>
-      <c r="G84" s="28" t="str">
+      <c r="G84" s="26" t="str">
         <f aca="true">IF(I84 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H84" s="28" t="str">
+      <c r="H84" s="26" t="str">
         <f aca="true">IF(I84 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4048,27 +3946,26 @@
         <f aca="true">IF(K84 = 0, INDIRECT("M" &amp; ROW() - 1), K84)</f>
         <v>0</v>
       </c>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="30"/>
+      <c r="P84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="26" t="str">
+      <c r="B85" s="24" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C85" s="26" t="str">
+      <c r="C85" s="24" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F85" s="27" t="str">
+      <c r="F85" s="25" t="str">
         <f aca="true">IF(G85="", IF(I85="","",(INDIRECT("M" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("M" &amp; ROW() - 1) - M85))</f>
         <v/>
       </c>
-      <c r="G85" s="28" t="str">
+      <c r="G85" s="26" t="str">
         <f aca="true">IF(I85 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H85" s="28" t="str">
+      <c r="H85" s="26" t="str">
         <f aca="true">IF(I85 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4088,27 +3985,26 @@
         <f aca="true">IF(K85 = 0, INDIRECT("M" &amp; ROW() - 1), K85)</f>
         <v>0</v>
       </c>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="30"/>
+      <c r="P85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="26" t="str">
+      <c r="B86" s="24" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C86" s="26" t="str">
+      <c r="C86" s="24" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F86" s="27" t="str">
+      <c r="F86" s="25" t="str">
         <f aca="true">IF(G86="", IF(I86="","",(INDIRECT("M" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("M" &amp; ROW() - 1) - M86))</f>
         <v/>
       </c>
-      <c r="G86" s="28" t="str">
+      <c r="G86" s="26" t="str">
         <f aca="true">IF(I86 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H86" s="28" t="str">
+      <c r="H86" s="26" t="str">
         <f aca="true">IF(I86 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4128,27 +4024,26 @@
         <f aca="true">IF(K86 = 0, INDIRECT("M" &amp; ROW() - 1), K86)</f>
         <v>0</v>
       </c>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="30"/>
+      <c r="P86" s="27"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="26" t="str">
+      <c r="B87" s="24" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C87" s="26" t="str">
+      <c r="C87" s="24" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F87" s="27" t="str">
+      <c r="F87" s="25" t="str">
         <f aca="true">IF(G87="", IF(I87="","",(INDIRECT("M" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("M" &amp; ROW() - 1) - M87))</f>
         <v/>
       </c>
-      <c r="G87" s="28" t="str">
+      <c r="G87" s="26" t="str">
         <f aca="true">IF(I87 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H87" s="28" t="str">
+      <c r="H87" s="26" t="str">
         <f aca="true">IF(I87 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4168,27 +4063,26 @@
         <f aca="true">IF(K87 = 0, INDIRECT("M" &amp; ROW() - 1), K87)</f>
         <v>0</v>
       </c>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="30"/>
+      <c r="P87" s="27"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="26" t="str">
+      <c r="B88" s="24" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C88" s="26" t="str">
+      <c r="C88" s="24" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F88" s="27" t="str">
+      <c r="F88" s="25" t="str">
         <f aca="true">IF(G88="", IF(I88="","",(INDIRECT("M" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("M" &amp; ROW() - 1) - M88))</f>
         <v/>
       </c>
-      <c r="G88" s="28" t="str">
+      <c r="G88" s="26" t="str">
         <f aca="true">IF(I88 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H88" s="28" t="str">
+      <c r="H88" s="26" t="str">
         <f aca="true">IF(I88 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4208,27 +4102,26 @@
         <f aca="true">IF(K88 = 0, INDIRECT("M" &amp; ROW() - 1), K88)</f>
         <v>0</v>
       </c>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="30"/>
+      <c r="P88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="26" t="str">
+      <c r="B89" s="24" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C89" s="26" t="str">
+      <c r="C89" s="24" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F89" s="27" t="str">
+      <c r="F89" s="25" t="str">
         <f aca="true">IF(G89="", IF(I89="","",(INDIRECT("M" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("M" &amp; ROW() - 1) - M89))</f>
         <v/>
       </c>
-      <c r="G89" s="28" t="str">
+      <c r="G89" s="26" t="str">
         <f aca="true">IF(I89 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H89" s="28" t="str">
+      <c r="H89" s="26" t="str">
         <f aca="true">IF(I89 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4248,27 +4141,26 @@
         <f aca="true">IF(K89 = 0, INDIRECT("M" &amp; ROW() - 1), K89)</f>
         <v>0</v>
       </c>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="30"/>
+      <c r="P89" s="27"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="26" t="str">
+      <c r="B90" s="24" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C90" s="26" t="str">
+      <c r="C90" s="24" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F90" s="27" t="str">
+      <c r="F90" s="25" t="str">
         <f aca="true">IF(G90="", IF(I90="","",(INDIRECT("M" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("M" &amp; ROW() - 1) - M90))</f>
         <v/>
       </c>
-      <c r="G90" s="28" t="str">
+      <c r="G90" s="26" t="str">
         <f aca="true">IF(I90 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H90" s="28" t="str">
+      <c r="H90" s="26" t="str">
         <f aca="true">IF(I90 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4288,27 +4180,26 @@
         <f aca="true">IF(K90 = 0, INDIRECT("M" &amp; ROW() - 1), K90)</f>
         <v>0</v>
       </c>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="30"/>
+      <c r="P90" s="27"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="26" t="str">
+      <c r="B91" s="24" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C91" s="26" t="str">
+      <c r="C91" s="24" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F91" s="27" t="str">
+      <c r="F91" s="25" t="str">
         <f aca="true">IF(G91="", IF(I91="","",(INDIRECT("M" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("M" &amp; ROW() - 1) - M91))</f>
         <v/>
       </c>
-      <c r="G91" s="28" t="str">
+      <c r="G91" s="26" t="str">
         <f aca="true">IF(I91 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H91" s="28" t="str">
+      <c r="H91" s="26" t="str">
         <f aca="true">IF(I91 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4328,27 +4219,26 @@
         <f aca="true">IF(K91 = 0, INDIRECT("M" &amp; ROW() - 1), K91)</f>
         <v>0</v>
       </c>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="30"/>
+      <c r="P91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="26" t="str">
+      <c r="B92" s="24" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C92" s="26" t="str">
+      <c r="C92" s="24" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F92" s="27" t="str">
+      <c r="F92" s="25" t="str">
         <f aca="true">IF(G92="", IF(I92="","",(INDIRECT("M" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("M" &amp; ROW() - 1) - M92))</f>
         <v/>
       </c>
-      <c r="G92" s="28" t="str">
+      <c r="G92" s="26" t="str">
         <f aca="true">IF(I92 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H92" s="28" t="str">
+      <c r="H92" s="26" t="str">
         <f aca="true">IF(I92 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4368,27 +4258,26 @@
         <f aca="true">IF(K92 = 0, INDIRECT("M" &amp; ROW() - 1), K92)</f>
         <v>0</v>
       </c>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="30"/>
+      <c r="P92" s="27"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="26" t="str">
+      <c r="B93" s="24" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C93" s="26" t="str">
+      <c r="C93" s="24" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F93" s="27" t="str">
+      <c r="F93" s="25" t="str">
         <f aca="true">IF(G93="", IF(I93="","",(INDIRECT("M" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("M" &amp; ROW() - 1) - M93))</f>
         <v/>
       </c>
-      <c r="G93" s="28" t="str">
+      <c r="G93" s="26" t="str">
         <f aca="true">IF(I93 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H93" s="28" t="str">
+      <c r="H93" s="26" t="str">
         <f aca="true">IF(I93 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4408,27 +4297,26 @@
         <f aca="true">IF(K93 = 0, INDIRECT("M" &amp; ROW() - 1), K93)</f>
         <v>0</v>
       </c>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="30"/>
+      <c r="P93" s="27"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="26" t="str">
+      <c r="B94" s="24" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C94" s="26" t="str">
+      <c r="C94" s="24" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F94" s="27" t="str">
+      <c r="F94" s="25" t="str">
         <f aca="true">IF(G94="", IF(I94="","",(INDIRECT("M" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("M" &amp; ROW() - 1) - M94))</f>
         <v/>
       </c>
-      <c r="G94" s="28" t="str">
+      <c r="G94" s="26" t="str">
         <f aca="true">IF(I94 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H94" s="28" t="str">
+      <c r="H94" s="26" t="str">
         <f aca="true">IF(I94 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4448,27 +4336,26 @@
         <f aca="true">IF(K94 = 0, INDIRECT("M" &amp; ROW() - 1), K94)</f>
         <v>0</v>
       </c>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="30"/>
+      <c r="P94" s="27"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="26" t="str">
+      <c r="B95" s="24" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C95" s="26" t="str">
+      <c r="C95" s="24" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F95" s="27" t="str">
+      <c r="F95" s="25" t="str">
         <f aca="true">IF(G95="", IF(I95="","",(INDIRECT("M" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("M" &amp; ROW() - 1) - M95))</f>
         <v/>
       </c>
-      <c r="G95" s="28" t="str">
+      <c r="G95" s="26" t="str">
         <f aca="true">IF(I95 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H95" s="28" t="str">
+      <c r="H95" s="26" t="str">
         <f aca="true">IF(I95 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4488,27 +4375,26 @@
         <f aca="true">IF(K95 = 0, INDIRECT("M" &amp; ROW() - 1), K95)</f>
         <v>0</v>
       </c>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="30"/>
+      <c r="P95" s="27"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="26" t="str">
+      <c r="B96" s="24" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C96" s="26" t="str">
+      <c r="C96" s="24" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F96" s="27" t="str">
+      <c r="F96" s="25" t="str">
         <f aca="true">IF(G96="", IF(I96="","",(INDIRECT("M" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("M" &amp; ROW() - 1) - M96))</f>
         <v/>
       </c>
-      <c r="G96" s="28" t="str">
+      <c r="G96" s="26" t="str">
         <f aca="true">IF(I96 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H96" s="28" t="str">
+      <c r="H96" s="26" t="str">
         <f aca="true">IF(I96 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4528,27 +4414,26 @@
         <f aca="true">IF(K96 = 0, INDIRECT("M" &amp; ROW() - 1), K96)</f>
         <v>0</v>
       </c>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="30"/>
+      <c r="P96" s="27"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="26" t="str">
+      <c r="B97" s="24" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C97" s="26" t="str">
+      <c r="C97" s="24" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F97" s="27" t="str">
+      <c r="F97" s="25" t="str">
         <f aca="true">IF(G97="", IF(I97="","",(INDIRECT("M" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("M" &amp; ROW() - 1) - M97))</f>
         <v/>
       </c>
-      <c r="G97" s="28" t="str">
+      <c r="G97" s="26" t="str">
         <f aca="true">IF(I97 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H97" s="28" t="str">
+      <c r="H97" s="26" t="str">
         <f aca="true">IF(I97 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4568,27 +4453,26 @@
         <f aca="true">IF(K97 = 0, INDIRECT("M" &amp; ROW() - 1), K97)</f>
         <v>0</v>
       </c>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="30"/>
+      <c r="P97" s="27"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="26" t="str">
+      <c r="B98" s="24" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C98" s="26" t="str">
+      <c r="C98" s="24" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F98" s="27" t="str">
+      <c r="F98" s="25" t="str">
         <f aca="true">IF(G98="", IF(I98="","",(INDIRECT("M" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("M" &amp; ROW() - 1) - M98))</f>
         <v/>
       </c>
-      <c r="G98" s="28" t="str">
+      <c r="G98" s="26" t="str">
         <f aca="true">IF(I98 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H98" s="28" t="str">
+      <c r="H98" s="26" t="str">
         <f aca="true">IF(I98 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4608,27 +4492,26 @@
         <f aca="true">IF(K98 = 0, INDIRECT("M" &amp; ROW() - 1), K98)</f>
         <v>0</v>
       </c>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="30"/>
+      <c r="P98" s="27"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="26" t="str">
+      <c r="B99" s="24" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C99" s="26" t="str">
+      <c r="C99" s="24" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F99" s="27" t="str">
+      <c r="F99" s="25" t="str">
         <f aca="true">IF(G99="", IF(I99="","",(INDIRECT("M" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("M" &amp; ROW() - 1) - M99))</f>
         <v/>
       </c>
-      <c r="G99" s="28" t="str">
+      <c r="G99" s="26" t="str">
         <f aca="true">IF(I99 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H99" s="28" t="str">
+      <c r="H99" s="26" t="str">
         <f aca="true">IF(I99 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4648,27 +4531,26 @@
         <f aca="true">IF(K99 = 0, INDIRECT("M" &amp; ROW() - 1), K99)</f>
         <v>0</v>
       </c>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="30"/>
+      <c r="P99" s="27"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="26" t="str">
+      <c r="B100" s="24" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C100" s="26" t="str">
+      <c r="C100" s="24" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F100" s="27" t="str">
+      <c r="F100" s="25" t="str">
         <f aca="true">IF(G100="", IF(I100="","",(INDIRECT("M" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("M" &amp; ROW() - 1) - M100))</f>
         <v/>
       </c>
-      <c r="G100" s="28" t="str">
+      <c r="G100" s="26" t="str">
         <f aca="true">IF(I100 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H100" s="28" t="str">
+      <c r="H100" s="26" t="str">
         <f aca="true">IF(I100 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4688,27 +4570,26 @@
         <f aca="true">IF(K100 = 0, INDIRECT("M" &amp; ROW() - 1), K100)</f>
         <v>0</v>
       </c>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="30"/>
+      <c r="P100" s="27"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="26" t="str">
+      <c r="B101" s="24" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C101" s="26" t="str">
+      <c r="C101" s="24" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F101" s="27" t="str">
+      <c r="F101" s="25" t="str">
         <f aca="true">IF(G101="", IF(I101="","",(INDIRECT("M" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("M" &amp; ROW() - 1) - M101))</f>
         <v/>
       </c>
-      <c r="G101" s="28" t="str">
+      <c r="G101" s="26" t="str">
         <f aca="true">IF(I101 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H101" s="28" t="str">
+      <c r="H101" s="26" t="str">
         <f aca="true">IF(I101 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4728,27 +4609,26 @@
         <f aca="true">IF(K101 = 0, INDIRECT("M" &amp; ROW() - 1), K101)</f>
         <v>0</v>
       </c>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="30"/>
+      <c r="P101" s="27"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="26" t="str">
+      <c r="B102" s="24" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C102" s="26" t="str">
+      <c r="C102" s="24" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F102" s="27" t="str">
+      <c r="F102" s="25" t="str">
         <f aca="true">IF(G102="", IF(I102="","",(INDIRECT("M" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("M" &amp; ROW() - 1) - M102))</f>
         <v/>
       </c>
-      <c r="G102" s="28" t="str">
+      <c r="G102" s="26" t="str">
         <f aca="true">IF(I102 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H102" s="28" t="str">
+      <c r="H102" s="26" t="str">
         <f aca="true">IF(I102 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4768,27 +4648,26 @@
         <f aca="true">IF(K102 = 0, INDIRECT("M" &amp; ROW() - 1), K102)</f>
         <v>0</v>
       </c>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="30"/>
+      <c r="P102" s="27"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="26" t="str">
+      <c r="B103" s="24" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C103" s="26" t="str">
+      <c r="C103" s="24" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F103" s="27" t="str">
+      <c r="F103" s="25" t="str">
         <f aca="true">IF(G103="", IF(I103="","",(INDIRECT("M" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("M" &amp; ROW() - 1) - M103))</f>
         <v/>
       </c>
-      <c r="G103" s="28" t="str">
+      <c r="G103" s="26" t="str">
         <f aca="true">IF(I103 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H103" s="28" t="str">
+      <c r="H103" s="26" t="str">
         <f aca="true">IF(I103 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4808,27 +4687,26 @@
         <f aca="true">IF(K103 = 0, INDIRECT("M" &amp; ROW() - 1), K103)</f>
         <v>0</v>
       </c>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="30"/>
+      <c r="P103" s="27"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="26" t="str">
+      <c r="B104" s="24" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C104" s="26" t="str">
+      <c r="C104" s="24" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F104" s="27" t="str">
+      <c r="F104" s="25" t="str">
         <f aca="true">IF(G104="", IF(I104="","",(INDIRECT("M" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("M" &amp; ROW() - 1) - M104))</f>
         <v/>
       </c>
-      <c r="G104" s="28" t="str">
+      <c r="G104" s="26" t="str">
         <f aca="true">IF(I104 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H104" s="28" t="str">
+      <c r="H104" s="26" t="str">
         <f aca="true">IF(I104 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4848,27 +4726,26 @@
         <f aca="true">IF(K104 = 0, INDIRECT("M" &amp; ROW() - 1), K104)</f>
         <v>0</v>
       </c>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="30"/>
+      <c r="P104" s="27"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="26" t="str">
+      <c r="B105" s="24" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C105" s="26" t="str">
+      <c r="C105" s="24" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F105" s="27" t="str">
+      <c r="F105" s="25" t="str">
         <f aca="true">IF(G105="", IF(I105="","",(INDIRECT("M" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("M" &amp; ROW() - 1) - M105))</f>
         <v/>
       </c>
-      <c r="G105" s="28" t="str">
+      <c r="G105" s="26" t="str">
         <f aca="true">IF(I105 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H105" s="28" t="str">
+      <c r="H105" s="26" t="str">
         <f aca="true">IF(I105 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4888,27 +4765,26 @@
         <f aca="true">IF(K105 = 0, INDIRECT("M" &amp; ROW() - 1), K105)</f>
         <v>0</v>
       </c>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="30"/>
+      <c r="P105" s="27"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="26" t="str">
+      <c r="B106" s="24" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C106" s="26" t="str">
+      <c r="C106" s="24" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F106" s="27" t="str">
+      <c r="F106" s="25" t="str">
         <f aca="true">IF(G106="", IF(I106="","",(INDIRECT("M" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("M" &amp; ROW() - 1) - M106))</f>
         <v/>
       </c>
-      <c r="G106" s="28" t="str">
+      <c r="G106" s="26" t="str">
         <f aca="true">IF(I106 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H106" s="28" t="str">
+      <c r="H106" s="26" t="str">
         <f aca="true">IF(I106 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4928,27 +4804,26 @@
         <f aca="true">IF(K106 = 0, INDIRECT("M" &amp; ROW() - 1), K106)</f>
         <v>0</v>
       </c>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="30"/>
+      <c r="P106" s="27"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="26" t="str">
+      <c r="B107" s="24" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C107" s="26" t="str">
+      <c r="C107" s="24" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F107" s="27" t="str">
+      <c r="F107" s="25" t="str">
         <f aca="true">IF(G107="", IF(I107="","",(INDIRECT("M" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("M" &amp; ROW() - 1) - M107))</f>
         <v/>
       </c>
-      <c r="G107" s="28" t="str">
+      <c r="G107" s="26" t="str">
         <f aca="true">IF(I107 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H107" s="28" t="str">
+      <c r="H107" s="26" t="str">
         <f aca="true">IF(I107 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4968,27 +4843,26 @@
         <f aca="true">IF(K107 = 0, INDIRECT("M" &amp; ROW() - 1), K107)</f>
         <v>0</v>
       </c>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="30"/>
+      <c r="P107" s="27"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="26" t="str">
+      <c r="B108" s="24" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C108" s="26" t="str">
+      <c r="C108" s="24" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F108" s="27" t="str">
+      <c r="F108" s="25" t="str">
         <f aca="true">IF(G108="", IF(I108="","",(INDIRECT("M" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("M" &amp; ROW() - 1) - M108))</f>
         <v/>
       </c>
-      <c r="G108" s="28" t="str">
+      <c r="G108" s="26" t="str">
         <f aca="true">IF(I108 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H108" s="28" t="str">
+      <c r="H108" s="26" t="str">
         <f aca="true">IF(I108 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5008,27 +4882,26 @@
         <f aca="true">IF(K108 = 0, INDIRECT("M" &amp; ROW() - 1), K108)</f>
         <v>0</v>
       </c>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="30"/>
+      <c r="P108" s="27"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="26" t="str">
+      <c r="B109" s="24" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C109" s="26" t="str">
+      <c r="C109" s="24" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F109" s="27" t="str">
+      <c r="F109" s="25" t="str">
         <f aca="true">IF(G109="", IF(I109="","",(INDIRECT("M" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("M" &amp; ROW() - 1) - M109))</f>
         <v/>
       </c>
-      <c r="G109" s="28" t="str">
+      <c r="G109" s="26" t="str">
         <f aca="true">IF(I109 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H109" s="28" t="str">
+      <c r="H109" s="26" t="str">
         <f aca="true">IF(I109 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5048,27 +4921,26 @@
         <f aca="true">IF(K109 = 0, INDIRECT("M" &amp; ROW() - 1), K109)</f>
         <v>0</v>
       </c>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="30"/>
+      <c r="P109" s="27"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="26" t="str">
+      <c r="B110" s="24" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C110" s="26" t="str">
+      <c r="C110" s="24" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F110" s="27" t="str">
+      <c r="F110" s="25" t="str">
         <f aca="true">IF(G110="", IF(I110="","",(INDIRECT("M" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("M" &amp; ROW() - 1) - M110))</f>
         <v/>
       </c>
-      <c r="G110" s="28" t="str">
+      <c r="G110" s="26" t="str">
         <f aca="true">IF(I110 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H110" s="28" t="str">
+      <c r="H110" s="26" t="str">
         <f aca="true">IF(I110 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5088,27 +4960,26 @@
         <f aca="true">IF(K110 = 0, INDIRECT("M" &amp; ROW() - 1), K110)</f>
         <v>0</v>
       </c>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="30"/>
+      <c r="P110" s="27"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="26" t="str">
+      <c r="B111" s="24" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C111" s="26" t="str">
+      <c r="C111" s="24" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F111" s="27" t="str">
+      <c r="F111" s="25" t="str">
         <f aca="true">IF(G111="", IF(I111="","",(INDIRECT("M" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("M" &amp; ROW() - 1) - M111))</f>
         <v/>
       </c>
-      <c r="G111" s="28" t="str">
+      <c r="G111" s="26" t="str">
         <f aca="true">IF(I111 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H111" s="28" t="str">
+      <c r="H111" s="26" t="str">
         <f aca="true">IF(I111 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5128,27 +4999,26 @@
         <f aca="true">IF(K111 = 0, INDIRECT("M" &amp; ROW() - 1), K111)</f>
         <v>0</v>
       </c>
-      <c r="P111" s="29"/>
-      <c r="Q111" s="30"/>
+      <c r="P111" s="27"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="26" t="str">
+      <c r="B112" s="24" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C112" s="26" t="str">
+      <c r="C112" s="24" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F112" s="27" t="str">
+      <c r="F112" s="25" t="str">
         <f aca="true">IF(G112="", IF(I112="","",(INDIRECT("M" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("M" &amp; ROW() - 1) - M112))</f>
         <v/>
       </c>
-      <c r="G112" s="28" t="str">
+      <c r="G112" s="26" t="str">
         <f aca="true">IF(I112 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H112" s="28" t="str">
+      <c r="H112" s="26" t="str">
         <f aca="true">IF(I112 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5168,27 +5038,26 @@
         <f aca="true">IF(K112 = 0, INDIRECT("M" &amp; ROW() - 1), K112)</f>
         <v>0</v>
       </c>
-      <c r="P112" s="29"/>
-      <c r="Q112" s="30"/>
+      <c r="P112" s="27"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="26" t="str">
+      <c r="B113" s="24" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C113" s="26" t="str">
+      <c r="C113" s="24" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F113" s="27" t="str">
+      <c r="F113" s="25" t="str">
         <f aca="true">IF(G113="", IF(I113="","",(INDIRECT("M" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("M" &amp; ROW() - 1) - M113))</f>
         <v/>
       </c>
-      <c r="G113" s="28" t="str">
+      <c r="G113" s="26" t="str">
         <f aca="true">IF(I113 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H113" s="28" t="str">
+      <c r="H113" s="26" t="str">
         <f aca="true">IF(I113 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5208,27 +5077,26 @@
         <f aca="true">IF(K113 = 0, INDIRECT("M" &amp; ROW() - 1), K113)</f>
         <v>0</v>
       </c>
-      <c r="P113" s="29"/>
-      <c r="Q113" s="30"/>
+      <c r="P113" s="27"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="26" t="str">
+      <c r="B114" s="24" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C114" s="26" t="str">
+      <c r="C114" s="24" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F114" s="27" t="str">
+      <c r="F114" s="25" t="str">
         <f aca="true">IF(G114="", IF(I114="","",(INDIRECT("M" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("M" &amp; ROW() - 1) - M114))</f>
         <v/>
       </c>
-      <c r="G114" s="28" t="str">
+      <c r="G114" s="26" t="str">
         <f aca="true">IF(I114 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H114" s="28" t="str">
+      <c r="H114" s="26" t="str">
         <f aca="true">IF(I114 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5248,27 +5116,26 @@
         <f aca="true">IF(K114 = 0, INDIRECT("M" &amp; ROW() - 1), K114)</f>
         <v>0</v>
       </c>
-      <c r="P114" s="29"/>
-      <c r="Q114" s="30"/>
+      <c r="P114" s="27"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="26" t="str">
+      <c r="B115" s="24" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C115" s="26" t="str">
+      <c r="C115" s="24" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F115" s="27" t="str">
+      <c r="F115" s="25" t="str">
         <f aca="true">IF(G115="", IF(I115="","",(INDIRECT("M" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("M" &amp; ROW() - 1) - M115))</f>
         <v/>
       </c>
-      <c r="G115" s="28" t="str">
+      <c r="G115" s="26" t="str">
         <f aca="true">IF(I115 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H115" s="28" t="str">
+      <c r="H115" s="26" t="str">
         <f aca="true">IF(I115 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5288,27 +5155,26 @@
         <f aca="true">IF(K115 = 0, INDIRECT("M" &amp; ROW() - 1), K115)</f>
         <v>0</v>
       </c>
-      <c r="P115" s="29"/>
-      <c r="Q115" s="30"/>
+      <c r="P115" s="27"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="26" t="str">
+      <c r="B116" s="24" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C116" s="26" t="str">
+      <c r="C116" s="24" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F116" s="27" t="str">
+      <c r="F116" s="25" t="str">
         <f aca="true">IF(G116="", IF(I116="","",(INDIRECT("M" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("M" &amp; ROW() - 1) - M116))</f>
         <v/>
       </c>
-      <c r="G116" s="28" t="str">
+      <c r="G116" s="26" t="str">
         <f aca="true">IF(I116 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H116" s="28" t="str">
+      <c r="H116" s="26" t="str">
         <f aca="true">IF(I116 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5328,27 +5194,26 @@
         <f aca="true">IF(K116 = 0, INDIRECT("M" &amp; ROW() - 1), K116)</f>
         <v>0</v>
       </c>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="30"/>
+      <c r="P116" s="27"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="26" t="str">
+      <c r="B117" s="24" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C117" s="26" t="str">
+      <c r="C117" s="24" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F117" s="27" t="str">
+      <c r="F117" s="25" t="str">
         <f aca="true">IF(G117="", IF(I117="","",(INDIRECT("M" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("M" &amp; ROW() - 1) - M117))</f>
         <v/>
       </c>
-      <c r="G117" s="28" t="str">
+      <c r="G117" s="26" t="str">
         <f aca="true">IF(I117 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H117" s="28" t="str">
+      <c r="H117" s="26" t="str">
         <f aca="true">IF(I117 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5368,27 +5233,26 @@
         <f aca="true">IF(K117 = 0, INDIRECT("M" &amp; ROW() - 1), K117)</f>
         <v>0</v>
       </c>
-      <c r="P117" s="29"/>
-      <c r="Q117" s="30"/>
+      <c r="P117" s="27"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="26" t="str">
+      <c r="B118" s="24" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C118" s="26" t="str">
+      <c r="C118" s="24" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F118" s="27" t="str">
+      <c r="F118" s="25" t="str">
         <f aca="true">IF(G118="", IF(I118="","",(INDIRECT("M" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("M" &amp; ROW() - 1) - M118))</f>
         <v/>
       </c>
-      <c r="G118" s="28" t="str">
+      <c r="G118" s="26" t="str">
         <f aca="true">IF(I118 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H118" s="28" t="str">
+      <c r="H118" s="26" t="str">
         <f aca="true">IF(I118 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5408,27 +5272,26 @@
         <f aca="true">IF(K118 = 0, INDIRECT("M" &amp; ROW() - 1), K118)</f>
         <v>0</v>
       </c>
-      <c r="P118" s="29"/>
-      <c r="Q118" s="30"/>
+      <c r="P118" s="27"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="26" t="str">
+      <c r="B119" s="24" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C119" s="26" t="str">
+      <c r="C119" s="24" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F119" s="27" t="str">
+      <c r="F119" s="25" t="str">
         <f aca="true">IF(G119="", IF(I119="","",(INDIRECT("M" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("M" &amp; ROW() - 1) - M119))</f>
         <v/>
       </c>
-      <c r="G119" s="28" t="str">
+      <c r="G119" s="26" t="str">
         <f aca="true">IF(I119 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H119" s="28" t="str">
+      <c r="H119" s="26" t="str">
         <f aca="true">IF(I119 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5448,27 +5311,26 @@
         <f aca="true">IF(K119 = 0, INDIRECT("M" &amp; ROW() - 1), K119)</f>
         <v>0</v>
       </c>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="30"/>
+      <c r="P119" s="27"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="26" t="str">
+      <c r="B120" s="24" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C120" s="26" t="str">
+      <c r="C120" s="24" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F120" s="27" t="str">
+      <c r="F120" s="25" t="str">
         <f aca="true">IF(G120="", IF(I120="","",(INDIRECT("M" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("M" &amp; ROW() - 1) - M120))</f>
         <v/>
       </c>
-      <c r="G120" s="28" t="str">
+      <c r="G120" s="26" t="str">
         <f aca="true">IF(I120 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H120" s="28" t="str">
+      <c r="H120" s="26" t="str">
         <f aca="true">IF(I120 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5488,27 +5350,26 @@
         <f aca="true">IF(K120 = 0, INDIRECT("M" &amp; ROW() - 1), K120)</f>
         <v>0</v>
       </c>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="30"/>
+      <c r="P120" s="27"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="26" t="str">
+      <c r="B121" s="24" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C121" s="26" t="str">
+      <c r="C121" s="24" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F121" s="27" t="str">
+      <c r="F121" s="25" t="str">
         <f aca="true">IF(G121="", IF(I121="","",(INDIRECT("M" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("M" &amp; ROW() - 1) - M121))</f>
         <v/>
       </c>
-      <c r="G121" s="28" t="str">
+      <c r="G121" s="26" t="str">
         <f aca="true">IF(I121 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H121" s="28" t="str">
+      <c r="H121" s="26" t="str">
         <f aca="true">IF(I121 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5528,27 +5389,26 @@
         <f aca="true">IF(K121 = 0, INDIRECT("M" &amp; ROW() - 1), K121)</f>
         <v>0</v>
       </c>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="30"/>
+      <c r="P121" s="27"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="26" t="str">
+      <c r="B122" s="24" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C122" s="26" t="str">
+      <c r="C122" s="24" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F122" s="27" t="str">
+      <c r="F122" s="25" t="str">
         <f aca="true">IF(G122="", IF(I122="","",(INDIRECT("M" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("M" &amp; ROW() - 1) - M122))</f>
         <v/>
       </c>
-      <c r="G122" s="28" t="str">
+      <c r="G122" s="26" t="str">
         <f aca="true">IF(I122 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H122" s="28" t="str">
+      <c r="H122" s="26" t="str">
         <f aca="true">IF(I122 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5568,24 +5428,23 @@
         <f aca="true">IF(K122 = 0, INDIRECT("M" &amp; ROW() - 1), K122)</f>
         <v>0</v>
       </c>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="30"/>
+      <c r="P122" s="27"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="31"/>
-      <c r="C123" s="26" t="str">
+      <c r="B123" s="28"/>
+      <c r="C123" s="24" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F123" s="27" t="str">
+      <c r="F123" s="25" t="str">
         <f aca="true">IF(G123="", IF(I123="","",(INDIRECT("M" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("M" &amp; ROW() - 1) - M123))</f>
         <v/>
       </c>
-      <c r="G123" s="28" t="str">
+      <c r="G123" s="26" t="str">
         <f aca="true">IF(I123 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
         <v/>
       </c>
-      <c r="H123" s="28" t="str">
+      <c r="H123" s="26" t="str">
         <f aca="true">IF(I123 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5605,2938 +5464,2580 @@
         <f aca="true">IF(K123 = 0, INDIRECT("M" &amp; ROW() - 1), K123)</f>
         <v>0</v>
       </c>
-      <c r="P123" s="29"/>
-      <c r="Q123" s="30"/>
+      <c r="P123" s="27"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="26"/>
-      <c r="C124" s="26" t="str">
+      <c r="B124" s="24"/>
+      <c r="C124" s="24" t="str">
         <f aca="false">IF(D124="","",VLOOKUP(D124,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F124" s="27" t="str">
+      <c r="F124" s="25" t="str">
         <f aca="true">IF(G124="", IF(I124="","",(INDIRECT("N" &amp; ROW() - 1) - M124)),IF(I124="", "", INDIRECT("N" &amp; ROW() - 1) - M124))</f>
         <v/>
       </c>
-      <c r="G124" s="28" t="str">
+      <c r="G124" s="26" t="str">
         <f aca="true">IF(I124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H124" s="28" t="str">
+      <c r="H124" s="26" t="str">
         <f aca="true">IF(I124 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P124" s="29"/>
-      <c r="Q124" s="30"/>
+      <c r="P124" s="27"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="26"/>
-      <c r="C125" s="26" t="str">
+      <c r="B125" s="24"/>
+      <c r="C125" s="24" t="str">
         <f aca="false">IF(D125="","",VLOOKUP(D125,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F125" s="27" t="str">
+      <c r="F125" s="25" t="str">
         <f aca="true">IF(G125="", IF(I125="","",(INDIRECT("N" &amp; ROW() - 1) - M125)),IF(I125="", "", INDIRECT("N" &amp; ROW() - 1) - M125))</f>
         <v/>
       </c>
-      <c r="G125" s="28" t="str">
+      <c r="G125" s="26" t="str">
         <f aca="true">IF(I125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H125" s="28" t="str">
+      <c r="H125" s="26" t="str">
         <f aca="true">IF(I125 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="30"/>
+      <c r="P125" s="27"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="26"/>
-      <c r="C126" s="26" t="str">
+      <c r="B126" s="24"/>
+      <c r="C126" s="24" t="str">
         <f aca="false">IF(D126="","",VLOOKUP(D126,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F126" s="27" t="str">
+      <c r="F126" s="25" t="str">
         <f aca="true">IF(G126="", IF(I126="","",(INDIRECT("N" &amp; ROW() - 1) - M126)),IF(I126="", "", INDIRECT("N" &amp; ROW() - 1) - M126))</f>
         <v/>
       </c>
-      <c r="G126" s="28" t="str">
+      <c r="G126" s="26" t="str">
         <f aca="true">IF(I126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H126" s="28" t="str">
+      <c r="H126" s="26" t="str">
         <f aca="true">IF(I126 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P126" s="29"/>
-      <c r="Q126" s="30"/>
+      <c r="P126" s="27"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="26"/>
-      <c r="C127" s="26" t="str">
+      <c r="B127" s="24"/>
+      <c r="C127" s="24" t="str">
         <f aca="false">IF(D127="","",VLOOKUP(D127,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F127" s="27" t="str">
+      <c r="F127" s="25" t="str">
         <f aca="true">IF(G127="", IF(I127="","",(INDIRECT("N" &amp; ROW() - 1) - M127)),IF(I127="", "", INDIRECT("N" &amp; ROW() - 1) - M127))</f>
         <v/>
       </c>
-      <c r="G127" s="28" t="str">
+      <c r="G127" s="26" t="str">
         <f aca="true">IF(I127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H127" s="28" t="str">
+      <c r="H127" s="26" t="str">
         <f aca="true">IF(I127 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P127" s="29"/>
-      <c r="Q127" s="30"/>
+      <c r="P127" s="27"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="26"/>
-      <c r="C128" s="26" t="str">
+      <c r="B128" s="24"/>
+      <c r="C128" s="24" t="str">
         <f aca="false">IF(D128="","",VLOOKUP(D128,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F128" s="27" t="str">
+      <c r="F128" s="25" t="str">
         <f aca="true">IF(G128="", IF(I128="","",(INDIRECT("N" &amp; ROW() - 1) - M128)),IF(I128="", "", INDIRECT("N" &amp; ROW() - 1) - M128))</f>
         <v/>
       </c>
-      <c r="G128" s="28" t="str">
+      <c r="G128" s="26" t="str">
         <f aca="true">IF(I128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H128" s="28" t="str">
+      <c r="H128" s="26" t="str">
         <f aca="true">IF(I128 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P128" s="29"/>
-      <c r="Q128" s="30"/>
+      <c r="P128" s="27"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="26"/>
-      <c r="C129" s="26" t="str">
+      <c r="B129" s="24"/>
+      <c r="C129" s="24" t="str">
         <f aca="false">IF(D129="","",VLOOKUP(D129,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F129" s="27" t="str">
+      <c r="F129" s="25" t="str">
         <f aca="true">IF(G129="", IF(I129="","",(INDIRECT("N" &amp; ROW() - 1) - M129)),IF(I129="", "", INDIRECT("N" &amp; ROW() - 1) - M129))</f>
         <v/>
       </c>
-      <c r="G129" s="28" t="str">
+      <c r="G129" s="26" t="str">
         <f aca="true">IF(I129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H129" s="28" t="str">
+      <c r="H129" s="26" t="str">
         <f aca="true">IF(I129 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P129" s="29"/>
-      <c r="Q129" s="30"/>
+      <c r="P129" s="27"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="26"/>
-      <c r="C130" s="26" t="str">
+      <c r="B130" s="24"/>
+      <c r="C130" s="24" t="str">
         <f aca="false">IF(D130="","",VLOOKUP(D130,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F130" s="27" t="str">
+      <c r="F130" s="25" t="str">
         <f aca="true">IF(G130="", IF(I130="","",(INDIRECT("N" &amp; ROW() - 1) - M130)),IF(I130="", "", INDIRECT("N" &amp; ROW() - 1) - M130))</f>
         <v/>
       </c>
-      <c r="G130" s="28" t="str">
+      <c r="G130" s="26" t="str">
         <f aca="true">IF(I130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H130" s="28" t="str">
+      <c r="H130" s="26" t="str">
         <f aca="true">IF(I130 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P130" s="29"/>
-      <c r="Q130" s="30"/>
+      <c r="P130" s="27"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="26"/>
-      <c r="C131" s="26" t="str">
+      <c r="B131" s="24"/>
+      <c r="C131" s="24" t="str">
         <f aca="false">IF(D131="","",VLOOKUP(D131,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F131" s="27" t="str">
+      <c r="F131" s="25" t="str">
         <f aca="true">IF(G131="", IF(I131="","",(INDIRECT("N" &amp; ROW() - 1) - M131)),IF(I131="", "", INDIRECT("N" &amp; ROW() - 1) - M131))</f>
         <v/>
       </c>
-      <c r="G131" s="28" t="str">
+      <c r="G131" s="26" t="str">
         <f aca="true">IF(I131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H131" s="28" t="str">
+      <c r="H131" s="26" t="str">
         <f aca="true">IF(I131 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P131" s="29"/>
-      <c r="Q131" s="30"/>
+      <c r="P131" s="27"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="26"/>
-      <c r="C132" s="26" t="str">
+      <c r="B132" s="24"/>
+      <c r="C132" s="24" t="str">
         <f aca="false">IF(D132="","",VLOOKUP(D132,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F132" s="27" t="str">
+      <c r="F132" s="25" t="str">
         <f aca="true">IF(G132="", IF(I132="","",(INDIRECT("N" &amp; ROW() - 1) - M132)),IF(I132="", "", INDIRECT("N" &amp; ROW() - 1) - M132))</f>
         <v/>
       </c>
-      <c r="G132" s="28" t="str">
+      <c r="G132" s="26" t="str">
         <f aca="true">IF(I132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H132" s="28" t="str">
+      <c r="H132" s="26" t="str">
         <f aca="true">IF(I132 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="30"/>
+      <c r="P132" s="27"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="26"/>
-      <c r="C133" s="26" t="str">
+      <c r="B133" s="24"/>
+      <c r="C133" s="24" t="str">
         <f aca="false">IF(D133="","",VLOOKUP(D133,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F133" s="27" t="str">
+      <c r="F133" s="25" t="str">
         <f aca="true">IF(G133="", IF(I133="","",(INDIRECT("N" &amp; ROW() - 1) - M133)),IF(I133="", "", INDIRECT("N" &amp; ROW() - 1) - M133))</f>
         <v/>
       </c>
-      <c r="G133" s="28" t="str">
+      <c r="G133" s="26" t="str">
         <f aca="true">IF(I133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H133" s="28" t="str">
+      <c r="H133" s="26" t="str">
         <f aca="true">IF(I133 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P133" s="29"/>
-      <c r="Q133" s="30"/>
+      <c r="P133" s="27"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="26"/>
-      <c r="C134" s="26" t="str">
+      <c r="B134" s="24"/>
+      <c r="C134" s="24" t="str">
         <f aca="false">IF(D134="","",VLOOKUP(D134,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F134" s="27" t="str">
+      <c r="F134" s="25" t="str">
         <f aca="true">IF(G134="", IF(I134="","",(INDIRECT("N" &amp; ROW() - 1) - M134)),IF(I134="", "", INDIRECT("N" &amp; ROW() - 1) - M134))</f>
         <v/>
       </c>
-      <c r="G134" s="28" t="str">
+      <c r="G134" s="26" t="str">
         <f aca="true">IF(I134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H134" s="28" t="str">
+      <c r="H134" s="26" t="str">
         <f aca="true">IF(I134 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P134" s="29"/>
-      <c r="Q134" s="30"/>
+      <c r="P134" s="27"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="26"/>
-      <c r="C135" s="26" t="str">
+      <c r="B135" s="24"/>
+      <c r="C135" s="24" t="str">
         <f aca="false">IF(D135="","",VLOOKUP(D135,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F135" s="27" t="str">
+      <c r="F135" s="25" t="str">
         <f aca="true">IF(G135="", IF(I135="","",(INDIRECT("N" &amp; ROW() - 1) - M135)),IF(I135="", "", INDIRECT("N" &amp; ROW() - 1) - M135))</f>
         <v/>
       </c>
-      <c r="G135" s="28" t="str">
+      <c r="G135" s="26" t="str">
         <f aca="true">IF(I135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H135" s="28" t="str">
+      <c r="H135" s="26" t="str">
         <f aca="true">IF(I135 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="30"/>
+      <c r="P135" s="27"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="26"/>
-      <c r="C136" s="26" t="str">
+      <c r="B136" s="24"/>
+      <c r="C136" s="24" t="str">
         <f aca="false">IF(D136="","",VLOOKUP(D136,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F136" s="27" t="str">
+      <c r="F136" s="25" t="str">
         <f aca="true">IF(G136="", IF(I136="","",(INDIRECT("N" &amp; ROW() - 1) - M136)),IF(I136="", "", INDIRECT("N" &amp; ROW() - 1) - M136))</f>
         <v/>
       </c>
-      <c r="G136" s="28" t="str">
+      <c r="G136" s="26" t="str">
         <f aca="true">IF(I136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H136" s="28" t="str">
+      <c r="H136" s="26" t="str">
         <f aca="true">IF(I136 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P136" s="29"/>
-      <c r="Q136" s="30"/>
+      <c r="P136" s="27"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="26"/>
-      <c r="C137" s="26" t="str">
+      <c r="B137" s="24"/>
+      <c r="C137" s="24" t="str">
         <f aca="false">IF(D137="","",VLOOKUP(D137,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F137" s="27" t="str">
+      <c r="F137" s="25" t="str">
         <f aca="true">IF(G137="", IF(I137="","",(INDIRECT("N" &amp; ROW() - 1) - M137)),IF(I137="", "", INDIRECT("N" &amp; ROW() - 1) - M137))</f>
         <v/>
       </c>
-      <c r="G137" s="28" t="str">
+      <c r="G137" s="26" t="str">
         <f aca="true">IF(I137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H137" s="28" t="str">
+      <c r="H137" s="26" t="str">
         <f aca="true">IF(I137 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P137" s="29"/>
-      <c r="Q137" s="30"/>
+      <c r="P137" s="27"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="26"/>
-      <c r="C138" s="26" t="str">
+      <c r="B138" s="24"/>
+      <c r="C138" s="24" t="str">
         <f aca="false">IF(D138="","",VLOOKUP(D138,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F138" s="27" t="str">
+      <c r="F138" s="25" t="str">
         <f aca="true">IF(G138="", IF(I138="","",(INDIRECT("N" &amp; ROW() - 1) - M138)),IF(I138="", "", INDIRECT("N" &amp; ROW() - 1) - M138))</f>
         <v/>
       </c>
-      <c r="G138" s="28" t="str">
+      <c r="G138" s="26" t="str">
         <f aca="true">IF(I138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H138" s="28" t="str">
+      <c r="H138" s="26" t="str">
         <f aca="true">IF(I138 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P138" s="29"/>
-      <c r="Q138" s="30"/>
+      <c r="P138" s="27"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="26"/>
-      <c r="C139" s="26" t="str">
+      <c r="B139" s="24"/>
+      <c r="C139" s="24" t="str">
         <f aca="false">IF(D139="","",VLOOKUP(D139,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F139" s="27" t="str">
+      <c r="F139" s="25" t="str">
         <f aca="true">IF(G139="", IF(I139="","",(INDIRECT("N" &amp; ROW() - 1) - M139)),IF(I139="", "", INDIRECT("N" &amp; ROW() - 1) - M139))</f>
         <v/>
       </c>
-      <c r="G139" s="28" t="str">
+      <c r="G139" s="26" t="str">
         <f aca="true">IF(I139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H139" s="28" t="str">
+      <c r="H139" s="26" t="str">
         <f aca="true">IF(I139 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P139" s="29"/>
-      <c r="Q139" s="30"/>
+      <c r="P139" s="27"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="26"/>
-      <c r="C140" s="26" t="str">
+      <c r="B140" s="24"/>
+      <c r="C140" s="24" t="str">
         <f aca="false">IF(D140="","",VLOOKUP(D140,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F140" s="27" t="str">
+      <c r="F140" s="25" t="str">
         <f aca="true">IF(G140="", IF(I140="","",(INDIRECT("N" &amp; ROW() - 1) - M140)),IF(I140="", "", INDIRECT("N" &amp; ROW() - 1) - M140))</f>
         <v/>
       </c>
-      <c r="G140" s="28" t="str">
+      <c r="G140" s="26" t="str">
         <f aca="true">IF(I140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H140" s="28" t="str">
+      <c r="H140" s="26" t="str">
         <f aca="true">IF(I140 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P140" s="29"/>
-      <c r="Q140" s="30"/>
+      <c r="P140" s="27"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="26"/>
-      <c r="C141" s="26" t="str">
+      <c r="B141" s="24"/>
+      <c r="C141" s="24" t="str">
         <f aca="false">IF(D141="","",VLOOKUP(D141,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F141" s="27" t="str">
+      <c r="F141" s="25" t="str">
         <f aca="true">IF(G141="", IF(I141="","",(INDIRECT("N" &amp; ROW() - 1) - M141)),IF(I141="", "", INDIRECT("N" &amp; ROW() - 1) - M141))</f>
         <v/>
       </c>
-      <c r="G141" s="28" t="str">
+      <c r="G141" s="26" t="str">
         <f aca="true">IF(I141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H141" s="28" t="str">
+      <c r="H141" s="26" t="str">
         <f aca="true">IF(I141 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P141" s="29"/>
-      <c r="Q141" s="30"/>
+      <c r="P141" s="27"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="26"/>
-      <c r="C142" s="26" t="str">
+      <c r="B142" s="24"/>
+      <c r="C142" s="24" t="str">
         <f aca="false">IF(D142="","",VLOOKUP(D142,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F142" s="27" t="str">
+      <c r="F142" s="25" t="str">
         <f aca="true">IF(G142="", IF(I142="","",(INDIRECT("N" &amp; ROW() - 1) - M142)),IF(I142="", "", INDIRECT("N" &amp; ROW() - 1) - M142))</f>
         <v/>
       </c>
-      <c r="G142" s="28" t="str">
+      <c r="G142" s="26" t="str">
         <f aca="true">IF(I142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H142" s="28" t="str">
+      <c r="H142" s="26" t="str">
         <f aca="true">IF(I142 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P142" s="29"/>
-      <c r="Q142" s="30"/>
+      <c r="P142" s="27"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="26"/>
-      <c r="C143" s="26" t="str">
+      <c r="B143" s="24"/>
+      <c r="C143" s="24" t="str">
         <f aca="false">IF(D143="","",VLOOKUP(D143,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F143" s="27" t="str">
+      <c r="F143" s="25" t="str">
         <f aca="true">IF(G143="", IF(I143="","",(INDIRECT("N" &amp; ROW() - 1) - M143)),IF(I143="", "", INDIRECT("N" &amp; ROW() - 1) - M143))</f>
         <v/>
       </c>
-      <c r="G143" s="28" t="str">
+      <c r="G143" s="26" t="str">
         <f aca="true">IF(I143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H143" s="28" t="str">
+      <c r="H143" s="26" t="str">
         <f aca="true">IF(I143 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P143" s="29"/>
-      <c r="Q143" s="30"/>
+      <c r="P143" s="27"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="26"/>
-      <c r="C144" s="26" t="str">
+      <c r="B144" s="24"/>
+      <c r="C144" s="24" t="str">
         <f aca="false">IF(D144="","",VLOOKUP(D144,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F144" s="27" t="str">
+      <c r="F144" s="25" t="str">
         <f aca="true">IF(G144="", IF(I144="","",(INDIRECT("N" &amp; ROW() - 1) - M144)),IF(I144="", "", INDIRECT("N" &amp; ROW() - 1) - M144))</f>
         <v/>
       </c>
-      <c r="G144" s="28" t="str">
+      <c r="G144" s="26" t="str">
         <f aca="true">IF(I144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H144" s="28" t="str">
+      <c r="H144" s="26" t="str">
         <f aca="true">IF(I144 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P144" s="29"/>
-      <c r="Q144" s="30"/>
+      <c r="P144" s="27"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="26"/>
-      <c r="C145" s="26" t="str">
+      <c r="B145" s="24"/>
+      <c r="C145" s="24" t="str">
         <f aca="false">IF(D145="","",VLOOKUP(D145,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F145" s="27" t="str">
+      <c r="F145" s="25" t="str">
         <f aca="true">IF(G145="", IF(I145="","",(INDIRECT("N" &amp; ROW() - 1) - M145)),IF(I145="", "", INDIRECT("N" &amp; ROW() - 1) - M145))</f>
         <v/>
       </c>
-      <c r="G145" s="28" t="str">
+      <c r="G145" s="26" t="str">
         <f aca="true">IF(I145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H145" s="28" t="str">
+      <c r="H145" s="26" t="str">
         <f aca="true">IF(I145 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P145" s="29"/>
-      <c r="Q145" s="30"/>
+      <c r="P145" s="27"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="26"/>
-      <c r="C146" s="26" t="str">
+      <c r="B146" s="24"/>
+      <c r="C146" s="24" t="str">
         <f aca="false">IF(D146="","",VLOOKUP(D146,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F146" s="27" t="str">
+      <c r="F146" s="25" t="str">
         <f aca="true">IF(G146="", IF(I146="","",(INDIRECT("N" &amp; ROW() - 1) - M146)),IF(I146="", "", INDIRECT("N" &amp; ROW() - 1) - M146))</f>
         <v/>
       </c>
-      <c r="G146" s="28" t="str">
+      <c r="G146" s="26" t="str">
         <f aca="true">IF(I146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H146" s="28" t="str">
+      <c r="H146" s="26" t="str">
         <f aca="true">IF(I146 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P146" s="29"/>
-      <c r="Q146" s="30"/>
+      <c r="P146" s="27"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="26"/>
-      <c r="C147" s="26" t="str">
+      <c r="B147" s="24"/>
+      <c r="C147" s="24" t="str">
         <f aca="false">IF(D147="","",VLOOKUP(D147,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F147" s="27" t="str">
+      <c r="F147" s="25" t="str">
         <f aca="true">IF(G147="", IF(I147="","",(INDIRECT("N" &amp; ROW() - 1) - M147)),IF(I147="", "", INDIRECT("N" &amp; ROW() - 1) - M147))</f>
         <v/>
       </c>
-      <c r="G147" s="28" t="str">
+      <c r="G147" s="26" t="str">
         <f aca="true">IF(I147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H147" s="28" t="str">
+      <c r="H147" s="26" t="str">
         <f aca="true">IF(I147 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P147" s="29"/>
-      <c r="Q147" s="30"/>
+      <c r="P147" s="27"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="26"/>
-      <c r="C148" s="26" t="str">
+      <c r="B148" s="24"/>
+      <c r="C148" s="24" t="str">
         <f aca="false">IF(D148="","",VLOOKUP(D148,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F148" s="27" t="str">
+      <c r="F148" s="25" t="str">
         <f aca="true">IF(G148="", IF(I148="","",(INDIRECT("N" &amp; ROW() - 1) - M148)),IF(I148="", "", INDIRECT("N" &amp; ROW() - 1) - M148))</f>
         <v/>
       </c>
-      <c r="G148" s="28" t="str">
+      <c r="G148" s="26" t="str">
         <f aca="true">IF(I148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H148" s="28" t="str">
+      <c r="H148" s="26" t="str">
         <f aca="true">IF(I148 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P148" s="29"/>
-      <c r="Q148" s="30"/>
+      <c r="P148" s="27"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="26"/>
-      <c r="C149" s="26" t="str">
+      <c r="B149" s="24"/>
+      <c r="C149" s="24" t="str">
         <f aca="false">IF(D149="","",VLOOKUP(D149,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="F149" s="27" t="str">
+      <c r="F149" s="25" t="str">
         <f aca="true">IF(G149="", IF(I149="","",(INDIRECT("N" &amp; ROW() - 1) - M149)),IF(I149="", "", INDIRECT("N" &amp; ROW() - 1) - M149))</f>
         <v/>
       </c>
-      <c r="G149" s="28" t="str">
+      <c r="G149" s="26" t="str">
         <f aca="true">IF(I149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H149" s="28" t="str">
+      <c r="H149" s="26" t="str">
         <f aca="true">IF(I149 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P149" s="29"/>
-      <c r="Q149" s="30"/>
+      <c r="P149" s="27"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="F150" s="27" t="str">
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="F150" s="25" t="str">
         <f aca="true">IF(G150="", IF(I150="","",(INDIRECT("N" &amp; ROW() - 1) - M150)),IF(I150="", "", INDIRECT("N" &amp; ROW() - 1) - M150))</f>
         <v/>
       </c>
-      <c r="G150" s="28" t="str">
+      <c r="G150" s="26" t="str">
         <f aca="true">IF(I150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H150" s="28" t="str">
+      <c r="H150" s="26" t="str">
         <f aca="true">IF(I150 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P150" s="29"/>
-      <c r="Q150" s="30"/>
+      <c r="P150" s="27"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="F151" s="27" t="str">
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="F151" s="25" t="str">
         <f aca="true">IF(G151="", IF(I151="","",(INDIRECT("N" &amp; ROW() - 1) - M151)),IF(I151="", "", INDIRECT("N" &amp; ROW() - 1) - M151))</f>
         <v/>
       </c>
-      <c r="G151" s="28" t="str">
+      <c r="G151" s="26" t="str">
         <f aca="true">IF(I151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H151" s="28" t="str">
+      <c r="H151" s="26" t="str">
         <f aca="true">IF(I151 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P151" s="29"/>
-      <c r="Q151" s="30"/>
+      <c r="P151" s="27"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="F152" s="27" t="str">
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="F152" s="25" t="str">
         <f aca="true">IF(G152="", IF(I152="","",(INDIRECT("N" &amp; ROW() - 1) - M152)),IF(I152="", "", INDIRECT("N" &amp; ROW() - 1) - M152))</f>
         <v/>
       </c>
-      <c r="G152" s="28" t="str">
+      <c r="G152" s="26" t="str">
         <f aca="true">IF(I152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H152" s="28" t="str">
+      <c r="H152" s="26" t="str">
         <f aca="true">IF(I152 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P152" s="29"/>
-      <c r="Q152" s="30"/>
+      <c r="P152" s="27"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="F153" s="27" t="str">
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="F153" s="25" t="str">
         <f aca="true">IF(G153="", IF(I153="","",(INDIRECT("N" &amp; ROW() - 1) - M153)),IF(I153="", "", INDIRECT("N" &amp; ROW() - 1) - M153))</f>
         <v/>
       </c>
-      <c r="G153" s="28" t="str">
+      <c r="G153" s="26" t="str">
         <f aca="true">IF(I153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H153" s="28" t="str">
+      <c r="H153" s="26" t="str">
         <f aca="true">IF(I153 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P153" s="29"/>
-      <c r="Q153" s="30"/>
+      <c r="P153" s="27"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="F154" s="27" t="str">
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="F154" s="25" t="str">
         <f aca="true">IF(G154="", IF(I154="","",(INDIRECT("N" &amp; ROW() - 1) - M154)),IF(I154="", "", INDIRECT("N" &amp; ROW() - 1) - M154))</f>
         <v/>
       </c>
-      <c r="G154" s="28" t="str">
+      <c r="G154" s="26" t="str">
         <f aca="true">IF(I154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H154" s="28" t="str">
+      <c r="H154" s="26" t="str">
         <f aca="true">IF(I154 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P154" s="29"/>
-      <c r="Q154" s="30"/>
+      <c r="P154" s="27"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="F155" s="27" t="str">
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="F155" s="25" t="str">
         <f aca="true">IF(G155="", IF(I155="","",(INDIRECT("N" &amp; ROW() - 1) - M155)),IF(I155="", "", INDIRECT("N" &amp; ROW() - 1) - M155))</f>
         <v/>
       </c>
-      <c r="G155" s="28" t="str">
+      <c r="G155" s="26" t="str">
         <f aca="true">IF(I155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H155" s="28" t="str">
+      <c r="H155" s="26" t="str">
         <f aca="true">IF(I155 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P155" s="29"/>
-      <c r="Q155" s="30"/>
+      <c r="P155" s="27"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="F156" s="27" t="str">
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="F156" s="25" t="str">
         <f aca="true">IF(G156="", IF(I156="","",(INDIRECT("N" &amp; ROW() - 1) - M156)),IF(I156="", "", INDIRECT("N" &amp; ROW() - 1) - M156))</f>
         <v/>
       </c>
-      <c r="G156" s="28" t="str">
+      <c r="G156" s="26" t="str">
         <f aca="true">IF(I156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H156" s="28" t="str">
+      <c r="H156" s="26" t="str">
         <f aca="true">IF(I156 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="30"/>
+      <c r="P156" s="27"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="F157" s="27" t="str">
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="F157" s="25" t="str">
         <f aca="true">IF(G157="", IF(I157="","",(INDIRECT("N" &amp; ROW() - 1) - M157)),IF(I157="", "", INDIRECT("N" &amp; ROW() - 1) - M157))</f>
         <v/>
       </c>
-      <c r="G157" s="28" t="str">
+      <c r="G157" s="26" t="str">
         <f aca="true">IF(I157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H157" s="28" t="str">
+      <c r="H157" s="26" t="str">
         <f aca="true">IF(I157 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="30"/>
+      <c r="P157" s="27"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="F158" s="27" t="str">
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="F158" s="25" t="str">
         <f aca="true">IF(G158="", IF(I158="","",(INDIRECT("N" &amp; ROW() - 1) - M158)),IF(I158="", "", INDIRECT("N" &amp; ROW() - 1) - M158))</f>
         <v/>
       </c>
-      <c r="G158" s="28" t="str">
+      <c r="G158" s="26" t="str">
         <f aca="true">IF(I158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H158" s="28" t="str">
+      <c r="H158" s="26" t="str">
         <f aca="true">IF(I158 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P158" s="29"/>
-      <c r="Q158" s="30"/>
+      <c r="P158" s="27"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="F159" s="27" t="str">
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
+      <c r="F159" s="25" t="str">
         <f aca="true">IF(G159="", IF(I159="","",(INDIRECT("N" &amp; ROW() - 1) - M159)),IF(I159="", "", INDIRECT("N" &amp; ROW() - 1) - M159))</f>
         <v/>
       </c>
-      <c r="G159" s="28" t="str">
+      <c r="G159" s="26" t="str">
         <f aca="true">IF(I159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H159" s="28" t="str">
+      <c r="H159" s="26" t="str">
         <f aca="true">IF(I159 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P159" s="29"/>
-      <c r="Q159" s="30" t="str">
-        <f aca="true">IF(I159="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P159" s="27"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="F160" s="27" t="str">
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="F160" s="25" t="str">
         <f aca="true">IF(G160="", IF(I160="","",(INDIRECT("N" &amp; ROW() - 1) - M160)),IF(I160="", "", INDIRECT("N" &amp; ROW() - 1) - M160))</f>
         <v/>
       </c>
-      <c r="G160" s="28" t="str">
+      <c r="G160" s="26" t="str">
         <f aca="true">IF(I160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H160" s="28" t="str">
+      <c r="H160" s="26" t="str">
         <f aca="true">IF(I160 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P160" s="29"/>
-      <c r="Q160" s="30" t="str">
-        <f aca="true">IF(I160="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P160" s="27"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="F161" s="27" t="str">
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="F161" s="25" t="str">
         <f aca="true">IF(G161="", IF(I161="","",(INDIRECT("N" &amp; ROW() - 1) - M161)),IF(I161="", "", INDIRECT("N" &amp; ROW() - 1) - M161))</f>
         <v/>
       </c>
-      <c r="G161" s="28" t="str">
+      <c r="G161" s="26" t="str">
         <f aca="true">IF(I161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H161" s="28" t="str">
+      <c r="H161" s="26" t="str">
         <f aca="true">IF(I161 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P161" s="29"/>
-      <c r="Q161" s="30" t="str">
-        <f aca="true">IF(I161="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P161" s="27"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="F162" s="27" t="str">
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="F162" s="25" t="str">
         <f aca="true">IF(G162="", IF(I162="","",(INDIRECT("N" &amp; ROW() - 1) - M162)),IF(I162="", "", INDIRECT("N" &amp; ROW() - 1) - M162))</f>
         <v/>
       </c>
-      <c r="G162" s="28" t="str">
+      <c r="G162" s="26" t="str">
         <f aca="true">IF(I162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H162" s="28" t="str">
+      <c r="H162" s="26" t="str">
         <f aca="true">IF(I162 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P162" s="29"/>
-      <c r="Q162" s="30" t="str">
-        <f aca="true">IF(I162="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P162" s="27"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="F163" s="27" t="str">
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
+      <c r="F163" s="25" t="str">
         <f aca="true">IF(G163="", IF(I163="","",(INDIRECT("N" &amp; ROW() - 1) - M163)),IF(I163="", "", INDIRECT("N" &amp; ROW() - 1) - M163))</f>
         <v/>
       </c>
-      <c r="G163" s="28" t="str">
+      <c r="G163" s="26" t="str">
         <f aca="true">IF(I163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H163" s="28" t="str">
+      <c r="H163" s="26" t="str">
         <f aca="true">IF(I163 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P163" s="29"/>
-      <c r="Q163" s="30" t="str">
-        <f aca="true">IF(I163="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P163" s="27"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="F164" s="27" t="str">
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="F164" s="25" t="str">
         <f aca="true">IF(G164="", IF(I164="","",(INDIRECT("N" &amp; ROW() - 1) - M164)),IF(I164="", "", INDIRECT("N" &amp; ROW() - 1) - M164))</f>
         <v/>
       </c>
-      <c r="G164" s="28" t="str">
+      <c r="G164" s="26" t="str">
         <f aca="true">IF(I164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H164" s="28" t="str">
+      <c r="H164" s="26" t="str">
         <f aca="true">IF(I164 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P164" s="29"/>
-      <c r="Q164" s="30" t="str">
-        <f aca="true">IF(I164="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P164" s="27"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="F165" s="27" t="str">
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="F165" s="25" t="str">
         <f aca="true">IF(G165="", IF(I165="","",(INDIRECT("N" &amp; ROW() - 1) - M165)),IF(I165="", "", INDIRECT("N" &amp; ROW() - 1) - M165))</f>
         <v/>
       </c>
-      <c r="G165" s="28" t="str">
+      <c r="G165" s="26" t="str">
         <f aca="true">IF(I165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="H165" s="28" t="str">
+      <c r="H165" s="26" t="str">
         <f aca="true">IF(I165 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P165" s="29"/>
-      <c r="Q165" s="30" t="str">
-        <f aca="true">IF(I165="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P165" s="27"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="F166" s="27" t="str">
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
+      <c r="F166" s="25" t="str">
         <f aca="true">IF(G166="", IF(I166="","",(INDIRECT("N" &amp; ROW() - 1) - M166)),IF(I166="", "", INDIRECT("N" &amp; ROW() - 1) - M166))</f>
         <v/>
       </c>
-      <c r="H166" s="28" t="str">
+      <c r="H166" s="26" t="str">
         <f aca="true">IF(I166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P166" s="29"/>
-      <c r="Q166" s="30" t="str">
-        <f aca="true">IF(I166="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P166" s="27"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="F167" s="27" t="str">
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
+      <c r="F167" s="25" t="str">
         <f aca="true">IF(G167="", IF(I167="","",(INDIRECT("N" &amp; ROW() - 1) - M167)),IF(I167="", "", INDIRECT("N" &amp; ROW() - 1) - M167))</f>
         <v/>
       </c>
-      <c r="H167" s="28" t="str">
+      <c r="H167" s="26" t="str">
         <f aca="true">IF(I167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P167" s="29"/>
-      <c r="Q167" s="30" t="str">
-        <f aca="true">IF(I167="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P167" s="27"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="F168" s="27" t="str">
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
+      <c r="F168" s="25" t="str">
         <f aca="true">IF(G168="", IF(I168="","",(INDIRECT("N" &amp; ROW() - 1) - M168)),IF(I168="", "", INDIRECT("N" &amp; ROW() - 1) - M168))</f>
         <v/>
       </c>
-      <c r="H168" s="28" t="str">
+      <c r="H168" s="26" t="str">
         <f aca="true">IF(I168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P168" s="29"/>
-      <c r="Q168" s="30" t="str">
-        <f aca="true">IF(I168="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P168" s="27"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="F169" s="27" t="str">
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="F169" s="25" t="str">
         <f aca="true">IF(G169="", IF(I169="","",(INDIRECT("N" &amp; ROW() - 1) - M169)),IF(I169="", "", INDIRECT("N" &amp; ROW() - 1) - M169))</f>
         <v/>
       </c>
-      <c r="H169" s="28" t="str">
+      <c r="H169" s="26" t="str">
         <f aca="true">IF(I169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P169" s="29"/>
-      <c r="Q169" s="30" t="str">
-        <f aca="true">IF(I169="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P169" s="27"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="F170" s="27" t="str">
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
+      <c r="F170" s="25" t="str">
         <f aca="true">IF(G170="", IF(I170="","",(INDIRECT("N" &amp; ROW() - 1) - M170)),IF(I170="", "", INDIRECT("N" &amp; ROW() - 1) - M170))</f>
         <v/>
       </c>
-      <c r="H170" s="28" t="str">
+      <c r="H170" s="26" t="str">
         <f aca="true">IF(I170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P170" s="29"/>
-      <c r="Q170" s="30" t="str">
-        <f aca="true">IF(I170="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P170" s="27"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="F171" s="27" t="str">
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
+      <c r="F171" s="25" t="str">
         <f aca="true">IF(G171="", IF(I171="","",(INDIRECT("N" &amp; ROW() - 1) - M171)),IF(I171="", "", INDIRECT("N" &amp; ROW() - 1) - M171))</f>
         <v/>
       </c>
-      <c r="H171" s="28" t="str">
+      <c r="H171" s="26" t="str">
         <f aca="true">IF(I171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P171" s="29"/>
-      <c r="Q171" s="30" t="str">
-        <f aca="true">IF(I171="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P171" s="27"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="F172" s="27" t="str">
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
+      <c r="F172" s="25" t="str">
         <f aca="true">IF(G172="", IF(I172="","",(INDIRECT("N" &amp; ROW() - 1) - M172)),IF(I172="", "", INDIRECT("N" &amp; ROW() - 1) - M172))</f>
         <v/>
       </c>
-      <c r="H172" s="28" t="str">
+      <c r="H172" s="26" t="str">
         <f aca="true">IF(I172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P172" s="29"/>
-      <c r="Q172" s="30" t="str">
-        <f aca="true">IF(I172="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P172" s="27"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="F173" s="27" t="str">
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
+      <c r="F173" s="25" t="str">
         <f aca="true">IF(G173="", IF(I173="","",(INDIRECT("N" &amp; ROW() - 1) - M173)),IF(I173="", "", INDIRECT("N" &amp; ROW() - 1) - M173))</f>
         <v/>
       </c>
-      <c r="H173" s="28" t="str">
+      <c r="H173" s="26" t="str">
         <f aca="true">IF(I173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P173" s="29"/>
-      <c r="Q173" s="30" t="str">
-        <f aca="true">IF(I173="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P173" s="27"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="F174" s="27" t="str">
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="F174" s="25" t="str">
         <f aca="true">IF(G174="", IF(I174="","",(INDIRECT("N" &amp; ROW() - 1) - M174)),IF(I174="", "", INDIRECT("N" &amp; ROW() - 1) - M174))</f>
         <v/>
       </c>
-      <c r="H174" s="28" t="str">
+      <c r="H174" s="26" t="str">
         <f aca="true">IF(I174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P174" s="29"/>
-      <c r="Q174" s="30" t="str">
-        <f aca="true">IF(I174="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P174" s="27"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="F175" s="27" t="str">
+      <c r="B175" s="24"/>
+      <c r="C175" s="24"/>
+      <c r="F175" s="25" t="str">
         <f aca="true">IF(G175="", IF(I175="","",(INDIRECT("N" &amp; ROW() - 1) - M175)),IF(I175="", "", INDIRECT("N" &amp; ROW() - 1) - M175))</f>
         <v/>
       </c>
-      <c r="H175" s="28" t="str">
+      <c r="H175" s="26" t="str">
         <f aca="true">IF(I175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P175" s="29"/>
-      <c r="Q175" s="30" t="str">
-        <f aca="true">IF(I175="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P175" s="27"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="F176" s="27" t="str">
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
+      <c r="F176" s="25" t="str">
         <f aca="true">IF(G176="", IF(I176="","",(INDIRECT("N" &amp; ROW() - 1) - M176)),IF(I176="", "", INDIRECT("N" &amp; ROW() - 1) - M176))</f>
         <v/>
       </c>
-      <c r="H176" s="28" t="str">
+      <c r="H176" s="26" t="str">
         <f aca="true">IF(I176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P176" s="29"/>
-      <c r="Q176" s="30" t="str">
-        <f aca="true">IF(I176="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P176" s="27"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="F177" s="27" t="str">
+      <c r="B177" s="24"/>
+      <c r="C177" s="24"/>
+      <c r="F177" s="25" t="str">
         <f aca="true">IF(G177="", IF(I177="","",(INDIRECT("N" &amp; ROW() - 1) - M177)),IF(I177="", "", INDIRECT("N" &amp; ROW() - 1) - M177))</f>
         <v/>
       </c>
-      <c r="H177" s="28" t="str">
+      <c r="H177" s="26" t="str">
         <f aca="true">IF(I177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P177" s="29"/>
-      <c r="Q177" s="30" t="str">
-        <f aca="true">IF(I177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P177" s="27"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="F178" s="27" t="str">
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="F178" s="25" t="str">
         <f aca="true">IF(G178="", IF(I178="","",(INDIRECT("N" &amp; ROW() - 1) - M178)),IF(I178="", "", INDIRECT("N" &amp; ROW() - 1) - M178))</f>
         <v/>
       </c>
-      <c r="H178" s="28" t="str">
+      <c r="H178" s="26" t="str">
         <f aca="true">IF(I178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P178" s="29"/>
-      <c r="Q178" s="30" t="str">
-        <f aca="true">IF(I178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P178" s="27"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="F179" s="27" t="str">
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
+      <c r="F179" s="25" t="str">
         <f aca="true">IF(G179="", IF(I179="","",(INDIRECT("N" &amp; ROW() - 1) - M179)),IF(I179="", "", INDIRECT("N" &amp; ROW() - 1) - M179))</f>
         <v/>
       </c>
-      <c r="H179" s="28" t="str">
+      <c r="H179" s="26" t="str">
         <f aca="true">IF(I179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P179" s="29"/>
-      <c r="Q179" s="30" t="str">
-        <f aca="true">IF(I179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P179" s="27"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="F180" s="27" t="str">
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
+      <c r="F180" s="25" t="str">
         <f aca="true">IF(G180="", IF(I180="","",(INDIRECT("N" &amp; ROW() - 1) - M180)),IF(I180="", "", INDIRECT("N" &amp; ROW() - 1) - M180))</f>
         <v/>
       </c>
-      <c r="H180" s="28" t="str">
+      <c r="H180" s="26" t="str">
         <f aca="true">IF(I180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P180" s="29"/>
-      <c r="Q180" s="30" t="str">
-        <f aca="true">IF(I180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P180" s="27"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="F181" s="27" t="str">
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
+      <c r="F181" s="25" t="str">
         <f aca="true">IF(G181="", IF(I181="","",(INDIRECT("N" &amp; ROW() - 1) - M181)),IF(I181="", "", INDIRECT("N" &amp; ROW() - 1) - M181))</f>
         <v/>
       </c>
-      <c r="H181" s="28" t="str">
+      <c r="H181" s="26" t="str">
         <f aca="true">IF(I181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P181" s="29"/>
-      <c r="Q181" s="30" t="str">
-        <f aca="true">IF(I181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P181" s="27"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="F182" s="27" t="str">
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="F182" s="25" t="str">
         <f aca="true">IF(G182="", IF(I182="","",(INDIRECT("N" &amp; ROW() - 1) - M182)),IF(I182="", "", INDIRECT("N" &amp; ROW() - 1) - M182))</f>
         <v/>
       </c>
-      <c r="H182" s="28" t="str">
+      <c r="H182" s="26" t="str">
         <f aca="true">IF(I182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P182" s="29"/>
-      <c r="Q182" s="30" t="str">
-        <f aca="true">IF(I182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P182" s="27"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="F183" s="27" t="str">
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="F183" s="25" t="str">
         <f aca="true">IF(G183="", IF(I183="","",(INDIRECT("N" &amp; ROW() - 1) - M183)),IF(I183="", "", INDIRECT("N" &amp; ROW() - 1) - M183))</f>
         <v/>
       </c>
-      <c r="H183" s="28" t="str">
+      <c r="H183" s="26" t="str">
         <f aca="true">IF(I183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P183" s="29"/>
-      <c r="Q183" s="30" t="str">
-        <f aca="true">IF(I183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P183" s="27"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="F184" s="27" t="str">
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="F184" s="25" t="str">
         <f aca="true">IF(G184="", IF(I184="","",(INDIRECT("N" &amp; ROW() - 1) - M184)),IF(I184="", "", INDIRECT("N" &amp; ROW() - 1) - M184))</f>
         <v/>
       </c>
-      <c r="H184" s="28" t="str">
+      <c r="H184" s="26" t="str">
         <f aca="true">IF(I184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P184" s="29"/>
-      <c r="Q184" s="30" t="str">
-        <f aca="true">IF(I184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P184" s="27"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="F185" s="27" t="str">
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
+      <c r="F185" s="25" t="str">
         <f aca="true">IF(G185="", IF(I185="","",(INDIRECT("N" &amp; ROW() - 1) - M185)),IF(I185="", "", INDIRECT("N" &amp; ROW() - 1) - M185))</f>
         <v/>
       </c>
-      <c r="H185" s="28" t="str">
+      <c r="H185" s="26" t="str">
         <f aca="true">IF(I185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P185" s="29"/>
-      <c r="Q185" s="30" t="str">
-        <f aca="true">IF(I185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P185" s="27"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="F186" s="27" t="str">
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="F186" s="25" t="str">
         <f aca="true">IF(G186="", IF(I186="","",(INDIRECT("N" &amp; ROW() - 1) - M186)),IF(I186="", "", INDIRECT("N" &amp; ROW() - 1) - M186))</f>
         <v/>
       </c>
-      <c r="H186" s="28" t="str">
+      <c r="H186" s="26" t="str">
         <f aca="true">IF(I186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P186" s="29"/>
-      <c r="Q186" s="30" t="str">
-        <f aca="true">IF(I186="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P186" s="27"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="F187" s="27" t="str">
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
+      <c r="F187" s="25" t="str">
         <f aca="true">IF(G187="", IF(I187="","",(INDIRECT("N" &amp; ROW() - 1) - M187)),IF(I187="", "", INDIRECT("N" &amp; ROW() - 1) - M187))</f>
         <v/>
       </c>
-      <c r="H187" s="28" t="str">
+      <c r="H187" s="26" t="str">
         <f aca="true">IF(I187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P187" s="29"/>
-      <c r="Q187" s="30" t="str">
-        <f aca="true">IF(I187="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P187" s="27"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="F188" s="27" t="str">
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="F188" s="25" t="str">
         <f aca="true">IF(G188="", IF(I188="","",(INDIRECT("N" &amp; ROW() - 1) - M188)),IF(I188="", "", INDIRECT("N" &amp; ROW() - 1) - M188))</f>
         <v/>
       </c>
-      <c r="H188" s="28" t="str">
+      <c r="H188" s="26" t="str">
         <f aca="true">IF(I188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P188" s="29"/>
-      <c r="Q188" s="30" t="str">
-        <f aca="true">IF(I188="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P188" s="27"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="F189" s="27" t="str">
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="F189" s="25" t="str">
         <f aca="true">IF(G189="", IF(I189="","",(INDIRECT("N" &amp; ROW() - 1) - M189)),IF(I189="", "", INDIRECT("N" &amp; ROW() - 1) - M189))</f>
         <v/>
       </c>
-      <c r="H189" s="28" t="str">
+      <c r="H189" s="26" t="str">
         <f aca="true">IF(I189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P189" s="29"/>
-      <c r="Q189" s="30" t="str">
-        <f aca="true">IF(I189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P189" s="27"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="F190" s="27" t="str">
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="F190" s="25" t="str">
         <f aca="true">IF(G190="", IF(I190="","",(INDIRECT("N" &amp; ROW() - 1) - M190)),IF(I190="", "", INDIRECT("N" &amp; ROW() - 1) - M190))</f>
         <v/>
       </c>
-      <c r="H190" s="28" t="str">
+      <c r="H190" s="26" t="str">
         <f aca="true">IF(I190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P190" s="29"/>
-      <c r="Q190" s="30" t="str">
-        <f aca="true">IF(I190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P190" s="27"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="F191" s="27" t="str">
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="F191" s="25" t="str">
         <f aca="true">IF(G191="", IF(I191="","",(INDIRECT("N" &amp; ROW() - 1) - M191)),IF(I191="", "", INDIRECT("N" &amp; ROW() - 1) - M191))</f>
         <v/>
       </c>
-      <c r="H191" s="28" t="str">
+      <c r="H191" s="26" t="str">
         <f aca="true">IF(I191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P191" s="29"/>
-      <c r="Q191" s="30" t="str">
-        <f aca="true">IF(I191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P191" s="27"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="F192" s="27" t="str">
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="F192" s="25" t="str">
         <f aca="true">IF(G192="", IF(I192="","",(INDIRECT("N" &amp; ROW() - 1) - M192)),IF(I192="", "", INDIRECT("N" &amp; ROW() - 1) - M192))</f>
         <v/>
       </c>
-      <c r="H192" s="28" t="str">
+      <c r="H192" s="26" t="str">
         <f aca="true">IF(I192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P192" s="29"/>
-      <c r="Q192" s="30" t="str">
-        <f aca="true">IF(I192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P192" s="27"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="F193" s="27" t="str">
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
+      <c r="F193" s="25" t="str">
         <f aca="true">IF(G193="", IF(I193="","",(INDIRECT("N" &amp; ROW() - 1) - M193)),IF(I193="", "", INDIRECT("N" &amp; ROW() - 1) - M193))</f>
         <v/>
       </c>
-      <c r="H193" s="28" t="str">
+      <c r="H193" s="26" t="str">
         <f aca="true">IF(I193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P193" s="29"/>
-      <c r="Q193" s="30" t="str">
-        <f aca="true">IF(I193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P193" s="27"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="F194" s="27" t="str">
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
+      <c r="F194" s="25" t="str">
         <f aca="true">IF(G194="", IF(I194="","",(INDIRECT("N" &amp; ROW() - 1) - M194)),IF(I194="", "", INDIRECT("N" &amp; ROW() - 1) - M194))</f>
         <v/>
       </c>
-      <c r="H194" s="28" t="str">
+      <c r="H194" s="26" t="str">
         <f aca="true">IF(I194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P194" s="29"/>
-      <c r="Q194" s="30" t="str">
-        <f aca="true">IF(I194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P194" s="27"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="F195" s="27" t="str">
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
+      <c r="F195" s="25" t="str">
         <f aca="true">IF(G195="", IF(I195="","",(INDIRECT("N" &amp; ROW() - 1) - M195)),IF(I195="", "", INDIRECT("N" &amp; ROW() - 1) - M195))</f>
         <v/>
       </c>
-      <c r="H195" s="28" t="str">
+      <c r="H195" s="26" t="str">
         <f aca="true">IF(I195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P195" s="29"/>
-      <c r="Q195" s="30" t="str">
-        <f aca="true">IF(I195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P195" s="27"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="F196" s="27" t="str">
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
+      <c r="F196" s="25" t="str">
         <f aca="true">IF(G196="", IF(I196="","",(INDIRECT("N" &amp; ROW() - 1) - M196)),IF(I196="", "", INDIRECT("N" &amp; ROW() - 1) - M196))</f>
         <v/>
       </c>
-      <c r="H196" s="28" t="str">
+      <c r="H196" s="26" t="str">
         <f aca="true">IF(I196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P196" s="29"/>
-      <c r="Q196" s="30" t="str">
-        <f aca="true">IF(I196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P196" s="27"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="F197" s="27" t="str">
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
+      <c r="F197" s="25" t="str">
         <f aca="true">IF(G197="", IF(I197="","",(INDIRECT("N" &amp; ROW() - 1) - M197)),IF(I197="", "", INDIRECT("N" &amp; ROW() - 1) - M197))</f>
         <v/>
       </c>
-      <c r="H197" s="28" t="str">
+      <c r="H197" s="26" t="str">
         <f aca="true">IF(I197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P197" s="29"/>
-      <c r="Q197" s="30" t="str">
-        <f aca="true">IF(I197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P197" s="27"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="F198" s="27" t="str">
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
+      <c r="F198" s="25" t="str">
         <f aca="true">IF(G198="", IF(I198="","",(INDIRECT("N" &amp; ROW() - 1) - M198)),IF(I198="", "", INDIRECT("N" &amp; ROW() - 1) - M198))</f>
         <v/>
       </c>
-      <c r="H198" s="28" t="str">
+      <c r="H198" s="26" t="str">
         <f aca="true">IF(I198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P198" s="29"/>
-      <c r="Q198" s="30" t="str">
-        <f aca="true">IF(I198="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P198" s="27"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="F199" s="27" t="str">
+      <c r="B199" s="24"/>
+      <c r="C199" s="24"/>
+      <c r="F199" s="25" t="str">
         <f aca="true">IF(G199="", IF(I199="","",(INDIRECT("N" &amp; ROW() - 1) - M199)),IF(I199="", "", INDIRECT("N" &amp; ROW() - 1) - M199))</f>
         <v/>
       </c>
-      <c r="H199" s="28" t="str">
+      <c r="H199" s="26" t="str">
         <f aca="true">IF(I199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P199" s="29"/>
-      <c r="Q199" s="30" t="str">
-        <f aca="true">IF(I199="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P199" s="27"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="F200" s="27" t="str">
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
+      <c r="F200" s="25" t="str">
         <f aca="true">IF(G200="", IF(I200="","",(INDIRECT("N" &amp; ROW() - 1) - M200)),IF(I200="", "", INDIRECT("N" &amp; ROW() - 1) - M200))</f>
         <v/>
       </c>
-      <c r="H200" s="28" t="str">
+      <c r="H200" s="26" t="str">
         <f aca="true">IF(I200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P200" s="29"/>
-      <c r="Q200" s="30" t="str">
-        <f aca="true">IF(I200="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P200" s="27"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="F201" s="27" t="str">
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
+      <c r="F201" s="25" t="str">
         <f aca="true">IF(G201="", IF(I201="","",(INDIRECT("N" &amp; ROW() - 1) - M201)),IF(I201="", "", INDIRECT("N" &amp; ROW() - 1) - M201))</f>
         <v/>
       </c>
-      <c r="H201" s="28" t="str">
+      <c r="H201" s="26" t="str">
         <f aca="true">IF(I201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P201" s="29"/>
-      <c r="Q201" s="30" t="str">
-        <f aca="true">IF(I201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P201" s="27"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="F202" s="27" t="str">
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
+      <c r="F202" s="25" t="str">
         <f aca="true">IF(G202="", IF(I202="","",(INDIRECT("N" &amp; ROW() - 1) - M202)),IF(I202="", "", INDIRECT("N" &amp; ROW() - 1) - M202))</f>
         <v/>
       </c>
-      <c r="H202" s="28" t="str">
+      <c r="H202" s="26" t="str">
         <f aca="true">IF(I202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P202" s="29"/>
-      <c r="Q202" s="30" t="str">
-        <f aca="true">IF(I202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P202" s="27"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="F203" s="27" t="str">
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="F203" s="25" t="str">
         <f aca="true">IF(G203="", IF(I203="","",(INDIRECT("N" &amp; ROW() - 1) - M203)),IF(I203="", "", INDIRECT("N" &amp; ROW() - 1) - M203))</f>
         <v/>
       </c>
-      <c r="H203" s="28" t="str">
+      <c r="H203" s="26" t="str">
         <f aca="true">IF(I203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P203" s="29"/>
-      <c r="Q203" s="30" t="str">
-        <f aca="true">IF(I203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P203" s="27"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="F204" s="27" t="str">
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
+      <c r="F204" s="25" t="str">
         <f aca="true">IF(G204="", IF(I204="","",(INDIRECT("N" &amp; ROW() - 1) - M204)),IF(I204="", "", INDIRECT("N" &amp; ROW() - 1) - M204))</f>
         <v/>
       </c>
-      <c r="H204" s="28" t="str">
+      <c r="H204" s="26" t="str">
         <f aca="true">IF(I204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P204" s="29"/>
-      <c r="Q204" s="30" t="str">
-        <f aca="true">IF(I204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P204" s="27"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="F205" s="27" t="str">
+      <c r="B205" s="24"/>
+      <c r="C205" s="24"/>
+      <c r="F205" s="25" t="str">
         <f aca="true">IF(G205="", IF(I205="","",(INDIRECT("N" &amp; ROW() - 1) - M205)),IF(I205="", "", INDIRECT("N" &amp; ROW() - 1) - M205))</f>
         <v/>
       </c>
-      <c r="H205" s="28" t="str">
+      <c r="H205" s="26" t="str">
         <f aca="true">IF(I205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P205" s="29"/>
-      <c r="Q205" s="30" t="str">
-        <f aca="true">IF(I205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P205" s="27"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="F206" s="27" t="str">
+      <c r="B206" s="24"/>
+      <c r="C206" s="24"/>
+      <c r="F206" s="25" t="str">
         <f aca="true">IF(G206="", IF(I206="","",(INDIRECT("N" &amp; ROW() - 1) - M206)),IF(I206="", "", INDIRECT("N" &amp; ROW() - 1) - M206))</f>
         <v/>
       </c>
-      <c r="H206" s="28" t="str">
+      <c r="H206" s="26" t="str">
         <f aca="true">IF(I206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P206" s="29"/>
-      <c r="Q206" s="30" t="str">
-        <f aca="true">IF(I206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P206" s="27"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="F207" s="27" t="str">
+      <c r="B207" s="24"/>
+      <c r="C207" s="24"/>
+      <c r="F207" s="25" t="str">
         <f aca="true">IF(G207="", IF(I207="","",(INDIRECT("N" &amp; ROW() - 1) - M207)),IF(I207="", "", INDIRECT("N" &amp; ROW() - 1) - M207))</f>
         <v/>
       </c>
-      <c r="H207" s="28" t="str">
+      <c r="H207" s="26" t="str">
         <f aca="true">IF(I207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P207" s="29"/>
-      <c r="Q207" s="30" t="str">
-        <f aca="true">IF(I207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P207" s="27"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="F208" s="27" t="str">
+      <c r="B208" s="24"/>
+      <c r="C208" s="24"/>
+      <c r="F208" s="25" t="str">
         <f aca="true">IF(G208="", IF(I208="","",(INDIRECT("N" &amp; ROW() - 1) - M208)),IF(I208="", "", INDIRECT("N" &amp; ROW() - 1) - M208))</f>
         <v/>
       </c>
-      <c r="H208" s="28" t="str">
+      <c r="H208" s="26" t="str">
         <f aca="true">IF(I208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P208" s="29"/>
-      <c r="Q208" s="30" t="str">
-        <f aca="true">IF(I208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P208" s="27"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="F209" s="27" t="str">
+      <c r="B209" s="24"/>
+      <c r="C209" s="24"/>
+      <c r="F209" s="25" t="str">
         <f aca="true">IF(G209="", IF(I209="","",(INDIRECT("N" &amp; ROW() - 1) - M209)),IF(I209="", "", INDIRECT("N" &amp; ROW() - 1) - M209))</f>
         <v/>
       </c>
-      <c r="H209" s="28" t="str">
+      <c r="H209" s="26" t="str">
         <f aca="true">IF(I209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P209" s="29"/>
-      <c r="Q209" s="30" t="str">
-        <f aca="true">IF(I209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P209" s="27"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="F210" s="27" t="str">
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
+      <c r="F210" s="25" t="str">
         <f aca="true">IF(G210="", IF(I210="","",(INDIRECT("N" &amp; ROW() - 1) - M210)),IF(I210="", "", INDIRECT("N" &amp; ROW() - 1) - M210))</f>
         <v/>
       </c>
-      <c r="H210" s="28" t="str">
+      <c r="H210" s="26" t="str">
         <f aca="true">IF(I210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P210" s="29"/>
-      <c r="Q210" s="30" t="str">
-        <f aca="true">IF(I210="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P210" s="27"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="F211" s="27" t="str">
+      <c r="B211" s="24"/>
+      <c r="C211" s="24"/>
+      <c r="F211" s="25" t="str">
         <f aca="true">IF(G211="", IF(I211="","",(INDIRECT("N" &amp; ROW() - 1) - M211)),IF(I211="", "", INDIRECT("N" &amp; ROW() - 1) - M211))</f>
         <v/>
       </c>
-      <c r="H211" s="28" t="str">
+      <c r="H211" s="26" t="str">
         <f aca="true">IF(I211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P211" s="29"/>
-      <c r="Q211" s="30" t="str">
-        <f aca="true">IF(I211="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P211" s="27"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="F212" s="27" t="str">
+      <c r="B212" s="24"/>
+      <c r="C212" s="24"/>
+      <c r="F212" s="25" t="str">
         <f aca="true">IF(G212="", IF(I212="","",(INDIRECT("N" &amp; ROW() - 1) - M212)),IF(I212="", "", INDIRECT("N" &amp; ROW() - 1) - M212))</f>
         <v/>
       </c>
-      <c r="H212" s="28" t="str">
+      <c r="H212" s="26" t="str">
         <f aca="true">IF(I212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P212" s="29"/>
-      <c r="Q212" s="30" t="str">
-        <f aca="true">IF(I212="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P212" s="27"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="F213" s="27" t="str">
+      <c r="B213" s="24"/>
+      <c r="C213" s="24"/>
+      <c r="F213" s="25" t="str">
         <f aca="true">IF(G213="", IF(I213="","",(INDIRECT("N" &amp; ROW() - 1) - M213)),IF(I213="", "", INDIRECT("N" &amp; ROW() - 1) - M213))</f>
         <v/>
       </c>
-      <c r="H213" s="28" t="str">
+      <c r="H213" s="26" t="str">
         <f aca="true">IF(I213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P213" s="29"/>
-      <c r="Q213" s="30" t="str">
-        <f aca="true">IF(I213="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P213" s="27"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="F214" s="27" t="str">
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
+      <c r="F214" s="25" t="str">
         <f aca="true">IF(G214="", IF(I214="","",(INDIRECT("N" &amp; ROW() - 1) - M214)),IF(I214="", "", INDIRECT("N" &amp; ROW() - 1) - M214))</f>
         <v/>
       </c>
-      <c r="H214" s="28" t="str">
+      <c r="H214" s="26" t="str">
         <f aca="true">IF(I214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P214" s="29"/>
-      <c r="Q214" s="30" t="str">
-        <f aca="true">IF(I214="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P214" s="27"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="F215" s="27" t="str">
+      <c r="B215" s="24"/>
+      <c r="C215" s="24"/>
+      <c r="F215" s="25" t="str">
         <f aca="true">IF(G215="", IF(I215="","",(INDIRECT("N" &amp; ROW() - 1) - M215)),IF(I215="", "", INDIRECT("N" &amp; ROW() - 1) - M215))</f>
         <v/>
       </c>
-      <c r="H215" s="28" t="str">
+      <c r="H215" s="26" t="str">
         <f aca="true">IF(I215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P215" s="29"/>
-      <c r="Q215" s="30" t="str">
-        <f aca="true">IF(I215="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P215" s="27"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="F216" s="27" t="str">
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
+      <c r="F216" s="25" t="str">
         <f aca="true">IF(G216="", IF(I216="","",(INDIRECT("N" &amp; ROW() - 1) - M216)),IF(I216="", "", INDIRECT("N" &amp; ROW() - 1) - M216))</f>
         <v/>
       </c>
-      <c r="H216" s="28" t="str">
+      <c r="H216" s="26" t="str">
         <f aca="true">IF(I216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P216" s="29"/>
-      <c r="Q216" s="30" t="str">
-        <f aca="true">IF(I216="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P216" s="27"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="F217" s="27" t="str">
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
+      <c r="F217" s="25" t="str">
         <f aca="true">IF(G217="", IF(I217="","",(INDIRECT("N" &amp; ROW() - 1) - M217)),IF(I217="", "", INDIRECT("N" &amp; ROW() - 1) - M217))</f>
         <v/>
       </c>
-      <c r="H217" s="28" t="str">
+      <c r="H217" s="26" t="str">
         <f aca="true">IF(I217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P217" s="29"/>
-      <c r="Q217" s="30" t="str">
-        <f aca="true">IF(I217="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P217" s="27"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="F218" s="27" t="str">
+      <c r="B218" s="24"/>
+      <c r="C218" s="24"/>
+      <c r="F218" s="25" t="str">
         <f aca="true">IF(G218="", IF(I218="","",(INDIRECT("N" &amp; ROW() - 1) - M218)),IF(I218="", "", INDIRECT("N" &amp; ROW() - 1) - M218))</f>
         <v/>
       </c>
-      <c r="H218" s="28" t="str">
+      <c r="H218" s="26" t="str">
         <f aca="true">IF(I218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P218" s="29"/>
-      <c r="Q218" s="30" t="str">
-        <f aca="true">IF(I218="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P218" s="27"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="F219" s="27" t="str">
+      <c r="B219" s="24"/>
+      <c r="C219" s="24"/>
+      <c r="F219" s="25" t="str">
         <f aca="true">IF(G219="", IF(I219="","",(INDIRECT("N" &amp; ROW() - 1) - M219)),IF(I219="", "", INDIRECT("N" &amp; ROW() - 1) - M219))</f>
         <v/>
       </c>
-      <c r="H219" s="28" t="str">
+      <c r="H219" s="26" t="str">
         <f aca="true">IF(I219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P219" s="29"/>
-      <c r="Q219" s="30" t="str">
-        <f aca="true">IF(I219="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P219" s="27"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
-      <c r="F220" s="27" t="str">
+      <c r="B220" s="24"/>
+      <c r="C220" s="24"/>
+      <c r="F220" s="25" t="str">
         <f aca="true">IF(G220="", IF(I220="","",(INDIRECT("N" &amp; ROW() - 1) - M220)),IF(I220="", "", INDIRECT("N" &amp; ROW() - 1) - M220))</f>
         <v/>
       </c>
-      <c r="H220" s="28" t="str">
+      <c r="H220" s="26" t="str">
         <f aca="true">IF(I220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P220" s="29"/>
-      <c r="Q220" s="30" t="str">
-        <f aca="true">IF(I220="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P220" s="27"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="F221" s="27" t="str">
+      <c r="B221" s="24"/>
+      <c r="C221" s="24"/>
+      <c r="F221" s="25" t="str">
         <f aca="true">IF(G221="", IF(I221="","",(INDIRECT("N" &amp; ROW() - 1) - M221)),IF(I221="", "", INDIRECT("N" &amp; ROW() - 1) - M221))</f>
         <v/>
       </c>
-      <c r="H221" s="28" t="str">
+      <c r="H221" s="26" t="str">
         <f aca="true">IF(I221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P221" s="29"/>
-      <c r="Q221" s="30" t="str">
-        <f aca="true">IF(I221="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P221" s="27"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="F222" s="27" t="str">
+      <c r="B222" s="24"/>
+      <c r="C222" s="24"/>
+      <c r="F222" s="25" t="str">
         <f aca="true">IF(G222="", IF(I222="","",(INDIRECT("N" &amp; ROW() - 1) - M222)),IF(I222="", "", INDIRECT("N" &amp; ROW() - 1) - M222))</f>
         <v/>
       </c>
-      <c r="H222" s="28" t="str">
+      <c r="H222" s="26" t="str">
         <f aca="true">IF(I222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P222" s="29"/>
-      <c r="Q222" s="30" t="str">
-        <f aca="true">IF(I222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P222" s="27"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="F223" s="27" t="str">
+      <c r="B223" s="24"/>
+      <c r="C223" s="24"/>
+      <c r="F223" s="25" t="str">
         <f aca="true">IF(G223="", IF(I223="","",(INDIRECT("N" &amp; ROW() - 1) - M223)),IF(I223="", "", INDIRECT("N" &amp; ROW() - 1) - M223))</f>
         <v/>
       </c>
-      <c r="H223" s="28" t="str">
+      <c r="H223" s="26" t="str">
         <f aca="true">IF(I223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P223" s="29"/>
-      <c r="Q223" s="30" t="str">
-        <f aca="true">IF(I223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P223" s="27"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="F224" s="27" t="str">
+      <c r="B224" s="24"/>
+      <c r="C224" s="24"/>
+      <c r="F224" s="25" t="str">
         <f aca="true">IF(G224="", IF(I224="","",(INDIRECT("N" &amp; ROW() - 1) - M224)),IF(I224="", "", INDIRECT("N" &amp; ROW() - 1) - M224))</f>
         <v/>
       </c>
-      <c r="H224" s="28" t="str">
+      <c r="H224" s="26" t="str">
         <f aca="true">IF(I224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P224" s="29"/>
-      <c r="Q224" s="30" t="str">
-        <f aca="true">IF(I224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P224" s="27"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="F225" s="27" t="str">
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
+      <c r="F225" s="25" t="str">
         <f aca="true">IF(G225="", IF(I225="","",(INDIRECT("N" &amp; ROW() - 1) - M225)),IF(I225="", "", INDIRECT("N" &amp; ROW() - 1) - M225))</f>
         <v/>
       </c>
-      <c r="H225" s="28" t="str">
+      <c r="H225" s="26" t="str">
         <f aca="true">IF(I225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P225" s="29"/>
-      <c r="Q225" s="30" t="str">
-        <f aca="true">IF(I225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P225" s="27"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="F226" s="27" t="str">
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
+      <c r="F226" s="25" t="str">
         <f aca="true">IF(G226="", IF(I226="","",(INDIRECT("N" &amp; ROW() - 1) - M226)),IF(I226="", "", INDIRECT("N" &amp; ROW() - 1) - M226))</f>
         <v/>
       </c>
-      <c r="H226" s="28" t="str">
+      <c r="H226" s="26" t="str">
         <f aca="true">IF(I226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P226" s="29"/>
-      <c r="Q226" s="30" t="str">
-        <f aca="true">IF(I226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P226" s="27"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="F227" s="27" t="str">
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
+      <c r="F227" s="25" t="str">
         <f aca="true">IF(G227="", IF(I227="","",(INDIRECT("N" &amp; ROW() - 1) - M227)),IF(I227="", "", INDIRECT("N" &amp; ROW() - 1) - M227))</f>
         <v/>
       </c>
-      <c r="H227" s="28" t="str">
+      <c r="H227" s="26" t="str">
         <f aca="true">IF(I227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P227" s="29"/>
-      <c r="Q227" s="30" t="str">
-        <f aca="true">IF(I227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P227" s="27"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="F228" s="27" t="str">
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
+      <c r="F228" s="25" t="str">
         <f aca="true">IF(G228="", IF(I228="","",(INDIRECT("N" &amp; ROW() - 1) - M228)),IF(I228="", "", INDIRECT("N" &amp; ROW() - 1) - M228))</f>
         <v/>
       </c>
-      <c r="H228" s="28" t="str">
+      <c r="H228" s="26" t="str">
         <f aca="true">IF(I228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P228" s="29"/>
-      <c r="Q228" s="30" t="str">
-        <f aca="true">IF(I228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P228" s="27"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="F229" s="27" t="str">
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="F229" s="25" t="str">
         <f aca="true">IF(G229="", IF(I229="","",(INDIRECT("N" &amp; ROW() - 1) - M229)),IF(I229="", "", INDIRECT("N" &amp; ROW() - 1) - M229))</f>
         <v/>
       </c>
-      <c r="H229" s="28" t="str">
+      <c r="H229" s="26" t="str">
         <f aca="true">IF(I229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P229" s="29"/>
-      <c r="Q229" s="30" t="str">
-        <f aca="true">IF(I229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
+      <c r="P229" s="27"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="F230" s="27" t="str">
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
+      <c r="F230" s="25" t="str">
         <f aca="true">IF(G230="", IF(I230="","",(INDIRECT("N" &amp; ROW() - 1) - M230)),IF(I230="", "", INDIRECT("N" &amp; ROW() - 1) - M230))</f>
         <v/>
       </c>
-      <c r="H230" s="28" t="str">
+      <c r="H230" s="26" t="str">
         <f aca="true">IF(I230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P230" s="29"/>
-      <c r="Q230" s="30"/>
+      <c r="P230" s="27"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="F231" s="27" t="str">
+      <c r="B231" s="24"/>
+      <c r="C231" s="24"/>
+      <c r="F231" s="25" t="str">
         <f aca="true">IF(G231="", IF(I231="","",(INDIRECT("N" &amp; ROW() - 1) - M231)),IF(I231="", "", INDIRECT("N" &amp; ROW() - 1) - M231))</f>
         <v/>
       </c>
-      <c r="H231" s="28" t="str">
+      <c r="H231" s="26" t="str">
         <f aca="true">IF(I231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P231" s="29"/>
-      <c r="Q231" s="30"/>
+      <c r="P231" s="27"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="F232" s="27" t="str">
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
+      <c r="F232" s="25" t="str">
         <f aca="true">IF(G232="", IF(I232="","",(INDIRECT("N" &amp; ROW() - 1) - M232)),IF(I232="", "", INDIRECT("N" &amp; ROW() - 1) - M232))</f>
         <v/>
       </c>
-      <c r="H232" s="28" t="str">
+      <c r="H232" s="26" t="str">
         <f aca="true">IF(I232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P232" s="29"/>
-      <c r="Q232" s="30"/>
+      <c r="P232" s="27"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="F233" s="27" t="str">
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
+      <c r="F233" s="25" t="str">
         <f aca="true">IF(G233="", IF(I233="","",(INDIRECT("N" &amp; ROW() - 1) - M233)),IF(I233="", "", INDIRECT("N" &amp; ROW() - 1) - M233))</f>
         <v/>
       </c>
-      <c r="H233" s="28" t="str">
+      <c r="H233" s="26" t="str">
         <f aca="true">IF(I233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P233" s="29"/>
-      <c r="Q233" s="30"/>
+      <c r="P233" s="27"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="F234" s="27" t="str">
+      <c r="B234" s="24"/>
+      <c r="C234" s="24"/>
+      <c r="F234" s="25" t="str">
         <f aca="true">IF(G234="", IF(I234="","",(INDIRECT("N" &amp; ROW() - 1) - M234)),IF(I234="", "", INDIRECT("N" &amp; ROW() - 1) - M234))</f>
         <v/>
       </c>
-      <c r="H234" s="28" t="str">
+      <c r="H234" s="26" t="str">
         <f aca="true">IF(I234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P234" s="29"/>
-      <c r="Q234" s="30"/>
+      <c r="P234" s="27"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="F235" s="27" t="str">
+      <c r="B235" s="24"/>
+      <c r="C235" s="24"/>
+      <c r="F235" s="25" t="str">
         <f aca="true">IF(G235="", IF(I235="","",(INDIRECT("N" &amp; ROW() - 1) - M235)),IF(I235="", "", INDIRECT("N" &amp; ROW() - 1) - M235))</f>
         <v/>
       </c>
-      <c r="H235" s="28" t="str">
+      <c r="H235" s="26" t="str">
         <f aca="true">IF(I235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P235" s="29"/>
-      <c r="Q235" s="30"/>
+      <c r="P235" s="27"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="F236" s="27" t="str">
+      <c r="B236" s="24"/>
+      <c r="C236" s="24"/>
+      <c r="F236" s="25" t="str">
         <f aca="true">IF(G236="", IF(I236="","",(INDIRECT("N" &amp; ROW() - 1) - M236)),IF(I236="", "", INDIRECT("N" &amp; ROW() - 1) - M236))</f>
         <v/>
       </c>
-      <c r="H236" s="28" t="str">
+      <c r="H236" s="26" t="str">
         <f aca="true">IF(I236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P236" s="29"/>
-      <c r="Q236" s="30"/>
+      <c r="P236" s="27"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="F237" s="27" t="str">
+      <c r="B237" s="24"/>
+      <c r="C237" s="24"/>
+      <c r="F237" s="25" t="str">
         <f aca="true">IF(G237="", IF(I237="","",(INDIRECT("N" &amp; ROW() - 1) - M237)),IF(I237="", "", INDIRECT("N" &amp; ROW() - 1) - M237))</f>
         <v/>
       </c>
-      <c r="H237" s="28" t="str">
+      <c r="H237" s="26" t="str">
         <f aca="true">IF(I237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P237" s="29"/>
-      <c r="Q237" s="30"/>
+      <c r="P237" s="27"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="F238" s="27" t="str">
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
+      <c r="F238" s="25" t="str">
         <f aca="true">IF(G238="", IF(I238="","",(INDIRECT("N" &amp; ROW() - 1) - M238)),IF(I238="", "", INDIRECT("N" &amp; ROW() - 1) - M238))</f>
         <v/>
       </c>
-      <c r="H238" s="28" t="str">
+      <c r="H238" s="26" t="str">
         <f aca="true">IF(I238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P238" s="29"/>
-      <c r="Q238" s="30"/>
+      <c r="P238" s="27"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="F239" s="27" t="str">
+      <c r="B239" s="24"/>
+      <c r="C239" s="24"/>
+      <c r="F239" s="25" t="str">
         <f aca="true">IF(G239="", IF(I239="","",(INDIRECT("N" &amp; ROW() - 1) - M239)),IF(I239="", "", INDIRECT("N" &amp; ROW() - 1) - M239))</f>
         <v/>
       </c>
-      <c r="H239" s="28" t="str">
+      <c r="H239" s="26" t="str">
         <f aca="true">IF(I239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P239" s="29"/>
-      <c r="Q239" s="30"/>
+      <c r="P239" s="27"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="F240" s="27" t="str">
+      <c r="B240" s="24"/>
+      <c r="C240" s="24"/>
+      <c r="F240" s="25" t="str">
         <f aca="true">IF(G240="", IF(I240="","",(INDIRECT("N" &amp; ROW() - 1) - M240)),IF(I240="", "", INDIRECT("N" &amp; ROW() - 1) - M240))</f>
         <v/>
       </c>
-      <c r="H240" s="28" t="str">
+      <c r="H240" s="26" t="str">
         <f aca="true">IF(I240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P240" s="29"/>
-      <c r="Q240" s="30"/>
+      <c r="P240" s="27"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="F241" s="27" t="str">
+      <c r="B241" s="24"/>
+      <c r="C241" s="24"/>
+      <c r="F241" s="25" t="str">
         <f aca="true">IF(G241="", IF(I241="","",(INDIRECT("N" &amp; ROW() - 1) - M241)),IF(I241="", "", INDIRECT("N" &amp; ROW() - 1) - M241))</f>
         <v/>
       </c>
-      <c r="H241" s="28" t="str">
+      <c r="H241" s="26" t="str">
         <f aca="true">IF(I241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P241" s="29"/>
-      <c r="Q241" s="30"/>
+      <c r="P241" s="27"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="F242" s="27" t="str">
+      <c r="B242" s="24"/>
+      <c r="C242" s="24"/>
+      <c r="F242" s="25" t="str">
         <f aca="true">IF(G242="", IF(I242="","",(INDIRECT("N" &amp; ROW() - 1) - M242)),IF(I242="", "", INDIRECT("N" &amp; ROW() - 1) - M242))</f>
         <v/>
       </c>
-      <c r="H242" s="28" t="str">
+      <c r="H242" s="26" t="str">
         <f aca="true">IF(I242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P242" s="29"/>
-      <c r="Q242" s="30"/>
+      <c r="P242" s="27"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="F243" s="27" t="str">
+      <c r="B243" s="24"/>
+      <c r="C243" s="24"/>
+      <c r="F243" s="25" t="str">
         <f aca="true">IF(G243="", IF(I243="","",(INDIRECT("N" &amp; ROW() - 1) - M243)),IF(I243="", "", INDIRECT("N" &amp; ROW() - 1) - M243))</f>
         <v/>
       </c>
-      <c r="H243" s="28" t="str">
+      <c r="H243" s="26" t="str">
         <f aca="true">IF(I243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P243" s="29"/>
-      <c r="Q243" s="30"/>
+      <c r="P243" s="27"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="F244" s="27" t="str">
+      <c r="B244" s="24"/>
+      <c r="C244" s="24"/>
+      <c r="F244" s="25" t="str">
         <f aca="true">IF(G244="", IF(I244="","",(INDIRECT("N" &amp; ROW() - 1) - M244)),IF(I244="", "", INDIRECT("N" &amp; ROW() - 1) - M244))</f>
         <v/>
       </c>
-      <c r="H244" s="28" t="str">
+      <c r="H244" s="26" t="str">
         <f aca="true">IF(I244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P244" s="29"/>
-      <c r="Q244" s="30"/>
+      <c r="P244" s="27"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
-      <c r="F245" s="27" t="str">
+      <c r="B245" s="24"/>
+      <c r="C245" s="24"/>
+      <c r="F245" s="25" t="str">
         <f aca="true">IF(G245="", IF(I245="","",(INDIRECT("N" &amp; ROW() - 1) - M245)),IF(I245="", "", INDIRECT("N" &amp; ROW() - 1) - M245))</f>
         <v/>
       </c>
-      <c r="H245" s="28" t="str">
+      <c r="H245" s="26" t="str">
         <f aca="true">IF(I245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P245" s="29"/>
-      <c r="Q245" s="30"/>
+      <c r="P245" s="27"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
-      <c r="F246" s="27" t="str">
+      <c r="B246" s="24"/>
+      <c r="C246" s="24"/>
+      <c r="F246" s="25" t="str">
         <f aca="true">IF(G246="", IF(I246="","",(INDIRECT("N" &amp; ROW() - 1) - M246)),IF(I246="", "", INDIRECT("N" &amp; ROW() - 1) - M246))</f>
         <v/>
       </c>
-      <c r="H246" s="28" t="str">
+      <c r="H246" s="26" t="str">
         <f aca="true">IF(I246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P246" s="29"/>
-      <c r="Q246" s="30"/>
+      <c r="P246" s="27"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
-      <c r="F247" s="27" t="str">
+      <c r="B247" s="24"/>
+      <c r="C247" s="24"/>
+      <c r="F247" s="25" t="str">
         <f aca="true">IF(G247="", IF(I247="","",(INDIRECT("N" &amp; ROW() - 1) - M247)),IF(I247="", "", INDIRECT("N" &amp; ROW() - 1) - M247))</f>
         <v/>
       </c>
-      <c r="H247" s="28" t="str">
+      <c r="H247" s="26" t="str">
         <f aca="true">IF(I247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P247" s="29"/>
-      <c r="Q247" s="30"/>
+      <c r="P247" s="27"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="F248" s="27" t="str">
+      <c r="B248" s="24"/>
+      <c r="C248" s="24"/>
+      <c r="F248" s="25" t="str">
         <f aca="true">IF(G248="", IF(I248="","",(INDIRECT("N" &amp; ROW() - 1) - M248)),IF(I248="", "", INDIRECT("N" &amp; ROW() - 1) - M248))</f>
         <v/>
       </c>
-      <c r="H248" s="28" t="str">
+      <c r="H248" s="26" t="str">
         <f aca="true">IF(I248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P248" s="29"/>
-      <c r="Q248" s="30"/>
+      <c r="P248" s="27"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
-      <c r="F249" s="27" t="str">
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
+      <c r="F249" s="25" t="str">
         <f aca="true">IF(G249="", IF(I249="","",(INDIRECT("N" &amp; ROW() - 1) - M249)),IF(I249="", "", INDIRECT("N" &amp; ROW() - 1) - M249))</f>
         <v/>
       </c>
-      <c r="H249" s="28" t="str">
+      <c r="H249" s="26" t="str">
         <f aca="true">IF(I249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P249" s="29"/>
-      <c r="Q249" s="30"/>
+      <c r="P249" s="27"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
-      <c r="F250" s="27" t="str">
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
+      <c r="F250" s="25" t="str">
         <f aca="true">IF(G250="", IF(I250="","",(INDIRECT("N" &amp; ROW() - 1) - M250)),IF(I250="", "", INDIRECT("N" &amp; ROW() - 1) - M250))</f>
         <v/>
       </c>
-      <c r="H250" s="28" t="str">
+      <c r="H250" s="26" t="str">
         <f aca="true">IF(I250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P250" s="29"/>
-      <c r="Q250" s="30"/>
+      <c r="P250" s="27"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="F251" s="27" t="str">
+      <c r="B251" s="24"/>
+      <c r="C251" s="24"/>
+      <c r="F251" s="25" t="str">
         <f aca="true">IF(G251="", IF(I251="","",(INDIRECT("N" &amp; ROW() - 1) - M251)),IF(I251="", "", INDIRECT("N" &amp; ROW() - 1) - M251))</f>
         <v/>
       </c>
-      <c r="H251" s="28" t="str">
+      <c r="H251" s="26" t="str">
         <f aca="true">IF(I251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P251" s="29"/>
-      <c r="Q251" s="30"/>
+      <c r="P251" s="27"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
-      <c r="F252" s="27" t="str">
+      <c r="B252" s="24"/>
+      <c r="C252" s="24"/>
+      <c r="F252" s="25" t="str">
         <f aca="true">IF(G252="", IF(I252="","",(INDIRECT("N" &amp; ROW() - 1) - M252)),IF(I252="", "", INDIRECT("N" &amp; ROW() - 1) - M252))</f>
         <v/>
       </c>
-      <c r="H252" s="28" t="str">
+      <c r="H252" s="26" t="str">
         <f aca="true">IF(I252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P252" s="29"/>
-      <c r="Q252" s="30"/>
+      <c r="P252" s="27"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="F253" s="27" t="str">
+      <c r="B253" s="24"/>
+      <c r="C253" s="24"/>
+      <c r="F253" s="25" t="str">
         <f aca="true">IF(G253="", IF(I253="","",(INDIRECT("N" &amp; ROW() - 1) - M253)),IF(I253="", "", INDIRECT("N" &amp; ROW() - 1) - M253))</f>
         <v/>
       </c>
-      <c r="H253" s="28" t="str">
+      <c r="H253" s="26" t="str">
         <f aca="true">IF(I253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P253" s="29"/>
-      <c r="Q253" s="30"/>
+      <c r="P253" s="27"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
-      <c r="F254" s="27" t="str">
+      <c r="B254" s="24"/>
+      <c r="C254" s="24"/>
+      <c r="F254" s="25" t="str">
         <f aca="true">IF(G254="", IF(I254="","",(INDIRECT("N" &amp; ROW() - 1) - M254)),IF(I254="", "", INDIRECT("N" &amp; ROW() - 1) - M254))</f>
         <v/>
       </c>
-      <c r="H254" s="28" t="str">
+      <c r="H254" s="26" t="str">
         <f aca="true">IF(I254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P254" s="29"/>
-      <c r="Q254" s="30"/>
+      <c r="P254" s="27"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
-      <c r="F255" s="27" t="str">
+      <c r="B255" s="24"/>
+      <c r="C255" s="24"/>
+      <c r="F255" s="25" t="str">
         <f aca="true">IF(G255="", IF(I255="","",(INDIRECT("N" &amp; ROW() - 1) - M255)),IF(I255="", "", INDIRECT("N" &amp; ROW() - 1) - M255))</f>
         <v/>
       </c>
-      <c r="H255" s="28" t="str">
+      <c r="H255" s="26" t="str">
         <f aca="true">IF(I255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P255" s="29"/>
-      <c r="Q255" s="30"/>
+      <c r="P255" s="27"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="F256" s="27" t="str">
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="F256" s="25" t="str">
         <f aca="true">IF(G256="", IF(I256="","",(INDIRECT("N" &amp; ROW() - 1) - M256)),IF(I256="", "", INDIRECT("N" &amp; ROW() - 1) - M256))</f>
         <v/>
       </c>
-      <c r="H256" s="28" t="str">
+      <c r="H256" s="26" t="str">
         <f aca="true">IF(I256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P256" s="29"/>
-      <c r="Q256" s="30"/>
+      <c r="P256" s="27"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="F257" s="27" t="str">
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
+      <c r="F257" s="25" t="str">
         <f aca="true">IF(G257="", IF(I257="","",(INDIRECT("N" &amp; ROW() - 1) - M257)),IF(I257="", "", INDIRECT("N" &amp; ROW() - 1) - M257))</f>
         <v/>
       </c>
-      <c r="H257" s="28" t="str">
+      <c r="H257" s="26" t="str">
         <f aca="true">IF(I257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P257" s="29"/>
-      <c r="Q257" s="30"/>
+      <c r="P257" s="27"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
-      <c r="F258" s="27" t="str">
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
+      <c r="F258" s="25" t="str">
         <f aca="true">IF(G258="", IF(I258="","",(INDIRECT("N" &amp; ROW() - 1) - M258)),IF(I258="", "", INDIRECT("N" &amp; ROW() - 1) - M258))</f>
         <v/>
       </c>
-      <c r="H258" s="28" t="str">
+      <c r="H258" s="26" t="str">
         <f aca="true">IF(I258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P258" s="29"/>
-      <c r="Q258" s="30"/>
+      <c r="P258" s="27"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="F259" s="27" t="str">
+      <c r="B259" s="24"/>
+      <c r="C259" s="24"/>
+      <c r="F259" s="25" t="str">
         <f aca="true">IF(G259="", IF(I259="","",(INDIRECT("N" &amp; ROW() - 1) - M259)),IF(I259="", "", INDIRECT("N" &amp; ROW() - 1) - M259))</f>
         <v/>
       </c>
-      <c r="H259" s="28" t="str">
+      <c r="H259" s="26" t="str">
         <f aca="true">IF(I259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P259" s="29"/>
-      <c r="Q259" s="30"/>
+      <c r="P259" s="27"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="F260" s="27" t="str">
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
+      <c r="F260" s="25" t="str">
         <f aca="true">IF(G260="", IF(I260="","",(INDIRECT("N" &amp; ROW() - 1) - M260)),IF(I260="", "", INDIRECT("N" &amp; ROW() - 1) - M260))</f>
         <v/>
       </c>
-      <c r="H260" s="28" t="str">
+      <c r="H260" s="26" t="str">
         <f aca="true">IF(I260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P260" s="29"/>
-      <c r="Q260" s="30"/>
+      <c r="P260" s="27"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
-      <c r="F261" s="27" t="str">
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
+      <c r="F261" s="25" t="str">
         <f aca="true">IF(G261="", IF(I261="","",(INDIRECT("N" &amp; ROW() - 1) - M261)),IF(I261="", "", INDIRECT("N" &amp; ROW() - 1) - M261))</f>
         <v/>
       </c>
-      <c r="H261" s="28" t="str">
+      <c r="H261" s="26" t="str">
         <f aca="true">IF(I261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P261" s="29"/>
-      <c r="Q261" s="30"/>
+      <c r="P261" s="27"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="F262" s="27" t="str">
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
+      <c r="F262" s="25" t="str">
         <f aca="true">IF(G262="", IF(I262="","",(INDIRECT("N" &amp; ROW() - 1) - M262)),IF(I262="", "", INDIRECT("N" &amp; ROW() - 1) - M262))</f>
         <v/>
       </c>
-      <c r="H262" s="28" t="str">
+      <c r="H262" s="26" t="str">
         <f aca="true">IF(I262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P262" s="29"/>
-      <c r="Q262" s="30"/>
+      <c r="P262" s="27"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
-      <c r="F263" s="27" t="str">
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
+      <c r="F263" s="25" t="str">
         <f aca="true">IF(G263="", IF(I263="","",(INDIRECT("N" &amp; ROW() - 1) - M263)),IF(I263="", "", INDIRECT("N" &amp; ROW() - 1) - M263))</f>
         <v/>
       </c>
-      <c r="H263" s="28" t="str">
+      <c r="H263" s="26" t="str">
         <f aca="true">IF(I263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P263" s="29"/>
-      <c r="Q263" s="30"/>
+      <c r="P263" s="27"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
-      <c r="F264" s="27" t="str">
+      <c r="B264" s="24"/>
+      <c r="C264" s="24"/>
+      <c r="F264" s="25" t="str">
         <f aca="true">IF(G264="", IF(I264="","",(INDIRECT("N" &amp; ROW() - 1) - M264)),IF(I264="", "", INDIRECT("N" &amp; ROW() - 1) - M264))</f>
         <v/>
       </c>
-      <c r="H264" s="28" t="str">
+      <c r="H264" s="26" t="str">
         <f aca="true">IF(I264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P264" s="29"/>
-      <c r="Q264" s="30"/>
+      <c r="P264" s="27"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="F265" s="27" t="str">
+      <c r="B265" s="24"/>
+      <c r="C265" s="24"/>
+      <c r="F265" s="25" t="str">
         <f aca="true">IF(G265="", IF(I265="","",(INDIRECT("N" &amp; ROW() - 1) - M265)),IF(I265="", "", INDIRECT("N" &amp; ROW() - 1) - M265))</f>
         <v/>
       </c>
-      <c r="H265" s="28" t="str">
+      <c r="H265" s="26" t="str">
         <f aca="true">IF(I265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P265" s="29"/>
-      <c r="Q265" s="30"/>
+      <c r="P265" s="27"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
-      <c r="F266" s="27" t="str">
+      <c r="B266" s="24"/>
+      <c r="C266" s="24"/>
+      <c r="F266" s="25" t="str">
         <f aca="true">IF(G266="", IF(I266="","",(INDIRECT("N" &amp; ROW() - 1) - M266)),IF(I266="", "", INDIRECT("N" &amp; ROW() - 1) - M266))</f>
         <v/>
       </c>
-      <c r="H266" s="28" t="str">
+      <c r="H266" s="26" t="str">
         <f aca="true">IF(I266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P266" s="29"/>
-      <c r="Q266" s="30"/>
+      <c r="P266" s="27"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
-      <c r="F267" s="27" t="str">
+      <c r="B267" s="24"/>
+      <c r="C267" s="24"/>
+      <c r="F267" s="25" t="str">
         <f aca="true">IF(G267="", IF(I267="","",(INDIRECT("N" &amp; ROW() - 1) - M267)),IF(I267="", "", INDIRECT("N" &amp; ROW() - 1) - M267))</f>
         <v/>
       </c>
-      <c r="H267" s="28" t="str">
+      <c r="H267" s="26" t="str">
         <f aca="true">IF(I267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="P267" s="29"/>
-      <c r="Q267" s="30"/>
+      <c r="P267" s="27"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="H268" s="28" t="str">
+      <c r="B268" s="24"/>
+      <c r="C268" s="24"/>
+      <c r="H268" s="26" t="str">
         <f aca="true">IF(I268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="H269" s="28" t="str">
+      <c r="B269" s="24"/>
+      <c r="C269" s="24"/>
+      <c r="H269" s="26" t="str">
         <f aca="true">IF(I269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="H270" s="28" t="str">
+      <c r="B270" s="24"/>
+      <c r="C270" s="24"/>
+      <c r="H270" s="26" t="str">
         <f aca="true">IF(I270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
-      <c r="H271" s="28" t="str">
+      <c r="B271" s="24"/>
+      <c r="C271" s="24"/>
+      <c r="H271" s="26" t="str">
         <f aca="true">IF(I271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="H272" s="28" t="str">
+      <c r="B272" s="24"/>
+      <c r="C272" s="24"/>
+      <c r="H272" s="26" t="str">
         <f aca="true">IF(I272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="H273" s="28" t="str">
+      <c r="B273" s="24"/>
+      <c r="C273" s="24"/>
+      <c r="H273" s="26" t="str">
         <f aca="true">IF(I273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
-      <c r="H274" s="28" t="str">
+      <c r="B274" s="24"/>
+      <c r="C274" s="24"/>
+      <c r="H274" s="26" t="str">
         <f aca="true">IF(I274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="H275" s="28" t="str">
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
+      <c r="H275" s="26" t="str">
         <f aca="true">IF(I275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
-      <c r="H276" s="28" t="str">
+      <c r="B276" s="24"/>
+      <c r="C276" s="24"/>
+      <c r="H276" s="26" t="str">
         <f aca="true">IF(I276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
-      <c r="H277" s="28" t="str">
+      <c r="B277" s="24"/>
+      <c r="C277" s="24"/>
+      <c r="H277" s="26" t="str">
         <f aca="true">IF(I277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
-      <c r="H278" s="28" t="str">
+      <c r="B278" s="24"/>
+      <c r="C278" s="24"/>
+      <c r="H278" s="26" t="str">
         <f aca="true">IF(I278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
-      <c r="H279" s="28" t="str">
+      <c r="B279" s="24"/>
+      <c r="C279" s="24"/>
+      <c r="H279" s="26" t="str">
         <f aca="true">IF(I279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
-      <c r="H280" s="28" t="str">
+      <c r="B280" s="24"/>
+      <c r="C280" s="24"/>
+      <c r="H280" s="26" t="str">
         <f aca="true">IF(I280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
-      <c r="H281" s="28" t="str">
+      <c r="B281" s="24"/>
+      <c r="C281" s="24"/>
+      <c r="H281" s="26" t="str">
         <f aca="true">IF(I281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="26"/>
-      <c r="C282" s="26"/>
-      <c r="H282" s="28" t="str">
+      <c r="B282" s="24"/>
+      <c r="C282" s="24"/>
+      <c r="H282" s="26" t="str">
         <f aca="true">IF(I282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
-      <c r="H283" s="28" t="str">
+      <c r="B283" s="24"/>
+      <c r="C283" s="24"/>
+      <c r="H283" s="26" t="str">
         <f aca="true">IF(I283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
-      <c r="H284" s="28" t="str">
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
+      <c r="H284" s="26" t="str">
         <f aca="true">IF(I284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
-      <c r="H285" s="28" t="str">
+      <c r="B285" s="24"/>
+      <c r="C285" s="24"/>
+      <c r="H285" s="26" t="str">
         <f aca="true">IF(I285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="26"/>
-      <c r="C286" s="26"/>
-      <c r="H286" s="28" t="str">
+      <c r="B286" s="24"/>
+      <c r="C286" s="24"/>
+      <c r="H286" s="26" t="str">
         <f aca="true">IF(I286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
-      <c r="H287" s="28" t="str">
+      <c r="B287" s="24"/>
+      <c r="C287" s="24"/>
+      <c r="H287" s="26" t="str">
         <f aca="true">IF(I287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="26"/>
-      <c r="C288" s="26"/>
-      <c r="H288" s="28" t="str">
+      <c r="B288" s="24"/>
+      <c r="C288" s="24"/>
+      <c r="H288" s="26" t="str">
         <f aca="true">IF(I288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="26"/>
-      <c r="C289" s="26"/>
-      <c r="H289" s="28" t="str">
+      <c r="B289" s="24"/>
+      <c r="C289" s="24"/>
+      <c r="H289" s="26" t="str">
         <f aca="true">IF(I289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="26"/>
-      <c r="C290" s="26"/>
-      <c r="H290" s="28" t="str">
+      <c r="B290" s="24"/>
+      <c r="C290" s="24"/>
+      <c r="H290" s="26" t="str">
         <f aca="true">IF(I290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
-      <c r="H291" s="28" t="str">
+      <c r="B291" s="24"/>
+      <c r="C291" s="24"/>
+      <c r="H291" s="26" t="str">
         <f aca="true">IF(I291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="26"/>
-      <c r="C292" s="26"/>
-      <c r="H292" s="28" t="str">
+      <c r="B292" s="24"/>
+      <c r="C292" s="24"/>
+      <c r="H292" s="26" t="str">
         <f aca="true">IF(I292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="26"/>
-      <c r="C293" s="26"/>
-      <c r="H293" s="28" t="str">
+      <c r="B293" s="24"/>
+      <c r="C293" s="24"/>
+      <c r="H293" s="26" t="str">
         <f aca="true">IF(I293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
-      <c r="H294" s="28" t="str">
+      <c r="B294" s="24"/>
+      <c r="C294" s="24"/>
+      <c r="H294" s="26" t="str">
         <f aca="true">IF(I294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="26"/>
-      <c r="C295" s="26"/>
-      <c r="H295" s="28" t="str">
+      <c r="B295" s="24"/>
+      <c r="C295" s="24"/>
+      <c r="H295" s="26" t="str">
         <f aca="true">IF(I295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
-      <c r="H296" s="28" t="str">
+      <c r="B296" s="24"/>
+      <c r="C296" s="24"/>
+      <c r="H296" s="26" t="str">
         <f aca="true">IF(I296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="26"/>
-      <c r="C297" s="26"/>
-      <c r="H297" s="28" t="str">
+      <c r="B297" s="24"/>
+      <c r="C297" s="24"/>
+      <c r="H297" s="26" t="str">
         <f aca="true">IF(I297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
-      <c r="H298" s="28" t="str">
+      <c r="B298" s="24"/>
+      <c r="C298" s="24"/>
+      <c r="H298" s="26" t="str">
         <f aca="true">IF(I298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="26"/>
-      <c r="C299" s="26"/>
-      <c r="H299" s="28" t="str">
+      <c r="B299" s="24"/>
+      <c r="C299" s="24"/>
+      <c r="H299" s="26" t="str">
         <f aca="true">IF(I299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="26"/>
-      <c r="C300" s="26"/>
-      <c r="H300" s="28" t="str">
+      <c r="B300" s="24"/>
+      <c r="C300" s="24"/>
+      <c r="H300" s="26" t="str">
         <f aca="true">IF(I300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="26"/>
-      <c r="C301" s="26"/>
-      <c r="H301" s="28" t="str">
+      <c r="B301" s="24"/>
+      <c r="C301" s="24"/>
+      <c r="H301" s="26" t="str">
         <f aca="true">IF(I301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
-      <c r="H302" s="28" t="str">
+      <c r="B302" s="24"/>
+      <c r="C302" s="24"/>
+      <c r="H302" s="26" t="str">
         <f aca="true">IF(I302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="26"/>
-      <c r="C303" s="26"/>
-      <c r="H303" s="28" t="str">
+      <c r="B303" s="24"/>
+      <c r="C303" s="24"/>
+      <c r="H303" s="26" t="str">
         <f aca="true">IF(I303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
-      <c r="H304" s="28" t="str">
+      <c r="B304" s="24"/>
+      <c r="C304" s="24"/>
+      <c r="H304" s="26" t="str">
         <f aca="true">IF(I304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="26"/>
-      <c r="C305" s="26"/>
-      <c r="H305" s="28" t="str">
+      <c r="B305" s="24"/>
+      <c r="C305" s="24"/>
+      <c r="H305" s="26" t="str">
         <f aca="true">IF(I305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
-      <c r="H306" s="28" t="str">
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
+      <c r="H306" s="26" t="str">
         <f aca="true">IF(I306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="26"/>
-      <c r="C307" s="26"/>
-      <c r="H307" s="28" t="str">
+      <c r="B307" s="24"/>
+      <c r="C307" s="24"/>
+      <c r="H307" s="26" t="str">
         <f aca="true">IF(I307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="26"/>
-      <c r="C308" s="26"/>
-      <c r="H308" s="28" t="str">
+      <c r="B308" s="24"/>
+      <c r="C308" s="24"/>
+      <c r="H308" s="26" t="str">
         <f aca="true">IF(I308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="26"/>
-      <c r="C309" s="26"/>
-      <c r="H309" s="28" t="str">
+      <c r="B309" s="24"/>
+      <c r="C309" s="24"/>
+      <c r="H309" s="26" t="str">
         <f aca="true">IF(I309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="26"/>
-      <c r="C310" s="26"/>
-      <c r="H310" s="28" t="str">
+      <c r="B310" s="24"/>
+      <c r="C310" s="24"/>
+      <c r="H310" s="26" t="str">
         <f aca="true">IF(I310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="26"/>
-      <c r="C311" s="26"/>
-      <c r="H311" s="28" t="str">
+      <c r="B311" s="24"/>
+      <c r="C311" s="24"/>
+      <c r="H311" s="26" t="str">
         <f aca="true">IF(I311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
-      <c r="H312" s="28" t="str">
+      <c r="B312" s="24"/>
+      <c r="C312" s="24"/>
+      <c r="H312" s="26" t="str">
         <f aca="true">IF(I312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="26"/>
-      <c r="C313" s="26"/>
-      <c r="H313" s="28" t="str">
+      <c r="B313" s="24"/>
+      <c r="C313" s="24"/>
+      <c r="H313" s="26" t="str">
         <f aca="true">IF(I313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="26"/>
-      <c r="C314" s="26"/>
-      <c r="H314" s="28" t="str">
+      <c r="B314" s="24"/>
+      <c r="C314" s="24"/>
+      <c r="H314" s="26" t="str">
         <f aca="true">IF(I314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="26"/>
-      <c r="C315" s="26"/>
-      <c r="H315" s="28" t="str">
+      <c r="B315" s="24"/>
+      <c r="C315" s="24"/>
+      <c r="H315" s="26" t="str">
         <f aca="true">IF(I315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
-      <c r="H316" s="28" t="str">
+      <c r="B316" s="24"/>
+      <c r="C316" s="24"/>
+      <c r="H316" s="26" t="str">
         <f aca="true">IF(I316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H317" s="28" t="str">
+      <c r="H317" s="26" t="str">
         <f aca="true">IF(I317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H318" s="28" t="str">
+      <c r="H318" s="26" t="str">
         <f aca="true">IF(I318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H319" s="28" t="str">
+      <c r="H319" s="26" t="str">
         <f aca="true">IF(I319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H320" s="28" t="str">
+      <c r="H320" s="26" t="str">
         <f aca="true">IF(I320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H321" s="28" t="str">
+      <c r="H321" s="26" t="str">
         <f aca="true">IF(I321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H322" s="28" t="str">
+      <c r="H322" s="26" t="str">
         <f aca="true">IF(I322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H323" s="28" t="str">
+      <c r="H323" s="26" t="str">
         <f aca="true">IF(I323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H324" s="28" t="str">
+      <c r="H324" s="26" t="str">
         <f aca="true">IF(I324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H325" s="28" t="str">
+      <c r="H325" s="26" t="str">
         <f aca="true">IF(I325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H326" s="28" t="str">
+      <c r="H326" s="26" t="str">
         <f aca="true">IF(I326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -8546,7 +8047,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B123">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -8695,13 +8195,17 @@
       <formula>IF(H3="",0,F3)  &gt; 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B123" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D60" type="list">
       <formula1>SKU!$A$1:$A$137</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3" type="list">
+      <formula1>"$SKU.$C$1:$C$137"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">Остатки</t>
   </si>
   <si>
-    <t xml:space="preserve">Суммарный вес  сыворотки в одной варке</t>
+    <t xml:space="preserve">Суммарный вес  сыворотки</t>
   </si>
   <si>
     <t xml:space="preserve">Вес на выходе одной варки</t>
@@ -267,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,10 +377,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -653,7 +649,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,11 +660,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="10" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="15" min="14" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.89"/>
@@ -751,6 +748,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="str">
+        <f aca="true">IF(I3="", "", IF(I3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L3))))))</f>
+        <v/>
+      </c>
       <c r="B3" s="24" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -760,36 +761,37 @@
         <v/>
       </c>
       <c r="F3" s="25" t="str">
-        <f aca="true">IF(G3="", IF(I3="","",(INDIRECT("M" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("M" &amp; ROW() - 1) - M3))</f>
+        <f aca="false">IF(I3 = "-", P3 * (O3 - N2), "")</f>
         <v/>
       </c>
       <c r="G3" s="26" t="str">
-        <f aca="true">IF(I3 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I3 = "-", P3 * 6500,"")</f>
         <v/>
       </c>
       <c r="H3" s="26" t="str">
         <f aca="true">IF(I3 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J3" s="9" t="n">
-        <f aca="true">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1)*P3,E3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="true">IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="9"/>
       <c r="L3" s="0" t="n">
-        <f aca="false">IF(I3="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <f aca="true">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
+        <f aca="false">IF(I3="-",P3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="true">IF(I3 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="true">IF(I3 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="true">IF(I4="", "", IF(I4="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L4))))))</f>
+        <v/>
+      </c>
       <c r="B4" s="24" t="str">
         <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -799,36 +801,37 @@
         <v/>
       </c>
       <c r="F4" s="25" t="str">
-        <f aca="true">IF(G4="", IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("M" &amp; ROW() - 1) - M4))</f>
+        <f aca="false">IF(I4 = "-", P4 * (O4 - N3), "")</f>
         <v/>
       </c>
       <c r="G4" s="26" t="str">
-        <f aca="true">IF(I4 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I4 = "-", P4 * 6500,"")</f>
         <v/>
       </c>
       <c r="H4" s="26" t="str">
         <f aca="true">IF(I4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J4" s="9" t="n">
-        <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1)*P4,E4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="true">IF(I4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J4)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="9"/>
       <c r="L4" s="0" t="n">
-        <f aca="false">IF(I4="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <f aca="true">IF(K4 = 0, INDIRECT("M" &amp; ROW() - 1), K4)</f>
+        <f aca="false">IF(I4="-",P4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="true">IF(I4 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="true">IF(I4 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <f aca="true">IF(I5="", "", IF(I5="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L5))))))</f>
+        <v/>
+      </c>
       <c r="B5" s="24" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -838,36 +841,37 @@
         <v/>
       </c>
       <c r="F5" s="25" t="str">
-        <f aca="true">IF(G5="", IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("M" &amp; ROW() - 1) - M5))</f>
+        <f aca="false">IF(I5 = "-", P5 * (O5 - N4), "")</f>
         <v/>
       </c>
       <c r="G5" s="26" t="str">
-        <f aca="true">IF(I5 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I5 = "-", P5 * 6500,"")</f>
         <v/>
       </c>
       <c r="H5" s="26" t="str">
         <f aca="true">IF(I5 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J5" s="9" t="n">
-        <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1)*P5,E5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="true">IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="9"/>
       <c r="L5" s="0" t="n">
-        <f aca="false">IF(I5="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <f aca="true">IF(K5 = 0, INDIRECT("M" &amp; ROW() - 1), K5)</f>
+        <f aca="false">IF(I5="-",P5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="true">IF(I5 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="true">IF(I5 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="true">IF(I6="", "", IF(I6="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L6))))))</f>
+        <v/>
+      </c>
       <c r="B6" s="24" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -877,36 +881,37 @@
         <v/>
       </c>
       <c r="F6" s="25" t="str">
-        <f aca="true">IF(G6="", IF(I6="","",(INDIRECT("M" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("M" &amp; ROW() - 1) - M6))</f>
+        <f aca="false">IF(I6 = "-", P6 * (O6 - N5), "")</f>
         <v/>
       </c>
       <c r="G6" s="26" t="str">
-        <f aca="true">IF(I6 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I6 = "-", P6 * 6500,"")</f>
         <v/>
       </c>
       <c r="H6" s="26" t="str">
         <f aca="true">IF(I6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J6" s="9" t="n">
-        <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1)*P6,E6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="true">IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J6" s="9"/>
       <c r="L6" s="0" t="n">
-        <f aca="false">IF(I6="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <f aca="true">IF(K6 = 0, INDIRECT("M" &amp; ROW() - 1), K6)</f>
+        <f aca="false">IF(I6="-",P6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="true">IF(I6 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="true">IF(I6 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="true">IF(I7="", "", IF(I7="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L7))))))</f>
+        <v/>
+      </c>
       <c r="B7" s="24" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -916,36 +921,37 @@
         <v/>
       </c>
       <c r="F7" s="25" t="str">
-        <f aca="true">IF(G7="", IF(I7="","",(INDIRECT("M" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("M" &amp; ROW() - 1) - M7))</f>
+        <f aca="false">IF(I7 = "-", P7 * (O7 - N6), "")</f>
         <v/>
       </c>
       <c r="G7" s="26" t="str">
-        <f aca="true">IF(I7 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I7 = "-", P7 * 6500,"")</f>
         <v/>
       </c>
       <c r="H7" s="26" t="str">
         <f aca="true">IF(I7 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J7" s="9" t="n">
-        <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1)*P7,E7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="true">IF(I7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J7)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J7" s="9"/>
       <c r="L7" s="0" t="n">
-        <f aca="false">IF(I7="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <f aca="true">IF(K7 = 0, INDIRECT("M" &amp; ROW() - 1), K7)</f>
+        <f aca="false">IF(I7="-",P7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="true">IF(I7 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="true">IF(I7 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="true">IF(I8="", "", IF(I8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L8))))))</f>
+        <v/>
+      </c>
       <c r="B8" s="24" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -955,36 +961,37 @@
         <v/>
       </c>
       <c r="F8" s="25" t="str">
-        <f aca="true">IF(G8="", IF(I8="","",(INDIRECT("M" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("M" &amp; ROW() - 1) - M8))</f>
+        <f aca="false">IF(I8 = "-", P8 * (O8 - N7), "")</f>
         <v/>
       </c>
       <c r="G8" s="26" t="str">
-        <f aca="true">IF(I8 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I8 = "-", P8 * 6500,"")</f>
         <v/>
       </c>
       <c r="H8" s="26" t="str">
         <f aca="true">IF(I8 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J8" s="9" t="n">
-        <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1)*P8,E8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="true">IF(I8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J8)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J8" s="9"/>
       <c r="L8" s="0" t="n">
-        <f aca="false">IF(I8="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <f aca="true">IF(K8 = 0, INDIRECT("M" &amp; ROW() - 1), K8)</f>
+        <f aca="false">IF(I8="-",P8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="true">IF(I8 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="true">IF(I8 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="str">
+        <f aca="true">IF(I9="", "", IF(I9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L9))))))</f>
+        <v/>
+      </c>
       <c r="B9" s="24" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -994,36 +1001,36 @@
         <v/>
       </c>
       <c r="F9" s="25" t="str">
-        <f aca="true">IF(G9="", IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("M" &amp; ROW() - 1) - M9))</f>
+        <f aca="false">IF(I9 = "-", P9 * (O9 - N8), "")</f>
         <v/>
       </c>
       <c r="G9" s="26" t="str">
-        <f aca="true">IF(I9 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I9 = "-", P9 * 6500,"")</f>
         <v/>
       </c>
       <c r="H9" s="26" t="str">
         <f aca="true">IF(I9 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J9" s="0" t="n">
-        <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1)*P9,E9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="true">IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">IF(I9="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <f aca="true">IF(K9 = 0, INDIRECT("M" &amp; ROW() - 1), K9)</f>
+        <f aca="false">IF(I9="-",P9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="true">IF(I9 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="true">IF(I9 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="str">
+        <f aca="true">IF(I10="", "", IF(I10="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L10))))))</f>
+        <v/>
+      </c>
       <c r="B10" s="24" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1033,36 +1040,36 @@
         <v/>
       </c>
       <c r="F10" s="25" t="str">
-        <f aca="true">IF(G10="", IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("M" &amp; ROW() - 1) - M10))</f>
+        <f aca="false">IF(I10 = "-", P10 * (O10 - N9), "")</f>
         <v/>
       </c>
       <c r="G10" s="26" t="str">
-        <f aca="true">IF(I10 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I10 = "-", P10 * 6500,"")</f>
         <v/>
       </c>
       <c r="H10" s="26" t="str">
         <f aca="true">IF(I10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J10" s="0" t="n">
-        <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1)*P10,E10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="true">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L10" s="0" t="n">
-        <f aca="false">IF(I10="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <f aca="true">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
+        <f aca="false">IF(I10="-",P10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="true">IF(I10 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="true">IF(I10 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="str">
+        <f aca="true">IF(I11="", "", IF(I11="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L11))))))</f>
+        <v/>
+      </c>
       <c r="B11" s="24" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1072,36 +1079,36 @@
         <v/>
       </c>
       <c r="F11" s="25" t="str">
-        <f aca="true">IF(G11="", IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("M" &amp; ROW() - 1) - M11))</f>
+        <f aca="false">IF(I11 = "-", P11 * (O11 - N10), "")</f>
         <v/>
       </c>
       <c r="G11" s="26" t="str">
-        <f aca="true">IF(I11 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I11 = "-", P11 * 6500,"")</f>
         <v/>
       </c>
       <c r="H11" s="26" t="str">
         <f aca="true">IF(I11 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1)*P11,E11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="true">IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L11" s="0" t="n">
-        <f aca="false">IF(I11="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <f aca="true">IF(K11 = 0, INDIRECT("M" &amp; ROW() - 1), K11)</f>
+        <f aca="false">IF(I11="-",P11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="true">IF(I11 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="true">IF(I11 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="str">
+        <f aca="true">IF(I12="", "", IF(I12="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L12))))))</f>
+        <v/>
+      </c>
       <c r="B12" s="24" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1111,36 +1118,36 @@
         <v/>
       </c>
       <c r="F12" s="25" t="str">
-        <f aca="true">IF(G12="", IF(I12="","",(INDIRECT("M" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("M" &amp; ROW() - 1) - M12))</f>
+        <f aca="false">IF(I12 = "-", P12 * (O12 - N11), "")</f>
         <v/>
       </c>
       <c r="G12" s="26" t="str">
-        <f aca="true">IF(I12 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I12 = "-", P12 * 6500,"")</f>
         <v/>
       </c>
       <c r="H12" s="26" t="str">
         <f aca="true">IF(I12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J12" s="0" t="n">
-        <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1)*P12,E12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="true">IF(I12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J12)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L12" s="0" t="n">
-        <f aca="false">IF(I12="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <f aca="true">IF(K12 = 0, INDIRECT("M" &amp; ROW() - 1), K12)</f>
+        <f aca="false">IF(I12="-",P12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="true">IF(I12 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="true">IF(I12 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="str">
+        <f aca="true">IF(I13="", "", IF(I13="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L13))))))</f>
+        <v/>
+      </c>
       <c r="B13" s="24" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1150,36 +1157,36 @@
         <v/>
       </c>
       <c r="F13" s="25" t="str">
-        <f aca="true">IF(G13="", IF(I13="","",(INDIRECT("M" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("M" &amp; ROW() - 1) - M13))</f>
+        <f aca="false">IF(I13 = "-", P13 * (O13 - N12), "")</f>
         <v/>
       </c>
       <c r="G13" s="26" t="str">
-        <f aca="true">IF(I13 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I13 = "-", P13 * 6500,"")</f>
         <v/>
       </c>
       <c r="H13" s="26" t="str">
         <f aca="true">IF(I13 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J13" s="0" t="n">
-        <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1)*P13,E13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="true">IF(I13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J13)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L13" s="0" t="n">
-        <f aca="false">IF(I13="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <f aca="true">IF(K13 = 0, INDIRECT("M" &amp; ROW() - 1), K13)</f>
+        <f aca="false">IF(I13="-",P13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="true">IF(I13 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="true">IF(I13 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="str">
+        <f aca="true">IF(I14="", "", IF(I14="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L14))))))</f>
+        <v/>
+      </c>
       <c r="B14" s="24" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1189,36 +1196,36 @@
         <v/>
       </c>
       <c r="F14" s="25" t="str">
-        <f aca="true">IF(G14="", IF(I14="","",(INDIRECT("M" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("M" &amp; ROW() - 1) - M14))</f>
+        <f aca="false">IF(I14 = "-", P14 * (O14 - N13), "")</f>
         <v/>
       </c>
       <c r="G14" s="26" t="str">
-        <f aca="true">IF(I14 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I14 = "-", P14 * 6500,"")</f>
         <v/>
       </c>
       <c r="H14" s="26" t="str">
         <f aca="true">IF(I14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J14" s="0" t="n">
-        <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1)*P14,E14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="true">IF(I14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J14)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">IF(I14="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <f aca="true">IF(K14 = 0, INDIRECT("M" &amp; ROW() - 1), K14)</f>
+        <f aca="false">IF(I14="-",P14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="true">IF(I14 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="true">IF(I14 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="str">
+        <f aca="true">IF(I15="", "", IF(I15="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L15))))))</f>
+        <v/>
+      </c>
       <c r="B15" s="24" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1228,36 +1235,36 @@
         <v/>
       </c>
       <c r="F15" s="25" t="str">
-        <f aca="true">IF(G15="", IF(I15="","",(INDIRECT("M" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("M" &amp; ROW() - 1) - M15))</f>
+        <f aca="false">IF(I15 = "-", P15 * (O15 - N14), "")</f>
         <v/>
       </c>
       <c r="G15" s="26" t="str">
-        <f aca="true">IF(I15 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I15 = "-", P15 * 6500,"")</f>
         <v/>
       </c>
       <c r="H15" s="26" t="str">
         <f aca="true">IF(I15 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J15" s="0" t="n">
-        <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1)*P15,E15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="true">IF(I15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J15)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L15" s="0" t="n">
-        <f aca="false">IF(I15="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <f aca="true">IF(K15 = 0, INDIRECT("M" &amp; ROW() - 1), K15)</f>
+        <f aca="false">IF(I15="-",P15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="true">IF(I15 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="true">IF(I15 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="str">
+        <f aca="true">IF(I16="", "", IF(I16="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L16))))))</f>
+        <v/>
+      </c>
       <c r="B16" s="24" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1267,36 +1274,36 @@
         <v/>
       </c>
       <c r="F16" s="25" t="str">
-        <f aca="true">IF(G16="", IF(I16="","",(INDIRECT("M" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("M" &amp; ROW() - 1) - M16))</f>
+        <f aca="false">IF(I16 = "-", P16 * (O16 - N15), "")</f>
         <v/>
       </c>
       <c r="G16" s="26" t="str">
-        <f aca="true">IF(I16 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I16 = "-", P16 * 6500,"")</f>
         <v/>
       </c>
       <c r="H16" s="26" t="str">
         <f aca="true">IF(I16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J16" s="0" t="n">
-        <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1)*P16,E16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="true">IF(I16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J16)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L16" s="0" t="n">
-        <f aca="false">IF(I16="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <f aca="true">IF(K16 = 0, INDIRECT("M" &amp; ROW() - 1), K16)</f>
+        <f aca="false">IF(I16="-",P16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="true">IF(I16 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="true">IF(I16 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="str">
+        <f aca="true">IF(I17="", "", IF(I17="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L17))))))</f>
+        <v/>
+      </c>
       <c r="B17" s="24" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1306,36 +1313,36 @@
         <v/>
       </c>
       <c r="F17" s="25" t="str">
-        <f aca="true">IF(G17="", IF(I17="","",(INDIRECT("M" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("M" &amp; ROW() - 1) - M17))</f>
+        <f aca="false">IF(I17 = "-", P17 * (O17 - N16), "")</f>
         <v/>
       </c>
       <c r="G17" s="26" t="str">
-        <f aca="true">IF(I17 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I17 = "-", P17 * 6500,"")</f>
         <v/>
       </c>
       <c r="H17" s="26" t="str">
         <f aca="true">IF(I17 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J17" s="0" t="n">
-        <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1)*P17,E17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="true">IF(I17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J17)))), 0)</f>
-        <v>0</v>
-      </c>
       <c r="L17" s="0" t="n">
-        <f aca="false">IF(I17="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <f aca="true">IF(K17 = 0, INDIRECT("M" &amp; ROW() - 1), K17)</f>
+        <f aca="false">IF(I17="-",P17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="true">IF(I17 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="true">IF(I17 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="str">
+        <f aca="true">IF(I18="", "", IF(I18="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L18))))))</f>
+        <v/>
+      </c>
       <c r="B18" s="24" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1345,36 +1352,37 @@
         <v/>
       </c>
       <c r="F18" s="25" t="str">
-        <f aca="true">IF(G18="", IF(I18="","",(INDIRECT("M" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("M" &amp; ROW() - 1) - M18))</f>
+        <f aca="false">IF(I18 = "-", P18 * (O18 - N17), "")</f>
         <v/>
       </c>
       <c r="G18" s="26" t="str">
-        <f aca="true">IF(I18 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I18 = "-", P18 * 6500,"")</f>
         <v/>
       </c>
       <c r="H18" s="26" t="str">
         <f aca="true">IF(I18 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J18" s="9" t="n">
-        <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1)*P18,E18)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="true">IF(I18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J18)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="9"/>
       <c r="L18" s="0" t="n">
-        <f aca="false">IF(I18="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <f aca="true">IF(K18 = 0, INDIRECT("M" &amp; ROW() - 1), K18)</f>
+        <f aca="false">IF(I18="-",P18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="true">IF(I18 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E18)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="true">IF(I18 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="str">
+        <f aca="true">IF(I19="", "", IF(I19="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L19))))))</f>
+        <v/>
+      </c>
       <c r="B19" s="24" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1384,36 +1392,37 @@
         <v/>
       </c>
       <c r="F19" s="25" t="str">
-        <f aca="true">IF(G19="", IF(I19="","",(INDIRECT("M" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("M" &amp; ROW() - 1) - M19))</f>
+        <f aca="false">IF(I19 = "-", P19 * (O19 - N18), "")</f>
         <v/>
       </c>
       <c r="G19" s="26" t="str">
-        <f aca="true">IF(I19 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I19 = "-", P19 * 6500,"")</f>
         <v/>
       </c>
       <c r="H19" s="26" t="str">
         <f aca="true">IF(I19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J19" s="9" t="n">
-        <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1)*P19,E19)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="true">IF(I19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J19)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="9"/>
       <c r="L19" s="0" t="n">
-        <f aca="false">IF(I19="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <f aca="true">IF(K19 = 0, INDIRECT("M" &amp; ROW() - 1), K19)</f>
+        <f aca="false">IF(I19="-",P19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="true">IF(I19 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="true">IF(I19 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="str">
+        <f aca="true">IF(I20="", "", IF(I20="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L20))))))</f>
+        <v/>
+      </c>
       <c r="B20" s="24" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1423,36 +1432,37 @@
         <v/>
       </c>
       <c r="F20" s="25" t="str">
-        <f aca="true">IF(G20="", IF(I20="","",(INDIRECT("M" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("M" &amp; ROW() - 1) - M20))</f>
+        <f aca="false">IF(I20 = "-", P20 * (O20 - N19), "")</f>
         <v/>
       </c>
       <c r="G20" s="26" t="str">
-        <f aca="true">IF(I20 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I20 = "-", P20 * 6500,"")</f>
         <v/>
       </c>
       <c r="H20" s="26" t="str">
         <f aca="true">IF(I20 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J20" s="9" t="n">
-        <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1)*P20,E20)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="true">IF(I20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J20)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="L20" s="0" t="n">
-        <f aca="false">IF(I20="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <f aca="true">IF(K20 = 0, INDIRECT("M" &amp; ROW() - 1), K20)</f>
+        <f aca="false">IF(I20="-",P20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="true">IF(I20 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E20)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="true">IF(I20 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="str">
+        <f aca="true">IF(I21="", "", IF(I21="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L21))))))</f>
+        <v/>
+      </c>
       <c r="B21" s="24" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1462,36 +1472,37 @@
         <v/>
       </c>
       <c r="F21" s="25" t="str">
-        <f aca="true">IF(G21="", IF(I21="","",(INDIRECT("M" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("M" &amp; ROW() - 1) - M21))</f>
+        <f aca="false">IF(I21 = "-", P21 * (O21 - N20), "")</f>
         <v/>
       </c>
       <c r="G21" s="26" t="str">
-        <f aca="true">IF(I21 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I21 = "-", P21 * 6500,"")</f>
         <v/>
       </c>
       <c r="H21" s="26" t="str">
         <f aca="true">IF(I21 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J21" s="9" t="n">
-        <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1)*P21,E21)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="true">IF(I21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J21)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="9"/>
       <c r="L21" s="0" t="n">
-        <f aca="false">IF(I21="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <f aca="true">IF(K21 = 0, INDIRECT("M" &amp; ROW() - 1), K21)</f>
+        <f aca="false">IF(I21="-",P21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="true">IF(I21 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="true">IF(I21 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="str">
+        <f aca="true">IF(I22="", "", IF(I22="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L22))))))</f>
+        <v/>
+      </c>
       <c r="B22" s="24" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1501,36 +1512,37 @@
         <v/>
       </c>
       <c r="F22" s="25" t="str">
-        <f aca="true">IF(G22="", IF(I22="","",(INDIRECT("M" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("M" &amp; ROW() - 1) - M22))</f>
+        <f aca="false">IF(I22 = "-", P22 * (O22 - N21), "")</f>
         <v/>
       </c>
       <c r="G22" s="26" t="str">
-        <f aca="true">IF(I22 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I22 = "-", P22 * 6500,"")</f>
         <v/>
       </c>
       <c r="H22" s="26" t="str">
         <f aca="true">IF(I22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J22" s="9" t="n">
-        <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1)*P22,E22)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <f aca="true">IF(I22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J22)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="9"/>
       <c r="L22" s="0" t="n">
-        <f aca="false">IF(I22="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <f aca="true">IF(K22 = 0, INDIRECT("M" &amp; ROW() - 1), K22)</f>
+        <f aca="false">IF(I22="-",P22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="true">IF(I22 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E22)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="true">IF(I22 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="str">
+        <f aca="true">IF(I23="", "", IF(I23="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L23))))))</f>
+        <v/>
+      </c>
       <c r="B23" s="24" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1540,36 +1552,37 @@
         <v/>
       </c>
       <c r="F23" s="25" t="str">
-        <f aca="true">IF(G23="", IF(I23="","",(INDIRECT("M" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("M" &amp; ROW() - 1) - M23))</f>
+        <f aca="false">IF(I23 = "-", P23 * (O23 - N22), "")</f>
         <v/>
       </c>
       <c r="G23" s="26" t="str">
-        <f aca="true">IF(I23 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I23 = "-", P23 * 6500,"")</f>
         <v/>
       </c>
       <c r="H23" s="26" t="str">
         <f aca="true">IF(I23 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J23" s="9" t="n">
-        <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1)*P23,E23)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <f aca="true">IF(I23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J23)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="9"/>
       <c r="L23" s="0" t="n">
-        <f aca="false">IF(I23="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <f aca="true">IF(K23 = 0, INDIRECT("M" &amp; ROW() - 1), K23)</f>
+        <f aca="false">IF(I23="-",P23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="true">IF(I23 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E23)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="true">IF(I23 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="str">
+        <f aca="true">IF(I24="", "", IF(I24="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L24))))))</f>
+        <v/>
+      </c>
       <c r="B24" s="24" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1579,36 +1592,37 @@
         <v/>
       </c>
       <c r="F24" s="25" t="str">
-        <f aca="true">IF(G24="", IF(I24="","",(INDIRECT("M" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("M" &amp; ROW() - 1) - M24))</f>
+        <f aca="false">IF(I24 = "-", P24 * (O24 - N23), "")</f>
         <v/>
       </c>
       <c r="G24" s="26" t="str">
-        <f aca="true">IF(I24 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I24 = "-", P24 * 6500,"")</f>
         <v/>
       </c>
       <c r="H24" s="26" t="str">
         <f aca="true">IF(I24 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J24" s="9" t="n">
-        <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1)*P24,E24)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="true">IF(I24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J24)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="9"/>
       <c r="L24" s="0" t="n">
-        <f aca="false">IF(I24="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <f aca="true">IF(K24 = 0, INDIRECT("M" &amp; ROW() - 1), K24)</f>
+        <f aca="false">IF(I24="-",P24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="true">IF(I24 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="true">IF(I24 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="str">
+        <f aca="true">IF(I25="", "", IF(I25="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L25))))))</f>
+        <v/>
+      </c>
       <c r="B25" s="24" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1618,36 +1632,37 @@
         <v/>
       </c>
       <c r="F25" s="25" t="str">
-        <f aca="true">IF(G25="", IF(I25="","",(INDIRECT("M" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("M" &amp; ROW() - 1) - M25))</f>
+        <f aca="false">IF(I25 = "-", P25 * (O25 - N24), "")</f>
         <v/>
       </c>
       <c r="G25" s="26" t="str">
-        <f aca="true">IF(I25 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I25 = "-", P25 * 6500,"")</f>
         <v/>
       </c>
       <c r="H25" s="26" t="str">
         <f aca="true">IF(I25 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J25" s="9" t="n">
-        <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1)*P25,E25)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <f aca="true">IF(I25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J25)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="9"/>
       <c r="L25" s="0" t="n">
-        <f aca="false">IF(I25="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <f aca="true">IF(K25 = 0, INDIRECT("M" &amp; ROW() - 1), K25)</f>
+        <f aca="false">IF(I25="-",P25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="true">IF(I25 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E25)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="true">IF(I25 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="str">
+        <f aca="true">IF(I26="", "", IF(I26="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L26))))))</f>
+        <v/>
+      </c>
       <c r="B26" s="24" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1657,36 +1672,37 @@
         <v/>
       </c>
       <c r="F26" s="25" t="str">
-        <f aca="true">IF(G26="", IF(I26="","",(INDIRECT("M" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("M" &amp; ROW() - 1) - M26))</f>
+        <f aca="false">IF(I26 = "-", P26 * (O26 - N25), "")</f>
         <v/>
       </c>
       <c r="G26" s="26" t="str">
-        <f aca="true">IF(I26 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I26 = "-", P26 * 6500,"")</f>
         <v/>
       </c>
       <c r="H26" s="26" t="str">
         <f aca="true">IF(I26 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J26" s="9" t="n">
-        <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1)*P26,E26)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <f aca="true">IF(I26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J26)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="9"/>
       <c r="L26" s="0" t="n">
-        <f aca="false">IF(I26="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <f aca="true">IF(K26 = 0, INDIRECT("M" &amp; ROW() - 1), K26)</f>
+        <f aca="false">IF(I26="-",P26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="true">IF(I26 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="true">IF(I26 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="str">
+        <f aca="true">IF(I27="", "", IF(I27="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L27))))))</f>
+        <v/>
+      </c>
       <c r="B27" s="24" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1696,36 +1712,37 @@
         <v/>
       </c>
       <c r="F27" s="25" t="str">
-        <f aca="true">IF(G27="", IF(I27="","",(INDIRECT("M" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("M" &amp; ROW() - 1) - M27))</f>
+        <f aca="false">IF(I27 = "-", P27 * (O27 - N26), "")</f>
         <v/>
       </c>
       <c r="G27" s="26" t="str">
-        <f aca="true">IF(I27 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I27 = "-", P27 * 6500,"")</f>
         <v/>
       </c>
       <c r="H27" s="26" t="str">
         <f aca="true">IF(I27 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J27" s="9" t="n">
-        <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1)*P27,E27)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="true">IF(I27 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J27)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="9"/>
       <c r="L27" s="0" t="n">
-        <f aca="false">IF(I27="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <f aca="true">IF(K27 = 0, INDIRECT("M" &amp; ROW() - 1), K27)</f>
+        <f aca="false">IF(I27="-",P27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="true">IF(I27 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="true">IF(I27 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="str">
+        <f aca="true">IF(I28="", "", IF(I28="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L28))))))</f>
+        <v/>
+      </c>
       <c r="B28" s="24" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1735,36 +1752,37 @@
         <v/>
       </c>
       <c r="F28" s="25" t="str">
-        <f aca="true">IF(G28="", IF(I28="","",(INDIRECT("M" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("M" &amp; ROW() - 1) - M28))</f>
+        <f aca="false">IF(I28 = "-", P28 * (O28 - N27), "")</f>
         <v/>
       </c>
       <c r="G28" s="26" t="str">
-        <f aca="true">IF(I28 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I28 = "-", P28 * 6500,"")</f>
         <v/>
       </c>
       <c r="H28" s="26" t="str">
         <f aca="true">IF(I28 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J28" s="9" t="n">
-        <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1)*P28,E28)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <f aca="true">IF(I28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J28)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="9"/>
       <c r="L28" s="0" t="n">
-        <f aca="false">IF(I28="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <f aca="true">IF(K28 = 0, INDIRECT("M" &amp; ROW() - 1), K28)</f>
+        <f aca="false">IF(I28="-",P28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="true">IF(I28 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="true">IF(I28 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="str">
+        <f aca="true">IF(I29="", "", IF(I29="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L29))))))</f>
+        <v/>
+      </c>
       <c r="B29" s="24" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1774,36 +1792,37 @@
         <v/>
       </c>
       <c r="F29" s="25" t="str">
-        <f aca="true">IF(G29="", IF(I29="","",(INDIRECT("M" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("M" &amp; ROW() - 1) - M29))</f>
+        <f aca="false">IF(I29 = "-", P29 * (O29 - N28), "")</f>
         <v/>
       </c>
       <c r="G29" s="26" t="str">
-        <f aca="true">IF(I29 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I29 = "-", P29 * 6500,"")</f>
         <v/>
       </c>
       <c r="H29" s="26" t="str">
         <f aca="true">IF(I29 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J29" s="9" t="n">
-        <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1)*P29,E29)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <f aca="true">IF(I29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J29)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="L29" s="0" t="n">
-        <f aca="false">IF(I29="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <f aca="true">IF(K29 = 0, INDIRECT("M" &amp; ROW() - 1), K29)</f>
+        <f aca="false">IF(I29="-",P29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="true">IF(I29 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E29)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="true">IF(I29 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="str">
+        <f aca="true">IF(I30="", "", IF(I30="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L30))))))</f>
+        <v/>
+      </c>
       <c r="B30" s="24" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1813,36 +1832,37 @@
         <v/>
       </c>
       <c r="F30" s="25" t="str">
-        <f aca="true">IF(G30="", IF(I30="","",(INDIRECT("M" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("M" &amp; ROW() - 1) - M30))</f>
+        <f aca="false">IF(I30 = "-", P30 * (O30 - N29), "")</f>
         <v/>
       </c>
       <c r="G30" s="26" t="str">
-        <f aca="true">IF(I30 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I30 = "-", P30 * 6500,"")</f>
         <v/>
       </c>
       <c r="H30" s="26" t="str">
         <f aca="true">IF(I30 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J30" s="9" t="n">
-        <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1)*P30,E30)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <f aca="true">IF(I30 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J30)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="9"/>
       <c r="L30" s="0" t="n">
-        <f aca="false">IF(I30="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <f aca="true">IF(K30 = 0, INDIRECT("M" &amp; ROW() - 1), K30)</f>
+        <f aca="false">IF(I30="-",P30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="true">IF(I30 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E30)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="true">IF(I30 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="str">
+        <f aca="true">IF(I31="", "", IF(I31="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L31))))))</f>
+        <v/>
+      </c>
       <c r="B31" s="24" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1852,36 +1872,37 @@
         <v/>
       </c>
       <c r="F31" s="25" t="str">
-        <f aca="true">IF(G31="", IF(I31="","",(INDIRECT("M" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("M" &amp; ROW() - 1) - M31))</f>
+        <f aca="false">IF(I31 = "-", P31 * (O31 - N30), "")</f>
         <v/>
       </c>
       <c r="G31" s="26" t="str">
-        <f aca="true">IF(I31 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I31 = "-", P31 * 6500,"")</f>
         <v/>
       </c>
       <c r="H31" s="26" t="str">
         <f aca="true">IF(I31 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J31" s="9" t="n">
-        <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1)*P31,E31)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <f aca="true">IF(I31 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J31)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="9"/>
       <c r="L31" s="0" t="n">
-        <f aca="false">IF(I31="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <f aca="true">IF(K31 = 0, INDIRECT("M" &amp; ROW() - 1), K31)</f>
+        <f aca="false">IF(I31="-",P31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="true">IF(I31 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E31)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="true">IF(I31 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="str">
+        <f aca="true">IF(I32="", "", IF(I32="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L32))))))</f>
+        <v/>
+      </c>
       <c r="B32" s="24" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1891,36 +1912,37 @@
         <v/>
       </c>
       <c r="F32" s="25" t="str">
-        <f aca="true">IF(G32="", IF(I32="","",(INDIRECT("M" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("M" &amp; ROW() - 1) - M32))</f>
+        <f aca="false">IF(I32 = "-", P32 * (O32 - N31), "")</f>
         <v/>
       </c>
       <c r="G32" s="26" t="str">
-        <f aca="true">IF(I32 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I32 = "-", P32 * 6500,"")</f>
         <v/>
       </c>
       <c r="H32" s="26" t="str">
         <f aca="true">IF(I32 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J32" s="9" t="n">
-        <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1)*P32,E32)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <f aca="true">IF(I32 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J32)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J32" s="9"/>
       <c r="L32" s="0" t="n">
-        <f aca="false">IF(I32="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <f aca="true">IF(K32 = 0, INDIRECT("M" &amp; ROW() - 1), K32)</f>
+        <f aca="false">IF(I32="-",P32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="true">IF(I32 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E32)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="true">IF(I32 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="str">
+        <f aca="true">IF(I33="", "", IF(I33="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L33))))))</f>
+        <v/>
+      </c>
       <c r="B33" s="24" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1930,36 +1952,37 @@
         <v/>
       </c>
       <c r="F33" s="25" t="str">
-        <f aca="true">IF(G33="", IF(I33="","",(INDIRECT("M" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("M" &amp; ROW() - 1) - M33))</f>
+        <f aca="false">IF(I33 = "-", P33 * (O33 - N32), "")</f>
         <v/>
       </c>
       <c r="G33" s="26" t="str">
-        <f aca="true">IF(I33 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I33 = "-", P33 * 6500,"")</f>
         <v/>
       </c>
       <c r="H33" s="26" t="str">
         <f aca="true">IF(I33 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J33" s="9" t="n">
-        <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1)*P33,E33)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <f aca="true">IF(I33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J33)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J33" s="9"/>
       <c r="L33" s="0" t="n">
-        <f aca="false">IF(I33="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <f aca="true">IF(K33 = 0, INDIRECT("M" &amp; ROW() - 1), K33)</f>
+        <f aca="false">IF(I33="-",P33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="true">IF(I33 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E33)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="true">IF(I33 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="str">
+        <f aca="true">IF(I34="", "", IF(I34="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L34))))))</f>
+        <v/>
+      </c>
       <c r="B34" s="24" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -1969,36 +1992,37 @@
         <v/>
       </c>
       <c r="F34" s="25" t="str">
-        <f aca="true">IF(G34="", IF(I34="","",(INDIRECT("M" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("M" &amp; ROW() - 1) - M34))</f>
+        <f aca="false">IF(I34 = "-", P34 * (O34 - N33), "")</f>
         <v/>
       </c>
       <c r="G34" s="26" t="str">
-        <f aca="true">IF(I34 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I34 = "-", P34 * 6500,"")</f>
         <v/>
       </c>
       <c r="H34" s="26" t="str">
         <f aca="true">IF(I34 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J34" s="9" t="n">
-        <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1)*P34,E34)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="true">IF(I34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J34)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J34" s="9"/>
       <c r="L34" s="0" t="n">
-        <f aca="false">IF(I34="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <f aca="true">IF(K34 = 0, INDIRECT("M" &amp; ROW() - 1), K34)</f>
+        <f aca="false">IF(I34="-",P34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="true">IF(I34 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E34)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="true">IF(I34 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="str">
+        <f aca="true">IF(I35="", "", IF(I35="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L35))))))</f>
+        <v/>
+      </c>
       <c r="B35" s="24" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2008,36 +2032,37 @@
         <v/>
       </c>
       <c r="F35" s="25" t="str">
-        <f aca="true">IF(G35="", IF(I35="","",(INDIRECT("M" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("M" &amp; ROW() - 1) - M35))</f>
+        <f aca="false">IF(I35 = "-", P35 * (O35 - N34), "")</f>
         <v/>
       </c>
       <c r="G35" s="26" t="str">
-        <f aca="true">IF(I35 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I35 = "-", P35 * 6500,"")</f>
         <v/>
       </c>
       <c r="H35" s="26" t="str">
         <f aca="true">IF(I35 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J35" s="9" t="n">
-        <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1)*P35,E35)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <f aca="true">IF(I35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J35)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J35" s="9"/>
       <c r="L35" s="0" t="n">
-        <f aca="false">IF(I35="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <f aca="true">IF(K35 = 0, INDIRECT("M" &amp; ROW() - 1), K35)</f>
+        <f aca="false">IF(I35="-",P35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="true">IF(I35 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E35)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="true">IF(I35 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="str">
+        <f aca="true">IF(I36="", "", IF(I36="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L36))))))</f>
+        <v/>
+      </c>
       <c r="B36" s="24" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2047,36 +2072,37 @@
         <v/>
       </c>
       <c r="F36" s="25" t="str">
-        <f aca="true">IF(G36="", IF(I36="","",(INDIRECT("M" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("M" &amp; ROW() - 1) - M36))</f>
+        <f aca="false">IF(I36 = "-", P36 * (O36 - N35), "")</f>
         <v/>
       </c>
       <c r="G36" s="26" t="str">
-        <f aca="true">IF(I36 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I36 = "-", P36 * 6500,"")</f>
         <v/>
       </c>
       <c r="H36" s="26" t="str">
         <f aca="true">IF(I36 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J36" s="9" t="n">
-        <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1)*P36,E36)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="true">IF(I36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J36)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J36" s="9"/>
       <c r="L36" s="0" t="n">
-        <f aca="false">IF(I36="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <f aca="true">IF(K36 = 0, INDIRECT("M" &amp; ROW() - 1), K36)</f>
+        <f aca="false">IF(I36="-",P36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="true">IF(I36 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E36)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="true">IF(I36 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="str">
+        <f aca="true">IF(I37="", "", IF(I37="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L37))))))</f>
+        <v/>
+      </c>
       <c r="B37" s="24" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2086,36 +2112,37 @@
         <v/>
       </c>
       <c r="F37" s="25" t="str">
-        <f aca="true">IF(G37="", IF(I37="","",(INDIRECT("M" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("M" &amp; ROW() - 1) - M37))</f>
+        <f aca="false">IF(I37 = "-", P37 * (O37 - N36), "")</f>
         <v/>
       </c>
       <c r="G37" s="26" t="str">
-        <f aca="true">IF(I37 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I37 = "-", P37 * 6500,"")</f>
         <v/>
       </c>
       <c r="H37" s="26" t="str">
         <f aca="true">IF(I37 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J37" s="9" t="n">
-        <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1)*P37,E37)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <f aca="true">IF(I37 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J37)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="9"/>
       <c r="L37" s="0" t="n">
-        <f aca="false">IF(I37="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <f aca="true">IF(K37 = 0, INDIRECT("M" &amp; ROW() - 1), K37)</f>
+        <f aca="false">IF(I37="-",P37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="true">IF(I37 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E37)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="true">IF(I37 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="str">
+        <f aca="true">IF(I38="", "", IF(I38="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L38))))))</f>
+        <v/>
+      </c>
       <c r="B38" s="24" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2125,36 +2152,37 @@
         <v/>
       </c>
       <c r="F38" s="25" t="str">
-        <f aca="true">IF(G38="", IF(I38="","",(INDIRECT("M" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("M" &amp; ROW() - 1) - M38))</f>
+        <f aca="false">IF(I38 = "-", P38 * (O38 - N37), "")</f>
         <v/>
       </c>
       <c r="G38" s="26" t="str">
-        <f aca="true">IF(I38 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I38 = "-", P38 * 6500,"")</f>
         <v/>
       </c>
       <c r="H38" s="26" t="str">
         <f aca="true">IF(I38 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J38" s="9" t="n">
-        <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1)*P38,E38)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <f aca="true">IF(I38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J38)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J38" s="9"/>
       <c r="L38" s="0" t="n">
-        <f aca="false">IF(I38="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <f aca="true">IF(K38 = 0, INDIRECT("M" &amp; ROW() - 1), K38)</f>
+        <f aca="false">IF(I38="-",P38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <f aca="true">IF(I38 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E38)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="true">IF(I38 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="str">
+        <f aca="true">IF(I39="", "", IF(I39="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L39))))))</f>
+        <v/>
+      </c>
       <c r="B39" s="24" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2164,36 +2192,37 @@
         <v/>
       </c>
       <c r="F39" s="25" t="str">
-        <f aca="true">IF(G39="", IF(I39="","",(INDIRECT("M" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("M" &amp; ROW() - 1) - M39))</f>
+        <f aca="false">IF(I39 = "-", P39 * (O39 - N38), "")</f>
         <v/>
       </c>
       <c r="G39" s="26" t="str">
-        <f aca="true">IF(I39 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I39 = "-", P39 * 6500,"")</f>
         <v/>
       </c>
       <c r="H39" s="26" t="str">
         <f aca="true">IF(I39 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J39" s="9" t="n">
-        <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1)*P39,E39)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <f aca="true">IF(I39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J39)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J39" s="9"/>
       <c r="L39" s="0" t="n">
-        <f aca="false">IF(I39="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <f aca="true">IF(K39 = 0, INDIRECT("M" &amp; ROW() - 1), K39)</f>
+        <f aca="false">IF(I39="-",P39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <f aca="true">IF(I39 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E39)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="true">IF(I39 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="str">
+        <f aca="true">IF(I40="", "", IF(I40="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L40))))))</f>
+        <v/>
+      </c>
       <c r="B40" s="24" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2203,36 +2232,37 @@
         <v/>
       </c>
       <c r="F40" s="25" t="str">
-        <f aca="true">IF(G40="", IF(I40="","",(INDIRECT("M" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("M" &amp; ROW() - 1) - M40))</f>
+        <f aca="false">IF(I40 = "-", P40 * (O40 - N39), "")</f>
         <v/>
       </c>
       <c r="G40" s="26" t="str">
-        <f aca="true">IF(I40 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I40 = "-", P40 * 6500,"")</f>
         <v/>
       </c>
       <c r="H40" s="26" t="str">
         <f aca="true">IF(I40 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J40" s="9" t="n">
-        <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1)*P40,E40)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <f aca="true">IF(I40 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J40)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J40" s="9"/>
       <c r="L40" s="0" t="n">
-        <f aca="false">IF(I40="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <f aca="true">IF(K40 = 0, INDIRECT("M" &amp; ROW() - 1), K40)</f>
+        <f aca="false">IF(I40="-",P40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="true">IF(I40 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E40)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="true">IF(I40 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="str">
+        <f aca="true">IF(I41="", "", IF(I41="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L41))))))</f>
+        <v/>
+      </c>
       <c r="B41" s="24" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2242,36 +2272,37 @@
         <v/>
       </c>
       <c r="F41" s="25" t="str">
-        <f aca="true">IF(G41="", IF(I41="","",(INDIRECT("M" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("M" &amp; ROW() - 1) - M41))</f>
+        <f aca="false">IF(I41 = "-", P41 * (O41 - N40), "")</f>
         <v/>
       </c>
       <c r="G41" s="26" t="str">
-        <f aca="true">IF(I41 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I41 = "-", P41 * 6500,"")</f>
         <v/>
       </c>
       <c r="H41" s="26" t="str">
         <f aca="true">IF(I41 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J41" s="9" t="n">
-        <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1)*P41,E41)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <f aca="true">IF(I41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J41)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J41" s="9"/>
       <c r="L41" s="0" t="n">
-        <f aca="false">IF(I41="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <f aca="true">IF(K41 = 0, INDIRECT("M" &amp; ROW() - 1), K41)</f>
+        <f aca="false">IF(I41="-",P41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <f aca="true">IF(I41 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E41)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="true">IF(I41 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="str">
+        <f aca="true">IF(I42="", "", IF(I42="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L42))))))</f>
+        <v/>
+      </c>
       <c r="B42" s="24" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2281,36 +2312,37 @@
         <v/>
       </c>
       <c r="F42" s="25" t="str">
-        <f aca="true">IF(G42="", IF(I42="","",(INDIRECT("M" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("M" &amp; ROW() - 1) - M42))</f>
+        <f aca="false">IF(I42 = "-", P42 * (O42 - N41), "")</f>
         <v/>
       </c>
       <c r="G42" s="26" t="str">
-        <f aca="true">IF(I42 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I42 = "-", P42 * 6500,"")</f>
         <v/>
       </c>
       <c r="H42" s="26" t="str">
         <f aca="true">IF(I42 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J42" s="9" t="n">
-        <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1)*P42,E42)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <f aca="true">IF(I42 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J42)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J42" s="9"/>
       <c r="L42" s="0" t="n">
-        <f aca="false">IF(I42="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <f aca="true">IF(K42 = 0, INDIRECT("M" &amp; ROW() - 1), K42)</f>
+        <f aca="false">IF(I42="-",P42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <f aca="true">IF(I42 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E42)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="true">IF(I42 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="str">
+        <f aca="true">IF(I43="", "", IF(I43="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L43))))))</f>
+        <v/>
+      </c>
       <c r="B43" s="24" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2320,36 +2352,37 @@
         <v/>
       </c>
       <c r="F43" s="25" t="str">
-        <f aca="true">IF(G43="", IF(I43="","",(INDIRECT("M" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("M" &amp; ROW() - 1) - M43))</f>
+        <f aca="false">IF(I43 = "-", P43 * (O43 - N42), "")</f>
         <v/>
       </c>
       <c r="G43" s="26" t="str">
-        <f aca="true">IF(I43 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I43 = "-", P43 * 6500,"")</f>
         <v/>
       </c>
       <c r="H43" s="26" t="str">
         <f aca="true">IF(I43 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J43" s="9" t="n">
-        <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1)*P43,E43)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <f aca="true">IF(I43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J43)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J43" s="9"/>
       <c r="L43" s="0" t="n">
-        <f aca="false">IF(I43="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <f aca="true">IF(K43 = 0, INDIRECT("M" &amp; ROW() - 1), K43)</f>
+        <f aca="false">IF(I43="-",P43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <f aca="true">IF(I43 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E43)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="true">IF(I43 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="str">
+        <f aca="true">IF(I44="", "", IF(I44="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L44))))))</f>
+        <v/>
+      </c>
       <c r="B44" s="24" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2359,36 +2392,37 @@
         <v/>
       </c>
       <c r="F44" s="25" t="str">
-        <f aca="true">IF(G44="", IF(I44="","",(INDIRECT("M" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("M" &amp; ROW() - 1) - M44))</f>
+        <f aca="false">IF(I44 = "-", P44 * (O44 - N43), "")</f>
         <v/>
       </c>
       <c r="G44" s="26" t="str">
-        <f aca="true">IF(I44 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I44 = "-", P44 * 6500,"")</f>
         <v/>
       </c>
       <c r="H44" s="26" t="str">
         <f aca="true">IF(I44 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J44" s="9" t="n">
-        <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1)*P44,E44)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <f aca="true">IF(I44 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J44)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J44" s="9"/>
       <c r="L44" s="0" t="n">
-        <f aca="false">IF(I44="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <f aca="true">IF(K44 = 0, INDIRECT("M" &amp; ROW() - 1), K44)</f>
+        <f aca="false">IF(I44="-",P44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="true">IF(I44 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E44)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="true">IF(I44 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P44" s="27"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="str">
+        <f aca="true">IF(I45="", "", IF(I45="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L45))))))</f>
+        <v/>
+      </c>
       <c r="B45" s="24" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2398,36 +2432,37 @@
         <v/>
       </c>
       <c r="F45" s="25" t="str">
-        <f aca="true">IF(G45="", IF(I45="","",(INDIRECT("M" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("M" &amp; ROW() - 1) - M45))</f>
+        <f aca="false">IF(I45 = "-", P45 * (O45 - N44), "")</f>
         <v/>
       </c>
       <c r="G45" s="26" t="str">
-        <f aca="true">IF(I45 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I45 = "-", P45 * 6500,"")</f>
         <v/>
       </c>
       <c r="H45" s="26" t="str">
         <f aca="true">IF(I45 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J45" s="9" t="n">
-        <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1)*P45,E45)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <f aca="true">IF(I45 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J45)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J45" s="9"/>
       <c r="L45" s="0" t="n">
-        <f aca="false">IF(I45="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <f aca="true">IF(K45 = 0, INDIRECT("M" &amp; ROW() - 1), K45)</f>
+        <f aca="false">IF(I45="-",P45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <f aca="true">IF(I45 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E45)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="true">IF(I45 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="str">
+        <f aca="true">IF(I46="", "", IF(I46="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L46))))))</f>
+        <v/>
+      </c>
       <c r="B46" s="24" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2437,36 +2472,37 @@
         <v/>
       </c>
       <c r="F46" s="25" t="str">
-        <f aca="true">IF(G46="", IF(I46="","",(INDIRECT("M" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("M" &amp; ROW() - 1) - M46))</f>
+        <f aca="false">IF(I46 = "-", P46 * (O46 - N45), "")</f>
         <v/>
       </c>
       <c r="G46" s="26" t="str">
-        <f aca="true">IF(I46 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I46 = "-", P46 * 6500,"")</f>
         <v/>
       </c>
       <c r="H46" s="26" t="str">
         <f aca="true">IF(I46 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J46" s="9" t="n">
-        <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1)*P46,E46)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <f aca="true">IF(I46 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J46)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J46" s="9"/>
       <c r="L46" s="0" t="n">
-        <f aca="false">IF(I46="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <f aca="true">IF(K46 = 0, INDIRECT("M" &amp; ROW() - 1), K46)</f>
+        <f aca="false">IF(I46="-",P46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <f aca="true">IF(I46 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E46)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="true">IF(I46 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="str">
+        <f aca="true">IF(I47="", "", IF(I47="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L47))))))</f>
+        <v/>
+      </c>
       <c r="B47" s="24" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2476,36 +2512,37 @@
         <v/>
       </c>
       <c r="F47" s="25" t="str">
-        <f aca="true">IF(G47="", IF(I47="","",(INDIRECT("M" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("M" &amp; ROW() - 1) - M47))</f>
+        <f aca="false">IF(I47 = "-", P47 * (O47 - N46), "")</f>
         <v/>
       </c>
       <c r="G47" s="26" t="str">
-        <f aca="true">IF(I47 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I47 = "-", P47 * 6500,"")</f>
         <v/>
       </c>
       <c r="H47" s="26" t="str">
         <f aca="true">IF(I47 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J47" s="9" t="n">
-        <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1)*P47,E47)</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <f aca="true">IF(I47 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J47)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J47" s="9"/>
       <c r="L47" s="0" t="n">
-        <f aca="false">IF(I47="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <f aca="true">IF(K47 = 0, INDIRECT("M" &amp; ROW() - 1), K47)</f>
+        <f aca="false">IF(I47="-",P47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <f aca="true">IF(I47 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E47)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="true">IF(I47 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="str">
+        <f aca="true">IF(I48="", "", IF(I48="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L48))))))</f>
+        <v/>
+      </c>
       <c r="B48" s="24" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2515,36 +2552,37 @@
         <v/>
       </c>
       <c r="F48" s="25" t="str">
-        <f aca="true">IF(G48="", IF(I48="","",(INDIRECT("M" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("M" &amp; ROW() - 1) - M48))</f>
+        <f aca="false">IF(I48 = "-", P48 * (O48 - N47), "")</f>
         <v/>
       </c>
       <c r="G48" s="26" t="str">
-        <f aca="true">IF(I48 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I48 = "-", P48 * 6500,"")</f>
         <v/>
       </c>
       <c r="H48" s="26" t="str">
         <f aca="true">IF(I48 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J48" s="9" t="n">
-        <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1)*P48,E48)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <f aca="true">IF(I48 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J48)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J48" s="9"/>
       <c r="L48" s="0" t="n">
-        <f aca="false">IF(I48="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <f aca="true">IF(K48 = 0, INDIRECT("M" &amp; ROW() - 1), K48)</f>
+        <f aca="false">IF(I48="-",P48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <f aca="true">IF(I48 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E48)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="true">IF(I48 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="str">
+        <f aca="true">IF(I49="", "", IF(I49="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L49))))))</f>
+        <v/>
+      </c>
       <c r="B49" s="24" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2554,36 +2592,37 @@
         <v/>
       </c>
       <c r="F49" s="25" t="str">
-        <f aca="true">IF(G49="", IF(I49="","",(INDIRECT("M" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("M" &amp; ROW() - 1) - M49))</f>
+        <f aca="false">IF(I49 = "-", P49 * (O49 - N48), "")</f>
         <v/>
       </c>
       <c r="G49" s="26" t="str">
-        <f aca="true">IF(I49 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I49 = "-", P49 * 6500,"")</f>
         <v/>
       </c>
       <c r="H49" s="26" t="str">
         <f aca="true">IF(I49 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J49" s="9" t="n">
-        <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1)*P49,E49)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <f aca="true">IF(I49 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J49)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J49" s="9"/>
       <c r="L49" s="0" t="n">
-        <f aca="false">IF(I49="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <f aca="true">IF(K49 = 0, INDIRECT("M" &amp; ROW() - 1), K49)</f>
+        <f aca="false">IF(I49="-",P49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <f aca="true">IF(I49 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E49)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="true">IF(I49 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="str">
+        <f aca="true">IF(I50="", "", IF(I50="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L50))))))</f>
+        <v/>
+      </c>
       <c r="B50" s="24" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2593,36 +2632,37 @@
         <v/>
       </c>
       <c r="F50" s="25" t="str">
-        <f aca="true">IF(G50="", IF(I50="","",(INDIRECT("M" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("M" &amp; ROW() - 1) - M50))</f>
+        <f aca="false">IF(I50 = "-", P50 * (O50 - N49), "")</f>
         <v/>
       </c>
       <c r="G50" s="26" t="str">
-        <f aca="true">IF(I50 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I50 = "-", P50 * 6500,"")</f>
         <v/>
       </c>
       <c r="H50" s="26" t="str">
         <f aca="true">IF(I50 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J50" s="9" t="n">
-        <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1)*P50,E50)</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <f aca="true">IF(I50 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J50)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J50" s="9"/>
       <c r="L50" s="0" t="n">
-        <f aca="false">IF(I50="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <f aca="true">IF(K50 = 0, INDIRECT("M" &amp; ROW() - 1), K50)</f>
+        <f aca="false">IF(I50="-",P50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <f aca="true">IF(I50 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E50)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="true">IF(I50 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="str">
+        <f aca="true">IF(I51="", "", IF(I51="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L51))))))</f>
+        <v/>
+      </c>
       <c r="B51" s="24" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2632,36 +2672,37 @@
         <v/>
       </c>
       <c r="F51" s="25" t="str">
-        <f aca="true">IF(G51="", IF(I51="","",(INDIRECT("M" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("M" &amp; ROW() - 1) - M51))</f>
+        <f aca="false">IF(I51 = "-", P51 * (O51 - N50), "")</f>
         <v/>
       </c>
       <c r="G51" s="26" t="str">
-        <f aca="true">IF(I51 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I51 = "-", P51 * 6500,"")</f>
         <v/>
       </c>
       <c r="H51" s="26" t="str">
         <f aca="true">IF(I51 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J51" s="9" t="n">
-        <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1)*P51,E51)</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <f aca="true">IF(I51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J51)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J51" s="9"/>
       <c r="L51" s="0" t="n">
-        <f aca="false">IF(I51="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <f aca="true">IF(K51 = 0, INDIRECT("M" &amp; ROW() - 1), K51)</f>
+        <f aca="false">IF(I51="-",P51,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <f aca="true">IF(I51 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E51)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="true">IF(I51 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P51" s="27"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="str">
+        <f aca="true">IF(I52="", "", IF(I52="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L52))))))</f>
+        <v/>
+      </c>
       <c r="B52" s="24" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2671,36 +2712,37 @@
         <v/>
       </c>
       <c r="F52" s="25" t="str">
-        <f aca="true">IF(G52="", IF(I52="","",(INDIRECT("M" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("M" &amp; ROW() - 1) - M52))</f>
+        <f aca="false">IF(I52 = "-", P52 * (O52 - N51), "")</f>
         <v/>
       </c>
       <c r="G52" s="26" t="str">
-        <f aca="true">IF(I52 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I52 = "-", P52 * 6500,"")</f>
         <v/>
       </c>
       <c r="H52" s="26" t="str">
         <f aca="true">IF(I52 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J52" s="9" t="n">
-        <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1)*P52,E52)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <f aca="true">IF(I52 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J52)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J52" s="9"/>
       <c r="L52" s="0" t="n">
-        <f aca="false">IF(I52="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <f aca="true">IF(K52 = 0, INDIRECT("M" &amp; ROW() - 1), K52)</f>
+        <f aca="false">IF(I52="-",P52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <f aca="true">IF(I52 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E52)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="true">IF(I52 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P52" s="27"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="str">
+        <f aca="true">IF(I53="", "", IF(I53="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L53))))))</f>
+        <v/>
+      </c>
       <c r="B53" s="24" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2710,36 +2752,37 @@
         <v/>
       </c>
       <c r="F53" s="25" t="str">
-        <f aca="true">IF(G53="", IF(I53="","",(INDIRECT("M" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("M" &amp; ROW() - 1) - M53))</f>
+        <f aca="false">IF(I53 = "-", P53 * (O53 - N52), "")</f>
         <v/>
       </c>
       <c r="G53" s="26" t="str">
-        <f aca="true">IF(I53 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I53 = "-", P53 * 6500,"")</f>
         <v/>
       </c>
       <c r="H53" s="26" t="str">
         <f aca="true">IF(I53 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J53" s="9" t="n">
-        <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1)*P53,E53)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <f aca="true">IF(I53 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J53)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J53" s="9"/>
       <c r="L53" s="0" t="n">
-        <f aca="false">IF(I53="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <f aca="true">IF(K53 = 0, INDIRECT("M" &amp; ROW() - 1), K53)</f>
+        <f aca="false">IF(I53="-",P53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <f aca="true">IF(I53 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E53)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="true">IF(I53 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="str">
+        <f aca="true">IF(I54="", "", IF(I54="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L54))))))</f>
+        <v/>
+      </c>
       <c r="B54" s="24" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2749,36 +2792,37 @@
         <v/>
       </c>
       <c r="F54" s="25" t="str">
-        <f aca="true">IF(G54="", IF(I54="","",(INDIRECT("M" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("M" &amp; ROW() - 1) - M54))</f>
+        <f aca="false">IF(I54 = "-", P54 * (O54 - N53), "")</f>
         <v/>
       </c>
       <c r="G54" s="26" t="str">
-        <f aca="true">IF(I54 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I54 = "-", P54 * 6500,"")</f>
         <v/>
       </c>
       <c r="H54" s="26" t="str">
         <f aca="true">IF(I54 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J54" s="9" t="n">
-        <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1)*P54,E54)</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <f aca="true">IF(I54 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J54)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J54" s="9"/>
       <c r="L54" s="0" t="n">
-        <f aca="false">IF(I54="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="0" t="n">
-        <f aca="true">IF(K54 = 0, INDIRECT("M" &amp; ROW() - 1), K54)</f>
+        <f aca="false">IF(I54="-",P54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <f aca="true">IF(I54 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E54)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="true">IF(I54 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="str">
+        <f aca="true">IF(I55="", "", IF(I55="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L55))))))</f>
+        <v/>
+      </c>
       <c r="B55" s="24" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2788,36 +2832,37 @@
         <v/>
       </c>
       <c r="F55" s="25" t="str">
-        <f aca="true">IF(G55="", IF(I55="","",(INDIRECT("M" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("M" &amp; ROW() - 1) - M55))</f>
+        <f aca="false">IF(I55 = "-", P55 * (O55 - N54), "")</f>
         <v/>
       </c>
       <c r="G55" s="26" t="str">
-        <f aca="true">IF(I55 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I55 = "-", P55 * 6500,"")</f>
         <v/>
       </c>
       <c r="H55" s="26" t="str">
         <f aca="true">IF(I55 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J55" s="9" t="n">
-        <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1)*P55,E55)</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <f aca="true">IF(I55 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J55)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J55" s="9"/>
       <c r="L55" s="0" t="n">
-        <f aca="false">IF(I55="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="0" t="n">
-        <f aca="true">IF(K55 = 0, INDIRECT("M" &amp; ROW() - 1), K55)</f>
+        <f aca="false">IF(I55="-",P55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <f aca="true">IF(I55 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E55)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="true">IF(I55 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="str">
+        <f aca="true">IF(I56="", "", IF(I56="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L56))))))</f>
+        <v/>
+      </c>
       <c r="B56" s="24" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2827,36 +2872,37 @@
         <v/>
       </c>
       <c r="F56" s="25" t="str">
-        <f aca="true">IF(G56="", IF(I56="","",(INDIRECT("M" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("M" &amp; ROW() - 1) - M56))</f>
+        <f aca="false">IF(I56 = "-", P56 * (O56 - N55), "")</f>
         <v/>
       </c>
       <c r="G56" s="26" t="str">
-        <f aca="true">IF(I56 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I56 = "-", P56 * 6500,"")</f>
         <v/>
       </c>
       <c r="H56" s="26" t="str">
         <f aca="true">IF(I56 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J56" s="9" t="n">
-        <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1)*P56,E56)</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <f aca="true">IF(I56 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J56)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J56" s="9"/>
       <c r="L56" s="0" t="n">
-        <f aca="false">IF(I56="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="0" t="n">
-        <f aca="true">IF(K56 = 0, INDIRECT("M" &amp; ROW() - 1), K56)</f>
+        <f aca="false">IF(I56="-",P56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <f aca="true">IF(I56 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E56)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="true">IF(I56 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="str">
+        <f aca="true">IF(I57="", "", IF(I57="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L57))))))</f>
+        <v/>
+      </c>
       <c r="B57" s="24" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2866,36 +2912,37 @@
         <v/>
       </c>
       <c r="F57" s="25" t="str">
-        <f aca="true">IF(G57="", IF(I57="","",(INDIRECT("M" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("M" &amp; ROW() - 1) - M57))</f>
+        <f aca="false">IF(I57 = "-", P57 * (O57 - N56), "")</f>
         <v/>
       </c>
       <c r="G57" s="26" t="str">
-        <f aca="true">IF(I57 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I57 = "-", P57 * 6500,"")</f>
         <v/>
       </c>
       <c r="H57" s="26" t="str">
         <f aca="true">IF(I57 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J57" s="9" t="n">
-        <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1)*P57,E57)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <f aca="true">IF(I57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J57)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J57" s="9"/>
       <c r="L57" s="0" t="n">
-        <f aca="false">IF(I57="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="0" t="n">
-        <f aca="true">IF(K57 = 0, INDIRECT("M" &amp; ROW() - 1), K57)</f>
+        <f aca="false">IF(I57="-",P57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <f aca="true">IF(I57 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E57)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="true">IF(I57 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="str">
+        <f aca="true">IF(I58="", "", IF(I58="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L58))))))</f>
+        <v/>
+      </c>
       <c r="B58" s="24" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2905,36 +2952,37 @@
         <v/>
       </c>
       <c r="F58" s="25" t="str">
-        <f aca="true">IF(G58="", IF(I58="","",(INDIRECT("M" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("M" &amp; ROW() - 1) - M58))</f>
+        <f aca="false">IF(I58 = "-", P58 * (O58 - N57), "")</f>
         <v/>
       </c>
       <c r="G58" s="26" t="str">
-        <f aca="true">IF(I58 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I58 = "-", P58 * 6500,"")</f>
         <v/>
       </c>
       <c r="H58" s="26" t="str">
         <f aca="true">IF(I58 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J58" s="9" t="n">
-        <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1)*P58,E58)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <f aca="true">IF(I58 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J58)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J58" s="9"/>
       <c r="L58" s="0" t="n">
-        <f aca="false">IF(I58="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <f aca="true">IF(K58 = 0, INDIRECT("M" &amp; ROW() - 1), K58)</f>
+        <f aca="false">IF(I58="-",P58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <f aca="true">IF(I58 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E58)</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="true">IF(I58 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="str">
+        <f aca="true">IF(I59="", "", IF(I59="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L59))))))</f>
+        <v/>
+      </c>
       <c r="B59" s="24" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2944,36 +2992,37 @@
         <v/>
       </c>
       <c r="F59" s="25" t="str">
-        <f aca="true">IF(G59="", IF(I59="","",(INDIRECT("M" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("M" &amp; ROW() - 1) - M59))</f>
+        <f aca="false">IF(I59 = "-", P59 * (O59 - N58), "")</f>
         <v/>
       </c>
       <c r="G59" s="26" t="str">
-        <f aca="true">IF(I59 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I59 = "-", P59 * 6500,"")</f>
         <v/>
       </c>
       <c r="H59" s="26" t="str">
         <f aca="true">IF(I59 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J59" s="9" t="n">
-        <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1)*P59,E59)</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <f aca="true">IF(I59 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J59)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J59" s="9"/>
       <c r="L59" s="0" t="n">
-        <f aca="false">IF(I59="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <f aca="true">IF(K59 = 0, INDIRECT("M" &amp; ROW() - 1), K59)</f>
+        <f aca="false">IF(I59="-",P59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <f aca="true">IF(I59 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E59)</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="true">IF(I59 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P59" s="27"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="str">
+        <f aca="true">IF(I60="", "", IF(I60="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L60)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L60))))))</f>
+        <v/>
+      </c>
       <c r="B60" s="24" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -2983,36 +3032,37 @@
         <v/>
       </c>
       <c r="F60" s="25" t="str">
-        <f aca="true">IF(G60="", IF(I60="","",(INDIRECT("M" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("M" &amp; ROW() - 1) - M60))</f>
+        <f aca="false">IF(I60 = "-", P60 * (O60 - N59), "")</f>
         <v/>
       </c>
       <c r="G60" s="26" t="str">
-        <f aca="true">IF(I60 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I60 = "-", P60 * 6500,"")</f>
         <v/>
       </c>
       <c r="H60" s="26" t="str">
         <f aca="true">IF(I60 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J60" s="9" t="n">
-        <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1)*P60,E60)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <f aca="true">IF(I60 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J60)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J60)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J60" s="9"/>
       <c r="L60" s="0" t="n">
-        <f aca="false">IF(I60="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <f aca="true">IF(K60 = 0, INDIRECT("M" &amp; ROW() - 1), K60)</f>
+        <f aca="false">IF(I60="-",P60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <f aca="true">IF(I60 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E60)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="true">IF(I60 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="str">
+        <f aca="true">IF(I61="", "", IF(I61="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L61))))))</f>
+        <v/>
+      </c>
       <c r="B61" s="24" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3022,36 +3072,37 @@
         <v/>
       </c>
       <c r="F61" s="25" t="str">
-        <f aca="true">IF(G61="", IF(I61="","",(INDIRECT("M" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("M" &amp; ROW() - 1) - M61))</f>
+        <f aca="false">IF(I61 = "-", P61 * (O61 - N60), "")</f>
         <v/>
       </c>
       <c r="G61" s="26" t="str">
-        <f aca="true">IF(I61 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I61 = "-", P61 * 6500,"")</f>
         <v/>
       </c>
       <c r="H61" s="26" t="str">
         <f aca="true">IF(I61 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J61" s="9" t="n">
-        <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1)*P61,E61)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <f aca="true">IF(I61 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J61)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J61" s="9"/>
       <c r="L61" s="0" t="n">
-        <f aca="false">IF(I61="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <f aca="true">IF(K61 = 0, INDIRECT("M" &amp; ROW() - 1), K61)</f>
+        <f aca="false">IF(I61="-",P61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <f aca="true">IF(I61 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E61)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="true">IF(I61 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="str">
+        <f aca="true">IF(I62="", "", IF(I62="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L62)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L62))))))</f>
+        <v/>
+      </c>
       <c r="B62" s="24" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3061,36 +3112,37 @@
         <v/>
       </c>
       <c r="F62" s="25" t="str">
-        <f aca="true">IF(G62="", IF(I62="","",(INDIRECT("M" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("M" &amp; ROW() - 1) - M62))</f>
+        <f aca="false">IF(I62 = "-", P62 * (O62 - N61), "")</f>
         <v/>
       </c>
       <c r="G62" s="26" t="str">
-        <f aca="true">IF(I62 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I62 = "-", P62 * 6500,"")</f>
         <v/>
       </c>
       <c r="H62" s="26" t="str">
         <f aca="true">IF(I62 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J62" s="9" t="n">
-        <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1)*P62,E62)</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <f aca="true">IF(I62 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J62)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J62)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J62" s="9"/>
       <c r="L62" s="0" t="n">
-        <f aca="false">IF(I62="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="0" t="n">
-        <f aca="true">IF(K62 = 0, INDIRECT("M" &amp; ROW() - 1), K62)</f>
+        <f aca="false">IF(I62="-",P62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <f aca="true">IF(I62 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E62)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="true">IF(I62 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="str">
+        <f aca="true">IF(I63="", "", IF(I63="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L63))))))</f>
+        <v/>
+      </c>
       <c r="B63" s="24" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3100,36 +3152,37 @@
         <v/>
       </c>
       <c r="F63" s="25" t="str">
-        <f aca="true">IF(G63="", IF(I63="","",(INDIRECT("M" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("M" &amp; ROW() - 1) - M63))</f>
+        <f aca="false">IF(I63 = "-", P63 * (O63 - N62), "")</f>
         <v/>
       </c>
       <c r="G63" s="26" t="str">
-        <f aca="true">IF(I63 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I63 = "-", P63 * 6500,"")</f>
         <v/>
       </c>
       <c r="H63" s="26" t="str">
         <f aca="true">IF(I63 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J63" s="9" t="n">
-        <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1)*P63,E63)</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <f aca="true">IF(I63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J63)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J63" s="9"/>
       <c r="L63" s="0" t="n">
-        <f aca="false">IF(I63="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="0" t="n">
-        <f aca="true">IF(K63 = 0, INDIRECT("M" &amp; ROW() - 1), K63)</f>
+        <f aca="false">IF(I63="-",P63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <f aca="true">IF(I63 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E63)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="true">IF(I63 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="str">
+        <f aca="true">IF(I64="", "", IF(I64="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L64))))))</f>
+        <v/>
+      </c>
       <c r="B64" s="24" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3139,36 +3192,37 @@
         <v/>
       </c>
       <c r="F64" s="25" t="str">
-        <f aca="true">IF(G64="", IF(I64="","",(INDIRECT("M" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("M" &amp; ROW() - 1) - M64))</f>
+        <f aca="false">IF(I64 = "-", P64 * (O64 - N63), "")</f>
         <v/>
       </c>
       <c r="G64" s="26" t="str">
-        <f aca="true">IF(I64 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I64 = "-", P64 * 6500,"")</f>
         <v/>
       </c>
       <c r="H64" s="26" t="str">
         <f aca="true">IF(I64 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J64" s="9" t="n">
-        <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1)*P64,E64)</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <f aca="true">IF(I64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J64)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J64" s="9"/>
       <c r="L64" s="0" t="n">
-        <f aca="false">IF(I64="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <f aca="true">IF(K64 = 0, INDIRECT("M" &amp; ROW() - 1), K64)</f>
+        <f aca="false">IF(I64="-",P64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <f aca="true">IF(I64 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E64)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="true">IF(I64 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="str">
+        <f aca="true">IF(I65="", "", IF(I65="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L65))))))</f>
+        <v/>
+      </c>
       <c r="B65" s="24" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3178,36 +3232,37 @@
         <v/>
       </c>
       <c r="F65" s="25" t="str">
-        <f aca="true">IF(G65="", IF(I65="","",(INDIRECT("M" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("M" &amp; ROW() - 1) - M65))</f>
+        <f aca="false">IF(I65 = "-", P65 * (O65 - N64), "")</f>
         <v/>
       </c>
       <c r="G65" s="26" t="str">
-        <f aca="true">IF(I65 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I65 = "-", P65 * 6500,"")</f>
         <v/>
       </c>
       <c r="H65" s="26" t="str">
         <f aca="true">IF(I65 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J65" s="9" t="n">
-        <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1)*P65,E65)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <f aca="true">IF(I65 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J65)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J65" s="9"/>
       <c r="L65" s="0" t="n">
-        <f aca="false">IF(I65="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="0" t="n">
-        <f aca="true">IF(K65 = 0, INDIRECT("M" &amp; ROW() - 1), K65)</f>
+        <f aca="false">IF(I65="-",P65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <f aca="true">IF(I65 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E65)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="true">IF(I65 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="str">
+        <f aca="true">IF(I66="", "", IF(I66="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L66))))))</f>
+        <v/>
+      </c>
       <c r="B66" s="24" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3217,36 +3272,37 @@
         <v/>
       </c>
       <c r="F66" s="25" t="str">
-        <f aca="true">IF(G66="", IF(I66="","",(INDIRECT("M" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("M" &amp; ROW() - 1) - M66))</f>
+        <f aca="false">IF(I66 = "-", P66 * (O66 - N65), "")</f>
         <v/>
       </c>
       <c r="G66" s="26" t="str">
-        <f aca="true">IF(I66 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I66 = "-", P66 * 6500,"")</f>
         <v/>
       </c>
       <c r="H66" s="26" t="str">
         <f aca="true">IF(I66 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J66" s="9" t="n">
-        <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1)*P66,E66)</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <f aca="true">IF(I66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J66)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J66" s="9"/>
       <c r="L66" s="0" t="n">
-        <f aca="false">IF(I66="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="0" t="n">
-        <f aca="true">IF(K66 = 0, INDIRECT("M" &amp; ROW() - 1), K66)</f>
+        <f aca="false">IF(I66="-",P66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <f aca="true">IF(I66 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E66)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="true">IF(I66 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P66" s="27"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="str">
+        <f aca="true">IF(I67="", "", IF(I67="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L67))))))</f>
+        <v/>
+      </c>
       <c r="B67" s="24" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3256,36 +3312,37 @@
         <v/>
       </c>
       <c r="F67" s="25" t="str">
-        <f aca="true">IF(G67="", IF(I67="","",(INDIRECT("M" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("M" &amp; ROW() - 1) - M67))</f>
+        <f aca="false">IF(I67 = "-", P67 * (O67 - N66), "")</f>
         <v/>
       </c>
       <c r="G67" s="26" t="str">
-        <f aca="true">IF(I67 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I67 = "-", P67 * 6500,"")</f>
         <v/>
       </c>
       <c r="H67" s="26" t="str">
         <f aca="true">IF(I67 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J67" s="9" t="n">
-        <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1)*P67,E67)</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <f aca="true">IF(I67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J67)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J67" s="9"/>
       <c r="L67" s="0" t="n">
-        <f aca="false">IF(I67="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="0" t="n">
-        <f aca="true">IF(K67 = 0, INDIRECT("M" &amp; ROW() - 1), K67)</f>
+        <f aca="false">IF(I67="-",P67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <f aca="true">IF(I67 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E67)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="true">IF(I67 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P67" s="27"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="str">
+        <f aca="true">IF(I68="", "", IF(I68="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L68))))))</f>
+        <v/>
+      </c>
       <c r="B68" s="24" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3295,36 +3352,37 @@
         <v/>
       </c>
       <c r="F68" s="25" t="str">
-        <f aca="true">IF(G68="", IF(I68="","",(INDIRECT("M" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("M" &amp; ROW() - 1) - M68))</f>
+        <f aca="false">IF(I68 = "-", P68 * (O68 - N67), "")</f>
         <v/>
       </c>
       <c r="G68" s="26" t="str">
-        <f aca="true">IF(I68 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I68 = "-", P68 * 6500,"")</f>
         <v/>
       </c>
       <c r="H68" s="26" t="str">
         <f aca="true">IF(I68 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J68" s="9" t="n">
-        <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1)*P68,E68)</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <f aca="true">IF(I68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J68)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J68" s="9"/>
       <c r="L68" s="0" t="n">
-        <f aca="false">IF(I68="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="0" t="n">
-        <f aca="true">IF(K68 = 0, INDIRECT("M" &amp; ROW() - 1), K68)</f>
+        <f aca="false">IF(I68="-",P68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <f aca="true">IF(I68 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E68)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <f aca="true">IF(I68 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="str">
+        <f aca="true">IF(I69="", "", IF(I69="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L69))))))</f>
+        <v/>
+      </c>
       <c r="B69" s="24" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3334,36 +3392,37 @@
         <v/>
       </c>
       <c r="F69" s="25" t="str">
-        <f aca="true">IF(G69="", IF(I69="","",(INDIRECT("M" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("M" &amp; ROW() - 1) - M69))</f>
+        <f aca="false">IF(I69 = "-", P69 * (O69 - N68), "")</f>
         <v/>
       </c>
       <c r="G69" s="26" t="str">
-        <f aca="true">IF(I69 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I69 = "-", P69 * 6500,"")</f>
         <v/>
       </c>
       <c r="H69" s="26" t="str">
         <f aca="true">IF(I69 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J69" s="9" t="n">
-        <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1)*P69,E69)</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <f aca="true">IF(I69 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J69)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J69" s="9"/>
       <c r="L69" s="0" t="n">
-        <f aca="false">IF(I69="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="0" t="n">
-        <f aca="true">IF(K69 = 0, INDIRECT("M" &amp; ROW() - 1), K69)</f>
+        <f aca="false">IF(I69="-",P69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <f aca="true">IF(I69 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E69)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <f aca="true">IF(I69 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="str">
+        <f aca="true">IF(I70="", "", IF(I70="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L70))))))</f>
+        <v/>
+      </c>
       <c r="B70" s="24" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3373,36 +3432,37 @@
         <v/>
       </c>
       <c r="F70" s="25" t="str">
-        <f aca="true">IF(G70="", IF(I70="","",(INDIRECT("M" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("M" &amp; ROW() - 1) - M70))</f>
+        <f aca="false">IF(I70 = "-", P70 * (O70 - N69), "")</f>
         <v/>
       </c>
       <c r="G70" s="26" t="str">
-        <f aca="true">IF(I70 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I70 = "-", P70 * 6500,"")</f>
         <v/>
       </c>
       <c r="H70" s="26" t="str">
         <f aca="true">IF(I70 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J70" s="9" t="n">
-        <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1)*P70,E70)</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <f aca="true">IF(I70 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J70)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J70" s="9"/>
       <c r="L70" s="0" t="n">
-        <f aca="false">IF(I70="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="0" t="n">
-        <f aca="true">IF(K70 = 0, INDIRECT("M" &amp; ROW() - 1), K70)</f>
+        <f aca="false">IF(I70="-",P70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <f aca="true">IF(I70 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E70)</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <f aca="true">IF(I70 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="str">
+        <f aca="true">IF(I71="", "", IF(I71="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L71))))))</f>
+        <v/>
+      </c>
       <c r="B71" s="24" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3412,36 +3472,37 @@
         <v/>
       </c>
       <c r="F71" s="25" t="str">
-        <f aca="true">IF(G71="", IF(I71="","",(INDIRECT("M" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("M" &amp; ROW() - 1) - M71))</f>
+        <f aca="false">IF(I71 = "-", P71 * (O71 - N70), "")</f>
         <v/>
       </c>
       <c r="G71" s="26" t="str">
-        <f aca="true">IF(I71 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I71 = "-", P71 * 6500,"")</f>
         <v/>
       </c>
       <c r="H71" s="26" t="str">
         <f aca="true">IF(I71 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J71" s="9" t="n">
-        <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1)*P71,E71)</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <f aca="true">IF(I71 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J71)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J71" s="9"/>
       <c r="L71" s="0" t="n">
-        <f aca="false">IF(I71="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <f aca="true">IF(K71 = 0, INDIRECT("M" &amp; ROW() - 1), K71)</f>
+        <f aca="false">IF(I71="-",P71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <f aca="true">IF(I71 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E71)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <f aca="true">IF(I71 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="str">
+        <f aca="true">IF(I72="", "", IF(I72="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L72))))))</f>
+        <v/>
+      </c>
       <c r="B72" s="24" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3451,36 +3512,37 @@
         <v/>
       </c>
       <c r="F72" s="25" t="str">
-        <f aca="true">IF(G72="", IF(I72="","",(INDIRECT("M" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("M" &amp; ROW() - 1) - M72))</f>
+        <f aca="false">IF(I72 = "-", P72 * (O72 - N71), "")</f>
         <v/>
       </c>
       <c r="G72" s="26" t="str">
-        <f aca="true">IF(I72 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I72 = "-", P72 * 6500,"")</f>
         <v/>
       </c>
       <c r="H72" s="26" t="str">
         <f aca="true">IF(I72 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J72" s="9" t="n">
-        <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1)*P72,E72)</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <f aca="true">IF(I72 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J72)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J72" s="9"/>
       <c r="L72" s="0" t="n">
-        <f aca="false">IF(I72="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="0" t="n">
-        <f aca="true">IF(K72 = 0, INDIRECT("M" &amp; ROW() - 1), K72)</f>
+        <f aca="false">IF(I72="-",P72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <f aca="true">IF(I72 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E72)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <f aca="true">IF(I72 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="str">
+        <f aca="true">IF(I73="", "", IF(I73="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L73))))))</f>
+        <v/>
+      </c>
       <c r="B73" s="24" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3490,36 +3552,37 @@
         <v/>
       </c>
       <c r="F73" s="25" t="str">
-        <f aca="true">IF(G73="", IF(I73="","",(INDIRECT("M" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("M" &amp; ROW() - 1) - M73))</f>
+        <f aca="false">IF(I73 = "-", P73 * (O73 - N72), "")</f>
         <v/>
       </c>
       <c r="G73" s="26" t="str">
-        <f aca="true">IF(I73 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I73 = "-", P73 * 6500,"")</f>
         <v/>
       </c>
       <c r="H73" s="26" t="str">
         <f aca="true">IF(I73 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J73" s="9" t="n">
-        <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1)*P73,E73)</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <f aca="true">IF(I73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J73)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J73" s="9"/>
       <c r="L73" s="0" t="n">
-        <f aca="false">IF(I73="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="0" t="n">
-        <f aca="true">IF(K73 = 0, INDIRECT("M" &amp; ROW() - 1), K73)</f>
+        <f aca="false">IF(I73="-",P73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <f aca="true">IF(I73 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E73)</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <f aca="true">IF(I73 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="str">
+        <f aca="true">IF(I74="", "", IF(I74="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L74))))))</f>
+        <v/>
+      </c>
       <c r="B74" s="24" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3529,36 +3592,37 @@
         <v/>
       </c>
       <c r="F74" s="25" t="str">
-        <f aca="true">IF(G74="", IF(I74="","",(INDIRECT("M" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("M" &amp; ROW() - 1) - M74))</f>
+        <f aca="false">IF(I74 = "-", P74 * (O74 - N73), "")</f>
         <v/>
       </c>
       <c r="G74" s="26" t="str">
-        <f aca="true">IF(I74 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I74 = "-", P74 * 6500,"")</f>
         <v/>
       </c>
       <c r="H74" s="26" t="str">
         <f aca="true">IF(I74 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J74" s="9" t="n">
-        <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1)*P74,E74)</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <f aca="true">IF(I74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J74)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J74" s="9"/>
       <c r="L74" s="0" t="n">
-        <f aca="false">IF(I74="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="0" t="n">
-        <f aca="true">IF(K74 = 0, INDIRECT("M" &amp; ROW() - 1), K74)</f>
+        <f aca="false">IF(I74="-",P74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <f aca="true">IF(I74 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E74)</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <f aca="true">IF(I74 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="str">
+        <f aca="true">IF(I75="", "", IF(I75="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L75)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L75))))))</f>
+        <v/>
+      </c>
       <c r="B75" s="24" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3568,36 +3632,37 @@
         <v/>
       </c>
       <c r="F75" s="25" t="str">
-        <f aca="true">IF(G75="", IF(I75="","",(INDIRECT("M" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("M" &amp; ROW() - 1) - M75))</f>
+        <f aca="false">IF(I75 = "-", P75 * (O75 - N74), "")</f>
         <v/>
       </c>
       <c r="G75" s="26" t="str">
-        <f aca="true">IF(I75 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I75 = "-", P75 * 6500,"")</f>
         <v/>
       </c>
       <c r="H75" s="26" t="str">
         <f aca="true">IF(I75 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J75" s="9" t="n">
-        <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1)*P75,E75)</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <f aca="true">IF(I75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J75)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J75" s="9"/>
       <c r="L75" s="0" t="n">
-        <f aca="false">IF(I75="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="0" t="n">
-        <f aca="true">IF(K75 = 0, INDIRECT("M" &amp; ROW() - 1), K75)</f>
+        <f aca="false">IF(I75="-",P75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <f aca="true">IF(I75 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E75)</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <f aca="true">IF(I75 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="str">
+        <f aca="true">IF(I76="", "", IF(I76="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L76)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L76))))))</f>
+        <v/>
+      </c>
       <c r="B76" s="24" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3607,36 +3672,37 @@
         <v/>
       </c>
       <c r="F76" s="25" t="str">
-        <f aca="true">IF(G76="", IF(I76="","",(INDIRECT("M" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("M" &amp; ROW() - 1) - M76))</f>
+        <f aca="false">IF(I76 = "-", P76 * (O76 - N75), "")</f>
         <v/>
       </c>
       <c r="G76" s="26" t="str">
-        <f aca="true">IF(I76 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I76 = "-", P76 * 6500,"")</f>
         <v/>
       </c>
       <c r="H76" s="26" t="str">
         <f aca="true">IF(I76 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J76" s="9" t="n">
-        <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1)*P76,E76)</f>
-        <v>0</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <f aca="true">IF(I76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J76)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J76" s="9"/>
       <c r="L76" s="0" t="n">
-        <f aca="false">IF(I76="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <f aca="true">IF(K76 = 0, INDIRECT("M" &amp; ROW() - 1), K76)</f>
+        <f aca="false">IF(I76="-",P76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <f aca="true">IF(I76 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E76)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <f aca="true">IF(I76 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="str">
+        <f aca="true">IF(I77="", "", IF(I77="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L77)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L77))))))</f>
+        <v/>
+      </c>
       <c r="B77" s="24" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3646,36 +3712,37 @@
         <v/>
       </c>
       <c r="F77" s="25" t="str">
-        <f aca="true">IF(G77="", IF(I77="","",(INDIRECT("M" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("M" &amp; ROW() - 1) - M77))</f>
+        <f aca="false">IF(I77 = "-", P77 * (O77 - N76), "")</f>
         <v/>
       </c>
       <c r="G77" s="26" t="str">
-        <f aca="true">IF(I77 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I77 = "-", P77 * 6500,"")</f>
         <v/>
       </c>
       <c r="H77" s="26" t="str">
         <f aca="true">IF(I77 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J77" s="9" t="n">
-        <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1)*P77,E77)</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <f aca="true">IF(I77="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J77)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J77" s="9"/>
       <c r="L77" s="0" t="n">
-        <f aca="false">IF(I77="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <f aca="true">IF(K77 = 0, INDIRECT("M" &amp; ROW() - 1), K77)</f>
+        <f aca="false">IF(I77="-",P77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <f aca="true">IF(I77 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E77)</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <f aca="true">IF(I77 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="str">
+        <f aca="true">IF(I78="", "", IF(I78="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L78)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L78))))))</f>
+        <v/>
+      </c>
       <c r="B78" s="24" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3685,36 +3752,37 @@
         <v/>
       </c>
       <c r="F78" s="25" t="str">
-        <f aca="true">IF(G78="", IF(I78="","",(INDIRECT("M" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("M" &amp; ROW() - 1) - M78))</f>
+        <f aca="false">IF(I78 = "-", P78 * (O78 - N77), "")</f>
         <v/>
       </c>
       <c r="G78" s="26" t="str">
-        <f aca="true">IF(I78 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I78 = "-", P78 * 6500,"")</f>
         <v/>
       </c>
       <c r="H78" s="26" t="str">
         <f aca="true">IF(I78 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J78" s="9" t="n">
-        <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1)*P78,E78)</f>
-        <v>0</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <f aca="true">IF(I78="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J78))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J78)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J78" s="9"/>
       <c r="L78" s="0" t="n">
-        <f aca="false">IF(I78="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <f aca="true">IF(K78 = 0, INDIRECT("M" &amp; ROW() - 1), K78)</f>
+        <f aca="false">IF(I78="-",P78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <f aca="true">IF(I78 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E78)</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <f aca="true">IF(I78 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="str">
+        <f aca="true">IF(I79="", "", IF(I79="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L79)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L79))))))</f>
+        <v/>
+      </c>
       <c r="B79" s="24" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3724,36 +3792,37 @@
         <v/>
       </c>
       <c r="F79" s="25" t="str">
-        <f aca="true">IF(G79="", IF(I79="","",(INDIRECT("M" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("M" &amp; ROW() - 1) - M79))</f>
+        <f aca="false">IF(I79 = "-", P79 * (O79 - N78), "")</f>
         <v/>
       </c>
       <c r="G79" s="26" t="str">
-        <f aca="true">IF(I79 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I79 = "-", P79 * 6500,"")</f>
         <v/>
       </c>
       <c r="H79" s="26" t="str">
         <f aca="true">IF(I79 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J79" s="9" t="n">
-        <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1)*P79,E79)</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <f aca="true">IF(I79="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J79))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J79)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J79" s="9"/>
       <c r="L79" s="0" t="n">
-        <f aca="false">IF(I79="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <f aca="true">IF(K79 = 0, INDIRECT("M" &amp; ROW() - 1), K79)</f>
+        <f aca="false">IF(I79="-",P79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <f aca="true">IF(I79 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E79)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <f aca="true">IF(I79 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="str">
+        <f aca="true">IF(I80="", "", IF(I80="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L80)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L80))))))</f>
+        <v/>
+      </c>
       <c r="B80" s="24" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3763,36 +3832,37 @@
         <v/>
       </c>
       <c r="F80" s="25" t="str">
-        <f aca="true">IF(G80="", IF(I80="","",(INDIRECT("M" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("M" &amp; ROW() - 1) - M80))</f>
+        <f aca="false">IF(I80 = "-", P80 * (O80 - N79), "")</f>
         <v/>
       </c>
       <c r="G80" s="26" t="str">
-        <f aca="true">IF(I80 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I80 = "-", P80 * 6500,"")</f>
         <v/>
       </c>
       <c r="H80" s="26" t="str">
         <f aca="true">IF(I80 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J80" s="9" t="n">
-        <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1)*P80,E80)</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <f aca="true">IF(I80="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J80))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J80)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J80" s="9"/>
       <c r="L80" s="0" t="n">
-        <f aca="false">IF(I80="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <f aca="true">IF(K80 = 0, INDIRECT("M" &amp; ROW() - 1), K80)</f>
+        <f aca="false">IF(I80="-",P80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <f aca="true">IF(I80 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E80)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <f aca="true">IF(I80 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="str">
+        <f aca="true">IF(I81="", "", IF(I81="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L81)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L81))))))</f>
+        <v/>
+      </c>
       <c r="B81" s="24" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3802,36 +3872,37 @@
         <v/>
       </c>
       <c r="F81" s="25" t="str">
-        <f aca="true">IF(G81="", IF(I81="","",(INDIRECT("M" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("M" &amp; ROW() - 1) - M81))</f>
+        <f aca="false">IF(I81 = "-", P81 * (O81 - N80), "")</f>
         <v/>
       </c>
       <c r="G81" s="26" t="str">
-        <f aca="true">IF(I81 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I81 = "-", P81 * 6500,"")</f>
         <v/>
       </c>
       <c r="H81" s="26" t="str">
         <f aca="true">IF(I81 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J81" s="9" t="n">
-        <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1)*P81,E81)</f>
-        <v>0</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <f aca="true">IF(I81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J81)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J81" s="9"/>
       <c r="L81" s="0" t="n">
-        <f aca="false">IF(I81="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <f aca="true">IF(K81 = 0, INDIRECT("M" &amp; ROW() - 1), K81)</f>
+        <f aca="false">IF(I81="-",P81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <f aca="true">IF(I81 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E81)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <f aca="true">IF(I81 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="str">
+        <f aca="true">IF(I82="", "", IF(I82="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L82)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L82))))))</f>
+        <v/>
+      </c>
       <c r="B82" s="24" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3841,36 +3912,37 @@
         <v/>
       </c>
       <c r="F82" s="25" t="str">
-        <f aca="true">IF(G82="", IF(I82="","",(INDIRECT("M" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("M" &amp; ROW() - 1) - M82))</f>
+        <f aca="false">IF(I82 = "-", P82 * (O82 - N81), "")</f>
         <v/>
       </c>
       <c r="G82" s="26" t="str">
-        <f aca="true">IF(I82 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I82 = "-", P82 * 6500,"")</f>
         <v/>
       </c>
       <c r="H82" s="26" t="str">
         <f aca="true">IF(I82 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J82" s="9" t="n">
-        <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1)*P82,E82)</f>
-        <v>0</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <f aca="true">IF(I82="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J82))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J82)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J82" s="9"/>
       <c r="L82" s="0" t="n">
-        <f aca="false">IF(I82="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <f aca="true">IF(K82 = 0, INDIRECT("M" &amp; ROW() - 1), K82)</f>
+        <f aca="false">IF(I82="-",P82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <f aca="true">IF(I82 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E82)</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <f aca="true">IF(I82 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P82" s="27"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="str">
+        <f aca="true">IF(I83="", "", IF(I83="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L83)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L83))))))</f>
+        <v/>
+      </c>
       <c r="B83" s="24" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3880,36 +3952,37 @@
         <v/>
       </c>
       <c r="F83" s="25" t="str">
-        <f aca="true">IF(G83="", IF(I83="","",(INDIRECT("M" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("M" &amp; ROW() - 1) - M83))</f>
+        <f aca="false">IF(I83 = "-", P83 * (O83 - N82), "")</f>
         <v/>
       </c>
       <c r="G83" s="26" t="str">
-        <f aca="true">IF(I83 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I83 = "-", P83 * 6500,"")</f>
         <v/>
       </c>
       <c r="H83" s="26" t="str">
         <f aca="true">IF(I83 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J83" s="9" t="n">
-        <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1)*P83,E83)</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <f aca="true">IF(I83="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J83))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J83)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J83" s="9"/>
       <c r="L83" s="0" t="n">
-        <f aca="false">IF(I83="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="0" t="n">
-        <f aca="true">IF(K83 = 0, INDIRECT("M" &amp; ROW() - 1), K83)</f>
+        <f aca="false">IF(I83="-",P83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <f aca="true">IF(I83 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E83)</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <f aca="true">IF(I83 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P83" s="27"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="str">
+        <f aca="true">IF(I84="", "", IF(I84="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L84)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L84))))))</f>
+        <v/>
+      </c>
       <c r="B84" s="24" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3919,36 +3992,37 @@
         <v/>
       </c>
       <c r="F84" s="25" t="str">
-        <f aca="true">IF(G84="", IF(I84="","",(INDIRECT("M" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("M" &amp; ROW() - 1) - M84))</f>
+        <f aca="false">IF(I84 = "-", P84 * (O84 - N83), "")</f>
         <v/>
       </c>
       <c r="G84" s="26" t="str">
-        <f aca="true">IF(I84 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I84 = "-", P84 * 6500,"")</f>
         <v/>
       </c>
       <c r="H84" s="26" t="str">
         <f aca="true">IF(I84 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J84" s="9" t="n">
-        <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1)*P84,E84)</f>
-        <v>0</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <f aca="true">IF(I84="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J84))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J84)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J84" s="9"/>
       <c r="L84" s="0" t="n">
-        <f aca="false">IF(I84="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="0" t="n">
-        <f aca="true">IF(K84 = 0, INDIRECT("M" &amp; ROW() - 1), K84)</f>
+        <f aca="false">IF(I84="-",P84,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <f aca="true">IF(I84 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E84)</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <f aca="true">IF(I84 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="str">
+        <f aca="true">IF(I85="", "", IF(I85="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L85)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L85))))))</f>
+        <v/>
+      </c>
       <c r="B85" s="24" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3958,36 +4032,37 @@
         <v/>
       </c>
       <c r="F85" s="25" t="str">
-        <f aca="true">IF(G85="", IF(I85="","",(INDIRECT("M" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("M" &amp; ROW() - 1) - M85))</f>
+        <f aca="false">IF(I85 = "-", P85 * (O85 - N84), "")</f>
         <v/>
       </c>
       <c r="G85" s="26" t="str">
-        <f aca="true">IF(I85 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I85 = "-", P85 * 6500,"")</f>
         <v/>
       </c>
       <c r="H85" s="26" t="str">
         <f aca="true">IF(I85 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J85" s="9" t="n">
-        <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1)*P85,E85)</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <f aca="true">IF(I85="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J85))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J85)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J85" s="9"/>
       <c r="L85" s="0" t="n">
-        <f aca="false">IF(I85="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M85" s="0" t="n">
-        <f aca="true">IF(K85 = 0, INDIRECT("M" &amp; ROW() - 1), K85)</f>
+        <f aca="false">IF(I85="-",P85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <f aca="true">IF(I85 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E85)</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <f aca="true">IF(I85 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="str">
+        <f aca="true">IF(I86="", "", IF(I86="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L86)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L86))))))</f>
+        <v/>
+      </c>
       <c r="B86" s="24" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -3997,36 +4072,37 @@
         <v/>
       </c>
       <c r="F86" s="25" t="str">
-        <f aca="true">IF(G86="", IF(I86="","",(INDIRECT("M" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("M" &amp; ROW() - 1) - M86))</f>
+        <f aca="false">IF(I86 = "-", P86 * (O86 - N85), "")</f>
         <v/>
       </c>
       <c r="G86" s="26" t="str">
-        <f aca="true">IF(I86 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I86 = "-", P86 * 6500,"")</f>
         <v/>
       </c>
       <c r="H86" s="26" t="str">
         <f aca="true">IF(I86 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J86" s="9" t="n">
-        <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1)*P86,E86)</f>
-        <v>0</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <f aca="true">IF(I86="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J86))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J86)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J86" s="9"/>
       <c r="L86" s="0" t="n">
-        <f aca="false">IF(I86="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="0" t="n">
-        <f aca="true">IF(K86 = 0, INDIRECT("M" &amp; ROW() - 1), K86)</f>
+        <f aca="false">IF(I86="-",P86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <f aca="true">IF(I86 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E86)</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <f aca="true">IF(I86 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P86" s="27"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="str">
+        <f aca="true">IF(I87="", "", IF(I87="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L87)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L87))))))</f>
+        <v/>
+      </c>
       <c r="B87" s="24" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4036,36 +4112,37 @@
         <v/>
       </c>
       <c r="F87" s="25" t="str">
-        <f aca="true">IF(G87="", IF(I87="","",(INDIRECT("M" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("M" &amp; ROW() - 1) - M87))</f>
+        <f aca="false">IF(I87 = "-", P87 * (O87 - N86), "")</f>
         <v/>
       </c>
       <c r="G87" s="26" t="str">
-        <f aca="true">IF(I87 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I87 = "-", P87 * 6500,"")</f>
         <v/>
       </c>
       <c r="H87" s="26" t="str">
         <f aca="true">IF(I87 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J87" s="9" t="n">
-        <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1)*P87,E87)</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <f aca="true">IF(I87="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J87))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J87)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J87" s="9"/>
       <c r="L87" s="0" t="n">
-        <f aca="false">IF(I87="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="0" t="n">
-        <f aca="true">IF(K87 = 0, INDIRECT("M" &amp; ROW() - 1), K87)</f>
+        <f aca="false">IF(I87="-",P87,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="0" t="n">
+        <f aca="true">IF(I87 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E87)</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <f aca="true">IF(I87 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P87" s="27"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="str">
+        <f aca="true">IF(I88="", "", IF(I88="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L88)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L88))))))</f>
+        <v/>
+      </c>
       <c r="B88" s="24" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4075,36 +4152,37 @@
         <v/>
       </c>
       <c r="F88" s="25" t="str">
-        <f aca="true">IF(G88="", IF(I88="","",(INDIRECT("M" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("M" &amp; ROW() - 1) - M88))</f>
+        <f aca="false">IF(I88 = "-", P88 * (O88 - N87), "")</f>
         <v/>
       </c>
       <c r="G88" s="26" t="str">
-        <f aca="true">IF(I88 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I88 = "-", P88 * 6500,"")</f>
         <v/>
       </c>
       <c r="H88" s="26" t="str">
         <f aca="true">IF(I88 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J88" s="9" t="n">
-        <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1)*P88,E88)</f>
-        <v>0</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <f aca="true">IF(I88="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J88))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J88)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J88" s="9"/>
       <c r="L88" s="0" t="n">
-        <f aca="false">IF(I88="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="0" t="n">
-        <f aca="true">IF(K88 = 0, INDIRECT("M" &amp; ROW() - 1), K88)</f>
+        <f aca="false">IF(I88="-",P88,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="0" t="n">
+        <f aca="true">IF(I88 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E88)</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <f aca="true">IF(I88 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="str">
+        <f aca="true">IF(I89="", "", IF(I89="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L89)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L89))))))</f>
+        <v/>
+      </c>
       <c r="B89" s="24" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4114,36 +4192,37 @@
         <v/>
       </c>
       <c r="F89" s="25" t="str">
-        <f aca="true">IF(G89="", IF(I89="","",(INDIRECT("M" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("M" &amp; ROW() - 1) - M89))</f>
+        <f aca="false">IF(I89 = "-", P89 * (O89 - N88), "")</f>
         <v/>
       </c>
       <c r="G89" s="26" t="str">
-        <f aca="true">IF(I89 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I89 = "-", P89 * 6500,"")</f>
         <v/>
       </c>
       <c r="H89" s="26" t="str">
         <f aca="true">IF(I89 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J89" s="9" t="n">
-        <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1)*P89,E89)</f>
-        <v>0</v>
-      </c>
-      <c r="K89" s="0" t="n">
-        <f aca="true">IF(I89="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J89))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J89)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J89" s="9"/>
       <c r="L89" s="0" t="n">
-        <f aca="false">IF(I89="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="0" t="n">
-        <f aca="true">IF(K89 = 0, INDIRECT("M" &amp; ROW() - 1), K89)</f>
+        <f aca="false">IF(I89="-",P89,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <f aca="true">IF(I89 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E89)</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <f aca="true">IF(I89 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P89" s="27"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="str">
+        <f aca="true">IF(I90="", "", IF(I90="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L90)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L90))))))</f>
+        <v/>
+      </c>
       <c r="B90" s="24" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4153,36 +4232,37 @@
         <v/>
       </c>
       <c r="F90" s="25" t="str">
-        <f aca="true">IF(G90="", IF(I90="","",(INDIRECT("M" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("M" &amp; ROW() - 1) - M90))</f>
+        <f aca="false">IF(I90 = "-", P90 * (O90 - N89), "")</f>
         <v/>
       </c>
       <c r="G90" s="26" t="str">
-        <f aca="true">IF(I90 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I90 = "-", P90 * 6500,"")</f>
         <v/>
       </c>
       <c r="H90" s="26" t="str">
         <f aca="true">IF(I90 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J90" s="9" t="n">
-        <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1)*P90,E90)</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="0" t="n">
-        <f aca="true">IF(I90="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J90))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J90)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J90" s="9"/>
       <c r="L90" s="0" t="n">
-        <f aca="false">IF(I90="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="0" t="n">
-        <f aca="true">IF(K90 = 0, INDIRECT("M" &amp; ROW() - 1), K90)</f>
+        <f aca="false">IF(I90="-",P90,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <f aca="true">IF(I90 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E90)</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <f aca="true">IF(I90 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P90" s="27"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="str">
+        <f aca="true">IF(I91="", "", IF(I91="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L91)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L91))))))</f>
+        <v/>
+      </c>
       <c r="B91" s="24" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4192,36 +4272,37 @@
         <v/>
       </c>
       <c r="F91" s="25" t="str">
-        <f aca="true">IF(G91="", IF(I91="","",(INDIRECT("M" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("M" &amp; ROW() - 1) - M91))</f>
+        <f aca="false">IF(I91 = "-", P91 * (O91 - N90), "")</f>
         <v/>
       </c>
       <c r="G91" s="26" t="str">
-        <f aca="true">IF(I91 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I91 = "-", P91 * 6500,"")</f>
         <v/>
       </c>
       <c r="H91" s="26" t="str">
         <f aca="true">IF(I91 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J91" s="9" t="n">
-        <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1)*P91,E91)</f>
-        <v>0</v>
-      </c>
-      <c r="K91" s="0" t="n">
-        <f aca="true">IF(I91="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J91))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J91)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J91" s="9"/>
       <c r="L91" s="0" t="n">
-        <f aca="false">IF(I91="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="0" t="n">
-        <f aca="true">IF(K91 = 0, INDIRECT("M" &amp; ROW() - 1), K91)</f>
+        <f aca="false">IF(I91="-",P91,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <f aca="true">IF(I91 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E91)</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <f aca="true">IF(I91 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="str">
+        <f aca="true">IF(I92="", "", IF(I92="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L92)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L92))))))</f>
+        <v/>
+      </c>
       <c r="B92" s="24" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4231,36 +4312,37 @@
         <v/>
       </c>
       <c r="F92" s="25" t="str">
-        <f aca="true">IF(G92="", IF(I92="","",(INDIRECT("M" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("M" &amp; ROW() - 1) - M92))</f>
+        <f aca="false">IF(I92 = "-", P92 * (O92 - N91), "")</f>
         <v/>
       </c>
       <c r="G92" s="26" t="str">
-        <f aca="true">IF(I92 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I92 = "-", P92 * 6500,"")</f>
         <v/>
       </c>
       <c r="H92" s="26" t="str">
         <f aca="true">IF(I92 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J92" s="9" t="n">
-        <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1)*P92,E92)</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="0" t="n">
-        <f aca="true">IF(I92="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J92))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J92)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J92" s="9"/>
       <c r="L92" s="0" t="n">
-        <f aca="false">IF(I92="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="0" t="n">
-        <f aca="true">IF(K92 = 0, INDIRECT("M" &amp; ROW() - 1), K92)</f>
+        <f aca="false">IF(I92="-",P92,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <f aca="true">IF(I92 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E92)</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <f aca="true">IF(I92 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P92" s="27"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="str">
+        <f aca="true">IF(I93="", "", IF(I93="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L93)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L93))))))</f>
+        <v/>
+      </c>
       <c r="B93" s="24" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4270,36 +4352,37 @@
         <v/>
       </c>
       <c r="F93" s="25" t="str">
-        <f aca="true">IF(G93="", IF(I93="","",(INDIRECT("M" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("M" &amp; ROW() - 1) - M93))</f>
+        <f aca="false">IF(I93 = "-", P93 * (O93 - N92), "")</f>
         <v/>
       </c>
       <c r="G93" s="26" t="str">
-        <f aca="true">IF(I93 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I93 = "-", P93 * 6500,"")</f>
         <v/>
       </c>
       <c r="H93" s="26" t="str">
         <f aca="true">IF(I93 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J93" s="9" t="n">
-        <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1)*P93,E93)</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="0" t="n">
-        <f aca="true">IF(I93="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J93))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J93)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J93" s="9"/>
       <c r="L93" s="0" t="n">
-        <f aca="false">IF(I93="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="0" t="n">
-        <f aca="true">IF(K93 = 0, INDIRECT("M" &amp; ROW() - 1), K93)</f>
+        <f aca="false">IF(I93="-",P93,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <f aca="true">IF(I93 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E93)</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <f aca="true">IF(I93 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P93" s="27"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="str">
+        <f aca="true">IF(I94="", "", IF(I94="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L94)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L94))))))</f>
+        <v/>
+      </c>
       <c r="B94" s="24" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4309,36 +4392,37 @@
         <v/>
       </c>
       <c r="F94" s="25" t="str">
-        <f aca="true">IF(G94="", IF(I94="","",(INDIRECT("M" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("M" &amp; ROW() - 1) - M94))</f>
+        <f aca="false">IF(I94 = "-", P94 * (O94 - N93), "")</f>
         <v/>
       </c>
       <c r="G94" s="26" t="str">
-        <f aca="true">IF(I94 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I94 = "-", P94 * 6500,"")</f>
         <v/>
       </c>
       <c r="H94" s="26" t="str">
         <f aca="true">IF(I94 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J94" s="9" t="n">
-        <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1)*P94,E94)</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="0" t="n">
-        <f aca="true">IF(I94="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J94))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J94)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J94" s="9"/>
       <c r="L94" s="0" t="n">
-        <f aca="false">IF(I94="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="0" t="n">
-        <f aca="true">IF(K94 = 0, INDIRECT("M" &amp; ROW() - 1), K94)</f>
+        <f aca="false">IF(I94="-",P94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <f aca="true">IF(I94 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E94)</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <f aca="true">IF(I94 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P94" s="27"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="str">
+        <f aca="true">IF(I95="", "", IF(I95="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L95)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L95))))))</f>
+        <v/>
+      </c>
       <c r="B95" s="24" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4348,36 +4432,37 @@
         <v/>
       </c>
       <c r="F95" s="25" t="str">
-        <f aca="true">IF(G95="", IF(I95="","",(INDIRECT("M" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("M" &amp; ROW() - 1) - M95))</f>
+        <f aca="false">IF(I95 = "-", P95 * (O95 - N94), "")</f>
         <v/>
       </c>
       <c r="G95" s="26" t="str">
-        <f aca="true">IF(I95 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I95 = "-", P95 * 6500,"")</f>
         <v/>
       </c>
       <c r="H95" s="26" t="str">
         <f aca="true">IF(I95 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J95" s="9" t="n">
-        <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1)*P95,E95)</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="0" t="n">
-        <f aca="true">IF(I95="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J95))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J95)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J95" s="9"/>
       <c r="L95" s="0" t="n">
-        <f aca="false">IF(I95="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="0" t="n">
-        <f aca="true">IF(K95 = 0, INDIRECT("M" &amp; ROW() - 1), K95)</f>
+        <f aca="false">IF(I95="-",P95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <f aca="true">IF(I95 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E95)</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <f aca="true">IF(I95 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P95" s="27"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="str">
+        <f aca="true">IF(I96="", "", IF(I96="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L96)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L96))))))</f>
+        <v/>
+      </c>
       <c r="B96" s="24" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4387,36 +4472,37 @@
         <v/>
       </c>
       <c r="F96" s="25" t="str">
-        <f aca="true">IF(G96="", IF(I96="","",(INDIRECT("M" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("M" &amp; ROW() - 1) - M96))</f>
+        <f aca="false">IF(I96 = "-", P96 * (O96 - N95), "")</f>
         <v/>
       </c>
       <c r="G96" s="26" t="str">
-        <f aca="true">IF(I96 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I96 = "-", P96 * 6500,"")</f>
         <v/>
       </c>
       <c r="H96" s="26" t="str">
         <f aca="true">IF(I96 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J96" s="9" t="n">
-        <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1)*P96,E96)</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="0" t="n">
-        <f aca="true">IF(I96="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J96))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J96)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J96" s="9"/>
       <c r="L96" s="0" t="n">
-        <f aca="false">IF(I96="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="0" t="n">
-        <f aca="true">IF(K96 = 0, INDIRECT("M" &amp; ROW() - 1), K96)</f>
+        <f aca="false">IF(I96="-",P96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <f aca="true">IF(I96 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E96)</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <f aca="true">IF(I96 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P96" s="27"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="str">
+        <f aca="true">IF(I97="", "", IF(I97="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L97)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L97))))))</f>
+        <v/>
+      </c>
       <c r="B97" s="24" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4426,36 +4512,37 @@
         <v/>
       </c>
       <c r="F97" s="25" t="str">
-        <f aca="true">IF(G97="", IF(I97="","",(INDIRECT("M" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("M" &amp; ROW() - 1) - M97))</f>
+        <f aca="false">IF(I97 = "-", P97 * (O97 - N96), "")</f>
         <v/>
       </c>
       <c r="G97" s="26" t="str">
-        <f aca="true">IF(I97 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I97 = "-", P97 * 6500,"")</f>
         <v/>
       </c>
       <c r="H97" s="26" t="str">
         <f aca="true">IF(I97 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J97" s="9" t="n">
-        <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1)*P97,E97)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="0" t="n">
-        <f aca="true">IF(I97="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J97))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J97)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J97" s="9"/>
       <c r="L97" s="0" t="n">
-        <f aca="false">IF(I97="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="0" t="n">
-        <f aca="true">IF(K97 = 0, INDIRECT("M" &amp; ROW() - 1), K97)</f>
+        <f aca="false">IF(I97="-",P97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <f aca="true">IF(I97 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E97)</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <f aca="true">IF(I97 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P97" s="27"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="str">
+        <f aca="true">IF(I98="", "", IF(I98="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L98)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L98))))))</f>
+        <v/>
+      </c>
       <c r="B98" s="24" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4465,36 +4552,37 @@
         <v/>
       </c>
       <c r="F98" s="25" t="str">
-        <f aca="true">IF(G98="", IF(I98="","",(INDIRECT("M" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("M" &amp; ROW() - 1) - M98))</f>
+        <f aca="false">IF(I98 = "-", P98 * (O98 - N97), "")</f>
         <v/>
       </c>
       <c r="G98" s="26" t="str">
-        <f aca="true">IF(I98 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I98 = "-", P98 * 6500,"")</f>
         <v/>
       </c>
       <c r="H98" s="26" t="str">
         <f aca="true">IF(I98 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J98" s="9" t="n">
-        <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1)*P98,E98)</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="0" t="n">
-        <f aca="true">IF(I98="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J98))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J98)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J98" s="9"/>
       <c r="L98" s="0" t="n">
-        <f aca="false">IF(I98="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="0" t="n">
-        <f aca="true">IF(K98 = 0, INDIRECT("M" &amp; ROW() - 1), K98)</f>
+        <f aca="false">IF(I98="-",P98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <f aca="true">IF(I98 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E98)</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <f aca="true">IF(I98 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P98" s="27"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="str">
+        <f aca="true">IF(I99="", "", IF(I99="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L99)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L99))))))</f>
+        <v/>
+      </c>
       <c r="B99" s="24" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4504,36 +4592,37 @@
         <v/>
       </c>
       <c r="F99" s="25" t="str">
-        <f aca="true">IF(G99="", IF(I99="","",(INDIRECT("M" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("M" &amp; ROW() - 1) - M99))</f>
+        <f aca="false">IF(I99 = "-", P99 * (O99 - N98), "")</f>
         <v/>
       </c>
       <c r="G99" s="26" t="str">
-        <f aca="true">IF(I99 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I99 = "-", P99 * 6500,"")</f>
         <v/>
       </c>
       <c r="H99" s="26" t="str">
         <f aca="true">IF(I99 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J99" s="9" t="n">
-        <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1)*P99,E99)</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="0" t="n">
-        <f aca="true">IF(I99="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J99))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J99)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J99" s="9"/>
       <c r="L99" s="0" t="n">
-        <f aca="false">IF(I99="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="0" t="n">
-        <f aca="true">IF(K99 = 0, INDIRECT("M" &amp; ROW() - 1), K99)</f>
+        <f aca="false">IF(I99="-",P99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <f aca="true">IF(I99 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E99)</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <f aca="true">IF(I99 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P99" s="27"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="str">
+        <f aca="true">IF(I100="", "", IF(I100="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L100))))))</f>
+        <v/>
+      </c>
       <c r="B100" s="24" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4543,36 +4632,37 @@
         <v/>
       </c>
       <c r="F100" s="25" t="str">
-        <f aca="true">IF(G100="", IF(I100="","",(INDIRECT("M" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("M" &amp; ROW() - 1) - M100))</f>
+        <f aca="false">IF(I100 = "-", P100 * (O100 - N99), "")</f>
         <v/>
       </c>
       <c r="G100" s="26" t="str">
-        <f aca="true">IF(I100 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I100 = "-", P100 * 6500,"")</f>
         <v/>
       </c>
       <c r="H100" s="26" t="str">
         <f aca="true">IF(I100 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J100" s="9" t="n">
-        <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1)*P100,E100)</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="0" t="n">
-        <f aca="true">IF(I100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J100)))),0)</f>
-        <v>0</v>
-      </c>
+      <c r="J100" s="9"/>
       <c r="L100" s="0" t="n">
-        <f aca="false">IF(I100="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="0" t="n">
-        <f aca="true">IF(K100 = 0, INDIRECT("M" &amp; ROW() - 1), K100)</f>
+        <f aca="false">IF(I100="-",P100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <f aca="true">IF(I100 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E100)</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <f aca="true">IF(I100 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P100" s="27"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="str">
+        <f aca="true">IF(I101="", "", IF(I101="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L101))))))</f>
+        <v/>
+      </c>
       <c r="B101" s="24" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4582,36 +4672,37 @@
         <v/>
       </c>
       <c r="F101" s="25" t="str">
-        <f aca="true">IF(G101="", IF(I101="","",(INDIRECT("M" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("M" &amp; ROW() - 1) - M101))</f>
+        <f aca="false">IF(I101 = "-", P101 * (O101 - N100), "")</f>
         <v/>
       </c>
       <c r="G101" s="26" t="str">
-        <f aca="true">IF(I101 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I101 = "-", P101 * 6500,"")</f>
         <v/>
       </c>
       <c r="H101" s="26" t="str">
         <f aca="true">IF(I101 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J101" s="9" t="n">
-        <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1)*P101,E101)</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="0" t="n">
-        <f aca="true">IF(I101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J101)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J101" s="9"/>
       <c r="L101" s="0" t="n">
-        <f aca="false">IF(I101="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="0" t="n">
-        <f aca="true">IF(K101 = 0, INDIRECT("M" &amp; ROW() - 1), K101)</f>
+        <f aca="false">IF(I101="-",P101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="0" t="n">
+        <f aca="true">IF(I101 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E101)</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <f aca="true">IF(I101 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P101" s="27"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="str">
+        <f aca="true">IF(I102="", "", IF(I102="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L102))))))</f>
+        <v/>
+      </c>
       <c r="B102" s="24" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4621,36 +4712,37 @@
         <v/>
       </c>
       <c r="F102" s="25" t="str">
-        <f aca="true">IF(G102="", IF(I102="","",(INDIRECT("M" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("M" &amp; ROW() - 1) - M102))</f>
+        <f aca="false">IF(I102 = "-", P102 * (O102 - N101), "")</f>
         <v/>
       </c>
       <c r="G102" s="26" t="str">
-        <f aca="true">IF(I102 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I102 = "-", P102 * 6500,"")</f>
         <v/>
       </c>
       <c r="H102" s="26" t="str">
         <f aca="true">IF(I102 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J102" s="9" t="n">
-        <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1)*P102,E102)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="0" t="n">
-        <f aca="true">IF(I102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J102)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J102" s="9"/>
       <c r="L102" s="0" t="n">
-        <f aca="false">IF(I102="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="0" t="n">
-        <f aca="true">IF(K102 = 0, INDIRECT("M" &amp; ROW() - 1), K102)</f>
+        <f aca="false">IF(I102="-",P102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="0" t="n">
+        <f aca="true">IF(I102 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E102)</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <f aca="true">IF(I102 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P102" s="27"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="str">
+        <f aca="true">IF(I103="", "", IF(I103="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L103)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L103))))))</f>
+        <v/>
+      </c>
       <c r="B103" s="24" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4660,36 +4752,37 @@
         <v/>
       </c>
       <c r="F103" s="25" t="str">
-        <f aca="true">IF(G103="", IF(I103="","",(INDIRECT("M" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("M" &amp; ROW() - 1) - M103))</f>
+        <f aca="false">IF(I103 = "-", P103 * (O103 - N102), "")</f>
         <v/>
       </c>
       <c r="G103" s="26" t="str">
-        <f aca="true">IF(I103 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I103 = "-", P103 * 6500,"")</f>
         <v/>
       </c>
       <c r="H103" s="26" t="str">
         <f aca="true">IF(I103 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J103" s="9" t="n">
-        <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1)*P103,E103)</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="0" t="n">
-        <f aca="true">IF(I103 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J103)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J103)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J103" s="9"/>
       <c r="L103" s="0" t="n">
-        <f aca="false">IF(I103="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="0" t="n">
-        <f aca="true">IF(K103 = 0, INDIRECT("M" &amp; ROW() - 1), K103)</f>
+        <f aca="false">IF(I103="-",P103,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="0" t="n">
+        <f aca="true">IF(I103 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E103)</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <f aca="true">IF(I103 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P103" s="27"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="str">
+        <f aca="true">IF(I104="", "", IF(I104="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L104)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L104))))))</f>
+        <v/>
+      </c>
       <c r="B104" s="24" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4699,36 +4792,37 @@
         <v/>
       </c>
       <c r="F104" s="25" t="str">
-        <f aca="true">IF(G104="", IF(I104="","",(INDIRECT("M" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("M" &amp; ROW() - 1) - M104))</f>
+        <f aca="false">IF(I104 = "-", P104 * (O104 - N103), "")</f>
         <v/>
       </c>
       <c r="G104" s="26" t="str">
-        <f aca="true">IF(I104 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I104 = "-", P104 * 6500,"")</f>
         <v/>
       </c>
       <c r="H104" s="26" t="str">
         <f aca="true">IF(I104 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J104" s="9" t="n">
-        <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1)*P104,E104)</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="0" t="n">
-        <f aca="true">IF(I104 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J104)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J104)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J104" s="9"/>
       <c r="L104" s="0" t="n">
-        <f aca="false">IF(I104="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="0" t="n">
-        <f aca="true">IF(K104 = 0, INDIRECT("M" &amp; ROW() - 1), K104)</f>
+        <f aca="false">IF(I104="-",P104,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <f aca="true">IF(I104 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E104)</f>
+        <v>0</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <f aca="true">IF(I104 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P104" s="27"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="str">
+        <f aca="true">IF(I105="", "", IF(I105="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L105)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L105))))))</f>
+        <v/>
+      </c>
       <c r="B105" s="24" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4738,36 +4832,37 @@
         <v/>
       </c>
       <c r="F105" s="25" t="str">
-        <f aca="true">IF(G105="", IF(I105="","",(INDIRECT("M" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("M" &amp; ROW() - 1) - M105))</f>
+        <f aca="false">IF(I105 = "-", P105 * (O105 - N104), "")</f>
         <v/>
       </c>
       <c r="G105" s="26" t="str">
-        <f aca="true">IF(I105 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I105 = "-", P105 * 6500,"")</f>
         <v/>
       </c>
       <c r="H105" s="26" t="str">
         <f aca="true">IF(I105 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J105" s="9" t="n">
-        <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1)*P105,E105)</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="0" t="n">
-        <f aca="true">IF(I105 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J105)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J105)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J105" s="9"/>
       <c r="L105" s="0" t="n">
-        <f aca="false">IF(I105="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="0" t="n">
-        <f aca="true">IF(K105 = 0, INDIRECT("M" &amp; ROW() - 1), K105)</f>
+        <f aca="false">IF(I105="-",P105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <f aca="true">IF(I105 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E105)</f>
+        <v>0</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <f aca="true">IF(I105 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P105" s="27"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="str">
+        <f aca="true">IF(I106="", "", IF(I106="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L106)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L106))))))</f>
+        <v/>
+      </c>
       <c r="B106" s="24" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4777,36 +4872,37 @@
         <v/>
       </c>
       <c r="F106" s="25" t="str">
-        <f aca="true">IF(G106="", IF(I106="","",(INDIRECT("M" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("M" &amp; ROW() - 1) - M106))</f>
+        <f aca="false">IF(I106 = "-", P106 * (O106 - N105), "")</f>
         <v/>
       </c>
       <c r="G106" s="26" t="str">
-        <f aca="true">IF(I106 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I106 = "-", P106 * 6500,"")</f>
         <v/>
       </c>
       <c r="H106" s="26" t="str">
         <f aca="true">IF(I106 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J106" s="9" t="n">
-        <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1)*P106,E106)</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="0" t="n">
-        <f aca="true">IF(I106 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J106)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J106)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J106" s="9"/>
       <c r="L106" s="0" t="n">
-        <f aca="false">IF(I106="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="0" t="n">
-        <f aca="true">IF(K106 = 0, INDIRECT("M" &amp; ROW() - 1), K106)</f>
+        <f aca="false">IF(I106="-",P106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <f aca="true">IF(I106 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E106)</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <f aca="true">IF(I106 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P106" s="27"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="str">
+        <f aca="true">IF(I107="", "", IF(I107="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L107))))))</f>
+        <v/>
+      </c>
       <c r="B107" s="24" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4816,36 +4912,37 @@
         <v/>
       </c>
       <c r="F107" s="25" t="str">
-        <f aca="true">IF(G107="", IF(I107="","",(INDIRECT("M" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("M" &amp; ROW() - 1) - M107))</f>
+        <f aca="false">IF(I107 = "-", P107 * (O107 - N106), "")</f>
         <v/>
       </c>
       <c r="G107" s="26" t="str">
-        <f aca="true">IF(I107 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I107 = "-", P107 * 6500,"")</f>
         <v/>
       </c>
       <c r="H107" s="26" t="str">
         <f aca="true">IF(I107 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J107" s="9" t="n">
-        <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1)*P107,E107)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="0" t="n">
-        <f aca="true">IF(I107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J107)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J107" s="9"/>
       <c r="L107" s="0" t="n">
-        <f aca="false">IF(I107="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M107" s="0" t="n">
-        <f aca="true">IF(K107 = 0, INDIRECT("M" &amp; ROW() - 1), K107)</f>
+        <f aca="false">IF(I107="-",P107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <f aca="true">IF(I107 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E107)</f>
+        <v>0</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <f aca="true">IF(I107 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P107" s="27"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="str">
+        <f aca="true">IF(I108="", "", IF(I108="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L108))))))</f>
+        <v/>
+      </c>
       <c r="B108" s="24" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4855,36 +4952,37 @@
         <v/>
       </c>
       <c r="F108" s="25" t="str">
-        <f aca="true">IF(G108="", IF(I108="","",(INDIRECT("M" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("M" &amp; ROW() - 1) - M108))</f>
+        <f aca="false">IF(I108 = "-", P108 * (O108 - N107), "")</f>
         <v/>
       </c>
       <c r="G108" s="26" t="str">
-        <f aca="true">IF(I108 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I108 = "-", P108 * 6500,"")</f>
         <v/>
       </c>
       <c r="H108" s="26" t="str">
         <f aca="true">IF(I108 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J108" s="9" t="n">
-        <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1)*P108,E108)</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="0" t="n">
-        <f aca="true">IF(I108 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J108)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J108" s="9"/>
       <c r="L108" s="0" t="n">
-        <f aca="false">IF(I108="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M108" s="0" t="n">
-        <f aca="true">IF(K108 = 0, INDIRECT("M" &amp; ROW() - 1), K108)</f>
+        <f aca="false">IF(I108="-",P108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="0" t="n">
+        <f aca="true">IF(I108 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E108)</f>
+        <v>0</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <f aca="true">IF(I108 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P108" s="27"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="str">
+        <f aca="true">IF(I109="", "", IF(I109="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L109)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L109))))))</f>
+        <v/>
+      </c>
       <c r="B109" s="24" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4894,36 +4992,37 @@
         <v/>
       </c>
       <c r="F109" s="25" t="str">
-        <f aca="true">IF(G109="", IF(I109="","",(INDIRECT("M" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("M" &amp; ROW() - 1) - M109))</f>
+        <f aca="false">IF(I109 = "-", P109 * (O109 - N108), "")</f>
         <v/>
       </c>
       <c r="G109" s="26" t="str">
-        <f aca="true">IF(I109 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I109 = "-", P109 * 6500,"")</f>
         <v/>
       </c>
       <c r="H109" s="26" t="str">
         <f aca="true">IF(I109 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J109" s="9" t="n">
-        <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1)*P109,E109)</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <f aca="true">IF(I109 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J109)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J109)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J109" s="9"/>
       <c r="L109" s="0" t="n">
-        <f aca="false">IF(I109="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M109" s="0" t="n">
-        <f aca="true">IF(K109 = 0, INDIRECT("M" &amp; ROW() - 1), K109)</f>
+        <f aca="false">IF(I109="-",P109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <f aca="true">IF(I109 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E109)</f>
+        <v>0</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <f aca="true">IF(I109 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P109" s="27"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="str">
+        <f aca="true">IF(I110="", "", IF(I110="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L110)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L110))))))</f>
+        <v/>
+      </c>
       <c r="B110" s="24" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4933,36 +5032,37 @@
         <v/>
       </c>
       <c r="F110" s="25" t="str">
-        <f aca="true">IF(G110="", IF(I110="","",(INDIRECT("M" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("M" &amp; ROW() - 1) - M110))</f>
+        <f aca="false">IF(I110 = "-", P110 * (O110 - N109), "")</f>
         <v/>
       </c>
       <c r="G110" s="26" t="str">
-        <f aca="true">IF(I110 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I110 = "-", P110 * 6500,"")</f>
         <v/>
       </c>
       <c r="H110" s="26" t="str">
         <f aca="true">IF(I110 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J110" s="9" t="n">
-        <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1)*P110,E110)</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="0" t="n">
-        <f aca="true">IF(I110 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J110)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J110)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J110" s="9"/>
       <c r="L110" s="0" t="n">
-        <f aca="false">IF(I110="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="0" t="n">
-        <f aca="true">IF(K110 = 0, INDIRECT("M" &amp; ROW() - 1), K110)</f>
+        <f aca="false">IF(I110="-",P110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <f aca="true">IF(I110 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E110)</f>
+        <v>0</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <f aca="true">IF(I110 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P110" s="27"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="str">
+        <f aca="true">IF(I111="", "", IF(I111="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L111)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L111))))))</f>
+        <v/>
+      </c>
       <c r="B111" s="24" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -4972,36 +5072,37 @@
         <v/>
       </c>
       <c r="F111" s="25" t="str">
-        <f aca="true">IF(G111="", IF(I111="","",(INDIRECT("M" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("M" &amp; ROW() - 1) - M111))</f>
+        <f aca="false">IF(I111 = "-", P111 * (O111 - N110), "")</f>
         <v/>
       </c>
       <c r="G111" s="26" t="str">
-        <f aca="true">IF(I111 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I111 = "-", P111 * 6500,"")</f>
         <v/>
       </c>
       <c r="H111" s="26" t="str">
         <f aca="true">IF(I111 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J111" s="9" t="n">
-        <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1)*P111,E111)</f>
-        <v>0</v>
-      </c>
-      <c r="K111" s="0" t="n">
-        <f aca="true">IF(I111 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J111)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J111)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J111" s="9"/>
       <c r="L111" s="0" t="n">
-        <f aca="false">IF(I111="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M111" s="0" t="n">
-        <f aca="true">IF(K111 = 0, INDIRECT("M" &amp; ROW() - 1), K111)</f>
+        <f aca="false">IF(I111="-",P111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="0" t="n">
+        <f aca="true">IF(I111 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E111)</f>
+        <v>0</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <f aca="true">IF(I111 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P111" s="27"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="str">
+        <f aca="true">IF(I112="", "", IF(I112="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L112)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L112))))))</f>
+        <v/>
+      </c>
       <c r="B112" s="24" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5011,36 +5112,37 @@
         <v/>
       </c>
       <c r="F112" s="25" t="str">
-        <f aca="true">IF(G112="", IF(I112="","",(INDIRECT("M" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("M" &amp; ROW() - 1) - M112))</f>
+        <f aca="false">IF(I112 = "-", P112 * (O112 - N111), "")</f>
         <v/>
       </c>
       <c r="G112" s="26" t="str">
-        <f aca="true">IF(I112 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I112 = "-", P112 * 6500,"")</f>
         <v/>
       </c>
       <c r="H112" s="26" t="str">
         <f aca="true">IF(I112 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J112" s="9" t="n">
-        <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1)*P112,E112)</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="0" t="n">
-        <f aca="true">IF(I112 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J112)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J112)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J112" s="9"/>
       <c r="L112" s="0" t="n">
-        <f aca="false">IF(I112="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="0" t="n">
-        <f aca="true">IF(K112 = 0, INDIRECT("M" &amp; ROW() - 1), K112)</f>
+        <f aca="false">IF(I112="-",P112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <f aca="true">IF(I112 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E112)</f>
+        <v>0</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <f aca="true">IF(I112 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P112" s="27"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="str">
+        <f aca="true">IF(I113="", "", IF(I113="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L113)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L113))))))</f>
+        <v/>
+      </c>
       <c r="B113" s="24" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5050,36 +5152,37 @@
         <v/>
       </c>
       <c r="F113" s="25" t="str">
-        <f aca="true">IF(G113="", IF(I113="","",(INDIRECT("M" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("M" &amp; ROW() - 1) - M113))</f>
+        <f aca="false">IF(I113 = "-", P113 * (O113 - N112), "")</f>
         <v/>
       </c>
       <c r="G113" s="26" t="str">
-        <f aca="true">IF(I113 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I113 = "-", P113 * 6500,"")</f>
         <v/>
       </c>
       <c r="H113" s="26" t="str">
         <f aca="true">IF(I113 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J113" s="9" t="n">
-        <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1)*P113,E113)</f>
-        <v>0</v>
-      </c>
-      <c r="K113" s="0" t="n">
-        <f aca="true">IF(I113 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J113)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J113)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J113" s="9"/>
       <c r="L113" s="0" t="n">
-        <f aca="false">IF(I113="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M113" s="0" t="n">
-        <f aca="true">IF(K113 = 0, INDIRECT("M" &amp; ROW() - 1), K113)</f>
+        <f aca="false">IF(I113="-",P113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <f aca="true">IF(I113 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E113)</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <f aca="true">IF(I113 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P113" s="27"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="str">
+        <f aca="true">IF(I114="", "", IF(I114="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L114)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L114))))))</f>
+        <v/>
+      </c>
       <c r="B114" s="24" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5089,36 +5192,37 @@
         <v/>
       </c>
       <c r="F114" s="25" t="str">
-        <f aca="true">IF(G114="", IF(I114="","",(INDIRECT("M" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("M" &amp; ROW() - 1) - M114))</f>
+        <f aca="false">IF(I114 = "-", P114 * (O114 - N113), "")</f>
         <v/>
       </c>
       <c r="G114" s="26" t="str">
-        <f aca="true">IF(I114 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I114 = "-", P114 * 6500,"")</f>
         <v/>
       </c>
       <c r="H114" s="26" t="str">
         <f aca="true">IF(I114 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J114" s="9" t="n">
-        <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1)*P114,E114)</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="0" t="n">
-        <f aca="true">IF(I114 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J114)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J114)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J114" s="9"/>
       <c r="L114" s="0" t="n">
-        <f aca="false">IF(I114="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="0" t="n">
-        <f aca="true">IF(K114 = 0, INDIRECT("M" &amp; ROW() - 1), K114)</f>
+        <f aca="false">IF(I114="-",P114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <f aca="true">IF(I114 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E114)</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <f aca="true">IF(I114 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P114" s="27"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="str">
+        <f aca="true">IF(I115="", "", IF(I115="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L115)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L115))))))</f>
+        <v/>
+      </c>
       <c r="B115" s="24" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5128,36 +5232,37 @@
         <v/>
       </c>
       <c r="F115" s="25" t="str">
-        <f aca="true">IF(G115="", IF(I115="","",(INDIRECT("M" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("M" &amp; ROW() - 1) - M115))</f>
+        <f aca="false">IF(I115 = "-", P115 * (O115 - N114), "")</f>
         <v/>
       </c>
       <c r="G115" s="26" t="str">
-        <f aca="true">IF(I115 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I115 = "-", P115 * 6500,"")</f>
         <v/>
       </c>
       <c r="H115" s="26" t="str">
         <f aca="true">IF(I115 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J115" s="9" t="n">
-        <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1)*P115,E115)</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="0" t="n">
-        <f aca="true">IF(I115 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J115)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J115)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J115" s="9"/>
       <c r="L115" s="0" t="n">
-        <f aca="false">IF(I115="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M115" s="0" t="n">
-        <f aca="true">IF(K115 = 0, INDIRECT("M" &amp; ROW() - 1), K115)</f>
+        <f aca="false">IF(I115="-",P115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <f aca="true">IF(I115 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E115)</f>
+        <v>0</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <f aca="true">IF(I115 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P115" s="27"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="str">
+        <f aca="true">IF(I116="", "", IF(I116="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L116))))))</f>
+        <v/>
+      </c>
       <c r="B116" s="24" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5167,36 +5272,37 @@
         <v/>
       </c>
       <c r="F116" s="25" t="str">
-        <f aca="true">IF(G116="", IF(I116="","",(INDIRECT("M" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("M" &amp; ROW() - 1) - M116))</f>
+        <f aca="false">IF(I116 = "-", P116 * (O116 - N115), "")</f>
         <v/>
       </c>
       <c r="G116" s="26" t="str">
-        <f aca="true">IF(I116 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I116 = "-", P116 * 6500,"")</f>
         <v/>
       </c>
       <c r="H116" s="26" t="str">
         <f aca="true">IF(I116 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J116" s="9" t="n">
-        <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1)*P116,E116)</f>
-        <v>0</v>
-      </c>
-      <c r="K116" s="0" t="n">
-        <f aca="true">IF(I116 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J116)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J116" s="9"/>
       <c r="L116" s="0" t="n">
-        <f aca="false">IF(I116="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M116" s="0" t="n">
-        <f aca="true">IF(K116 = 0, INDIRECT("M" &amp; ROW() - 1), K116)</f>
+        <f aca="false">IF(I116="-",P116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <f aca="true">IF(I116 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E116)</f>
+        <v>0</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <f aca="true">IF(I116 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P116" s="27"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="str">
+        <f aca="true">IF(I117="", "", IF(I117="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L117))))))</f>
+        <v/>
+      </c>
       <c r="B117" s="24" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5206,36 +5312,37 @@
         <v/>
       </c>
       <c r="F117" s="25" t="str">
-        <f aca="true">IF(G117="", IF(I117="","",(INDIRECT("M" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("M" &amp; ROW() - 1) - M117))</f>
+        <f aca="false">IF(I117 = "-", P117 * (O117 - N116), "")</f>
         <v/>
       </c>
       <c r="G117" s="26" t="str">
-        <f aca="true">IF(I117 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I117 = "-", P117 * 6500,"")</f>
         <v/>
       </c>
       <c r="H117" s="26" t="str">
         <f aca="true">IF(I117 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J117" s="9" t="n">
-        <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1)*P117,E117)</f>
-        <v>0</v>
-      </c>
-      <c r="K117" s="0" t="n">
-        <f aca="true">IF(I117 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J117)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J117" s="9"/>
       <c r="L117" s="0" t="n">
-        <f aca="false">IF(I117="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M117" s="0" t="n">
-        <f aca="true">IF(K117 = 0, INDIRECT("M" &amp; ROW() - 1), K117)</f>
+        <f aca="false">IF(I117="-",P117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <f aca="true">IF(I117 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E117)</f>
+        <v>0</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <f aca="true">IF(I117 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P117" s="27"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="str">
+        <f aca="true">IF(I118="", "", IF(I118="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L118))))))</f>
+        <v/>
+      </c>
       <c r="B118" s="24" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5245,36 +5352,37 @@
         <v/>
       </c>
       <c r="F118" s="25" t="str">
-        <f aca="true">IF(G118="", IF(I118="","",(INDIRECT("M" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("M" &amp; ROW() - 1) - M118))</f>
+        <f aca="false">IF(I118 = "-", P118 * (O118 - N117), "")</f>
         <v/>
       </c>
       <c r="G118" s="26" t="str">
-        <f aca="true">IF(I118 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I118 = "-", P118 * 6500,"")</f>
         <v/>
       </c>
       <c r="H118" s="26" t="str">
         <f aca="true">IF(I118 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J118" s="9" t="n">
-        <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1)*P118,E118)</f>
-        <v>0</v>
-      </c>
-      <c r="K118" s="0" t="n">
-        <f aca="true">IF(I118 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J118)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J118" s="9"/>
       <c r="L118" s="0" t="n">
-        <f aca="false">IF(I118="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M118" s="0" t="n">
-        <f aca="true">IF(K118 = 0, INDIRECT("M" &amp; ROW() - 1), K118)</f>
+        <f aca="false">IF(I118="-",P118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <f aca="true">IF(I118 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E118)</f>
+        <v>0</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <f aca="true">IF(I118 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P118" s="27"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="str">
+        <f aca="true">IF(I119="", "", IF(I119="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L119))))))</f>
+        <v/>
+      </c>
       <c r="B119" s="24" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5284,36 +5392,37 @@
         <v/>
       </c>
       <c r="F119" s="25" t="str">
-        <f aca="true">IF(G119="", IF(I119="","",(INDIRECT("M" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("M" &amp; ROW() - 1) - M119))</f>
+        <f aca="false">IF(I119 = "-", P119 * (O119 - N118), "")</f>
         <v/>
       </c>
       <c r="G119" s="26" t="str">
-        <f aca="true">IF(I119 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I119 = "-", P119 * 6500,"")</f>
         <v/>
       </c>
       <c r="H119" s="26" t="str">
         <f aca="true">IF(I119 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J119" s="9" t="n">
-        <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1)*P119,E119)</f>
-        <v>0</v>
-      </c>
-      <c r="K119" s="0" t="n">
-        <f aca="true">IF(I119 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J119)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J119" s="9"/>
       <c r="L119" s="0" t="n">
-        <f aca="false">IF(I119="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M119" s="0" t="n">
-        <f aca="true">IF(K119 = 0, INDIRECT("M" &amp; ROW() - 1), K119)</f>
+        <f aca="false">IF(I119="-",P119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <f aca="true">IF(I119 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E119)</f>
+        <v>0</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <f aca="true">IF(I119 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P119" s="27"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="str">
+        <f aca="true">IF(I120="", "", IF(I120="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L120))))))</f>
+        <v/>
+      </c>
       <c r="B120" s="24" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5323,36 +5432,37 @@
         <v/>
       </c>
       <c r="F120" s="25" t="str">
-        <f aca="true">IF(G120="", IF(I120="","",(INDIRECT("M" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("M" &amp; ROW() - 1) - M120))</f>
+        <f aca="false">IF(I120 = "-", P120 * (O120 - N119), "")</f>
         <v/>
       </c>
       <c r="G120" s="26" t="str">
-        <f aca="true">IF(I120 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I120 = "-", P120 * 6500,"")</f>
         <v/>
       </c>
       <c r="H120" s="26" t="str">
         <f aca="true">IF(I120 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J120" s="9" t="n">
-        <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1)*P120,E120)</f>
-        <v>0</v>
-      </c>
-      <c r="K120" s="0" t="n">
-        <f aca="true">IF(I120 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J120)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J120" s="9"/>
       <c r="L120" s="0" t="n">
-        <f aca="false">IF(I120="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M120" s="0" t="n">
-        <f aca="true">IF(K120 = 0, INDIRECT("M" &amp; ROW() - 1), K120)</f>
+        <f aca="false">IF(I120="-",P120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <f aca="true">IF(I120 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E120)</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <f aca="true">IF(I120 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P120" s="27"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="str">
+        <f aca="true">IF(I121="", "", IF(I121="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L121))))))</f>
+        <v/>
+      </c>
       <c r="B121" s="24" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5362,36 +5472,37 @@
         <v/>
       </c>
       <c r="F121" s="25" t="str">
-        <f aca="true">IF(G121="", IF(I121="","",(INDIRECT("M" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("M" &amp; ROW() - 1) - M121))</f>
+        <f aca="false">IF(I121 = "-", P121 * (O121 - N120), "")</f>
         <v/>
       </c>
       <c r="G121" s="26" t="str">
-        <f aca="true">IF(I121 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I121 = "-", P121 * 6500,"")</f>
         <v/>
       </c>
       <c r="H121" s="26" t="str">
         <f aca="true">IF(I121 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J121" s="9" t="n">
-        <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1)*P121,E121)</f>
-        <v>0</v>
-      </c>
-      <c r="K121" s="0" t="n">
-        <f aca="true">IF(I121 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J121)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J121" s="9"/>
       <c r="L121" s="0" t="n">
-        <f aca="false">IF(I121="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M121" s="0" t="n">
-        <f aca="true">IF(K121 = 0, INDIRECT("M" &amp; ROW() - 1), K121)</f>
+        <f aca="false">IF(I121="-",P121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <f aca="true">IF(I121 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E121)</f>
+        <v>0</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <f aca="true">IF(I121 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P121" s="27"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="str">
+        <f aca="true">IF(I122="", "", IF(I122="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L122))))))</f>
+        <v/>
+      </c>
       <c r="B122" s="24" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$B$150,2,0))</f>
         <v/>
@@ -5401,67 +5512,65 @@
         <v/>
       </c>
       <c r="F122" s="25" t="str">
-        <f aca="true">IF(G122="", IF(I122="","",(INDIRECT("M" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("M" &amp; ROW() - 1) - M122))</f>
+        <f aca="false">IF(I122 = "-", P122 * (O122 - N121), "")</f>
         <v/>
       </c>
       <c r="G122" s="26" t="str">
-        <f aca="true">IF(I122 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I122 = "-", P122 * 6500,"")</f>
         <v/>
       </c>
       <c r="H122" s="26" t="str">
         <f aca="true">IF(I122 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J122" s="9" t="n">
-        <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1)*P122,E122)</f>
-        <v>0</v>
-      </c>
-      <c r="K122" s="0" t="n">
-        <f aca="true">IF(I122 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J122)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J122" s="9"/>
       <c r="L122" s="0" t="n">
-        <f aca="false">IF(I122="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M122" s="0" t="n">
-        <f aca="true">IF(K122 = 0, INDIRECT("M" &amp; ROW() - 1), K122)</f>
+        <f aca="false">IF(I122="-",P122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <f aca="true">IF(I122 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E122)</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <f aca="true">IF(I122 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P122" s="27"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="28"/>
+      <c r="A123" s="0" t="str">
+        <f aca="true">IF(I123="", "", IF(I123="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L123))))))</f>
+        <v/>
+      </c>
+      <c r="B123" s="24"/>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
       <c r="F123" s="25" t="str">
-        <f aca="true">IF(G123="", IF(I123="","",(INDIRECT("M" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("M" &amp; ROW() - 1) - M123))</f>
+        <f aca="false">IF(I123 = "-", P123 * (O123 - N122), "")</f>
         <v/>
       </c>
       <c r="G123" s="26" t="str">
-        <f aca="true">IF(I123 = "-", INDIRECT("Q" &amp; ROW() - 1) * 6500,"")</f>
+        <f aca="false">IF(I123 = "-", P123 * 6500,"")</f>
         <v/>
       </c>
       <c r="H123" s="26" t="str">
         <f aca="true">IF(I123 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="J123" s="9" t="n">
-        <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1)*P123,E123)</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="0" t="n">
-        <f aca="true">IF(I123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J123)))), 0)</f>
-        <v>0</v>
-      </c>
+      <c r="J123" s="9"/>
       <c r="L123" s="0" t="n">
-        <f aca="false">IF(I123="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M123" s="0" t="n">
-        <f aca="true">IF(K123 = 0, INDIRECT("M" &amp; ROW() - 1), K123)</f>
+        <f aca="false">IF(I123="-",P123,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <f aca="true">IF(I123 = "-", 0, INDIRECT("N" &amp; ROW() - 1) + E123)</f>
+        <v>0</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <f aca="true">IF(I123 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
         <v>0</v>
       </c>
       <c r="P123" s="27"/>

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -652,7 +652,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -767,7 +767,7 @@
         <v/>
       </c>
       <c r="C3" s="24" t="str">
-        <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F3" s="25" t="str">
@@ -812,7 +812,7 @@
         <v/>
       </c>
       <c r="C4" s="24" t="str">
-        <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D4="","",VLOOKUP(D4,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F4" s="25" t="str">
@@ -857,7 +857,7 @@
         <v/>
       </c>
       <c r="C5" s="24" t="str">
-        <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F5" s="25" t="str">
@@ -902,7 +902,7 @@
         <v/>
       </c>
       <c r="C6" s="24" t="str">
-        <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D6="","",VLOOKUP(D6,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F6" s="25" t="str">
@@ -947,7 +947,7 @@
         <v/>
       </c>
       <c r="C7" s="24" t="str">
-        <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F7" s="25" t="str">
@@ -992,7 +992,7 @@
         <v/>
       </c>
       <c r="C8" s="24" t="str">
-        <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F8" s="25" t="str">
@@ -1037,7 +1037,7 @@
         <v/>
       </c>
       <c r="C9" s="24" t="str">
-        <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F9" s="25" t="str">
@@ -1081,7 +1081,7 @@
         <v/>
       </c>
       <c r="C10" s="24" t="str">
-        <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D10="","",VLOOKUP(D10,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F10" s="25" t="str">
@@ -1125,7 +1125,7 @@
         <v/>
       </c>
       <c r="C11" s="24" t="str">
-        <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F11" s="25" t="str">
@@ -1169,7 +1169,7 @@
         <v/>
       </c>
       <c r="C12" s="24" t="str">
-        <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D12="","",VLOOKUP(D12,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F12" s="25" t="str">
@@ -1213,7 +1213,7 @@
         <v/>
       </c>
       <c r="C13" s="24" t="str">
-        <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F13" s="25" t="str">
@@ -1257,7 +1257,7 @@
         <v/>
       </c>
       <c r="C14" s="24" t="str">
-        <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D14="","",VLOOKUP(D14,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F14" s="25" t="str">
@@ -1301,7 +1301,7 @@
         <v/>
       </c>
       <c r="C15" s="24" t="str">
-        <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F15" s="25" t="str">
@@ -1345,7 +1345,7 @@
         <v/>
       </c>
       <c r="C16" s="24" t="str">
-        <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D16="","",VLOOKUP(D16,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F16" s="25" t="str">
@@ -1389,7 +1389,7 @@
         <v/>
       </c>
       <c r="C17" s="24" t="str">
-        <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F17" s="25" t="str">
@@ -1433,7 +1433,7 @@
         <v/>
       </c>
       <c r="C18" s="24" t="str">
-        <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F18" s="25" t="str">
@@ -1478,7 +1478,7 @@
         <v/>
       </c>
       <c r="C19" s="24" t="str">
-        <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D19="","",VLOOKUP(D19,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F19" s="25" t="str">
@@ -1523,7 +1523,7 @@
         <v/>
       </c>
       <c r="C20" s="24" t="str">
-        <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F20" s="25" t="str">
@@ -1568,7 +1568,7 @@
         <v/>
       </c>
       <c r="C21" s="24" t="str">
-        <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F21" s="25" t="str">
@@ -1613,7 +1613,7 @@
         <v/>
       </c>
       <c r="C22" s="24" t="str">
-        <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D22="","",VLOOKUP(D22,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F22" s="25" t="str">
@@ -1658,7 +1658,7 @@
         <v/>
       </c>
       <c r="C23" s="24" t="str">
-        <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F23" s="25" t="str">
@@ -1703,7 +1703,7 @@
         <v/>
       </c>
       <c r="C24" s="24" t="str">
-        <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F24" s="25" t="str">
@@ -1748,7 +1748,7 @@
         <v/>
       </c>
       <c r="C25" s="24" t="str">
-        <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F25" s="25" t="str">
@@ -1793,7 +1793,7 @@
         <v/>
       </c>
       <c r="C26" s="24" t="str">
-        <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F26" s="25" t="str">
@@ -1838,7 +1838,7 @@
         <v/>
       </c>
       <c r="C27" s="24" t="str">
-        <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F27" s="25" t="str">
@@ -1883,7 +1883,7 @@
         <v/>
       </c>
       <c r="C28" s="24" t="str">
-        <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F28" s="25" t="str">
@@ -1928,7 +1928,7 @@
         <v/>
       </c>
       <c r="C29" s="24" t="str">
-        <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F29" s="25" t="str">
@@ -1973,7 +1973,7 @@
         <v/>
       </c>
       <c r="C30" s="24" t="str">
-        <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F30" s="25" t="str">
@@ -2018,7 +2018,7 @@
         <v/>
       </c>
       <c r="C31" s="24" t="str">
-        <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F31" s="25" t="str">
@@ -2063,7 +2063,7 @@
         <v/>
       </c>
       <c r="C32" s="24" t="str">
-        <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F32" s="25" t="str">
@@ -2108,7 +2108,7 @@
         <v/>
       </c>
       <c r="C33" s="24" t="str">
-        <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F33" s="25" t="str">
@@ -2153,7 +2153,7 @@
         <v/>
       </c>
       <c r="C34" s="24" t="str">
-        <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F34" s="25" t="str">
@@ -2198,7 +2198,7 @@
         <v/>
       </c>
       <c r="C35" s="24" t="str">
-        <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F35" s="25" t="str">
@@ -2243,7 +2243,7 @@
         <v/>
       </c>
       <c r="C36" s="24" t="str">
-        <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F36" s="25" t="str">
@@ -2288,7 +2288,7 @@
         <v/>
       </c>
       <c r="C37" s="24" t="str">
-        <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F37" s="25" t="str">
@@ -2333,7 +2333,7 @@
         <v/>
       </c>
       <c r="C38" s="24" t="str">
-        <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F38" s="25" t="str">
@@ -2378,7 +2378,7 @@
         <v/>
       </c>
       <c r="C39" s="24" t="str">
-        <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F39" s="25" t="str">
@@ -2423,7 +2423,7 @@
         <v/>
       </c>
       <c r="C40" s="24" t="str">
-        <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F40" s="25" t="str">
@@ -2468,7 +2468,7 @@
         <v/>
       </c>
       <c r="C41" s="24" t="str">
-        <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F41" s="25" t="str">
@@ -2513,7 +2513,7 @@
         <v/>
       </c>
       <c r="C42" s="24" t="str">
-        <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F42" s="25" t="str">
@@ -2558,7 +2558,7 @@
         <v/>
       </c>
       <c r="C43" s="24" t="str">
-        <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F43" s="25" t="str">
@@ -2603,7 +2603,7 @@
         <v/>
       </c>
       <c r="C44" s="24" t="str">
-        <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F44" s="25" t="str">
@@ -2648,7 +2648,7 @@
         <v/>
       </c>
       <c r="C45" s="24" t="str">
-        <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F45" s="25" t="str">
@@ -2693,7 +2693,7 @@
         <v/>
       </c>
       <c r="C46" s="24" t="str">
-        <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F46" s="25" t="str">
@@ -2738,7 +2738,7 @@
         <v/>
       </c>
       <c r="C47" s="24" t="str">
-        <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F47" s="25" t="str">
@@ -2783,7 +2783,7 @@
         <v/>
       </c>
       <c r="C48" s="24" t="str">
-        <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F48" s="25" t="str">
@@ -2828,7 +2828,7 @@
         <v/>
       </c>
       <c r="C49" s="24" t="str">
-        <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F49" s="25" t="str">
@@ -2873,7 +2873,7 @@
         <v/>
       </c>
       <c r="C50" s="24" t="str">
-        <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F50" s="25" t="str">
@@ -2918,7 +2918,7 @@
         <v/>
       </c>
       <c r="C51" s="24" t="str">
-        <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F51" s="25" t="str">
@@ -2963,7 +2963,7 @@
         <v/>
       </c>
       <c r="C52" s="24" t="str">
-        <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F52" s="25" t="str">
@@ -3008,7 +3008,7 @@
         <v/>
       </c>
       <c r="C53" s="24" t="str">
-        <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F53" s="25" t="str">
@@ -3053,7 +3053,7 @@
         <v/>
       </c>
       <c r="C54" s="24" t="str">
-        <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F54" s="25" t="str">
@@ -3098,7 +3098,7 @@
         <v/>
       </c>
       <c r="C55" s="24" t="str">
-        <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F55" s="25" t="str">
@@ -3143,7 +3143,7 @@
         <v/>
       </c>
       <c r="C56" s="24" t="str">
-        <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F56" s="25" t="str">
@@ -3188,7 +3188,7 @@
         <v/>
       </c>
       <c r="C57" s="24" t="str">
-        <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F57" s="25" t="str">
@@ -3233,7 +3233,7 @@
         <v/>
       </c>
       <c r="C58" s="24" t="str">
-        <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F58" s="25" t="str">
@@ -3278,7 +3278,7 @@
         <v/>
       </c>
       <c r="C59" s="24" t="str">
-        <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F59" s="25" t="str">
@@ -3323,7 +3323,7 @@
         <v/>
       </c>
       <c r="C60" s="24" t="str">
-        <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F60" s="25" t="str">
@@ -3368,7 +3368,7 @@
         <v/>
       </c>
       <c r="C61" s="24" t="str">
-        <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F61" s="25" t="str">
@@ -3413,7 +3413,7 @@
         <v/>
       </c>
       <c r="C62" s="24" t="str">
-        <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F62" s="25" t="str">
@@ -3458,7 +3458,7 @@
         <v/>
       </c>
       <c r="C63" s="24" t="str">
-        <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F63" s="25" t="str">
@@ -3503,7 +3503,7 @@
         <v/>
       </c>
       <c r="C64" s="24" t="str">
-        <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F64" s="25" t="str">
@@ -3548,7 +3548,7 @@
         <v/>
       </c>
       <c r="C65" s="24" t="str">
-        <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F65" s="25" t="str">
@@ -3593,7 +3593,7 @@
         <v/>
       </c>
       <c r="C66" s="24" t="str">
-        <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F66" s="25" t="str">
@@ -3638,7 +3638,7 @@
         <v/>
       </c>
       <c r="C67" s="24" t="str">
-        <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F67" s="25" t="str">
@@ -3683,7 +3683,7 @@
         <v/>
       </c>
       <c r="C68" s="24" t="str">
-        <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F68" s="25" t="str">
@@ -3728,7 +3728,7 @@
         <v/>
       </c>
       <c r="C69" s="24" t="str">
-        <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F69" s="25" t="str">
@@ -3773,7 +3773,7 @@
         <v/>
       </c>
       <c r="C70" s="24" t="str">
-        <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F70" s="25" t="str">
@@ -3818,7 +3818,7 @@
         <v/>
       </c>
       <c r="C71" s="24" t="str">
-        <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F71" s="25" t="str">
@@ -3863,7 +3863,7 @@
         <v/>
       </c>
       <c r="C72" s="24" t="str">
-        <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F72" s="25" t="str">
@@ -3908,7 +3908,7 @@
         <v/>
       </c>
       <c r="C73" s="24" t="str">
-        <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F73" s="25" t="str">
@@ -3953,7 +3953,7 @@
         <v/>
       </c>
       <c r="C74" s="24" t="str">
-        <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F74" s="25" t="str">
@@ -3998,7 +3998,7 @@
         <v/>
       </c>
       <c r="C75" s="24" t="str">
-        <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F75" s="25" t="str">
@@ -4043,7 +4043,7 @@
         <v/>
       </c>
       <c r="C76" s="24" t="str">
-        <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F76" s="25" t="str">
@@ -4088,7 +4088,7 @@
         <v/>
       </c>
       <c r="C77" s="24" t="str">
-        <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F77" s="25" t="str">
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="C78" s="24" t="str">
-        <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F78" s="25" t="str">
@@ -4178,7 +4178,7 @@
         <v/>
       </c>
       <c r="C79" s="24" t="str">
-        <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F79" s="25" t="str">
@@ -4223,7 +4223,7 @@
         <v/>
       </c>
       <c r="C80" s="24" t="str">
-        <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F80" s="25" t="str">
@@ -4268,7 +4268,7 @@
         <v/>
       </c>
       <c r="C81" s="24" t="str">
-        <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F81" s="25" t="str">
@@ -4313,7 +4313,7 @@
         <v/>
       </c>
       <c r="C82" s="24" t="str">
-        <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F82" s="25" t="str">
@@ -4358,7 +4358,7 @@
         <v/>
       </c>
       <c r="C83" s="24" t="str">
-        <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F83" s="25" t="str">
@@ -4403,7 +4403,7 @@
         <v/>
       </c>
       <c r="C84" s="24" t="str">
-        <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F84" s="25" t="str">
@@ -4448,7 +4448,7 @@
         <v/>
       </c>
       <c r="C85" s="24" t="str">
-        <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F85" s="25" t="str">
@@ -4493,7 +4493,7 @@
         <v/>
       </c>
       <c r="C86" s="24" t="str">
-        <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F86" s="25" t="str">
@@ -4538,7 +4538,7 @@
         <v/>
       </c>
       <c r="C87" s="24" t="str">
-        <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F87" s="25" t="str">
@@ -4583,7 +4583,7 @@
         <v/>
       </c>
       <c r="C88" s="24" t="str">
-        <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F88" s="25" t="str">
@@ -4628,7 +4628,7 @@
         <v/>
       </c>
       <c r="C89" s="24" t="str">
-        <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F89" s="25" t="str">
@@ -4673,7 +4673,7 @@
         <v/>
       </c>
       <c r="C90" s="24" t="str">
-        <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F90" s="25" t="str">
@@ -4718,7 +4718,7 @@
         <v/>
       </c>
       <c r="C91" s="24" t="str">
-        <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F91" s="25" t="str">
@@ -4763,7 +4763,7 @@
         <v/>
       </c>
       <c r="C92" s="24" t="str">
-        <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F92" s="25" t="str">
@@ -4808,7 +4808,7 @@
         <v/>
       </c>
       <c r="C93" s="24" t="str">
-        <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F93" s="25" t="str">
@@ -4853,7 +4853,7 @@
         <v/>
       </c>
       <c r="C94" s="24" t="str">
-        <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F94" s="25" t="str">
@@ -4898,7 +4898,7 @@
         <v/>
       </c>
       <c r="C95" s="24" t="str">
-        <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F95" s="25" t="str">
@@ -4943,7 +4943,7 @@
         <v/>
       </c>
       <c r="C96" s="24" t="str">
-        <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F96" s="25" t="str">
@@ -4988,7 +4988,7 @@
         <v/>
       </c>
       <c r="C97" s="24" t="str">
-        <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F97" s="25" t="str">
@@ -5033,7 +5033,7 @@
         <v/>
       </c>
       <c r="C98" s="24" t="str">
-        <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F98" s="25" t="str">
@@ -5078,7 +5078,7 @@
         <v/>
       </c>
       <c r="C99" s="24" t="str">
-        <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F99" s="25" t="str">
@@ -5123,7 +5123,7 @@
         <v/>
       </c>
       <c r="C100" s="24" t="str">
-        <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F100" s="25" t="str">
@@ -5168,7 +5168,7 @@
         <v/>
       </c>
       <c r="C101" s="24" t="str">
-        <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F101" s="25" t="str">
@@ -5213,7 +5213,7 @@
         <v/>
       </c>
       <c r="C102" s="24" t="str">
-        <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F102" s="25" t="str">
@@ -5258,7 +5258,7 @@
         <v/>
       </c>
       <c r="C103" s="24" t="str">
-        <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F103" s="25" t="str">
@@ -5303,7 +5303,7 @@
         <v/>
       </c>
       <c r="C104" s="24" t="str">
-        <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F104" s="25" t="str">
@@ -5348,7 +5348,7 @@
         <v/>
       </c>
       <c r="C105" s="24" t="str">
-        <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F105" s="25" t="str">
@@ -5393,7 +5393,7 @@
         <v/>
       </c>
       <c r="C106" s="24" t="str">
-        <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F106" s="25" t="str">
@@ -5438,7 +5438,7 @@
         <v/>
       </c>
       <c r="C107" s="24" t="str">
-        <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F107" s="25" t="str">
@@ -5483,7 +5483,7 @@
         <v/>
       </c>
       <c r="C108" s="24" t="str">
-        <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F108" s="25" t="str">
@@ -5528,7 +5528,7 @@
         <v/>
       </c>
       <c r="C109" s="24" t="str">
-        <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F109" s="25" t="str">
@@ -5573,7 +5573,7 @@
         <v/>
       </c>
       <c r="C110" s="24" t="str">
-        <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F110" s="25" t="str">
@@ -5618,7 +5618,7 @@
         <v/>
       </c>
       <c r="C111" s="24" t="str">
-        <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F111" s="25" t="str">
@@ -5663,7 +5663,7 @@
         <v/>
       </c>
       <c r="C112" s="24" t="str">
-        <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F112" s="25" t="str">
@@ -5708,7 +5708,7 @@
         <v/>
       </c>
       <c r="C113" s="24" t="str">
-        <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F113" s="25" t="str">
@@ -5753,7 +5753,7 @@
         <v/>
       </c>
       <c r="C114" s="24" t="str">
-        <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F114" s="25" t="str">
@@ -5798,7 +5798,7 @@
         <v/>
       </c>
       <c r="C115" s="24" t="str">
-        <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F115" s="25" t="str">
@@ -5843,7 +5843,7 @@
         <v/>
       </c>
       <c r="C116" s="24" t="str">
-        <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F116" s="25" t="str">
@@ -5888,7 +5888,7 @@
         <v/>
       </c>
       <c r="C117" s="24" t="str">
-        <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F117" s="25" t="str">
@@ -5933,7 +5933,7 @@
         <v/>
       </c>
       <c r="C118" s="24" t="str">
-        <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F118" s="25" t="str">
@@ -5978,7 +5978,7 @@
         <v/>
       </c>
       <c r="C119" s="24" t="str">
-        <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F119" s="25" t="str">
@@ -6023,7 +6023,7 @@
         <v/>
       </c>
       <c r="C120" s="24" t="str">
-        <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F120" s="25" t="str">
@@ -6068,7 +6068,7 @@
         <v/>
       </c>
       <c r="C121" s="24" t="str">
-        <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F121" s="25" t="str">
@@ -6113,7 +6113,7 @@
         <v/>
       </c>
       <c r="C122" s="24" t="str">
-        <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F122" s="25" t="str">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24" t="str">
-        <f aca="false">IF(D123="","",VLOOKUP(D123,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D123="","",VLOOKUP(D123,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F123" s="25" t="str">
@@ -6193,7 +6193,7 @@
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="24"/>
       <c r="C124" s="24" t="str">
-        <f aca="false">IF(D124="","",VLOOKUP(D124,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D124="","",VLOOKUP(D124,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F124" s="25" t="str">
@@ -6215,7 +6215,7 @@
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="24"/>
       <c r="C125" s="24" t="str">
-        <f aca="false">IF(D125="","",VLOOKUP(D125,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D125="","",VLOOKUP(D125,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F125" s="25" t="str">
@@ -6237,7 +6237,7 @@
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="24"/>
       <c r="C126" s="24" t="str">
-        <f aca="false">IF(D126="","",VLOOKUP(D126,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D126="","",VLOOKUP(D126,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F126" s="25" t="str">
@@ -6259,7 +6259,7 @@
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="24"/>
       <c r="C127" s="24" t="str">
-        <f aca="false">IF(D127="","",VLOOKUP(D127,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D127="","",VLOOKUP(D127,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F127" s="25" t="str">
@@ -6281,7 +6281,7 @@
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="24"/>
       <c r="C128" s="24" t="str">
-        <f aca="false">IF(D128="","",VLOOKUP(D128,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D128="","",VLOOKUP(D128,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F128" s="25" t="str">
@@ -6303,7 +6303,7 @@
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="24"/>
       <c r="C129" s="24" t="str">
-        <f aca="false">IF(D129="","",VLOOKUP(D129,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D129="","",VLOOKUP(D129,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F129" s="25" t="str">
@@ -6325,7 +6325,7 @@
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="24"/>
       <c r="C130" s="24" t="str">
-        <f aca="false">IF(D130="","",VLOOKUP(D130,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D130="","",VLOOKUP(D130,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F130" s="25" t="str">
@@ -6347,7 +6347,7 @@
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="24"/>
       <c r="C131" s="24" t="str">
-        <f aca="false">IF(D131="","",VLOOKUP(D131,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D131="","",VLOOKUP(D131,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F131" s="25" t="str">
@@ -6369,7 +6369,7 @@
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="24"/>
       <c r="C132" s="24" t="str">
-        <f aca="false">IF(D132="","",VLOOKUP(D132,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D132="","",VLOOKUP(D132,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F132" s="25" t="str">
@@ -6391,7 +6391,7 @@
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="24"/>
       <c r="C133" s="24" t="str">
-        <f aca="false">IF(D133="","",VLOOKUP(D133,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D133="","",VLOOKUP(D133,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F133" s="25" t="str">
@@ -6413,7 +6413,7 @@
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="24"/>
       <c r="C134" s="24" t="str">
-        <f aca="false">IF(D134="","",VLOOKUP(D134,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D134="","",VLOOKUP(D134,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F134" s="25" t="str">
@@ -6435,7 +6435,7 @@
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="24"/>
       <c r="C135" s="24" t="str">
-        <f aca="false">IF(D135="","",VLOOKUP(D135,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D135="","",VLOOKUP(D135,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F135" s="25" t="str">
@@ -6457,7 +6457,7 @@
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="24"/>
       <c r="C136" s="24" t="str">
-        <f aca="false">IF(D136="","",VLOOKUP(D136,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D136="","",VLOOKUP(D136,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F136" s="25" t="str">
@@ -6479,7 +6479,7 @@
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="24"/>
       <c r="C137" s="24" t="str">
-        <f aca="false">IF(D137="","",VLOOKUP(D137,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D137="","",VLOOKUP(D137,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F137" s="25" t="str">
@@ -6501,7 +6501,7 @@
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="24"/>
       <c r="C138" s="24" t="str">
-        <f aca="false">IF(D138="","",VLOOKUP(D138,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D138="","",VLOOKUP(D138,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F138" s="25" t="str">
@@ -6523,7 +6523,7 @@
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="24"/>
       <c r="C139" s="24" t="str">
-        <f aca="false">IF(D139="","",VLOOKUP(D139,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D139="","",VLOOKUP(D139,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F139" s="25" t="str">
@@ -6545,7 +6545,7 @@
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="24"/>
       <c r="C140" s="24" t="str">
-        <f aca="false">IF(D140="","",VLOOKUP(D140,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D140="","",VLOOKUP(D140,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F140" s="25" t="str">
@@ -6567,7 +6567,7 @@
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="24"/>
       <c r="C141" s="24" t="str">
-        <f aca="false">IF(D141="","",VLOOKUP(D141,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D141="","",VLOOKUP(D141,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F141" s="25" t="str">
@@ -6589,7 +6589,7 @@
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="24"/>
       <c r="C142" s="24" t="str">
-        <f aca="false">IF(D142="","",VLOOKUP(D142,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D142="","",VLOOKUP(D142,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F142" s="25" t="str">
@@ -6611,7 +6611,7 @@
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="24"/>
       <c r="C143" s="24" t="str">
-        <f aca="false">IF(D143="","",VLOOKUP(D143,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D143="","",VLOOKUP(D143,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F143" s="25" t="str">
@@ -6633,7 +6633,7 @@
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="24"/>
       <c r="C144" s="24" t="str">
-        <f aca="false">IF(D144="","",VLOOKUP(D144,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D144="","",VLOOKUP(D144,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F144" s="25" t="str">
@@ -6655,7 +6655,7 @@
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="24"/>
       <c r="C145" s="24" t="str">
-        <f aca="false">IF(D145="","",VLOOKUP(D145,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D145="","",VLOOKUP(D145,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F145" s="25" t="str">
@@ -6677,7 +6677,7 @@
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="24"/>
       <c r="C146" s="24" t="str">
-        <f aca="false">IF(D146="","",VLOOKUP(D146,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D146="","",VLOOKUP(D146,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F146" s="25" t="str">
@@ -6699,7 +6699,7 @@
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="24"/>
       <c r="C147" s="24" t="str">
-        <f aca="false">IF(D147="","",VLOOKUP(D147,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D147="","",VLOOKUP(D147,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F147" s="25" t="str">
@@ -6721,7 +6721,7 @@
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="24"/>
       <c r="C148" s="24" t="str">
-        <f aca="false">IF(D148="","",VLOOKUP(D148,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D148="","",VLOOKUP(D148,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F148" s="25" t="str">
@@ -6743,7 +6743,7 @@
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="24"/>
       <c r="C149" s="24" t="str">
-        <f aca="false">IF(D149="","",VLOOKUP(D149,SKU!$A$1:$C$150,3,0))</f>
+        <f aca="false">IF(D149="","",VLOOKUP(D149,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
       <c r="F149" s="25" t="str">
@@ -6764,7 +6764,10 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
+      <c r="C150" s="24" t="str">
+        <f aca="false">IF(D150="","",VLOOKUP(D150,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F150" s="25" t="str">
         <f aca="true">IF(K150 = "-", J150 * (Q150 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6783,7 +6786,10 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="24"/>
-      <c r="C151" s="24"/>
+      <c r="C151" s="24" t="str">
+        <f aca="false">IF(D151="","",VLOOKUP(D151,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F151" s="25" t="str">
         <f aca="true">IF(K151 = "-", J151 * (Q151 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6802,7 +6808,10 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
+      <c r="C152" s="24" t="str">
+        <f aca="false">IF(D152="","",VLOOKUP(D152,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F152" s="25" t="str">
         <f aca="true">IF(K152 = "-", J152 * (Q152 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6821,7 +6830,10 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
+      <c r="C153" s="24" t="str">
+        <f aca="false">IF(D153="","",VLOOKUP(D153,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F153" s="25" t="str">
         <f aca="true">IF(K153 = "-", J153 * (Q153 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6840,7 +6852,10 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
+      <c r="C154" s="24" t="str">
+        <f aca="false">IF(D154="","",VLOOKUP(D154,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F154" s="25" t="str">
         <f aca="true">IF(K154 = "-", J154 * (Q154 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6859,7 +6874,10 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="24"/>
-      <c r="C155" s="24"/>
+      <c r="C155" s="24" t="str">
+        <f aca="false">IF(D155="","",VLOOKUP(D155,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F155" s="25" t="str">
         <f aca="true">IF(K155 = "-", J155 * (Q155 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6878,7 +6896,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="24"/>
-      <c r="C156" s="24"/>
+      <c r="C156" s="24" t="str">
+        <f aca="false">IF(D156="","",VLOOKUP(D156,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F156" s="25" t="str">
         <f aca="true">IF(K156 = "-", J156 * (Q156 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6897,7 +6918,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="24"/>
-      <c r="C157" s="24"/>
+      <c r="C157" s="24" t="str">
+        <f aca="false">IF(D157="","",VLOOKUP(D157,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F157" s="25" t="str">
         <f aca="true">IF(K157 = "-", J157 * (Q157 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6916,7 +6940,10 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="24"/>
-      <c r="C158" s="24"/>
+      <c r="C158" s="24" t="str">
+        <f aca="false">IF(D158="","",VLOOKUP(D158,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F158" s="25" t="str">
         <f aca="true">IF(K158 = "-", J158 * (Q158 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6935,7 +6962,10 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
+      <c r="C159" s="24" t="str">
+        <f aca="false">IF(D159="","",VLOOKUP(D159,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F159" s="25" t="str">
         <f aca="true">IF(K159 = "-", J159 * (Q159 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6954,7 +6984,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
+      <c r="C160" s="24" t="str">
+        <f aca="false">IF(D160="","",VLOOKUP(D160,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F160" s="25" t="str">
         <f aca="true">IF(K160 = "-", J160 * (Q160 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6973,7 +7006,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
+      <c r="C161" s="24" t="str">
+        <f aca="false">IF(D161="","",VLOOKUP(D161,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F161" s="25" t="str">
         <f aca="true">IF(K161 = "-", J161 * (Q161 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -6992,7 +7028,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="24"/>
-      <c r="C162" s="24"/>
+      <c r="C162" s="24" t="str">
+        <f aca="false">IF(D162="","",VLOOKUP(D162,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F162" s="25" t="str">
         <f aca="true">IF(K162 = "-", J162 * (Q162 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7011,7 +7050,10 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="24"/>
-      <c r="C163" s="24"/>
+      <c r="C163" s="24" t="str">
+        <f aca="false">IF(D163="","",VLOOKUP(D163,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F163" s="25" t="str">
         <f aca="true">IF(K163 = "-", J163 * (Q163 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7030,7 +7072,10 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="24"/>
-      <c r="C164" s="24"/>
+      <c r="C164" s="24" t="str">
+        <f aca="false">IF(D164="","",VLOOKUP(D164,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F164" s="25" t="str">
         <f aca="true">IF(K164 = "-", J164 * (Q164 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7049,7 +7094,10 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="24"/>
-      <c r="C165" s="24"/>
+      <c r="C165" s="24" t="str">
+        <f aca="false">IF(D165="","",VLOOKUP(D165,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F165" s="25" t="str">
         <f aca="true">IF(K165 = "-", J165 * (Q165 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7068,7 +7116,10 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="24"/>
-      <c r="C166" s="24"/>
+      <c r="C166" s="24" t="str">
+        <f aca="false">IF(D166="","",VLOOKUP(D166,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F166" s="25" t="str">
         <f aca="true">IF(K166 = "-", J166 * (Q166 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7083,7 +7134,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="24"/>
-      <c r="C167" s="24"/>
+      <c r="C167" s="24" t="str">
+        <f aca="false">IF(D167="","",VLOOKUP(D167,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F167" s="25" t="str">
         <f aca="true">IF(K167 = "-", J167 * (Q167 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7098,7 +7152,10 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="24"/>
-      <c r="C168" s="24"/>
+      <c r="C168" s="24" t="str">
+        <f aca="false">IF(D168="","",VLOOKUP(D168,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F168" s="25" t="str">
         <f aca="true">IF(K168 = "-", J168 * (Q168 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7113,7 +7170,10 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
+      <c r="C169" s="24" t="str">
+        <f aca="false">IF(D169="","",VLOOKUP(D169,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F169" s="25" t="str">
         <f aca="true">IF(K169 = "-", J169 * (Q169 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7128,7 +7188,10 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
+      <c r="C170" s="24" t="str">
+        <f aca="false">IF(D170="","",VLOOKUP(D170,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F170" s="25" t="str">
         <f aca="true">IF(K170 = "-", J170 * (Q170 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7143,7 +7206,10 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
+      <c r="C171" s="24" t="str">
+        <f aca="false">IF(D171="","",VLOOKUP(D171,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F171" s="25" t="str">
         <f aca="true">IF(K171 = "-", J171 * (Q171 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7158,7 +7224,10 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="24"/>
-      <c r="C172" s="24"/>
+      <c r="C172" s="24" t="str">
+        <f aca="false">IF(D172="","",VLOOKUP(D172,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F172" s="25" t="str">
         <f aca="true">IF(K172 = "-", J172 * (Q172 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7173,7 +7242,10 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="24"/>
-      <c r="C173" s="24"/>
+      <c r="C173" s="24" t="str">
+        <f aca="false">IF(D173="","",VLOOKUP(D173,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F173" s="25" t="str">
         <f aca="true">IF(K173 = "-", J173 * (Q173 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7188,7 +7260,10 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="24"/>
-      <c r="C174" s="24"/>
+      <c r="C174" s="24" t="str">
+        <f aca="false">IF(D174="","",VLOOKUP(D174,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F174" s="25" t="str">
         <f aca="true">IF(K174 = "-", J174 * (Q174 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7203,7 +7278,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="24"/>
-      <c r="C175" s="24"/>
+      <c r="C175" s="24" t="str">
+        <f aca="false">IF(D175="","",VLOOKUP(D175,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F175" s="25" t="str">
         <f aca="true">IF(K175 = "-", J175 * (Q175 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7218,7 +7296,10 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="24"/>
-      <c r="C176" s="24"/>
+      <c r="C176" s="24" t="str">
+        <f aca="false">IF(D176="","",VLOOKUP(D176,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F176" s="25" t="str">
         <f aca="true">IF(K176 = "-", J176 * (Q176 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7233,7 +7314,10 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="24"/>
-      <c r="C177" s="24"/>
+      <c r="C177" s="24" t="str">
+        <f aca="false">IF(D177="","",VLOOKUP(D177,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F177" s="25" t="str">
         <f aca="true">IF(K177 = "-", J177 * (Q177 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7248,7 +7332,10 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="24"/>
-      <c r="C178" s="24"/>
+      <c r="C178" s="24" t="str">
+        <f aca="false">IF(D178="","",VLOOKUP(D178,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F178" s="25" t="str">
         <f aca="true">IF(K178 = "-", J178 * (Q178 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7263,7 +7350,10 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="24"/>
-      <c r="C179" s="24"/>
+      <c r="C179" s="24" t="str">
+        <f aca="false">IF(D179="","",VLOOKUP(D179,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F179" s="25" t="str">
         <f aca="true">IF(K179 = "-", J179 * (Q179 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7278,7 +7368,10 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="24"/>
-      <c r="C180" s="24"/>
+      <c r="C180" s="24" t="str">
+        <f aca="false">IF(D180="","",VLOOKUP(D180,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F180" s="25" t="str">
         <f aca="true">IF(K180 = "-", J180 * (Q180 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7293,7 +7386,10 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
+      <c r="C181" s="24" t="str">
+        <f aca="false">IF(D181="","",VLOOKUP(D181,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F181" s="25" t="str">
         <f aca="true">IF(K181 = "-", J181 * (Q181 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7308,7 +7404,10 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
+      <c r="C182" s="24" t="str">
+        <f aca="false">IF(D182="","",VLOOKUP(D182,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F182" s="25" t="str">
         <f aca="true">IF(K182 = "-", J182 * (Q182 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7323,7 +7422,10 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="24"/>
-      <c r="C183" s="24"/>
+      <c r="C183" s="24" t="str">
+        <f aca="false">IF(D183="","",VLOOKUP(D183,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F183" s="25" t="str">
         <f aca="true">IF(K183 = "-", J183 * (Q183 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7338,7 +7440,10 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
+      <c r="C184" s="24" t="str">
+        <f aca="false">IF(D184="","",VLOOKUP(D184,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F184" s="25" t="str">
         <f aca="true">IF(K184 = "-", J184 * (Q184 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7353,7 +7458,10 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
+      <c r="C185" s="24" t="str">
+        <f aca="false">IF(D185="","",VLOOKUP(D185,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F185" s="25" t="str">
         <f aca="true">IF(K185 = "-", J185 * (Q185 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
@@ -7368,7 +7476,10 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
+      <c r="C186" s="24" t="str">
+        <f aca="false">IF(D186="","",VLOOKUP(D186,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F186" s="25" t="str">
         <f aca="true">IF(G186="", IF(K186="","",(INDIRECT("N" &amp; ROW() - 1) - O186)),IF(K186="", "", INDIRECT("N" &amp; ROW() - 1) - O186))</f>
         <v/>
@@ -7383,7 +7494,10 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
+      <c r="C187" s="24" t="str">
+        <f aca="false">IF(D187="","",VLOOKUP(D187,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F187" s="25" t="str">
         <f aca="true">IF(G187="", IF(K187="","",(INDIRECT("N" &amp; ROW() - 1) - O187)),IF(K187="", "", INDIRECT("N" &amp; ROW() - 1) - O187))</f>
         <v/>
@@ -7398,7 +7512,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
+      <c r="C188" s="24" t="str">
+        <f aca="false">IF(D188="","",VLOOKUP(D188,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F188" s="25" t="str">
         <f aca="true">IF(G188="", IF(K188="","",(INDIRECT("N" &amp; ROW() - 1) - O188)),IF(K188="", "", INDIRECT("N" &amp; ROW() - 1) - O188))</f>
         <v/>
@@ -7413,7 +7530,10 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
+      <c r="C189" s="24" t="str">
+        <f aca="false">IF(D189="","",VLOOKUP(D189,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F189" s="25" t="str">
         <f aca="true">IF(G189="", IF(K189="","",(INDIRECT("N" &amp; ROW() - 1) - O189)),IF(K189="", "", INDIRECT("N" &amp; ROW() - 1) - O189))</f>
         <v/>
@@ -7428,7 +7548,10 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
+      <c r="C190" s="24" t="str">
+        <f aca="false">IF(D190="","",VLOOKUP(D190,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F190" s="25" t="str">
         <f aca="true">IF(G190="", IF(K190="","",(INDIRECT("N" &amp; ROW() - 1) - O190)),IF(K190="", "", INDIRECT("N" &amp; ROW() - 1) - O190))</f>
         <v/>
@@ -7443,7 +7566,10 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
+      <c r="C191" s="24" t="str">
+        <f aca="false">IF(D191="","",VLOOKUP(D191,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F191" s="25" t="str">
         <f aca="true">IF(G191="", IF(K191="","",(INDIRECT("N" &amp; ROW() - 1) - O191)),IF(K191="", "", INDIRECT("N" &amp; ROW() - 1) - O191))</f>
         <v/>
@@ -7458,7 +7584,10 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
+      <c r="C192" s="24" t="str">
+        <f aca="false">IF(D192="","",VLOOKUP(D192,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F192" s="25" t="str">
         <f aca="true">IF(G192="", IF(K192="","",(INDIRECT("N" &amp; ROW() - 1) - O192)),IF(K192="", "", INDIRECT("N" &amp; ROW() - 1) - O192))</f>
         <v/>
@@ -7473,7 +7602,10 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
+      <c r="C193" s="24" t="str">
+        <f aca="false">IF(D193="","",VLOOKUP(D193,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F193" s="25" t="str">
         <f aca="true">IF(G193="", IF(K193="","",(INDIRECT("N" &amp; ROW() - 1) - O193)),IF(K193="", "", INDIRECT("N" &amp; ROW() - 1) - O193))</f>
         <v/>
@@ -7488,7 +7620,10 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
+      <c r="C194" s="24" t="str">
+        <f aca="false">IF(D194="","",VLOOKUP(D194,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F194" s="25" t="str">
         <f aca="true">IF(G194="", IF(K194="","",(INDIRECT("N" &amp; ROW() - 1) - O194)),IF(K194="", "", INDIRECT("N" &amp; ROW() - 1) - O194))</f>
         <v/>
@@ -7503,7 +7638,10 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
+      <c r="C195" s="24" t="str">
+        <f aca="false">IF(D195="","",VLOOKUP(D195,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F195" s="25" t="str">
         <f aca="true">IF(G195="", IF(K195="","",(INDIRECT("N" &amp; ROW() - 1) - O195)),IF(K195="", "", INDIRECT("N" &amp; ROW() - 1) - O195))</f>
         <v/>
@@ -7518,7 +7656,10 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
+      <c r="C196" s="24" t="str">
+        <f aca="false">IF(D196="","",VLOOKUP(D196,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F196" s="25" t="str">
         <f aca="true">IF(G196="", IF(K196="","",(INDIRECT("N" &amp; ROW() - 1) - O196)),IF(K196="", "", INDIRECT("N" &amp; ROW() - 1) - O196))</f>
         <v/>
@@ -7533,7 +7674,10 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
+      <c r="C197" s="24" t="str">
+        <f aca="false">IF(D197="","",VLOOKUP(D197,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F197" s="25" t="str">
         <f aca="true">IF(G197="", IF(K197="","",(INDIRECT("N" &amp; ROW() - 1) - O197)),IF(K197="", "", INDIRECT("N" &amp; ROW() - 1) - O197))</f>
         <v/>
@@ -7548,7 +7692,10 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="24"/>
-      <c r="C198" s="24"/>
+      <c r="C198" s="24" t="str">
+        <f aca="false">IF(D198="","",VLOOKUP(D198,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F198" s="25" t="str">
         <f aca="true">IF(G198="", IF(K198="","",(INDIRECT("N" &amp; ROW() - 1) - O198)),IF(K198="", "", INDIRECT("N" &amp; ROW() - 1) - O198))</f>
         <v/>
@@ -7563,7 +7710,10 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="24"/>
-      <c r="C199" s="24"/>
+      <c r="C199" s="24" t="str">
+        <f aca="false">IF(D199="","",VLOOKUP(D199,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F199" s="25" t="str">
         <f aca="true">IF(G199="", IF(K199="","",(INDIRECT("N" &amp; ROW() - 1) - O199)),IF(K199="", "", INDIRECT("N" &amp; ROW() - 1) - O199))</f>
         <v/>
@@ -7578,7 +7728,10 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
+      <c r="C200" s="24" t="str">
+        <f aca="false">IF(D200="","",VLOOKUP(D200,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F200" s="25" t="str">
         <f aca="true">IF(G200="", IF(K200="","",(INDIRECT("N" &amp; ROW() - 1) - O200)),IF(K200="", "", INDIRECT("N" &amp; ROW() - 1) - O200))</f>
         <v/>
@@ -7593,7 +7746,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="24"/>
-      <c r="C201" s="24"/>
+      <c r="C201" s="24" t="str">
+        <f aca="false">IF(D201="","",VLOOKUP(D201,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F201" s="25" t="str">
         <f aca="true">IF(G201="", IF(K201="","",(INDIRECT("N" &amp; ROW() - 1) - O201)),IF(K201="", "", INDIRECT("N" &amp; ROW() - 1) - O201))</f>
         <v/>
@@ -7608,7 +7764,10 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="24"/>
-      <c r="C202" s="24"/>
+      <c r="C202" s="24" t="str">
+        <f aca="false">IF(D202="","",VLOOKUP(D202,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F202" s="25" t="str">
         <f aca="true">IF(G202="", IF(K202="","",(INDIRECT("N" &amp; ROW() - 1) - O202)),IF(K202="", "", INDIRECT("N" &amp; ROW() - 1) - O202))</f>
         <v/>
@@ -7623,7 +7782,10 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
+      <c r="C203" s="24" t="str">
+        <f aca="false">IF(D203="","",VLOOKUP(D203,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F203" s="25" t="str">
         <f aca="true">IF(G203="", IF(K203="","",(INDIRECT("N" &amp; ROW() - 1) - O203)),IF(K203="", "", INDIRECT("N" &amp; ROW() - 1) - O203))</f>
         <v/>
@@ -7638,7 +7800,10 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="24"/>
-      <c r="C204" s="24"/>
+      <c r="C204" s="24" t="str">
+        <f aca="false">IF(D204="","",VLOOKUP(D204,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F204" s="25" t="str">
         <f aca="true">IF(G204="", IF(K204="","",(INDIRECT("N" &amp; ROW() - 1) - O204)),IF(K204="", "", INDIRECT("N" &amp; ROW() - 1) - O204))</f>
         <v/>
@@ -7653,7 +7818,10 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="24"/>
-      <c r="C205" s="24"/>
+      <c r="C205" s="24" t="str">
+        <f aca="false">IF(D205="","",VLOOKUP(D205,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F205" s="25" t="str">
         <f aca="true">IF(G205="", IF(K205="","",(INDIRECT("N" &amp; ROW() - 1) - O205)),IF(K205="", "", INDIRECT("N" &amp; ROW() - 1) - O205))</f>
         <v/>
@@ -7668,7 +7836,10 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="24"/>
-      <c r="C206" s="24"/>
+      <c r="C206" s="24" t="str">
+        <f aca="false">IF(D206="","",VLOOKUP(D206,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F206" s="25" t="str">
         <f aca="true">IF(G206="", IF(K206="","",(INDIRECT("N" &amp; ROW() - 1) - O206)),IF(K206="", "", INDIRECT("N" &amp; ROW() - 1) - O206))</f>
         <v/>
@@ -7683,7 +7854,10 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="24"/>
-      <c r="C207" s="24"/>
+      <c r="C207" s="24" t="str">
+        <f aca="false">IF(D207="","",VLOOKUP(D207,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F207" s="25" t="str">
         <f aca="true">IF(G207="", IF(K207="","",(INDIRECT("N" &amp; ROW() - 1) - O207)),IF(K207="", "", INDIRECT("N" &amp; ROW() - 1) - O207))</f>
         <v/>
@@ -7698,7 +7872,10 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="24"/>
-      <c r="C208" s="24"/>
+      <c r="C208" s="24" t="str">
+        <f aca="false">IF(D208="","",VLOOKUP(D208,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F208" s="25" t="str">
         <f aca="true">IF(G208="", IF(K208="","",(INDIRECT("N" &amp; ROW() - 1) - O208)),IF(K208="", "", INDIRECT("N" &amp; ROW() - 1) - O208))</f>
         <v/>
@@ -7713,7 +7890,10 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="24"/>
-      <c r="C209" s="24"/>
+      <c r="C209" s="24" t="str">
+        <f aca="false">IF(D209="","",VLOOKUP(D209,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F209" s="25" t="str">
         <f aca="true">IF(G209="", IF(K209="","",(INDIRECT("N" &amp; ROW() - 1) - O209)),IF(K209="", "", INDIRECT("N" &amp; ROW() - 1) - O209))</f>
         <v/>
@@ -7728,7 +7908,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="24"/>
-      <c r="C210" s="24"/>
+      <c r="C210" s="24" t="str">
+        <f aca="false">IF(D210="","",VLOOKUP(D210,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F210" s="25" t="str">
         <f aca="true">IF(G210="", IF(K210="","",(INDIRECT("N" &amp; ROW() - 1) - O210)),IF(K210="", "", INDIRECT("N" &amp; ROW() - 1) - O210))</f>
         <v/>
@@ -7743,7 +7926,10 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="24"/>
-      <c r="C211" s="24"/>
+      <c r="C211" s="24" t="str">
+        <f aca="false">IF(D211="","",VLOOKUP(D211,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F211" s="25" t="str">
         <f aca="true">IF(G211="", IF(K211="","",(INDIRECT("N" &amp; ROW() - 1) - O211)),IF(K211="", "", INDIRECT("N" &amp; ROW() - 1) - O211))</f>
         <v/>
@@ -7758,7 +7944,10 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="24"/>
-      <c r="C212" s="24"/>
+      <c r="C212" s="24" t="str">
+        <f aca="false">IF(D212="","",VLOOKUP(D212,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F212" s="25" t="str">
         <f aca="true">IF(G212="", IF(K212="","",(INDIRECT("N" &amp; ROW() - 1) - O212)),IF(K212="", "", INDIRECT("N" &amp; ROW() - 1) - O212))</f>
         <v/>
@@ -7773,7 +7962,10 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="24"/>
-      <c r="C213" s="24"/>
+      <c r="C213" s="24" t="str">
+        <f aca="false">IF(D213="","",VLOOKUP(D213,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F213" s="25" t="str">
         <f aca="true">IF(G213="", IF(K213="","",(INDIRECT("N" &amp; ROW() - 1) - O213)),IF(K213="", "", INDIRECT("N" &amp; ROW() - 1) - O213))</f>
         <v/>
@@ -7788,7 +7980,10 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="C214" s="24" t="str">
+        <f aca="false">IF(D214="","",VLOOKUP(D214,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F214" s="25" t="str">
         <f aca="true">IF(G214="", IF(K214="","",(INDIRECT("N" &amp; ROW() - 1) - O214)),IF(K214="", "", INDIRECT("N" &amp; ROW() - 1) - O214))</f>
         <v/>
@@ -7803,7 +7998,10 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="24"/>
-      <c r="C215" s="24"/>
+      <c r="C215" s="24" t="str">
+        <f aca="false">IF(D215="","",VLOOKUP(D215,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F215" s="25" t="str">
         <f aca="true">IF(G215="", IF(K215="","",(INDIRECT("N" &amp; ROW() - 1) - O215)),IF(K215="", "", INDIRECT("N" &amp; ROW() - 1) - O215))</f>
         <v/>
@@ -7818,7 +8016,10 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="24"/>
-      <c r="C216" s="24"/>
+      <c r="C216" s="24" t="str">
+        <f aca="false">IF(D216="","",VLOOKUP(D216,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F216" s="25" t="str">
         <f aca="true">IF(G216="", IF(K216="","",(INDIRECT("N" &amp; ROW() - 1) - O216)),IF(K216="", "", INDIRECT("N" &amp; ROW() - 1) - O216))</f>
         <v/>
@@ -7833,7 +8034,10 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="24"/>
-      <c r="C217" s="24"/>
+      <c r="C217" s="24" t="str">
+        <f aca="false">IF(D217="","",VLOOKUP(D217,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F217" s="25" t="str">
         <f aca="true">IF(G217="", IF(K217="","",(INDIRECT("N" &amp; ROW() - 1) - O217)),IF(K217="", "", INDIRECT("N" &amp; ROW() - 1) - O217))</f>
         <v/>
@@ -7848,7 +8052,10 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="24"/>
-      <c r="C218" s="24"/>
+      <c r="C218" s="24" t="str">
+        <f aca="false">IF(D218="","",VLOOKUP(D218,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F218" s="25" t="str">
         <f aca="true">IF(G218="", IF(K218="","",(INDIRECT("N" &amp; ROW() - 1) - O218)),IF(K218="", "", INDIRECT("N" &amp; ROW() - 1) - O218))</f>
         <v/>
@@ -7863,7 +8070,10 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="24"/>
-      <c r="C219" s="24"/>
+      <c r="C219" s="24" t="str">
+        <f aca="false">IF(D219="","",VLOOKUP(D219,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F219" s="25" t="str">
         <f aca="true">IF(G219="", IF(K219="","",(INDIRECT("N" &amp; ROW() - 1) - O219)),IF(K219="", "", INDIRECT("N" &amp; ROW() - 1) - O219))</f>
         <v/>
@@ -7878,7 +8088,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="24"/>
-      <c r="C220" s="24"/>
+      <c r="C220" s="24" t="str">
+        <f aca="false">IF(D220="","",VLOOKUP(D220,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F220" s="25" t="str">
         <f aca="true">IF(G220="", IF(K220="","",(INDIRECT("N" &amp; ROW() - 1) - O220)),IF(K220="", "", INDIRECT("N" &amp; ROW() - 1) - O220))</f>
         <v/>
@@ -7893,7 +8106,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="24"/>
-      <c r="C221" s="24"/>
+      <c r="C221" s="24" t="str">
+        <f aca="false">IF(D221="","",VLOOKUP(D221,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F221" s="25" t="str">
         <f aca="true">IF(G221="", IF(K221="","",(INDIRECT("N" &amp; ROW() - 1) - O221)),IF(K221="", "", INDIRECT("N" &amp; ROW() - 1) - O221))</f>
         <v/>
@@ -7908,7 +8124,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="24"/>
-      <c r="C222" s="24"/>
+      <c r="C222" s="24" t="str">
+        <f aca="false">IF(D222="","",VLOOKUP(D222,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F222" s="25" t="str">
         <f aca="true">IF(G222="", IF(K222="","",(INDIRECT("N" &amp; ROW() - 1) - O222)),IF(K222="", "", INDIRECT("N" &amp; ROW() - 1) - O222))</f>
         <v/>
@@ -7923,7 +8142,10 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="24"/>
-      <c r="C223" s="24"/>
+      <c r="C223" s="24" t="str">
+        <f aca="false">IF(D223="","",VLOOKUP(D223,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F223" s="25" t="str">
         <f aca="true">IF(G223="", IF(K223="","",(INDIRECT("N" &amp; ROW() - 1) - O223)),IF(K223="", "", INDIRECT("N" &amp; ROW() - 1) - O223))</f>
         <v/>
@@ -7938,7 +8160,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="24"/>
-      <c r="C224" s="24"/>
+      <c r="C224" s="24" t="str">
+        <f aca="false">IF(D224="","",VLOOKUP(D224,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F224" s="25" t="str">
         <f aca="true">IF(G224="", IF(K224="","",(INDIRECT("N" &amp; ROW() - 1) - O224)),IF(K224="", "", INDIRECT("N" &amp; ROW() - 1) - O224))</f>
         <v/>
@@ -7953,7 +8178,10 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="24"/>
-      <c r="C225" s="24"/>
+      <c r="C225" s="24" t="str">
+        <f aca="false">IF(D225="","",VLOOKUP(D225,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F225" s="25" t="str">
         <f aca="true">IF(G225="", IF(K225="","",(INDIRECT("N" &amp; ROW() - 1) - O225)),IF(K225="", "", INDIRECT("N" &amp; ROW() - 1) - O225))</f>
         <v/>
@@ -7968,7 +8196,10 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="24"/>
-      <c r="C226" s="24"/>
+      <c r="C226" s="24" t="str">
+        <f aca="false">IF(D226="","",VLOOKUP(D226,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F226" s="25" t="str">
         <f aca="true">IF(G226="", IF(K226="","",(INDIRECT("N" &amp; ROW() - 1) - O226)),IF(K226="", "", INDIRECT("N" &amp; ROW() - 1) - O226))</f>
         <v/>
@@ -7983,7 +8214,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="24"/>
-      <c r="C227" s="24"/>
+      <c r="C227" s="24" t="str">
+        <f aca="false">IF(D227="","",VLOOKUP(D227,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F227" s="25" t="str">
         <f aca="true">IF(G227="", IF(K227="","",(INDIRECT("N" &amp; ROW() - 1) - O227)),IF(K227="", "", INDIRECT("N" &amp; ROW() - 1) - O227))</f>
         <v/>
@@ -7998,7 +8232,10 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="24"/>
-      <c r="C228" s="24"/>
+      <c r="C228" s="24" t="str">
+        <f aca="false">IF(D228="","",VLOOKUP(D228,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F228" s="25" t="str">
         <f aca="true">IF(G228="", IF(K228="","",(INDIRECT("N" &amp; ROW() - 1) - O228)),IF(K228="", "", INDIRECT("N" &amp; ROW() - 1) - O228))</f>
         <v/>
@@ -8013,7 +8250,10 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="24"/>
-      <c r="C229" s="24"/>
+      <c r="C229" s="24" t="str">
+        <f aca="false">IF(D229="","",VLOOKUP(D229,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F229" s="25" t="str">
         <f aca="true">IF(G229="", IF(K229="","",(INDIRECT("N" &amp; ROW() - 1) - O229)),IF(K229="", "", INDIRECT("N" &amp; ROW() - 1) - O229))</f>
         <v/>
@@ -8028,7 +8268,10 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="24"/>
-      <c r="C230" s="24"/>
+      <c r="C230" s="24" t="str">
+        <f aca="false">IF(D230="","",VLOOKUP(D230,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F230" s="25" t="str">
         <f aca="true">IF(G230="", IF(K230="","",(INDIRECT("N" &amp; ROW() - 1) - O230)),IF(K230="", "", INDIRECT("N" &amp; ROW() - 1) - O230))</f>
         <v/>
@@ -8043,7 +8286,10 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="24"/>
-      <c r="C231" s="24"/>
+      <c r="C231" s="24" t="str">
+        <f aca="false">IF(D231="","",VLOOKUP(D231,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F231" s="25" t="str">
         <f aca="true">IF(G231="", IF(K231="","",(INDIRECT("N" &amp; ROW() - 1) - O231)),IF(K231="", "", INDIRECT("N" &amp; ROW() - 1) - O231))</f>
         <v/>
@@ -8058,7 +8304,10 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="24"/>
-      <c r="C232" s="24"/>
+      <c r="C232" s="24" t="str">
+        <f aca="false">IF(D232="","",VLOOKUP(D232,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F232" s="25" t="str">
         <f aca="true">IF(G232="", IF(K232="","",(INDIRECT("N" &amp; ROW() - 1) - O232)),IF(K232="", "", INDIRECT("N" &amp; ROW() - 1) - O232))</f>
         <v/>
@@ -8073,7 +8322,10 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="24"/>
-      <c r="C233" s="24"/>
+      <c r="C233" s="24" t="str">
+        <f aca="false">IF(D233="","",VLOOKUP(D233,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F233" s="25" t="str">
         <f aca="true">IF(G233="", IF(K233="","",(INDIRECT("N" &amp; ROW() - 1) - O233)),IF(K233="", "", INDIRECT("N" &amp; ROW() - 1) - O233))</f>
         <v/>
@@ -8088,7 +8340,10 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="24"/>
-      <c r="C234" s="24"/>
+      <c r="C234" s="24" t="str">
+        <f aca="false">IF(D234="","",VLOOKUP(D234,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F234" s="25" t="str">
         <f aca="true">IF(G234="", IF(K234="","",(INDIRECT("N" &amp; ROW() - 1) - O234)),IF(K234="", "", INDIRECT("N" &amp; ROW() - 1) - O234))</f>
         <v/>
@@ -8103,7 +8358,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="24"/>
-      <c r="C235" s="24"/>
+      <c r="C235" s="24" t="str">
+        <f aca="false">IF(D235="","",VLOOKUP(D235,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F235" s="25" t="str">
         <f aca="true">IF(G235="", IF(K235="","",(INDIRECT("N" &amp; ROW() - 1) - O235)),IF(K235="", "", INDIRECT("N" &amp; ROW() - 1) - O235))</f>
         <v/>
@@ -8118,7 +8376,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="24"/>
-      <c r="C236" s="24"/>
+      <c r="C236" s="24" t="str">
+        <f aca="false">IF(D236="","",VLOOKUP(D236,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F236" s="25" t="str">
         <f aca="true">IF(G236="", IF(K236="","",(INDIRECT("N" &amp; ROW() - 1) - O236)),IF(K236="", "", INDIRECT("N" &amp; ROW() - 1) - O236))</f>
         <v/>
@@ -8133,7 +8394,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="24"/>
-      <c r="C237" s="24"/>
+      <c r="C237" s="24" t="str">
+        <f aca="false">IF(D237="","",VLOOKUP(D237,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F237" s="25" t="str">
         <f aca="true">IF(G237="", IF(K237="","",(INDIRECT("N" &amp; ROW() - 1) - O237)),IF(K237="", "", INDIRECT("N" &amp; ROW() - 1) - O237))</f>
         <v/>
@@ -8148,7 +8412,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="24"/>
-      <c r="C238" s="24"/>
+      <c r="C238" s="24" t="str">
+        <f aca="false">IF(D238="","",VLOOKUP(D238,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F238" s="25" t="str">
         <f aca="true">IF(G238="", IF(K238="","",(INDIRECT("N" &amp; ROW() - 1) - O238)),IF(K238="", "", INDIRECT("N" &amp; ROW() - 1) - O238))</f>
         <v/>
@@ -8163,7 +8430,10 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="24"/>
-      <c r="C239" s="24"/>
+      <c r="C239" s="24" t="str">
+        <f aca="false">IF(D239="","",VLOOKUP(D239,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F239" s="25" t="str">
         <f aca="true">IF(G239="", IF(K239="","",(INDIRECT("N" &amp; ROW() - 1) - O239)),IF(K239="", "", INDIRECT("N" &amp; ROW() - 1) - O239))</f>
         <v/>
@@ -8178,7 +8448,10 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="24"/>
-      <c r="C240" s="24"/>
+      <c r="C240" s="24" t="str">
+        <f aca="false">IF(D240="","",VLOOKUP(D240,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F240" s="25" t="str">
         <f aca="true">IF(G240="", IF(K240="","",(INDIRECT("N" &amp; ROW() - 1) - O240)),IF(K240="", "", INDIRECT("N" &amp; ROW() - 1) - O240))</f>
         <v/>
@@ -8193,7 +8466,10 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="24"/>
-      <c r="C241" s="24"/>
+      <c r="C241" s="24" t="str">
+        <f aca="false">IF(D241="","",VLOOKUP(D241,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F241" s="25" t="str">
         <f aca="true">IF(G241="", IF(K241="","",(INDIRECT("N" &amp; ROW() - 1) - O241)),IF(K241="", "", INDIRECT("N" &amp; ROW() - 1) - O241))</f>
         <v/>
@@ -8208,7 +8484,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="24"/>
-      <c r="C242" s="24"/>
+      <c r="C242" s="24" t="str">
+        <f aca="false">IF(D242="","",VLOOKUP(D242,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F242" s="25" t="str">
         <f aca="true">IF(G242="", IF(K242="","",(INDIRECT("N" &amp; ROW() - 1) - O242)),IF(K242="", "", INDIRECT("N" &amp; ROW() - 1) - O242))</f>
         <v/>
@@ -8223,7 +8502,10 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="24"/>
-      <c r="C243" s="24"/>
+      <c r="C243" s="24" t="str">
+        <f aca="false">IF(D243="","",VLOOKUP(D243,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F243" s="25" t="str">
         <f aca="true">IF(G243="", IF(K243="","",(INDIRECT("N" &amp; ROW() - 1) - O243)),IF(K243="", "", INDIRECT("N" &amp; ROW() - 1) - O243))</f>
         <v/>
@@ -8238,7 +8520,10 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="24"/>
-      <c r="C244" s="24"/>
+      <c r="C244" s="24" t="str">
+        <f aca="false">IF(D244="","",VLOOKUP(D244,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F244" s="25" t="str">
         <f aca="true">IF(G244="", IF(K244="","",(INDIRECT("N" &amp; ROW() - 1) - O244)),IF(K244="", "", INDIRECT("N" &amp; ROW() - 1) - O244))</f>
         <v/>
@@ -8253,7 +8538,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="24"/>
-      <c r="C245" s="24"/>
+      <c r="C245" s="24" t="str">
+        <f aca="false">IF(D245="","",VLOOKUP(D245,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F245" s="25" t="str">
         <f aca="true">IF(G245="", IF(K245="","",(INDIRECT("N" &amp; ROW() - 1) - O245)),IF(K245="", "", INDIRECT("N" &amp; ROW() - 1) - O245))</f>
         <v/>
@@ -8268,7 +8556,10 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="24"/>
-      <c r="C246" s="24"/>
+      <c r="C246" s="24" t="str">
+        <f aca="false">IF(D246="","",VLOOKUP(D246,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F246" s="25" t="str">
         <f aca="true">IF(G246="", IF(K246="","",(INDIRECT("N" &amp; ROW() - 1) - O246)),IF(K246="", "", INDIRECT("N" &amp; ROW() - 1) - O246))</f>
         <v/>
@@ -8283,7 +8574,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="24"/>
-      <c r="C247" s="24"/>
+      <c r="C247" s="24" t="str">
+        <f aca="false">IF(D247="","",VLOOKUP(D247,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F247" s="25" t="str">
         <f aca="true">IF(G247="", IF(K247="","",(INDIRECT("N" &amp; ROW() - 1) - O247)),IF(K247="", "", INDIRECT("N" &amp; ROW() - 1) - O247))</f>
         <v/>
@@ -8298,7 +8592,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="24"/>
-      <c r="C248" s="24"/>
+      <c r="C248" s="24" t="str">
+        <f aca="false">IF(D248="","",VLOOKUP(D248,SKU!$A$1:$C$150,3,0) * 2)</f>
+        <v/>
+      </c>
       <c r="F248" s="25" t="str">
         <f aca="true">IF(G248="", IF(K248="","",(INDIRECT("N" &amp; ROW() - 1) - O248)),IF(K248="", "", INDIRECT("N" &amp; ROW() - 1) - O248))</f>
         <v/>
@@ -9327,17 +9624,13 @@
       <formula>IF(H3="",0,F3)  &gt; 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B123" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D60" type="list">
       <formula1>SKU!$A$1:$A$137</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3" type="list">
-      <formula1>"$SKU.$C$1:$C$137"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -647,7 +647,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U326"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
@@ -775,7 +775,7 @@
         <v/>
       </c>
       <c r="G3" s="26" t="str">
-        <f aca="false">IF(K3 = "-", J3 * 6500,"")</f>
+        <f aca="false">IF(K3 = "-", J3 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H3" s="26" t="str">
@@ -820,7 +820,7 @@
         <v/>
       </c>
       <c r="G4" s="26" t="str">
-        <f aca="false">IF(K4 = "-", J4 * 6500,"")</f>
+        <f aca="false">IF(K4 = "-", J4 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H4" s="26" t="str">
@@ -865,7 +865,7 @@
         <v/>
       </c>
       <c r="G5" s="26" t="str">
-        <f aca="false">IF(K5 = "-", J5 * 6500,"")</f>
+        <f aca="false">IF(K5 = "-", J5 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H5" s="26" t="str">
@@ -910,7 +910,7 @@
         <v/>
       </c>
       <c r="G6" s="26" t="str">
-        <f aca="false">IF(K6 = "-", J6 * 6500,"")</f>
+        <f aca="false">IF(K6 = "-", J6 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H6" s="26" t="str">
@@ -955,7 +955,7 @@
         <v/>
       </c>
       <c r="G7" s="26" t="str">
-        <f aca="false">IF(K7 = "-", J7 * 6500,"")</f>
+        <f aca="false">IF(K7 = "-", J7 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H7" s="26" t="str">
@@ -1000,7 +1000,7 @@
         <v/>
       </c>
       <c r="G8" s="26" t="str">
-        <f aca="false">IF(K8 = "-", J8 * 6500,"")</f>
+        <f aca="false">IF(K8 = "-", J8 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H8" s="26" t="str">
@@ -1045,7 +1045,7 @@
         <v/>
       </c>
       <c r="G9" s="26" t="str">
-        <f aca="false">IF(K9 = "-", J9 * 6500,"")</f>
+        <f aca="false">IF(K9 = "-", J9 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H9" s="26" t="str">
@@ -1089,7 +1089,7 @@
         <v/>
       </c>
       <c r="G10" s="26" t="str">
-        <f aca="false">IF(K10 = "-", J10 * 6500,"")</f>
+        <f aca="false">IF(K10 = "-", J10 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H10" s="26" t="str">
@@ -1133,7 +1133,7 @@
         <v/>
       </c>
       <c r="G11" s="26" t="str">
-        <f aca="false">IF(K11 = "-", J11 * 6500,"")</f>
+        <f aca="false">IF(K11 = "-", J11 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H11" s="26" t="str">
@@ -1177,7 +1177,7 @@
         <v/>
       </c>
       <c r="G12" s="26" t="str">
-        <f aca="false">IF(K12 = "-", J12 * 6500,"")</f>
+        <f aca="false">IF(K12 = "-", J12 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H12" s="26" t="str">
@@ -1221,7 +1221,7 @@
         <v/>
       </c>
       <c r="G13" s="26" t="str">
-        <f aca="false">IF(K13 = "-", J13 * 6500,"")</f>
+        <f aca="false">IF(K13 = "-", J13 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H13" s="26" t="str">
@@ -1265,7 +1265,7 @@
         <v/>
       </c>
       <c r="G14" s="26" t="str">
-        <f aca="false">IF(K14 = "-", J14 * 6500,"")</f>
+        <f aca="false">IF(K14 = "-", J14 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H14" s="26" t="str">
@@ -1309,7 +1309,7 @@
         <v/>
       </c>
       <c r="G15" s="26" t="str">
-        <f aca="false">IF(K15 = "-", J15 * 6500,"")</f>
+        <f aca="false">IF(K15 = "-", J15 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H15" s="26" t="str">
@@ -1353,7 +1353,7 @@
         <v/>
       </c>
       <c r="G16" s="26" t="str">
-        <f aca="false">IF(K16 = "-", J16 * 6500,"")</f>
+        <f aca="false">IF(K16 = "-", J16 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H16" s="26" t="str">
@@ -1397,7 +1397,7 @@
         <v/>
       </c>
       <c r="G17" s="26" t="str">
-        <f aca="false">IF(K17 = "-", J17 * 6500,"")</f>
+        <f aca="false">IF(K17 = "-", J17 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H17" s="26" t="str">
@@ -1441,7 +1441,7 @@
         <v/>
       </c>
       <c r="G18" s="26" t="str">
-        <f aca="false">IF(K18 = "-", J18 * 6500,"")</f>
+        <f aca="false">IF(K18 = "-", J18 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H18" s="26" t="str">
@@ -1486,7 +1486,7 @@
         <v/>
       </c>
       <c r="G19" s="26" t="str">
-        <f aca="false">IF(K19 = "-", J19 * 6500,"")</f>
+        <f aca="false">IF(K19 = "-", J19 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H19" s="26" t="str">
@@ -1531,7 +1531,7 @@
         <v/>
       </c>
       <c r="G20" s="26" t="str">
-        <f aca="false">IF(K20 = "-", J20 * 6500,"")</f>
+        <f aca="false">IF(K20 = "-", J20 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H20" s="26" t="str">
@@ -1576,7 +1576,7 @@
         <v/>
       </c>
       <c r="G21" s="26" t="str">
-        <f aca="false">IF(K21 = "-", J21 * 6500,"")</f>
+        <f aca="false">IF(K21 = "-", J21 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H21" s="26" t="str">
@@ -1621,7 +1621,7 @@
         <v/>
       </c>
       <c r="G22" s="26" t="str">
-        <f aca="false">IF(K22 = "-", J22 * 6500,"")</f>
+        <f aca="false">IF(K22 = "-", J22 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H22" s="26" t="str">
@@ -1666,7 +1666,7 @@
         <v/>
       </c>
       <c r="G23" s="26" t="str">
-        <f aca="false">IF(K23 = "-", J23 * 6500,"")</f>
+        <f aca="false">IF(K23 = "-", J23 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H23" s="26" t="str">
@@ -1711,7 +1711,7 @@
         <v/>
       </c>
       <c r="G24" s="26" t="str">
-        <f aca="false">IF(K24 = "-", J24 * 6500,"")</f>
+        <f aca="false">IF(K24 = "-", J24 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H24" s="26" t="str">
@@ -1756,7 +1756,7 @@
         <v/>
       </c>
       <c r="G25" s="26" t="str">
-        <f aca="false">IF(K25 = "-", J25 * 6500,"")</f>
+        <f aca="false">IF(K25 = "-", J25 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H25" s="26" t="str">
@@ -1801,7 +1801,7 @@
         <v/>
       </c>
       <c r="G26" s="26" t="str">
-        <f aca="false">IF(K26 = "-", J26 * 6500,"")</f>
+        <f aca="false">IF(K26 = "-", J26 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H26" s="26" t="str">
@@ -1846,7 +1846,7 @@
         <v/>
       </c>
       <c r="G27" s="26" t="str">
-        <f aca="false">IF(K27 = "-", J27 * 6500,"")</f>
+        <f aca="false">IF(K27 = "-", J27 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H27" s="26" t="str">
@@ -1891,7 +1891,7 @@
         <v/>
       </c>
       <c r="G28" s="26" t="str">
-        <f aca="false">IF(K28 = "-", J28 * 6500,"")</f>
+        <f aca="false">IF(K28 = "-", J28 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H28" s="26" t="str">
@@ -1936,7 +1936,7 @@
         <v/>
       </c>
       <c r="G29" s="26" t="str">
-        <f aca="false">IF(K29 = "-", J29 * 6500,"")</f>
+        <f aca="false">IF(K29 = "-", J29 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H29" s="26" t="str">
@@ -1981,7 +1981,7 @@
         <v/>
       </c>
       <c r="G30" s="26" t="str">
-        <f aca="false">IF(K30 = "-", J30 * 6500,"")</f>
+        <f aca="false">IF(K30 = "-", J30 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H30" s="26" t="str">
@@ -2026,7 +2026,7 @@
         <v/>
       </c>
       <c r="G31" s="26" t="str">
-        <f aca="false">IF(K31 = "-", J31 * 6500,"")</f>
+        <f aca="false">IF(K31 = "-", J31 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H31" s="26" t="str">
@@ -2071,7 +2071,7 @@
         <v/>
       </c>
       <c r="G32" s="26" t="str">
-        <f aca="false">IF(K32 = "-", J32 * 6500,"")</f>
+        <f aca="false">IF(K32 = "-", J32 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H32" s="26" t="str">
@@ -2116,7 +2116,7 @@
         <v/>
       </c>
       <c r="G33" s="26" t="str">
-        <f aca="false">IF(K33 = "-", J33 * 6500,"")</f>
+        <f aca="false">IF(K33 = "-", J33 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H33" s="26" t="str">
@@ -2161,7 +2161,7 @@
         <v/>
       </c>
       <c r="G34" s="26" t="str">
-        <f aca="false">IF(K34 = "-", J34 * 6500,"")</f>
+        <f aca="false">IF(K34 = "-", J34 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H34" s="26" t="str">
@@ -2206,7 +2206,7 @@
         <v/>
       </c>
       <c r="G35" s="26" t="str">
-        <f aca="false">IF(K35 = "-", J35 * 6500,"")</f>
+        <f aca="false">IF(K35 = "-", J35 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H35" s="26" t="str">
@@ -2251,7 +2251,7 @@
         <v/>
       </c>
       <c r="G36" s="26" t="str">
-        <f aca="false">IF(K36 = "-", J36 * 6500,"")</f>
+        <f aca="false">IF(K36 = "-", J36 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H36" s="26" t="str">
@@ -2296,7 +2296,7 @@
         <v/>
       </c>
       <c r="G37" s="26" t="str">
-        <f aca="false">IF(K37 = "-", J37 * 6500,"")</f>
+        <f aca="false">IF(K37 = "-", J37 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H37" s="26" t="str">
@@ -2341,7 +2341,7 @@
         <v/>
       </c>
       <c r="G38" s="26" t="str">
-        <f aca="false">IF(K38 = "-", J38 * 6500,"")</f>
+        <f aca="false">IF(K38 = "-", J38 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H38" s="26" t="str">
@@ -2386,7 +2386,7 @@
         <v/>
       </c>
       <c r="G39" s="26" t="str">
-        <f aca="false">IF(K39 = "-", J39 * 6500,"")</f>
+        <f aca="false">IF(K39 = "-", J39 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H39" s="26" t="str">
@@ -2431,7 +2431,7 @@
         <v/>
       </c>
       <c r="G40" s="26" t="str">
-        <f aca="false">IF(K40 = "-", J40 * 6500,"")</f>
+        <f aca="false">IF(K40 = "-", J40 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H40" s="26" t="str">
@@ -2476,7 +2476,7 @@
         <v/>
       </c>
       <c r="G41" s="26" t="str">
-        <f aca="false">IF(K41 = "-", J41 * 6500,"")</f>
+        <f aca="false">IF(K41 = "-", J41 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H41" s="26" t="str">
@@ -2521,7 +2521,7 @@
         <v/>
       </c>
       <c r="G42" s="26" t="str">
-        <f aca="false">IF(K42 = "-", J42 * 6500,"")</f>
+        <f aca="false">IF(K42 = "-", J42 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H42" s="26" t="str">
@@ -2566,7 +2566,7 @@
         <v/>
       </c>
       <c r="G43" s="26" t="str">
-        <f aca="false">IF(K43 = "-", J43 * 6500,"")</f>
+        <f aca="false">IF(K43 = "-", J43 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H43" s="26" t="str">
@@ -2611,7 +2611,7 @@
         <v/>
       </c>
       <c r="G44" s="26" t="str">
-        <f aca="false">IF(K44 = "-", J44 * 6500,"")</f>
+        <f aca="false">IF(K44 = "-", J44 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H44" s="26" t="str">
@@ -2656,7 +2656,7 @@
         <v/>
       </c>
       <c r="G45" s="26" t="str">
-        <f aca="false">IF(K45 = "-", J45 * 6500,"")</f>
+        <f aca="false">IF(K45 = "-", J45 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H45" s="26" t="str">
@@ -2701,7 +2701,7 @@
         <v/>
       </c>
       <c r="G46" s="26" t="str">
-        <f aca="false">IF(K46 = "-", J46 * 6500,"")</f>
+        <f aca="false">IF(K46 = "-", J46 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H46" s="26" t="str">
@@ -2746,7 +2746,7 @@
         <v/>
       </c>
       <c r="G47" s="26" t="str">
-        <f aca="false">IF(K47 = "-", J47 * 6500,"")</f>
+        <f aca="false">IF(K47 = "-", J47 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H47" s="26" t="str">
@@ -2791,7 +2791,7 @@
         <v/>
       </c>
       <c r="G48" s="26" t="str">
-        <f aca="false">IF(K48 = "-", J48 * 6500,"")</f>
+        <f aca="false">IF(K48 = "-", J48 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H48" s="26" t="str">
@@ -2836,7 +2836,7 @@
         <v/>
       </c>
       <c r="G49" s="26" t="str">
-        <f aca="false">IF(K49 = "-", J49 * 6500,"")</f>
+        <f aca="false">IF(K49 = "-", J49 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H49" s="26" t="str">
@@ -2881,7 +2881,7 @@
         <v/>
       </c>
       <c r="G50" s="26" t="str">
-        <f aca="false">IF(K50 = "-", J50 * 6500,"")</f>
+        <f aca="false">IF(K50 = "-", J50 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H50" s="26" t="str">
@@ -2926,7 +2926,7 @@
         <v/>
       </c>
       <c r="G51" s="26" t="str">
-        <f aca="false">IF(K51 = "-", J51 * 6500,"")</f>
+        <f aca="false">IF(K51 = "-", J51 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H51" s="26" t="str">
@@ -2971,7 +2971,7 @@
         <v/>
       </c>
       <c r="G52" s="26" t="str">
-        <f aca="false">IF(K52 = "-", J52 * 6500,"")</f>
+        <f aca="false">IF(K52 = "-", J52 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H52" s="26" t="str">
@@ -3016,7 +3016,7 @@
         <v/>
       </c>
       <c r="G53" s="26" t="str">
-        <f aca="false">IF(K53 = "-", J53 * 6500,"")</f>
+        <f aca="false">IF(K53 = "-", J53 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H53" s="26" t="str">
@@ -3061,7 +3061,7 @@
         <v/>
       </c>
       <c r="G54" s="26" t="str">
-        <f aca="false">IF(K54 = "-", J54 * 6500,"")</f>
+        <f aca="false">IF(K54 = "-", J54 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H54" s="26" t="str">
@@ -3106,7 +3106,7 @@
         <v/>
       </c>
       <c r="G55" s="26" t="str">
-        <f aca="false">IF(K55 = "-", J55 * 6500,"")</f>
+        <f aca="false">IF(K55 = "-", J55 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H55" s="26" t="str">
@@ -3151,7 +3151,7 @@
         <v/>
       </c>
       <c r="G56" s="26" t="str">
-        <f aca="false">IF(K56 = "-", J56 * 6500,"")</f>
+        <f aca="false">IF(K56 = "-", J56 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H56" s="26" t="str">
@@ -3196,7 +3196,7 @@
         <v/>
       </c>
       <c r="G57" s="26" t="str">
-        <f aca="false">IF(K57 = "-", J57 * 6500,"")</f>
+        <f aca="false">IF(K57 = "-", J57 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H57" s="26" t="str">
@@ -3241,7 +3241,7 @@
         <v/>
       </c>
       <c r="G58" s="26" t="str">
-        <f aca="false">IF(K58 = "-", J58 * 6500,"")</f>
+        <f aca="false">IF(K58 = "-", J58 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H58" s="26" t="str">
@@ -3286,7 +3286,7 @@
         <v/>
       </c>
       <c r="G59" s="26" t="str">
-        <f aca="false">IF(K59 = "-", J59 * 6500,"")</f>
+        <f aca="false">IF(K59 = "-", J59 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H59" s="26" t="str">
@@ -3331,7 +3331,7 @@
         <v/>
       </c>
       <c r="G60" s="26" t="str">
-        <f aca="false">IF(K60 = "-", J60 * 6500,"")</f>
+        <f aca="false">IF(K60 = "-", J60 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H60" s="26" t="str">
@@ -3376,7 +3376,7 @@
         <v/>
       </c>
       <c r="G61" s="26" t="str">
-        <f aca="false">IF(K61 = "-", J61 * 6500,"")</f>
+        <f aca="false">IF(K61 = "-", J61 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H61" s="26" t="str">
@@ -3421,7 +3421,7 @@
         <v/>
       </c>
       <c r="G62" s="26" t="str">
-        <f aca="false">IF(K62 = "-", J62 * 6500,"")</f>
+        <f aca="false">IF(K62 = "-", J62 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H62" s="26" t="str">
@@ -3466,7 +3466,7 @@
         <v/>
       </c>
       <c r="G63" s="26" t="str">
-        <f aca="false">IF(K63 = "-", J63 * 6500,"")</f>
+        <f aca="false">IF(K63 = "-", J63 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H63" s="26" t="str">
@@ -3511,7 +3511,7 @@
         <v/>
       </c>
       <c r="G64" s="26" t="str">
-        <f aca="false">IF(K64 = "-", J64 * 6500,"")</f>
+        <f aca="false">IF(K64 = "-", J64 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H64" s="26" t="str">
@@ -3556,7 +3556,7 @@
         <v/>
       </c>
       <c r="G65" s="26" t="str">
-        <f aca="false">IF(K65 = "-", J65 * 6500,"")</f>
+        <f aca="false">IF(K65 = "-", J65 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H65" s="26" t="str">
@@ -3601,7 +3601,7 @@
         <v/>
       </c>
       <c r="G66" s="26" t="str">
-        <f aca="false">IF(K66 = "-", J66 * 6500,"")</f>
+        <f aca="false">IF(K66 = "-", J66 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H66" s="26" t="str">
@@ -3646,7 +3646,7 @@
         <v/>
       </c>
       <c r="G67" s="26" t="str">
-        <f aca="false">IF(K67 = "-", J67 * 6500,"")</f>
+        <f aca="false">IF(K67 = "-", J67 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H67" s="26" t="str">
@@ -3691,7 +3691,7 @@
         <v/>
       </c>
       <c r="G68" s="26" t="str">
-        <f aca="false">IF(K68 = "-", J68 * 6500,"")</f>
+        <f aca="false">IF(K68 = "-", J68 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H68" s="26" t="str">
@@ -3736,7 +3736,7 @@
         <v/>
       </c>
       <c r="G69" s="26" t="str">
-        <f aca="false">IF(K69 = "-", J69 * 6500,"")</f>
+        <f aca="false">IF(K69 = "-", J69 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H69" s="26" t="str">
@@ -3781,7 +3781,7 @@
         <v/>
       </c>
       <c r="G70" s="26" t="str">
-        <f aca="false">IF(K70 = "-", J70 * 6500,"")</f>
+        <f aca="false">IF(K70 = "-", J70 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H70" s="26" t="str">
@@ -3826,7 +3826,7 @@
         <v/>
       </c>
       <c r="G71" s="26" t="str">
-        <f aca="false">IF(K71 = "-", J71 * 6500,"")</f>
+        <f aca="false">IF(K71 = "-", J71 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H71" s="26" t="str">
@@ -3871,7 +3871,7 @@
         <v/>
       </c>
       <c r="G72" s="26" t="str">
-        <f aca="false">IF(K72 = "-", J72 * 6500,"")</f>
+        <f aca="false">IF(K72 = "-", J72 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H72" s="26" t="str">
@@ -3916,7 +3916,7 @@
         <v/>
       </c>
       <c r="G73" s="26" t="str">
-        <f aca="false">IF(K73 = "-", J73 * 6500,"")</f>
+        <f aca="false">IF(K73 = "-", J73 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H73" s="26" t="str">
@@ -3961,7 +3961,7 @@
         <v/>
       </c>
       <c r="G74" s="26" t="str">
-        <f aca="false">IF(K74 = "-", J74 * 6500,"")</f>
+        <f aca="false">IF(K74 = "-", J74 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H74" s="26" t="str">
@@ -4006,7 +4006,7 @@
         <v/>
       </c>
       <c r="G75" s="26" t="str">
-        <f aca="false">IF(K75 = "-", J75 * 6500,"")</f>
+        <f aca="false">IF(K75 = "-", J75 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H75" s="26" t="str">
@@ -4051,7 +4051,7 @@
         <v/>
       </c>
       <c r="G76" s="26" t="str">
-        <f aca="false">IF(K76 = "-", J76 * 6500,"")</f>
+        <f aca="false">IF(K76 = "-", J76 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H76" s="26" t="str">
@@ -4096,7 +4096,7 @@
         <v/>
       </c>
       <c r="G77" s="26" t="str">
-        <f aca="false">IF(K77 = "-", J77 * 6500,"")</f>
+        <f aca="false">IF(K77 = "-", J77 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H77" s="26" t="str">
@@ -4141,7 +4141,7 @@
         <v/>
       </c>
       <c r="G78" s="26" t="str">
-        <f aca="false">IF(K78 = "-", J78 * 6500,"")</f>
+        <f aca="false">IF(K78 = "-", J78 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H78" s="26" t="str">
@@ -4186,7 +4186,7 @@
         <v/>
       </c>
       <c r="G79" s="26" t="str">
-        <f aca="false">IF(K79 = "-", J79 * 6500,"")</f>
+        <f aca="false">IF(K79 = "-", J79 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H79" s="26" t="str">
@@ -4231,7 +4231,7 @@
         <v/>
       </c>
       <c r="G80" s="26" t="str">
-        <f aca="false">IF(K80 = "-", J80 * 6500,"")</f>
+        <f aca="false">IF(K80 = "-", J80 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H80" s="26" t="str">
@@ -4276,7 +4276,7 @@
         <v/>
       </c>
       <c r="G81" s="26" t="str">
-        <f aca="false">IF(K81 = "-", J81 * 6500,"")</f>
+        <f aca="false">IF(K81 = "-", J81 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H81" s="26" t="str">
@@ -4321,7 +4321,7 @@
         <v/>
       </c>
       <c r="G82" s="26" t="str">
-        <f aca="false">IF(K82 = "-", J82 * 6500,"")</f>
+        <f aca="false">IF(K82 = "-", J82 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H82" s="26" t="str">
@@ -4366,7 +4366,7 @@
         <v/>
       </c>
       <c r="G83" s="26" t="str">
-        <f aca="false">IF(K83 = "-", J83 * 6500,"")</f>
+        <f aca="false">IF(K83 = "-", J83 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H83" s="26" t="str">
@@ -4411,7 +4411,7 @@
         <v/>
       </c>
       <c r="G84" s="26" t="str">
-        <f aca="false">IF(K84 = "-", J84 * 6500,"")</f>
+        <f aca="false">IF(K84 = "-", J84 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H84" s="26" t="str">
@@ -4456,7 +4456,7 @@
         <v/>
       </c>
       <c r="G85" s="26" t="str">
-        <f aca="false">IF(K85 = "-", J85 * 6500,"")</f>
+        <f aca="false">IF(K85 = "-", J85 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H85" s="26" t="str">
@@ -4501,7 +4501,7 @@
         <v/>
       </c>
       <c r="G86" s="26" t="str">
-        <f aca="false">IF(K86 = "-", J86 * 6500,"")</f>
+        <f aca="false">IF(K86 = "-", J86 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H86" s="26" t="str">
@@ -4546,7 +4546,7 @@
         <v/>
       </c>
       <c r="G87" s="26" t="str">
-        <f aca="false">IF(K87 = "-", J87 * 6500,"")</f>
+        <f aca="false">IF(K87 = "-", J87 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H87" s="26" t="str">
@@ -4591,7 +4591,7 @@
         <v/>
       </c>
       <c r="G88" s="26" t="str">
-        <f aca="false">IF(K88 = "-", J88 * 6500,"")</f>
+        <f aca="false">IF(K88 = "-", J88 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H88" s="26" t="str">
@@ -4636,7 +4636,7 @@
         <v/>
       </c>
       <c r="G89" s="26" t="str">
-        <f aca="false">IF(K89 = "-", J89 * 6500,"")</f>
+        <f aca="false">IF(K89 = "-", J89 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H89" s="26" t="str">
@@ -4681,7 +4681,7 @@
         <v/>
       </c>
       <c r="G90" s="26" t="str">
-        <f aca="false">IF(K90 = "-", J90 * 6500,"")</f>
+        <f aca="false">IF(K90 = "-", J90 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H90" s="26" t="str">
@@ -4726,7 +4726,7 @@
         <v/>
       </c>
       <c r="G91" s="26" t="str">
-        <f aca="false">IF(K91 = "-", J91 * 6500,"")</f>
+        <f aca="false">IF(K91 = "-", J91 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H91" s="26" t="str">
@@ -4771,7 +4771,7 @@
         <v/>
       </c>
       <c r="G92" s="26" t="str">
-        <f aca="false">IF(K92 = "-", J92 * 6500,"")</f>
+        <f aca="false">IF(K92 = "-", J92 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H92" s="26" t="str">
@@ -4816,7 +4816,7 @@
         <v/>
       </c>
       <c r="G93" s="26" t="str">
-        <f aca="false">IF(K93 = "-", J93 * 6500,"")</f>
+        <f aca="false">IF(K93 = "-", J93 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H93" s="26" t="str">
@@ -4861,7 +4861,7 @@
         <v/>
       </c>
       <c r="G94" s="26" t="str">
-        <f aca="false">IF(K94 = "-", J94 * 6500,"")</f>
+        <f aca="false">IF(K94 = "-", J94 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H94" s="26" t="str">
@@ -4906,7 +4906,7 @@
         <v/>
       </c>
       <c r="G95" s="26" t="str">
-        <f aca="false">IF(K95 = "-", J95 * 6500,"")</f>
+        <f aca="false">IF(K95 = "-", J95 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H95" s="26" t="str">
@@ -4951,7 +4951,7 @@
         <v/>
       </c>
       <c r="G96" s="26" t="str">
-        <f aca="false">IF(K96 = "-", J96 * 6500,"")</f>
+        <f aca="false">IF(K96 = "-", J96 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H96" s="26" t="str">
@@ -4996,7 +4996,7 @@
         <v/>
       </c>
       <c r="G97" s="26" t="str">
-        <f aca="false">IF(K97 = "-", J97 * 6500,"")</f>
+        <f aca="false">IF(K97 = "-", J97 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H97" s="26" t="str">
@@ -5041,7 +5041,7 @@
         <v/>
       </c>
       <c r="G98" s="26" t="str">
-        <f aca="false">IF(K98 = "-", J98 * 6500,"")</f>
+        <f aca="false">IF(K98 = "-", J98 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H98" s="26" t="str">
@@ -5086,7 +5086,7 @@
         <v/>
       </c>
       <c r="G99" s="26" t="str">
-        <f aca="false">IF(K99 = "-", J99 * 6500,"")</f>
+        <f aca="false">IF(K99 = "-", J99 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H99" s="26" t="str">
@@ -5131,7 +5131,7 @@
         <v/>
       </c>
       <c r="G100" s="26" t="str">
-        <f aca="false">IF(K100 = "-", J100 * 6500,"")</f>
+        <f aca="false">IF(K100 = "-", J100 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H100" s="26" t="str">
@@ -5176,7 +5176,7 @@
         <v/>
       </c>
       <c r="G101" s="26" t="str">
-        <f aca="false">IF(K101 = "-", J101 * 6500,"")</f>
+        <f aca="false">IF(K101 = "-", J101 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H101" s="26" t="str">
@@ -5221,7 +5221,7 @@
         <v/>
       </c>
       <c r="G102" s="26" t="str">
-        <f aca="false">IF(K102 = "-", J102 * 6500,"")</f>
+        <f aca="false">IF(K102 = "-", J102 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H102" s="26" t="str">
@@ -5266,7 +5266,7 @@
         <v/>
       </c>
       <c r="G103" s="26" t="str">
-        <f aca="false">IF(K103 = "-", J103 * 6500,"")</f>
+        <f aca="false">IF(K103 = "-", J103 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H103" s="26" t="str">
@@ -5311,7 +5311,7 @@
         <v/>
       </c>
       <c r="G104" s="26" t="str">
-        <f aca="false">IF(K104 = "-", J104 * 6500,"")</f>
+        <f aca="false">IF(K104 = "-", J104 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H104" s="26" t="str">
@@ -5356,7 +5356,7 @@
         <v/>
       </c>
       <c r="G105" s="26" t="str">
-        <f aca="false">IF(K105 = "-", J105 * 6500,"")</f>
+        <f aca="false">IF(K105 = "-", J105 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H105" s="26" t="str">
@@ -5401,7 +5401,7 @@
         <v/>
       </c>
       <c r="G106" s="26" t="str">
-        <f aca="false">IF(K106 = "-", J106 * 6500,"")</f>
+        <f aca="false">IF(K106 = "-", J106 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H106" s="26" t="str">
@@ -5446,7 +5446,7 @@
         <v/>
       </c>
       <c r="G107" s="26" t="str">
-        <f aca="false">IF(K107 = "-", J107 * 6500,"")</f>
+        <f aca="false">IF(K107 = "-", J107 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H107" s="26" t="str">
@@ -5491,7 +5491,7 @@
         <v/>
       </c>
       <c r="G108" s="26" t="str">
-        <f aca="false">IF(K108 = "-", J108 * 6500,"")</f>
+        <f aca="false">IF(K108 = "-", J108 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H108" s="26" t="str">
@@ -5536,7 +5536,7 @@
         <v/>
       </c>
       <c r="G109" s="26" t="str">
-        <f aca="false">IF(K109 = "-", J109 * 6500,"")</f>
+        <f aca="false">IF(K109 = "-", J109 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H109" s="26" t="str">
@@ -5581,7 +5581,7 @@
         <v/>
       </c>
       <c r="G110" s="26" t="str">
-        <f aca="false">IF(K110 = "-", J110 * 6500,"")</f>
+        <f aca="false">IF(K110 = "-", J110 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H110" s="26" t="str">
@@ -5626,7 +5626,7 @@
         <v/>
       </c>
       <c r="G111" s="26" t="str">
-        <f aca="false">IF(K111 = "-", J111 * 6500,"")</f>
+        <f aca="false">IF(K111 = "-", J111 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H111" s="26" t="str">
@@ -5671,7 +5671,7 @@
         <v/>
       </c>
       <c r="G112" s="26" t="str">
-        <f aca="false">IF(K112 = "-", J112 * 6500,"")</f>
+        <f aca="false">IF(K112 = "-", J112 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H112" s="26" t="str">
@@ -5716,7 +5716,7 @@
         <v/>
       </c>
       <c r="G113" s="26" t="str">
-        <f aca="false">IF(K113 = "-", J113 * 6500,"")</f>
+        <f aca="false">IF(K113 = "-", J113 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H113" s="26" t="str">
@@ -5761,7 +5761,7 @@
         <v/>
       </c>
       <c r="G114" s="26" t="str">
-        <f aca="false">IF(K114 = "-", J114 * 6500,"")</f>
+        <f aca="false">IF(K114 = "-", J114 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H114" s="26" t="str">
@@ -5806,7 +5806,7 @@
         <v/>
       </c>
       <c r="G115" s="26" t="str">
-        <f aca="false">IF(K115 = "-", J115 * 6500,"")</f>
+        <f aca="false">IF(K115 = "-", J115 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H115" s="26" t="str">
@@ -5851,7 +5851,7 @@
         <v/>
       </c>
       <c r="G116" s="26" t="str">
-        <f aca="false">IF(K116 = "-", J116 * 6500,"")</f>
+        <f aca="false">IF(K116 = "-", J116 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H116" s="26" t="str">
@@ -5896,7 +5896,7 @@
         <v/>
       </c>
       <c r="G117" s="26" t="str">
-        <f aca="false">IF(K117 = "-", J117 * 6500,"")</f>
+        <f aca="false">IF(K117 = "-", J117 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H117" s="26" t="str">
@@ -5941,7 +5941,7 @@
         <v/>
       </c>
       <c r="G118" s="26" t="str">
-        <f aca="false">IF(K118 = "-", J118 * 6500,"")</f>
+        <f aca="false">IF(K118 = "-", J118 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H118" s="26" t="str">
@@ -5986,7 +5986,7 @@
         <v/>
       </c>
       <c r="G119" s="26" t="str">
-        <f aca="false">IF(K119 = "-", J119 * 6500,"")</f>
+        <f aca="false">IF(K119 = "-", J119 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H119" s="26" t="str">
@@ -6031,7 +6031,7 @@
         <v/>
       </c>
       <c r="G120" s="26" t="str">
-        <f aca="false">IF(K120 = "-", J120 * 6500,"")</f>
+        <f aca="false">IF(K120 = "-", J120 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H120" s="26" t="str">
@@ -6076,7 +6076,7 @@
         <v/>
       </c>
       <c r="G121" s="26" t="str">
-        <f aca="false">IF(K121 = "-", J121 * 6500,"")</f>
+        <f aca="false">IF(K121 = "-", J121 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H121" s="26" t="str">
@@ -6121,7 +6121,7 @@
         <v/>
       </c>
       <c r="G122" s="26" t="str">
-        <f aca="false">IF(K122 = "-", J122 * 6500,"")</f>
+        <f aca="false">IF(K122 = "-", J122 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H122" s="26" t="str">
@@ -6163,7 +6163,7 @@
         <v/>
       </c>
       <c r="G123" s="26" t="str">
-        <f aca="false">IF(K123 = "-", J123 * 6500,"")</f>
+        <f aca="false">IF(K123 = "-", J123 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H123" s="26" t="str">
@@ -6201,7 +6201,7 @@
         <v/>
       </c>
       <c r="G124" s="26" t="str">
-        <f aca="true">IF(K124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K124 = "-", J124 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H124" s="26" t="str">
@@ -6223,7 +6223,7 @@
         <v/>
       </c>
       <c r="G125" s="26" t="str">
-        <f aca="true">IF(K125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K125 = "-", J125 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H125" s="26" t="str">
@@ -6245,7 +6245,7 @@
         <v/>
       </c>
       <c r="G126" s="26" t="str">
-        <f aca="true">IF(K126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K126 = "-", J126 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H126" s="26" t="str">
@@ -6267,7 +6267,7 @@
         <v/>
       </c>
       <c r="G127" s="26" t="str">
-        <f aca="true">IF(K127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K127 = "-", J127 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H127" s="26" t="str">
@@ -6289,7 +6289,7 @@
         <v/>
       </c>
       <c r="G128" s="26" t="str">
-        <f aca="true">IF(K128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K128 = "-", J128 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H128" s="26" t="str">
@@ -6311,7 +6311,7 @@
         <v/>
       </c>
       <c r="G129" s="26" t="str">
-        <f aca="true">IF(K129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K129 = "-", J129 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H129" s="26" t="str">
@@ -6333,7 +6333,7 @@
         <v/>
       </c>
       <c r="G130" s="26" t="str">
-        <f aca="true">IF(K130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K130 = "-", J130 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H130" s="26" t="str">
@@ -6355,7 +6355,7 @@
         <v/>
       </c>
       <c r="G131" s="26" t="str">
-        <f aca="true">IF(K131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K131 = "-", J131 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H131" s="26" t="str">
@@ -6377,7 +6377,7 @@
         <v/>
       </c>
       <c r="G132" s="26" t="str">
-        <f aca="true">IF(K132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K132 = "-", J132 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H132" s="26" t="str">
@@ -6399,7 +6399,7 @@
         <v/>
       </c>
       <c r="G133" s="26" t="str">
-        <f aca="true">IF(K133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K133 = "-", J133 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H133" s="26" t="str">
@@ -6421,7 +6421,7 @@
         <v/>
       </c>
       <c r="G134" s="26" t="str">
-        <f aca="true">IF(K134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K134 = "-", J134 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H134" s="26" t="str">
@@ -6443,7 +6443,7 @@
         <v/>
       </c>
       <c r="G135" s="26" t="str">
-        <f aca="true">IF(K135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K135 = "-", J135 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H135" s="26" t="str">
@@ -6465,7 +6465,7 @@
         <v/>
       </c>
       <c r="G136" s="26" t="str">
-        <f aca="true">IF(K136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K136 = "-", J136 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H136" s="26" t="str">
@@ -6487,7 +6487,7 @@
         <v/>
       </c>
       <c r="G137" s="26" t="str">
-        <f aca="true">IF(K137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K137 = "-", J137 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H137" s="26" t="str">
@@ -6509,7 +6509,7 @@
         <v/>
       </c>
       <c r="G138" s="26" t="str">
-        <f aca="true">IF(K138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K138 = "-", J138 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H138" s="26" t="str">
@@ -6531,7 +6531,7 @@
         <v/>
       </c>
       <c r="G139" s="26" t="str">
-        <f aca="true">IF(K139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K139 = "-", J139 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H139" s="26" t="str">
@@ -6553,7 +6553,7 @@
         <v/>
       </c>
       <c r="G140" s="26" t="str">
-        <f aca="true">IF(K140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K140 = "-", J140 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H140" s="26" t="str">
@@ -6575,7 +6575,7 @@
         <v/>
       </c>
       <c r="G141" s="26" t="str">
-        <f aca="true">IF(K141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K141 = "-", J141 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H141" s="26" t="str">
@@ -6597,7 +6597,7 @@
         <v/>
       </c>
       <c r="G142" s="26" t="str">
-        <f aca="true">IF(K142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K142 = "-", J142 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H142" s="26" t="str">
@@ -6619,7 +6619,7 @@
         <v/>
       </c>
       <c r="G143" s="26" t="str">
-        <f aca="true">IF(K143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K143 = "-", J143 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H143" s="26" t="str">
@@ -6641,7 +6641,7 @@
         <v/>
       </c>
       <c r="G144" s="26" t="str">
-        <f aca="true">IF(K144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K144 = "-", J144 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H144" s="26" t="str">
@@ -6663,7 +6663,7 @@
         <v/>
       </c>
       <c r="G145" s="26" t="str">
-        <f aca="true">IF(K145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K145 = "-", J145 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H145" s="26" t="str">
@@ -6685,7 +6685,7 @@
         <v/>
       </c>
       <c r="G146" s="26" t="str">
-        <f aca="true">IF(K146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K146 = "-", J146 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H146" s="26" t="str">
@@ -6707,7 +6707,7 @@
         <v/>
       </c>
       <c r="G147" s="26" t="str">
-        <f aca="true">IF(K147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K147 = "-", J147 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H147" s="26" t="str">
@@ -6729,7 +6729,7 @@
         <v/>
       </c>
       <c r="G148" s="26" t="str">
-        <f aca="true">IF(K148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K148 = "-", J148 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H148" s="26" t="str">
@@ -6751,7 +6751,7 @@
         <v/>
       </c>
       <c r="G149" s="26" t="str">
-        <f aca="true">IF(K149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K149 = "-", J149 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H149" s="26" t="str">
@@ -6773,7 +6773,7 @@
         <v/>
       </c>
       <c r="G150" s="26" t="str">
-        <f aca="true">IF(K150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K150 = "-", J150 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H150" s="26" t="str">
@@ -6795,7 +6795,7 @@
         <v/>
       </c>
       <c r="G151" s="26" t="str">
-        <f aca="true">IF(K151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K151 = "-", J151 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H151" s="26" t="str">
@@ -6817,7 +6817,7 @@
         <v/>
       </c>
       <c r="G152" s="26" t="str">
-        <f aca="true">IF(K152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K152 = "-", J152 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H152" s="26" t="str">
@@ -6839,7 +6839,7 @@
         <v/>
       </c>
       <c r="G153" s="26" t="str">
-        <f aca="true">IF(K153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K153 = "-", J153 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H153" s="26" t="str">
@@ -6861,7 +6861,7 @@
         <v/>
       </c>
       <c r="G154" s="26" t="str">
-        <f aca="true">IF(K154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K154 = "-", J154 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H154" s="26" t="str">
@@ -6883,7 +6883,7 @@
         <v/>
       </c>
       <c r="G155" s="26" t="str">
-        <f aca="true">IF(K155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K155 = "-", J155 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H155" s="26" t="str">
@@ -6905,7 +6905,7 @@
         <v/>
       </c>
       <c r="G156" s="26" t="str">
-        <f aca="true">IF(K156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K156 = "-", J156 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H156" s="26" t="str">
@@ -6927,7 +6927,7 @@
         <v/>
       </c>
       <c r="G157" s="26" t="str">
-        <f aca="true">IF(K157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K157 = "-", J157 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H157" s="26" t="str">
@@ -6949,7 +6949,7 @@
         <v/>
       </c>
       <c r="G158" s="26" t="str">
-        <f aca="true">IF(K158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K158 = "-", J158 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H158" s="26" t="str">
@@ -6971,7 +6971,7 @@
         <v/>
       </c>
       <c r="G159" s="26" t="str">
-        <f aca="true">IF(K159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K159 = "-", J159 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H159" s="26" t="str">
@@ -6993,7 +6993,7 @@
         <v/>
       </c>
       <c r="G160" s="26" t="str">
-        <f aca="true">IF(K160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K160 = "-", J160 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H160" s="26" t="str">
@@ -7015,7 +7015,7 @@
         <v/>
       </c>
       <c r="G161" s="26" t="str">
-        <f aca="true">IF(K161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K161 = "-", J161 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H161" s="26" t="str">
@@ -7037,7 +7037,7 @@
         <v/>
       </c>
       <c r="G162" s="26" t="str">
-        <f aca="true">IF(K162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K162 = "-", J162 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H162" s="26" t="str">
@@ -7059,7 +7059,7 @@
         <v/>
       </c>
       <c r="G163" s="26" t="str">
-        <f aca="true">IF(K163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K163 = "-", J163 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H163" s="26" t="str">
@@ -7081,7 +7081,7 @@
         <v/>
       </c>
       <c r="G164" s="26" t="str">
-        <f aca="true">IF(K164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K164 = "-", J164 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H164" s="26" t="str">
@@ -7103,7 +7103,7 @@
         <v/>
       </c>
       <c r="G165" s="26" t="str">
-        <f aca="true">IF(K165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f aca="false">IF(K165 = "-", J165 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H165" s="26" t="str">
@@ -7124,6 +7124,10 @@
         <f aca="true">IF(K166 = "-", J166 * (Q166 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G166" s="26" t="str">
+        <f aca="false">IF(K166 = "-", J166 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H166" s="26" t="str">
         <f aca="true">IF(K166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7142,6 +7146,10 @@
         <f aca="true">IF(K167 = "-", J167 * (Q167 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G167" s="26" t="str">
+        <f aca="false">IF(K167 = "-", J167 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H167" s="26" t="str">
         <f aca="true">IF(K167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7160,6 +7168,10 @@
         <f aca="true">IF(K168 = "-", J168 * (Q168 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G168" s="26" t="str">
+        <f aca="false">IF(K168 = "-", J168 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H168" s="26" t="str">
         <f aca="true">IF(K168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7178,6 +7190,10 @@
         <f aca="true">IF(K169 = "-", J169 * (Q169 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G169" s="26" t="str">
+        <f aca="false">IF(K169 = "-", J169 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H169" s="26" t="str">
         <f aca="true">IF(K169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7196,6 +7212,10 @@
         <f aca="true">IF(K170 = "-", J170 * (Q170 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G170" s="26" t="str">
+        <f aca="false">IF(K170 = "-", J170 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H170" s="26" t="str">
         <f aca="true">IF(K170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7214,6 +7234,10 @@
         <f aca="true">IF(K171 = "-", J171 * (Q171 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G171" s="26" t="str">
+        <f aca="false">IF(K171 = "-", J171 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H171" s="26" t="str">
         <f aca="true">IF(K171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7232,6 +7256,10 @@
         <f aca="true">IF(K172 = "-", J172 * (Q172 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G172" s="26" t="str">
+        <f aca="false">IF(K172 = "-", J172 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H172" s="26" t="str">
         <f aca="true">IF(K172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7250,6 +7278,10 @@
         <f aca="true">IF(K173 = "-", J173 * (Q173 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G173" s="26" t="str">
+        <f aca="false">IF(K173 = "-", J173 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H173" s="26" t="str">
         <f aca="true">IF(K173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7268,6 +7300,10 @@
         <f aca="true">IF(K174 = "-", J174 * (Q174 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G174" s="26" t="str">
+        <f aca="false">IF(K174 = "-", J174 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H174" s="26" t="str">
         <f aca="true">IF(K174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7286,6 +7322,10 @@
         <f aca="true">IF(K175 = "-", J175 * (Q175 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G175" s="26" t="str">
+        <f aca="false">IF(K175 = "-", J175 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H175" s="26" t="str">
         <f aca="true">IF(K175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7304,6 +7344,10 @@
         <f aca="true">IF(K176 = "-", J176 * (Q176 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G176" s="26" t="str">
+        <f aca="false">IF(K176 = "-", J176 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H176" s="26" t="str">
         <f aca="true">IF(K176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7322,6 +7366,10 @@
         <f aca="true">IF(K177 = "-", J177 * (Q177 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G177" s="26" t="str">
+        <f aca="false">IF(K177 = "-", J177 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H177" s="26" t="str">
         <f aca="true">IF(K177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7340,6 +7388,10 @@
         <f aca="true">IF(K178 = "-", J178 * (Q178 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G178" s="26" t="str">
+        <f aca="false">IF(K178 = "-", J178 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H178" s="26" t="str">
         <f aca="true">IF(K178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7358,6 +7410,10 @@
         <f aca="true">IF(K179 = "-", J179 * (Q179 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G179" s="26" t="str">
+        <f aca="false">IF(K179 = "-", J179 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H179" s="26" t="str">
         <f aca="true">IF(K179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7376,6 +7432,10 @@
         <f aca="true">IF(K180 = "-", J180 * (Q180 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G180" s="26" t="str">
+        <f aca="false">IF(K180 = "-", J180 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H180" s="26" t="str">
         <f aca="true">IF(K180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7394,6 +7454,10 @@
         <f aca="true">IF(K181 = "-", J181 * (Q181 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G181" s="26" t="str">
+        <f aca="false">IF(K181 = "-", J181 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H181" s="26" t="str">
         <f aca="true">IF(K181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7412,6 +7476,10 @@
         <f aca="true">IF(K182 = "-", J182 * (Q182 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G182" s="26" t="str">
+        <f aca="false">IF(K182 = "-", J182 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H182" s="26" t="str">
         <f aca="true">IF(K182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7430,6 +7498,10 @@
         <f aca="true">IF(K183 = "-", J183 * (Q183 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G183" s="26" t="str">
+        <f aca="false">IF(K183 = "-", J183 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H183" s="26" t="str">
         <f aca="true">IF(K183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7448,6 +7520,10 @@
         <f aca="true">IF(K184 = "-", J184 * (Q184 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G184" s="26" t="str">
+        <f aca="false">IF(K184 = "-", J184 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H184" s="26" t="str">
         <f aca="true">IF(K184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7466,6 +7542,10 @@
         <f aca="true">IF(K185 = "-", J185 * (Q185 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
+      <c r="G185" s="26" t="str">
+        <f aca="false">IF(K185 = "-", J185 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H185" s="26" t="str">
         <f aca="true">IF(K185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7484,6 +7564,10 @@
         <f aca="true">IF(G186="", IF(K186="","",(INDIRECT("N" &amp; ROW() - 1) - O186)),IF(K186="", "", INDIRECT("N" &amp; ROW() - 1) - O186))</f>
         <v/>
       </c>
+      <c r="G186" s="26" t="str">
+        <f aca="false">IF(K186 = "-", J186 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H186" s="26" t="str">
         <f aca="true">IF(K186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7502,6 +7586,10 @@
         <f aca="true">IF(G187="", IF(K187="","",(INDIRECT("N" &amp; ROW() - 1) - O187)),IF(K187="", "", INDIRECT("N" &amp; ROW() - 1) - O187))</f>
         <v/>
       </c>
+      <c r="G187" s="26" t="str">
+        <f aca="false">IF(K187 = "-", J187 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H187" s="26" t="str">
         <f aca="true">IF(K187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7520,6 +7608,10 @@
         <f aca="true">IF(G188="", IF(K188="","",(INDIRECT("N" &amp; ROW() - 1) - O188)),IF(K188="", "", INDIRECT("N" &amp; ROW() - 1) - O188))</f>
         <v/>
       </c>
+      <c r="G188" s="26" t="str">
+        <f aca="false">IF(K188 = "-", J188 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H188" s="26" t="str">
         <f aca="true">IF(K188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7538,6 +7630,10 @@
         <f aca="true">IF(G189="", IF(K189="","",(INDIRECT("N" &amp; ROW() - 1) - O189)),IF(K189="", "", INDIRECT("N" &amp; ROW() - 1) - O189))</f>
         <v/>
       </c>
+      <c r="G189" s="26" t="str">
+        <f aca="false">IF(K189 = "-", J189 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H189" s="26" t="str">
         <f aca="true">IF(K189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7556,6 +7652,10 @@
         <f aca="true">IF(G190="", IF(K190="","",(INDIRECT("N" &amp; ROW() - 1) - O190)),IF(K190="", "", INDIRECT("N" &amp; ROW() - 1) - O190))</f>
         <v/>
       </c>
+      <c r="G190" s="26" t="str">
+        <f aca="false">IF(K190 = "-", J190 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H190" s="26" t="str">
         <f aca="true">IF(K190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7574,6 +7674,10 @@
         <f aca="true">IF(G191="", IF(K191="","",(INDIRECT("N" &amp; ROW() - 1) - O191)),IF(K191="", "", INDIRECT("N" &amp; ROW() - 1) - O191))</f>
         <v/>
       </c>
+      <c r="G191" s="26" t="str">
+        <f aca="false">IF(K191 = "-", J191 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H191" s="26" t="str">
         <f aca="true">IF(K191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7592,6 +7696,10 @@
         <f aca="true">IF(G192="", IF(K192="","",(INDIRECT("N" &amp; ROW() - 1) - O192)),IF(K192="", "", INDIRECT("N" &amp; ROW() - 1) - O192))</f>
         <v/>
       </c>
+      <c r="G192" s="26" t="str">
+        <f aca="false">IF(K192 = "-", J192 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H192" s="26" t="str">
         <f aca="true">IF(K192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7610,6 +7718,10 @@
         <f aca="true">IF(G193="", IF(K193="","",(INDIRECT("N" &amp; ROW() - 1) - O193)),IF(K193="", "", INDIRECT("N" &amp; ROW() - 1) - O193))</f>
         <v/>
       </c>
+      <c r="G193" s="26" t="str">
+        <f aca="false">IF(K193 = "-", J193 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H193" s="26" t="str">
         <f aca="true">IF(K193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7628,6 +7740,10 @@
         <f aca="true">IF(G194="", IF(K194="","",(INDIRECT("N" &amp; ROW() - 1) - O194)),IF(K194="", "", INDIRECT("N" &amp; ROW() - 1) - O194))</f>
         <v/>
       </c>
+      <c r="G194" s="26" t="str">
+        <f aca="false">IF(K194 = "-", J194 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H194" s="26" t="str">
         <f aca="true">IF(K194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7646,6 +7762,10 @@
         <f aca="true">IF(G195="", IF(K195="","",(INDIRECT("N" &amp; ROW() - 1) - O195)),IF(K195="", "", INDIRECT("N" &amp; ROW() - 1) - O195))</f>
         <v/>
       </c>
+      <c r="G195" s="26" t="str">
+        <f aca="false">IF(K195 = "-", J195 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H195" s="26" t="str">
         <f aca="true">IF(K195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7664,6 +7784,10 @@
         <f aca="true">IF(G196="", IF(K196="","",(INDIRECT("N" &amp; ROW() - 1) - O196)),IF(K196="", "", INDIRECT("N" &amp; ROW() - 1) - O196))</f>
         <v/>
       </c>
+      <c r="G196" s="26" t="str">
+        <f aca="false">IF(K196 = "-", J196 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H196" s="26" t="str">
         <f aca="true">IF(K196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7682,6 +7806,10 @@
         <f aca="true">IF(G197="", IF(K197="","",(INDIRECT("N" &amp; ROW() - 1) - O197)),IF(K197="", "", INDIRECT("N" &amp; ROW() - 1) - O197))</f>
         <v/>
       </c>
+      <c r="G197" s="26" t="str">
+        <f aca="false">IF(K197 = "-", J197 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H197" s="26" t="str">
         <f aca="true">IF(K197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7700,6 +7828,10 @@
         <f aca="true">IF(G198="", IF(K198="","",(INDIRECT("N" &amp; ROW() - 1) - O198)),IF(K198="", "", INDIRECT("N" &amp; ROW() - 1) - O198))</f>
         <v/>
       </c>
+      <c r="G198" s="26" t="str">
+        <f aca="false">IF(K198 = "-", J198 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H198" s="26" t="str">
         <f aca="true">IF(K198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7718,6 +7850,10 @@
         <f aca="true">IF(G199="", IF(K199="","",(INDIRECT("N" &amp; ROW() - 1) - O199)),IF(K199="", "", INDIRECT("N" &amp; ROW() - 1) - O199))</f>
         <v/>
       </c>
+      <c r="G199" s="26" t="str">
+        <f aca="false">IF(K199 = "-", J199 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H199" s="26" t="str">
         <f aca="true">IF(K199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7736,6 +7872,10 @@
         <f aca="true">IF(G200="", IF(K200="","",(INDIRECT("N" &amp; ROW() - 1) - O200)),IF(K200="", "", INDIRECT("N" &amp; ROW() - 1) - O200))</f>
         <v/>
       </c>
+      <c r="G200" s="26" t="str">
+        <f aca="false">IF(K200 = "-", J200 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H200" s="26" t="str">
         <f aca="true">IF(K200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7754,6 +7894,10 @@
         <f aca="true">IF(G201="", IF(K201="","",(INDIRECT("N" &amp; ROW() - 1) - O201)),IF(K201="", "", INDIRECT("N" &amp; ROW() - 1) - O201))</f>
         <v/>
       </c>
+      <c r="G201" s="26" t="str">
+        <f aca="false">IF(K201 = "-", J201 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H201" s="26" t="str">
         <f aca="true">IF(K201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7772,6 +7916,10 @@
         <f aca="true">IF(G202="", IF(K202="","",(INDIRECT("N" &amp; ROW() - 1) - O202)),IF(K202="", "", INDIRECT("N" &amp; ROW() - 1) - O202))</f>
         <v/>
       </c>
+      <c r="G202" s="26" t="str">
+        <f aca="false">IF(K202 = "-", J202 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H202" s="26" t="str">
         <f aca="true">IF(K202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7790,6 +7938,10 @@
         <f aca="true">IF(G203="", IF(K203="","",(INDIRECT("N" &amp; ROW() - 1) - O203)),IF(K203="", "", INDIRECT("N" &amp; ROW() - 1) - O203))</f>
         <v/>
       </c>
+      <c r="G203" s="26" t="str">
+        <f aca="false">IF(K203 = "-", J203 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H203" s="26" t="str">
         <f aca="true">IF(K203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7808,6 +7960,10 @@
         <f aca="true">IF(G204="", IF(K204="","",(INDIRECT("N" &amp; ROW() - 1) - O204)),IF(K204="", "", INDIRECT("N" &amp; ROW() - 1) - O204))</f>
         <v/>
       </c>
+      <c r="G204" s="26" t="str">
+        <f aca="false">IF(K204 = "-", J204 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H204" s="26" t="str">
         <f aca="true">IF(K204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7826,6 +7982,10 @@
         <f aca="true">IF(G205="", IF(K205="","",(INDIRECT("N" &amp; ROW() - 1) - O205)),IF(K205="", "", INDIRECT("N" &amp; ROW() - 1) - O205))</f>
         <v/>
       </c>
+      <c r="G205" s="26" t="str">
+        <f aca="false">IF(K205 = "-", J205 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H205" s="26" t="str">
         <f aca="true">IF(K205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7844,6 +8004,10 @@
         <f aca="true">IF(G206="", IF(K206="","",(INDIRECT("N" &amp; ROW() - 1) - O206)),IF(K206="", "", INDIRECT("N" &amp; ROW() - 1) - O206))</f>
         <v/>
       </c>
+      <c r="G206" s="26" t="str">
+        <f aca="false">IF(K206 = "-", J206 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H206" s="26" t="str">
         <f aca="true">IF(K206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7862,6 +8026,10 @@
         <f aca="true">IF(G207="", IF(K207="","",(INDIRECT("N" &amp; ROW() - 1) - O207)),IF(K207="", "", INDIRECT("N" &amp; ROW() - 1) - O207))</f>
         <v/>
       </c>
+      <c r="G207" s="26" t="str">
+        <f aca="false">IF(K207 = "-", J207 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H207" s="26" t="str">
         <f aca="true">IF(K207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7880,6 +8048,10 @@
         <f aca="true">IF(G208="", IF(K208="","",(INDIRECT("N" &amp; ROW() - 1) - O208)),IF(K208="", "", INDIRECT("N" &amp; ROW() - 1) - O208))</f>
         <v/>
       </c>
+      <c r="G208" s="26" t="str">
+        <f aca="false">IF(K208 = "-", J208 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H208" s="26" t="str">
         <f aca="true">IF(K208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7898,6 +8070,10 @@
         <f aca="true">IF(G209="", IF(K209="","",(INDIRECT("N" &amp; ROW() - 1) - O209)),IF(K209="", "", INDIRECT("N" &amp; ROW() - 1) - O209))</f>
         <v/>
       </c>
+      <c r="G209" s="26" t="str">
+        <f aca="false">IF(K209 = "-", J209 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H209" s="26" t="str">
         <f aca="true">IF(K209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7916,6 +8092,10 @@
         <f aca="true">IF(G210="", IF(K210="","",(INDIRECT("N" &amp; ROW() - 1) - O210)),IF(K210="", "", INDIRECT("N" &amp; ROW() - 1) - O210))</f>
         <v/>
       </c>
+      <c r="G210" s="26" t="str">
+        <f aca="false">IF(K210 = "-", J210 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H210" s="26" t="str">
         <f aca="true">IF(K210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7934,6 +8114,10 @@
         <f aca="true">IF(G211="", IF(K211="","",(INDIRECT("N" &amp; ROW() - 1) - O211)),IF(K211="", "", INDIRECT("N" &amp; ROW() - 1) - O211))</f>
         <v/>
       </c>
+      <c r="G211" s="26" t="str">
+        <f aca="false">IF(K211 = "-", J211 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H211" s="26" t="str">
         <f aca="true">IF(K211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7952,6 +8136,10 @@
         <f aca="true">IF(G212="", IF(K212="","",(INDIRECT("N" &amp; ROW() - 1) - O212)),IF(K212="", "", INDIRECT("N" &amp; ROW() - 1) - O212))</f>
         <v/>
       </c>
+      <c r="G212" s="26" t="str">
+        <f aca="false">IF(K212 = "-", J212 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H212" s="26" t="str">
         <f aca="true">IF(K212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7970,6 +8158,10 @@
         <f aca="true">IF(G213="", IF(K213="","",(INDIRECT("N" &amp; ROW() - 1) - O213)),IF(K213="", "", INDIRECT("N" &amp; ROW() - 1) - O213))</f>
         <v/>
       </c>
+      <c r="G213" s="26" t="str">
+        <f aca="false">IF(K213 = "-", J213 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H213" s="26" t="str">
         <f aca="true">IF(K213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -7988,6 +8180,10 @@
         <f aca="true">IF(G214="", IF(K214="","",(INDIRECT("N" &amp; ROW() - 1) - O214)),IF(K214="", "", INDIRECT("N" &amp; ROW() - 1) - O214))</f>
         <v/>
       </c>
+      <c r="G214" s="26" t="str">
+        <f aca="false">IF(K214 = "-", J214 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H214" s="26" t="str">
         <f aca="true">IF(K214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8006,6 +8202,10 @@
         <f aca="true">IF(G215="", IF(K215="","",(INDIRECT("N" &amp; ROW() - 1) - O215)),IF(K215="", "", INDIRECT("N" &amp; ROW() - 1) - O215))</f>
         <v/>
       </c>
+      <c r="G215" s="26" t="str">
+        <f aca="false">IF(K215 = "-", J215 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H215" s="26" t="str">
         <f aca="true">IF(K215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8024,6 +8224,10 @@
         <f aca="true">IF(G216="", IF(K216="","",(INDIRECT("N" &amp; ROW() - 1) - O216)),IF(K216="", "", INDIRECT("N" &amp; ROW() - 1) - O216))</f>
         <v/>
       </c>
+      <c r="G216" s="26" t="str">
+        <f aca="false">IF(K216 = "-", J216 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H216" s="26" t="str">
         <f aca="true">IF(K216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8042,6 +8246,10 @@
         <f aca="true">IF(G217="", IF(K217="","",(INDIRECT("N" &amp; ROW() - 1) - O217)),IF(K217="", "", INDIRECT("N" &amp; ROW() - 1) - O217))</f>
         <v/>
       </c>
+      <c r="G217" s="26" t="str">
+        <f aca="false">IF(K217 = "-", J217 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H217" s="26" t="str">
         <f aca="true">IF(K217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8060,6 +8268,10 @@
         <f aca="true">IF(G218="", IF(K218="","",(INDIRECT("N" &amp; ROW() - 1) - O218)),IF(K218="", "", INDIRECT("N" &amp; ROW() - 1) - O218))</f>
         <v/>
       </c>
+      <c r="G218" s="26" t="str">
+        <f aca="false">IF(K218 = "-", J218 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H218" s="26" t="str">
         <f aca="true">IF(K218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8078,6 +8290,10 @@
         <f aca="true">IF(G219="", IF(K219="","",(INDIRECT("N" &amp; ROW() - 1) - O219)),IF(K219="", "", INDIRECT("N" &amp; ROW() - 1) - O219))</f>
         <v/>
       </c>
+      <c r="G219" s="26" t="str">
+        <f aca="false">IF(K219 = "-", J219 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H219" s="26" t="str">
         <f aca="true">IF(K219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8096,6 +8312,10 @@
         <f aca="true">IF(G220="", IF(K220="","",(INDIRECT("N" &amp; ROW() - 1) - O220)),IF(K220="", "", INDIRECT("N" &amp; ROW() - 1) - O220))</f>
         <v/>
       </c>
+      <c r="G220" s="26" t="str">
+        <f aca="false">IF(K220 = "-", J220 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H220" s="26" t="str">
         <f aca="true">IF(K220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8114,6 +8334,10 @@
         <f aca="true">IF(G221="", IF(K221="","",(INDIRECT("N" &amp; ROW() - 1) - O221)),IF(K221="", "", INDIRECT("N" &amp; ROW() - 1) - O221))</f>
         <v/>
       </c>
+      <c r="G221" s="26" t="str">
+        <f aca="false">IF(K221 = "-", J221 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H221" s="26" t="str">
         <f aca="true">IF(K221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8132,6 +8356,10 @@
         <f aca="true">IF(G222="", IF(K222="","",(INDIRECT("N" &amp; ROW() - 1) - O222)),IF(K222="", "", INDIRECT("N" &amp; ROW() - 1) - O222))</f>
         <v/>
       </c>
+      <c r="G222" s="26" t="str">
+        <f aca="false">IF(K222 = "-", J222 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H222" s="26" t="str">
         <f aca="true">IF(K222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8150,6 +8378,10 @@
         <f aca="true">IF(G223="", IF(K223="","",(INDIRECT("N" &amp; ROW() - 1) - O223)),IF(K223="", "", INDIRECT("N" &amp; ROW() - 1) - O223))</f>
         <v/>
       </c>
+      <c r="G223" s="26" t="str">
+        <f aca="false">IF(K223 = "-", J223 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H223" s="26" t="str">
         <f aca="true">IF(K223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8168,6 +8400,10 @@
         <f aca="true">IF(G224="", IF(K224="","",(INDIRECT("N" &amp; ROW() - 1) - O224)),IF(K224="", "", INDIRECT("N" &amp; ROW() - 1) - O224))</f>
         <v/>
       </c>
+      <c r="G224" s="26" t="str">
+        <f aca="false">IF(K224 = "-", J224 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H224" s="26" t="str">
         <f aca="true">IF(K224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8186,6 +8422,10 @@
         <f aca="true">IF(G225="", IF(K225="","",(INDIRECT("N" &amp; ROW() - 1) - O225)),IF(K225="", "", INDIRECT("N" &amp; ROW() - 1) - O225))</f>
         <v/>
       </c>
+      <c r="G225" s="26" t="str">
+        <f aca="false">IF(K225 = "-", J225 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H225" s="26" t="str">
         <f aca="true">IF(K225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8204,6 +8444,10 @@
         <f aca="true">IF(G226="", IF(K226="","",(INDIRECT("N" &amp; ROW() - 1) - O226)),IF(K226="", "", INDIRECT("N" &amp; ROW() - 1) - O226))</f>
         <v/>
       </c>
+      <c r="G226" s="26" t="str">
+        <f aca="false">IF(K226 = "-", J226 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H226" s="26" t="str">
         <f aca="true">IF(K226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8222,6 +8466,10 @@
         <f aca="true">IF(G227="", IF(K227="","",(INDIRECT("N" &amp; ROW() - 1) - O227)),IF(K227="", "", INDIRECT("N" &amp; ROW() - 1) - O227))</f>
         <v/>
       </c>
+      <c r="G227" s="26" t="str">
+        <f aca="false">IF(K227 = "-", J227 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H227" s="26" t="str">
         <f aca="true">IF(K227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8240,6 +8488,10 @@
         <f aca="true">IF(G228="", IF(K228="","",(INDIRECT("N" &amp; ROW() - 1) - O228)),IF(K228="", "", INDIRECT("N" &amp; ROW() - 1) - O228))</f>
         <v/>
       </c>
+      <c r="G228" s="26" t="str">
+        <f aca="false">IF(K228 = "-", J228 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H228" s="26" t="str">
         <f aca="true">IF(K228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8258,6 +8510,10 @@
         <f aca="true">IF(G229="", IF(K229="","",(INDIRECT("N" &amp; ROW() - 1) - O229)),IF(K229="", "", INDIRECT("N" &amp; ROW() - 1) - O229))</f>
         <v/>
       </c>
+      <c r="G229" s="26" t="str">
+        <f aca="false">IF(K229 = "-", J229 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H229" s="26" t="str">
         <f aca="true">IF(K229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8276,6 +8532,10 @@
         <f aca="true">IF(G230="", IF(K230="","",(INDIRECT("N" &amp; ROW() - 1) - O230)),IF(K230="", "", INDIRECT("N" &amp; ROW() - 1) - O230))</f>
         <v/>
       </c>
+      <c r="G230" s="26" t="str">
+        <f aca="false">IF(K230 = "-", J230 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H230" s="26" t="str">
         <f aca="true">IF(K230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8294,6 +8554,10 @@
         <f aca="true">IF(G231="", IF(K231="","",(INDIRECT("N" &amp; ROW() - 1) - O231)),IF(K231="", "", INDIRECT("N" &amp; ROW() - 1) - O231))</f>
         <v/>
       </c>
+      <c r="G231" s="26" t="str">
+        <f aca="false">IF(K231 = "-", J231 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H231" s="26" t="str">
         <f aca="true">IF(K231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8312,6 +8576,10 @@
         <f aca="true">IF(G232="", IF(K232="","",(INDIRECT("N" &amp; ROW() - 1) - O232)),IF(K232="", "", INDIRECT("N" &amp; ROW() - 1) - O232))</f>
         <v/>
       </c>
+      <c r="G232" s="26" t="str">
+        <f aca="false">IF(K232 = "-", J232 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H232" s="26" t="str">
         <f aca="true">IF(K232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8330,6 +8598,10 @@
         <f aca="true">IF(G233="", IF(K233="","",(INDIRECT("N" &amp; ROW() - 1) - O233)),IF(K233="", "", INDIRECT("N" &amp; ROW() - 1) - O233))</f>
         <v/>
       </c>
+      <c r="G233" s="26" t="str">
+        <f aca="false">IF(K233 = "-", J233 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H233" s="26" t="str">
         <f aca="true">IF(K233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8348,6 +8620,10 @@
         <f aca="true">IF(G234="", IF(K234="","",(INDIRECT("N" &amp; ROW() - 1) - O234)),IF(K234="", "", INDIRECT("N" &amp; ROW() - 1) - O234))</f>
         <v/>
       </c>
+      <c r="G234" s="26" t="str">
+        <f aca="false">IF(K234 = "-", J234 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H234" s="26" t="str">
         <f aca="true">IF(K234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8366,6 +8642,10 @@
         <f aca="true">IF(G235="", IF(K235="","",(INDIRECT("N" &amp; ROW() - 1) - O235)),IF(K235="", "", INDIRECT("N" &amp; ROW() - 1) - O235))</f>
         <v/>
       </c>
+      <c r="G235" s="26" t="str">
+        <f aca="false">IF(K235 = "-", J235 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H235" s="26" t="str">
         <f aca="true">IF(K235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8384,6 +8664,10 @@
         <f aca="true">IF(G236="", IF(K236="","",(INDIRECT("N" &amp; ROW() - 1) - O236)),IF(K236="", "", INDIRECT("N" &amp; ROW() - 1) - O236))</f>
         <v/>
       </c>
+      <c r="G236" s="26" t="str">
+        <f aca="false">IF(K236 = "-", J236 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H236" s="26" t="str">
         <f aca="true">IF(K236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8402,6 +8686,10 @@
         <f aca="true">IF(G237="", IF(K237="","",(INDIRECT("N" &amp; ROW() - 1) - O237)),IF(K237="", "", INDIRECT("N" &amp; ROW() - 1) - O237))</f>
         <v/>
       </c>
+      <c r="G237" s="26" t="str">
+        <f aca="false">IF(K237 = "-", J237 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H237" s="26" t="str">
         <f aca="true">IF(K237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8420,6 +8708,10 @@
         <f aca="true">IF(G238="", IF(K238="","",(INDIRECT("N" &amp; ROW() - 1) - O238)),IF(K238="", "", INDIRECT("N" &amp; ROW() - 1) - O238))</f>
         <v/>
       </c>
+      <c r="G238" s="26" t="str">
+        <f aca="false">IF(K238 = "-", J238 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H238" s="26" t="str">
         <f aca="true">IF(K238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8438,6 +8730,10 @@
         <f aca="true">IF(G239="", IF(K239="","",(INDIRECT("N" &amp; ROW() - 1) - O239)),IF(K239="", "", INDIRECT("N" &amp; ROW() - 1) - O239))</f>
         <v/>
       </c>
+      <c r="G239" s="26" t="str">
+        <f aca="false">IF(K239 = "-", J239 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H239" s="26" t="str">
         <f aca="true">IF(K239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8456,6 +8752,10 @@
         <f aca="true">IF(G240="", IF(K240="","",(INDIRECT("N" &amp; ROW() - 1) - O240)),IF(K240="", "", INDIRECT("N" &amp; ROW() - 1) - O240))</f>
         <v/>
       </c>
+      <c r="G240" s="26" t="str">
+        <f aca="false">IF(K240 = "-", J240 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H240" s="26" t="str">
         <f aca="true">IF(K240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8474,6 +8774,10 @@
         <f aca="true">IF(G241="", IF(K241="","",(INDIRECT("N" &amp; ROW() - 1) - O241)),IF(K241="", "", INDIRECT("N" &amp; ROW() - 1) - O241))</f>
         <v/>
       </c>
+      <c r="G241" s="26" t="str">
+        <f aca="false">IF(K241 = "-", J241 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H241" s="26" t="str">
         <f aca="true">IF(K241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8492,6 +8796,10 @@
         <f aca="true">IF(G242="", IF(K242="","",(INDIRECT("N" &amp; ROW() - 1) - O242)),IF(K242="", "", INDIRECT("N" &amp; ROW() - 1) - O242))</f>
         <v/>
       </c>
+      <c r="G242" s="26" t="str">
+        <f aca="false">IF(K242 = "-", J242 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H242" s="26" t="str">
         <f aca="true">IF(K242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8510,6 +8818,10 @@
         <f aca="true">IF(G243="", IF(K243="","",(INDIRECT("N" &amp; ROW() - 1) - O243)),IF(K243="", "", INDIRECT("N" &amp; ROW() - 1) - O243))</f>
         <v/>
       </c>
+      <c r="G243" s="26" t="str">
+        <f aca="false">IF(K243 = "-", J243 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H243" s="26" t="str">
         <f aca="true">IF(K243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8528,6 +8840,10 @@
         <f aca="true">IF(G244="", IF(K244="","",(INDIRECT("N" &amp; ROW() - 1) - O244)),IF(K244="", "", INDIRECT("N" &amp; ROW() - 1) - O244))</f>
         <v/>
       </c>
+      <c r="G244" s="26" t="str">
+        <f aca="false">IF(K244 = "-", J244 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H244" s="26" t="str">
         <f aca="true">IF(K244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8546,6 +8862,10 @@
         <f aca="true">IF(G245="", IF(K245="","",(INDIRECT("N" &amp; ROW() - 1) - O245)),IF(K245="", "", INDIRECT("N" &amp; ROW() - 1) - O245))</f>
         <v/>
       </c>
+      <c r="G245" s="26" t="str">
+        <f aca="false">IF(K245 = "-", J245 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H245" s="26" t="str">
         <f aca="true">IF(K245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8564,6 +8884,10 @@
         <f aca="true">IF(G246="", IF(K246="","",(INDIRECT("N" &amp; ROW() - 1) - O246)),IF(K246="", "", INDIRECT("N" &amp; ROW() - 1) - O246))</f>
         <v/>
       </c>
+      <c r="G246" s="26" t="str">
+        <f aca="false">IF(K246 = "-", J246 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H246" s="26" t="str">
         <f aca="true">IF(K246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8582,6 +8906,10 @@
         <f aca="true">IF(G247="", IF(K247="","",(INDIRECT("N" &amp; ROW() - 1) - O247)),IF(K247="", "", INDIRECT("N" &amp; ROW() - 1) - O247))</f>
         <v/>
       </c>
+      <c r="G247" s="26" t="str">
+        <f aca="false">IF(K247 = "-", J247 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H247" s="26" t="str">
         <f aca="true">IF(K247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8598,6 +8926,10 @@
       </c>
       <c r="F248" s="25" t="str">
         <f aca="true">IF(G248="", IF(K248="","",(INDIRECT("N" &amp; ROW() - 1) - O248)),IF(K248="", "", INDIRECT("N" &amp; ROW() - 1) - O248))</f>
+        <v/>
+      </c>
+      <c r="G248" s="26" t="str">
+        <f aca="false">IF(K248 = "-", J248 * 2 * 6500,"")</f>
         <v/>
       </c>
       <c r="H248" s="26" t="str">
@@ -8615,6 +8947,10 @@
         <f aca="true">IF(G249="", IF(K249="","",(INDIRECT("N" &amp; ROW() - 1) - O249)),IF(K249="", "", INDIRECT("N" &amp; ROW() - 1) - O249))</f>
         <v/>
       </c>
+      <c r="G249" s="26" t="str">
+        <f aca="false">IF(K249 = "-", J249 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H249" s="26" t="str">
         <f aca="true">IF(K249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8630,6 +8966,10 @@
         <f aca="true">IF(G250="", IF(K250="","",(INDIRECT("N" &amp; ROW() - 1) - O250)),IF(K250="", "", INDIRECT("N" &amp; ROW() - 1) - O250))</f>
         <v/>
       </c>
+      <c r="G250" s="26" t="str">
+        <f aca="false">IF(K250 = "-", J250 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H250" s="26" t="str">
         <f aca="true">IF(K250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8645,6 +8985,10 @@
         <f aca="true">IF(G251="", IF(K251="","",(INDIRECT("N" &amp; ROW() - 1) - O251)),IF(K251="", "", INDIRECT("N" &amp; ROW() - 1) - O251))</f>
         <v/>
       </c>
+      <c r="G251" s="26" t="str">
+        <f aca="false">IF(K251 = "-", J251 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H251" s="26" t="str">
         <f aca="true">IF(K251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8660,6 +9004,10 @@
         <f aca="true">IF(G252="", IF(K252="","",(INDIRECT("N" &amp; ROW() - 1) - O252)),IF(K252="", "", INDIRECT("N" &amp; ROW() - 1) - O252))</f>
         <v/>
       </c>
+      <c r="G252" s="26" t="str">
+        <f aca="false">IF(K252 = "-", J252 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H252" s="26" t="str">
         <f aca="true">IF(K252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8675,6 +9023,10 @@
         <f aca="true">IF(G253="", IF(K253="","",(INDIRECT("N" &amp; ROW() - 1) - O253)),IF(K253="", "", INDIRECT("N" &amp; ROW() - 1) - O253))</f>
         <v/>
       </c>
+      <c r="G253" s="26" t="str">
+        <f aca="false">IF(K253 = "-", J253 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H253" s="26" t="str">
         <f aca="true">IF(K253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8690,6 +9042,10 @@
         <f aca="true">IF(G254="", IF(K254="","",(INDIRECT("N" &amp; ROW() - 1) - O254)),IF(K254="", "", INDIRECT("N" &amp; ROW() - 1) - O254))</f>
         <v/>
       </c>
+      <c r="G254" s="26" t="str">
+        <f aca="false">IF(K254 = "-", J254 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H254" s="26" t="str">
         <f aca="true">IF(K254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8705,6 +9061,10 @@
         <f aca="true">IF(G255="", IF(K255="","",(INDIRECT("N" &amp; ROW() - 1) - O255)),IF(K255="", "", INDIRECT("N" &amp; ROW() - 1) - O255))</f>
         <v/>
       </c>
+      <c r="G255" s="26" t="str">
+        <f aca="false">IF(K255 = "-", J255 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H255" s="26" t="str">
         <f aca="true">IF(K255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8720,6 +9080,10 @@
         <f aca="true">IF(G256="", IF(K256="","",(INDIRECT("N" &amp; ROW() - 1) - O256)),IF(K256="", "", INDIRECT("N" &amp; ROW() - 1) - O256))</f>
         <v/>
       </c>
+      <c r="G256" s="26" t="str">
+        <f aca="false">IF(K256 = "-", J256 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H256" s="26" t="str">
         <f aca="true">IF(K256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8735,6 +9099,10 @@
         <f aca="true">IF(G257="", IF(K257="","",(INDIRECT("N" &amp; ROW() - 1) - O257)),IF(K257="", "", INDIRECT("N" &amp; ROW() - 1) - O257))</f>
         <v/>
       </c>
+      <c r="G257" s="26" t="str">
+        <f aca="false">IF(K257 = "-", J257 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H257" s="26" t="str">
         <f aca="true">IF(K257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8750,6 +9118,10 @@
         <f aca="true">IF(G258="", IF(K258="","",(INDIRECT("N" &amp; ROW() - 1) - O258)),IF(K258="", "", INDIRECT("N" &amp; ROW() - 1) - O258))</f>
         <v/>
       </c>
+      <c r="G258" s="26" t="str">
+        <f aca="false">IF(K258 = "-", J258 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H258" s="26" t="str">
         <f aca="true">IF(K258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8765,6 +9137,10 @@
         <f aca="true">IF(G259="", IF(K259="","",(INDIRECT("N" &amp; ROW() - 1) - O259)),IF(K259="", "", INDIRECT("N" &amp; ROW() - 1) - O259))</f>
         <v/>
       </c>
+      <c r="G259" s="26" t="str">
+        <f aca="false">IF(K259 = "-", J259 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H259" s="26" t="str">
         <f aca="true">IF(K259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8780,6 +9156,10 @@
         <f aca="true">IF(G260="", IF(K260="","",(INDIRECT("N" &amp; ROW() - 1) - O260)),IF(K260="", "", INDIRECT("N" &amp; ROW() - 1) - O260))</f>
         <v/>
       </c>
+      <c r="G260" s="26" t="str">
+        <f aca="false">IF(K260 = "-", J260 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H260" s="26" t="str">
         <f aca="true">IF(K260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8795,6 +9175,10 @@
         <f aca="true">IF(G261="", IF(K261="","",(INDIRECT("N" &amp; ROW() - 1) - O261)),IF(K261="", "", INDIRECT("N" &amp; ROW() - 1) - O261))</f>
         <v/>
       </c>
+      <c r="G261" s="26" t="str">
+        <f aca="false">IF(K261 = "-", J261 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H261" s="26" t="str">
         <f aca="true">IF(K261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8810,6 +9194,10 @@
         <f aca="true">IF(G262="", IF(K262="","",(INDIRECT("N" &amp; ROW() - 1) - O262)),IF(K262="", "", INDIRECT("N" &amp; ROW() - 1) - O262))</f>
         <v/>
       </c>
+      <c r="G262" s="26" t="str">
+        <f aca="false">IF(K262 = "-", J262 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H262" s="26" t="str">
         <f aca="true">IF(K262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8825,6 +9213,10 @@
         <f aca="true">IF(G263="", IF(K263="","",(INDIRECT("N" &amp; ROW() - 1) - O263)),IF(K263="", "", INDIRECT("N" &amp; ROW() - 1) - O263))</f>
         <v/>
       </c>
+      <c r="G263" s="26" t="str">
+        <f aca="false">IF(K263 = "-", J263 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H263" s="26" t="str">
         <f aca="true">IF(K263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8840,6 +9232,10 @@
         <f aca="true">IF(G264="", IF(K264="","",(INDIRECT("N" &amp; ROW() - 1) - O264)),IF(K264="", "", INDIRECT("N" &amp; ROW() - 1) - O264))</f>
         <v/>
       </c>
+      <c r="G264" s="26" t="str">
+        <f aca="false">IF(K264 = "-", J264 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H264" s="26" t="str">
         <f aca="true">IF(K264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8855,6 +9251,10 @@
         <f aca="true">IF(G265="", IF(K265="","",(INDIRECT("N" &amp; ROW() - 1) - O265)),IF(K265="", "", INDIRECT("N" &amp; ROW() - 1) - O265))</f>
         <v/>
       </c>
+      <c r="G265" s="26" t="str">
+        <f aca="false">IF(K265 = "-", J265 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H265" s="26" t="str">
         <f aca="true">IF(K265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8870,6 +9270,10 @@
         <f aca="true">IF(G266="", IF(K266="","",(INDIRECT("N" &amp; ROW() - 1) - O266)),IF(K266="", "", INDIRECT("N" &amp; ROW() - 1) - O266))</f>
         <v/>
       </c>
+      <c r="G266" s="26" t="str">
+        <f aca="false">IF(K266 = "-", J266 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H266" s="26" t="str">
         <f aca="true">IF(K266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8885,6 +9289,10 @@
         <f aca="true">IF(G267="", IF(K267="","",(INDIRECT("N" &amp; ROW() - 1) - O267)),IF(K267="", "", INDIRECT("N" &amp; ROW() - 1) - O267))</f>
         <v/>
       </c>
+      <c r="G267" s="26" t="str">
+        <f aca="false">IF(K267 = "-", J267 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H267" s="26" t="str">
         <f aca="true">IF(K267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8896,6 +9304,10 @@
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="24"/>
       <c r="C268" s="24"/>
+      <c r="G268" s="26" t="str">
+        <f aca="false">IF(K268 = "-", J268 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H268" s="26" t="str">
         <f aca="true">IF(K268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8906,6 +9318,10 @@
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
+      <c r="G269" s="26" t="str">
+        <f aca="false">IF(K269 = "-", J269 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H269" s="26" t="str">
         <f aca="true">IF(K269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8916,6 +9332,10 @@
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
+      <c r="G270" s="26" t="str">
+        <f aca="false">IF(K270 = "-", J270 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H270" s="26" t="str">
         <f aca="true">IF(K270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8926,6 +9346,10 @@
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
+      <c r="G271" s="26" t="str">
+        <f aca="false">IF(K271 = "-", J271 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H271" s="26" t="str">
         <f aca="true">IF(K271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8936,6 +9360,10 @@
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="24"/>
       <c r="C272" s="24"/>
+      <c r="G272" s="26" t="str">
+        <f aca="false">IF(K272 = "-", J272 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H272" s="26" t="str">
         <f aca="true">IF(K272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8946,6 +9374,10 @@
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
+      <c r="G273" s="26" t="str">
+        <f aca="false">IF(K273 = "-", J273 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H273" s="26" t="str">
         <f aca="true">IF(K273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8956,6 +9388,10 @@
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="24"/>
       <c r="C274" s="24"/>
+      <c r="G274" s="26" t="str">
+        <f aca="false">IF(K274 = "-", J274 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H274" s="26" t="str">
         <f aca="true">IF(K274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8966,6 +9402,10 @@
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
+      <c r="G275" s="26" t="str">
+        <f aca="false">IF(K275 = "-", J275 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H275" s="26" t="str">
         <f aca="true">IF(K275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8976,6 +9416,10 @@
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="24"/>
       <c r="C276" s="24"/>
+      <c r="G276" s="26" t="str">
+        <f aca="false">IF(K276 = "-", J276 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H276" s="26" t="str">
         <f aca="true">IF(K276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8986,6 +9430,10 @@
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
+      <c r="G277" s="26" t="str">
+        <f aca="false">IF(K277 = "-", J277 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H277" s="26" t="str">
         <f aca="true">IF(K277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -8996,6 +9444,10 @@
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
+      <c r="G278" s="26" t="str">
+        <f aca="false">IF(K278 = "-", J278 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H278" s="26" t="str">
         <f aca="true">IF(K278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9006,6 +9458,10 @@
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
+      <c r="G279" s="26" t="str">
+        <f aca="false">IF(K279 = "-", J279 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H279" s="26" t="str">
         <f aca="true">IF(K279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9016,6 +9472,10 @@
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="24"/>
       <c r="C280" s="24"/>
+      <c r="G280" s="26" t="str">
+        <f aca="false">IF(K280 = "-", J280 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H280" s="26" t="str">
         <f aca="true">IF(K280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9026,6 +9486,10 @@
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="24"/>
       <c r="C281" s="24"/>
+      <c r="G281" s="26" t="str">
+        <f aca="false">IF(K281 = "-", J281 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H281" s="26" t="str">
         <f aca="true">IF(K281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9036,6 +9500,10 @@
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="24"/>
       <c r="C282" s="24"/>
+      <c r="G282" s="26" t="str">
+        <f aca="false">IF(K282 = "-", J282 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H282" s="26" t="str">
         <f aca="true">IF(K282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9046,6 +9514,10 @@
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="24"/>
       <c r="C283" s="24"/>
+      <c r="G283" s="26" t="str">
+        <f aca="false">IF(K283 = "-", J283 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H283" s="26" t="str">
         <f aca="true">IF(K283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9056,6 +9528,10 @@
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="24"/>
       <c r="C284" s="24"/>
+      <c r="G284" s="26" t="str">
+        <f aca="false">IF(K284 = "-", J284 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H284" s="26" t="str">
         <f aca="true">IF(K284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9066,6 +9542,10 @@
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="24"/>
       <c r="C285" s="24"/>
+      <c r="G285" s="26" t="str">
+        <f aca="false">IF(K285 = "-", J285 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H285" s="26" t="str">
         <f aca="true">IF(K285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9076,6 +9556,10 @@
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="24"/>
       <c r="C286" s="24"/>
+      <c r="G286" s="26" t="str">
+        <f aca="false">IF(K286 = "-", J286 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H286" s="26" t="str">
         <f aca="true">IF(K286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9086,6 +9570,10 @@
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="24"/>
       <c r="C287" s="24"/>
+      <c r="G287" s="26" t="str">
+        <f aca="false">IF(K287 = "-", J287 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H287" s="26" t="str">
         <f aca="true">IF(K287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9096,6 +9584,10 @@
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="24"/>
       <c r="C288" s="24"/>
+      <c r="G288" s="26" t="str">
+        <f aca="false">IF(K288 = "-", J288 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H288" s="26" t="str">
         <f aca="true">IF(K288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9106,6 +9598,10 @@
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="24"/>
       <c r="C289" s="24"/>
+      <c r="G289" s="26" t="str">
+        <f aca="false">IF(K289 = "-", J289 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H289" s="26" t="str">
         <f aca="true">IF(K289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9116,6 +9612,10 @@
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="24"/>
       <c r="C290" s="24"/>
+      <c r="G290" s="26" t="str">
+        <f aca="false">IF(K290 = "-", J290 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H290" s="26" t="str">
         <f aca="true">IF(K290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9126,6 +9626,10 @@
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="24"/>
       <c r="C291" s="24"/>
+      <c r="G291" s="26" t="str">
+        <f aca="false">IF(K291 = "-", J291 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H291" s="26" t="str">
         <f aca="true">IF(K291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9136,6 +9640,10 @@
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="24"/>
       <c r="C292" s="24"/>
+      <c r="G292" s="26" t="str">
+        <f aca="false">IF(K292 = "-", J292 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H292" s="26" t="str">
         <f aca="true">IF(K292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9146,6 +9654,10 @@
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="24"/>
       <c r="C293" s="24"/>
+      <c r="G293" s="26" t="str">
+        <f aca="false">IF(K293 = "-", J293 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H293" s="26" t="str">
         <f aca="true">IF(K293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9156,6 +9668,10 @@
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="24"/>
       <c r="C294" s="24"/>
+      <c r="G294" s="26" t="str">
+        <f aca="false">IF(K294 = "-", J294 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H294" s="26" t="str">
         <f aca="true">IF(K294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9166,6 +9682,10 @@
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="24"/>
       <c r="C295" s="24"/>
+      <c r="G295" s="26" t="str">
+        <f aca="false">IF(K295 = "-", J295 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H295" s="26" t="str">
         <f aca="true">IF(K295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9176,6 +9696,10 @@
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="24"/>
       <c r="C296" s="24"/>
+      <c r="G296" s="26" t="str">
+        <f aca="false">IF(K296 = "-", J296 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H296" s="26" t="str">
         <f aca="true">IF(K296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9186,6 +9710,10 @@
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="24"/>
       <c r="C297" s="24"/>
+      <c r="G297" s="26" t="str">
+        <f aca="false">IF(K297 = "-", J297 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H297" s="26" t="str">
         <f aca="true">IF(K297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9196,6 +9724,10 @@
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="24"/>
       <c r="C298" s="24"/>
+      <c r="G298" s="26" t="str">
+        <f aca="false">IF(K298 = "-", J298 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H298" s="26" t="str">
         <f aca="true">IF(K298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9206,6 +9738,10 @@
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="24"/>
       <c r="C299" s="24"/>
+      <c r="G299" s="26" t="str">
+        <f aca="false">IF(K299 = "-", J299 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H299" s="26" t="str">
         <f aca="true">IF(K299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9216,6 +9752,10 @@
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="24"/>
       <c r="C300" s="24"/>
+      <c r="G300" s="26" t="str">
+        <f aca="false">IF(K300 = "-", J300 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H300" s="26" t="str">
         <f aca="true">IF(K300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9226,6 +9766,10 @@
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="24"/>
       <c r="C301" s="24"/>
+      <c r="G301" s="26" t="str">
+        <f aca="false">IF(K301 = "-", J301 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H301" s="26" t="str">
         <f aca="true">IF(K301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9236,6 +9780,10 @@
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="24"/>
       <c r="C302" s="24"/>
+      <c r="G302" s="26" t="str">
+        <f aca="false">IF(K302 = "-", J302 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H302" s="26" t="str">
         <f aca="true">IF(K302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9246,6 +9794,10 @@
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="24"/>
       <c r="C303" s="24"/>
+      <c r="G303" s="26" t="str">
+        <f aca="false">IF(K303 = "-", J303 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H303" s="26" t="str">
         <f aca="true">IF(K303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9256,6 +9808,10 @@
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="24"/>
       <c r="C304" s="24"/>
+      <c r="G304" s="26" t="str">
+        <f aca="false">IF(K304 = "-", J304 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H304" s="26" t="str">
         <f aca="true">IF(K304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9266,6 +9822,10 @@
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="24"/>
       <c r="C305" s="24"/>
+      <c r="G305" s="26" t="str">
+        <f aca="false">IF(K305 = "-", J305 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H305" s="26" t="str">
         <f aca="true">IF(K305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9276,6 +9836,10 @@
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="24"/>
       <c r="C306" s="24"/>
+      <c r="G306" s="26" t="str">
+        <f aca="false">IF(K306 = "-", J306 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H306" s="26" t="str">
         <f aca="true">IF(K306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9286,6 +9850,10 @@
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="24"/>
       <c r="C307" s="24"/>
+      <c r="G307" s="26" t="str">
+        <f aca="false">IF(K307 = "-", J307 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H307" s="26" t="str">
         <f aca="true">IF(K307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9296,6 +9864,10 @@
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="24"/>
       <c r="C308" s="24"/>
+      <c r="G308" s="26" t="str">
+        <f aca="false">IF(K308 = "-", J308 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H308" s="26" t="str">
         <f aca="true">IF(K308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9306,6 +9878,10 @@
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="24"/>
       <c r="C309" s="24"/>
+      <c r="G309" s="26" t="str">
+        <f aca="false">IF(K309 = "-", J309 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H309" s="26" t="str">
         <f aca="true">IF(K309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9316,6 +9892,10 @@
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="24"/>
       <c r="C310" s="24"/>
+      <c r="G310" s="26" t="str">
+        <f aca="false">IF(K310 = "-", J310 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H310" s="26" t="str">
         <f aca="true">IF(K310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9326,6 +9906,10 @@
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="24"/>
       <c r="C311" s="24"/>
+      <c r="G311" s="26" t="str">
+        <f aca="false">IF(K311 = "-", J311 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H311" s="26" t="str">
         <f aca="true">IF(K311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9336,6 +9920,10 @@
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="24"/>
       <c r="C312" s="24"/>
+      <c r="G312" s="26" t="str">
+        <f aca="false">IF(K312 = "-", J312 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H312" s="26" t="str">
         <f aca="true">IF(K312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9346,6 +9934,10 @@
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="24"/>
       <c r="C313" s="24"/>
+      <c r="G313" s="26" t="str">
+        <f aca="false">IF(K313 = "-", J313 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H313" s="26" t="str">
         <f aca="true">IF(K313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9356,6 +9948,10 @@
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="24"/>
       <c r="C314" s="24"/>
+      <c r="G314" s="26" t="str">
+        <f aca="false">IF(K314 = "-", J314 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H314" s="26" t="str">
         <f aca="true">IF(K314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9366,6 +9962,10 @@
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="24"/>
       <c r="C315" s="24"/>
+      <c r="G315" s="26" t="str">
+        <f aca="false">IF(K315 = "-", J315 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H315" s="26" t="str">
         <f aca="true">IF(K315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9376,6 +9976,10 @@
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="24"/>
       <c r="C316" s="24"/>
+      <c r="G316" s="26" t="str">
+        <f aca="false">IF(K316 = "-", J316 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H316" s="26" t="str">
         <f aca="true">IF(K316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9384,6 +9988,10 @@
       <c r="J316" s="26"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G317" s="26" t="str">
+        <f aca="false">IF(K317 = "-", J317 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H317" s="26" t="str">
         <f aca="true">IF(K317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9392,6 +10000,10 @@
       <c r="J317" s="26"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G318" s="26" t="str">
+        <f aca="false">IF(K318 = "-", J318 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H318" s="26" t="str">
         <f aca="true">IF(K318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9400,6 +10012,10 @@
       <c r="J318" s="26"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G319" s="26" t="str">
+        <f aca="false">IF(K319 = "-", J319 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H319" s="26" t="str">
         <f aca="true">IF(K319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9408,6 +10024,10 @@
       <c r="J319" s="26"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G320" s="26" t="str">
+        <f aca="false">IF(K320 = "-", J320 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H320" s="26" t="str">
         <f aca="true">IF(K320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9416,6 +10036,10 @@
       <c r="J320" s="26"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G321" s="26" t="str">
+        <f aca="false">IF(K321 = "-", J321 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H321" s="26" t="str">
         <f aca="true">IF(K321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9424,6 +10048,10 @@
       <c r="J321" s="26"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G322" s="26" t="str">
+        <f aca="false">IF(K322 = "-", J322 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H322" s="26" t="str">
         <f aca="true">IF(K322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9432,6 +10060,10 @@
       <c r="J322" s="26"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G323" s="26" t="str">
+        <f aca="false">IF(K323 = "-", J323 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H323" s="26" t="str">
         <f aca="true">IF(K323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9440,6 +10072,10 @@
       <c r="J323" s="26"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G324" s="26" t="str">
+        <f aca="false">IF(K324 = "-", J324 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H324" s="26" t="str">
         <f aca="true">IF(K324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9448,6 +10084,10 @@
       <c r="J324" s="26"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G325" s="26" t="str">
+        <f aca="false">IF(K325 = "-", J325 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H325" s="26" t="str">
         <f aca="true">IF(K325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -9456,12 +10096,136 @@
       <c r="J325" s="26"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G326" s="26" t="str">
+        <f aca="false">IF(K326 = "-", J326 * 2 * 6500,"")</f>
+        <v/>
+      </c>
       <c r="H326" s="26" t="str">
         <f aca="true">IF(K326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
       <c r="I326" s="26"/>
       <c r="J326" s="26"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G327" s="26" t="str">
+        <f aca="false">IF(K327 = "-", J327 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G328" s="26" t="str">
+        <f aca="false">IF(K328 = "-", J328 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G329" s="26" t="str">
+        <f aca="false">IF(K329 = "-", J329 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G330" s="26" t="str">
+        <f aca="false">IF(K330 = "-", J330 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G331" s="26" t="str">
+        <f aca="false">IF(K331 = "-", J331 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G332" s="26" t="str">
+        <f aca="false">IF(K332 = "-", J332 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G333" s="26" t="str">
+        <f aca="false">IF(K333 = "-", J333 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G334" s="26" t="str">
+        <f aca="false">IF(K334 = "-", J334 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G335" s="26" t="str">
+        <f aca="false">IF(K335 = "-", J335 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G336" s="26" t="str">
+        <f aca="false">IF(K336 = "-", J336 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G337" s="26" t="str">
+        <f aca="false">IF(K337 = "-", J337 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G338" s="26" t="str">
+        <f aca="false">IF(K338 = "-", J338 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G339" s="26" t="str">
+        <f aca="false">IF(K339 = "-", J339 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G340" s="26" t="str">
+        <f aca="false">IF(K340 = "-", J340 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G341" s="26" t="str">
+        <f aca="false">IF(K341 = "-", J341 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G342" s="26" t="str">
+        <f aca="false">IF(K342 = "-", J342 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G343" s="26" t="str">
+        <f aca="false">IF(K343 = "-", J343 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G344" s="26" t="str">
+        <f aca="false">IF(K344 = "-", J344 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G345" s="26" t="str">
+        <f aca="false">IF(K345 = "-", J345 * 2 * 6500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G346" s="26" t="str">
+        <f aca="false">IF(K346 = "-", J346 * 2 * 6500,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -652,7 +652,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,7 +749,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="21"/>
       <c r="T2" s="22" t="n">
-        <f aca="false">SUMPRODUCT(G3:G122, R3:R122)</f>
+        <f aca="false">SUMPRODUCT(G3:G150, J3:J150)</f>
         <v>0</v>
       </c>
       <c r="U2" s="23" t="n">

--- a/app/data/static/templates/constructor_ricotta.xlsx
+++ b/app/data/static/templates/constructor_ricotta.xlsx
@@ -652,7 +652,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,7 +749,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="21"/>
       <c r="T2" s="22" t="n">
-        <f aca="false">SUMPRODUCT(G3:G150, J3:J150)</f>
+        <f aca="false">SUM(G3:G150)</f>
         <v>0</v>
       </c>
       <c r="U2" s="23" t="n">
@@ -771,7 +771,7 @@
         <v/>
       </c>
       <c r="F3" s="25" t="str">
-        <f aca="true">IF(K3 = "-", J3 * (Q3 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K3 = "-", (J3 * Q3 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G3" s="26" t="str">
@@ -816,7 +816,7 @@
         <v/>
       </c>
       <c r="F4" s="25" t="str">
-        <f aca="true">IF(K4 = "-", J4 * (Q4 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K4 = "-", (J4 * Q4 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G4" s="26" t="str">
@@ -861,7 +861,7 @@
         <v/>
       </c>
       <c r="F5" s="25" t="str">
-        <f aca="true">IF(K5 = "-", J5 * (Q5 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K5 = "-", (J5 * Q5 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G5" s="26" t="str">
@@ -906,7 +906,7 @@
         <v/>
       </c>
       <c r="F6" s="25" t="str">
-        <f aca="true">IF(K6 = "-", J6 * (Q6 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K6 = "-", (J6 * Q6 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G6" s="26" t="str">
@@ -951,7 +951,7 @@
         <v/>
       </c>
       <c r="F7" s="25" t="str">
-        <f aca="true">IF(K7 = "-", J7 * (Q7 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K7 = "-", (J7 * Q7 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G7" s="26" t="str">
@@ -996,7 +996,7 @@
         <v/>
       </c>
       <c r="F8" s="25" t="str">
-        <f aca="true">IF(K8 = "-", J8 * (Q8 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K8 = "-", (J8 * Q8 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G8" s="26" t="str">
@@ -1041,7 +1041,7 @@
         <v/>
       </c>
       <c r="F9" s="25" t="str">
-        <f aca="true">IF(K9 = "-", J9 * (Q9 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K9 = "-", (J9 * Q9 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G9" s="26" t="str">
@@ -1085,7 +1085,7 @@
         <v/>
       </c>
       <c r="F10" s="25" t="str">
-        <f aca="true">IF(K10 = "-", J10 * (Q10 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K10 = "-", (J10 * Q10 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G10" s="26" t="str">
@@ -1129,7 +1129,7 @@
         <v/>
       </c>
       <c r="F11" s="25" t="str">
-        <f aca="true">IF(K11 = "-", J11 * (Q11 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K11 = "-", (J11 * Q11 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G11" s="26" t="str">
@@ -1173,7 +1173,7 @@
         <v/>
       </c>
       <c r="F12" s="25" t="str">
-        <f aca="true">IF(K12 = "-", J12 * (Q12 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K12 = "-", (J12 * Q12 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G12" s="26" t="str">
@@ -1217,7 +1217,7 @@
         <v/>
       </c>
       <c r="F13" s="25" t="str">
-        <f aca="true">IF(K13 = "-", J13 * (Q13 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K13 = "-", (J13 * Q13 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G13" s="26" t="str">
@@ -1261,7 +1261,7 @@
         <v/>
       </c>
       <c r="F14" s="25" t="str">
-        <f aca="true">IF(K14 = "-", J14 * (Q14 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K14 = "-", (J14 * Q14 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G14" s="26" t="str">
@@ -1305,7 +1305,7 @@
         <v/>
       </c>
       <c r="F15" s="25" t="str">
-        <f aca="true">IF(K15 = "-", J15 * (Q15 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K15 = "-", (J15 * Q15 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G15" s="26" t="str">
@@ -1349,7 +1349,7 @@
         <v/>
       </c>
       <c r="F16" s="25" t="str">
-        <f aca="true">IF(K16 = "-", J16 * (Q16 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K16 = "-", (J16 * Q16 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G16" s="26" t="str">
@@ -1393,7 +1393,7 @@
         <v/>
       </c>
       <c r="F17" s="25" t="str">
-        <f aca="true">IF(K17 = "-", J17 * (Q17 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K17 = "-", (J17 * Q17 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G17" s="26" t="str">
@@ -1437,7 +1437,7 @@
         <v/>
       </c>
       <c r="F18" s="25" t="str">
-        <f aca="true">IF(K18 = "-", J18 * (Q18 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K18 = "-", (J18 * Q18 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G18" s="26" t="str">
@@ -1482,7 +1482,7 @@
         <v/>
       </c>
       <c r="F19" s="25" t="str">
-        <f aca="true">IF(K19 = "-", J19 * (Q19 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K19 = "-", (J19 * Q19 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G19" s="26" t="str">
@@ -1527,7 +1527,7 @@
         <v/>
       </c>
       <c r="F20" s="25" t="str">
-        <f aca="true">IF(K20 = "-", J20 * (Q20 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K20 = "-", (J20 * Q20 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G20" s="26" t="str">
@@ -1572,7 +1572,7 @@
         <v/>
       </c>
       <c r="F21" s="25" t="str">
-        <f aca="true">IF(K21 = "-", J21 * (Q21 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K21 = "-", (J21 * Q21 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G21" s="26" t="str">
@@ -1617,7 +1617,7 @@
         <v/>
       </c>
       <c r="F22" s="25" t="str">
-        <f aca="true">IF(K22 = "-", J22 * (Q22 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K22 = "-", (J22 * Q22 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G22" s="26" t="str">
@@ -1662,7 +1662,7 @@
         <v/>
       </c>
       <c r="F23" s="25" t="str">
-        <f aca="true">IF(K23 = "-", J23 * (Q23 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K23 = "-", (J23 * Q23 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G23" s="26" t="str">
@@ -1707,7 +1707,7 @@
         <v/>
       </c>
       <c r="F24" s="25" t="str">
-        <f aca="true">IF(K24 = "-", J24 * (Q24 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K24 = "-", (J24 * Q24 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G24" s="26" t="str">
@@ -1752,7 +1752,7 @@
         <v/>
       </c>
       <c r="F25" s="25" t="str">
-        <f aca="true">IF(K25 = "-", J25 * (Q25 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K25 = "-", (J25 * Q25 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G25" s="26" t="str">
@@ -1797,7 +1797,7 @@
         <v/>
       </c>
       <c r="F26" s="25" t="str">
-        <f aca="true">IF(K26 = "-", J26 * (Q26 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K26 = "-", (J26 * Q26 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G26" s="26" t="str">
@@ -1842,7 +1842,7 @@
         <v/>
       </c>
       <c r="F27" s="25" t="str">
-        <f aca="true">IF(K27 = "-", J27 * (Q27 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K27 = "-", (J27 * Q27 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G27" s="26" t="str">
@@ -1887,7 +1887,7 @@
         <v/>
       </c>
       <c r="F28" s="25" t="str">
-        <f aca="true">IF(K28 = "-", J28 * (Q28 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K28 = "-", (J28 * Q28 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G28" s="26" t="str">
@@ -1932,7 +1932,7 @@
         <v/>
       </c>
       <c r="F29" s="25" t="str">
-        <f aca="true">IF(K29 = "-", J29 * (Q29 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K29 = "-", (J29 * Q29 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G29" s="26" t="str">
@@ -1977,7 +1977,7 @@
         <v/>
       </c>
       <c r="F30" s="25" t="str">
-        <f aca="true">IF(K30 = "-", J30 * (Q30 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K30 = "-", (J30 * Q30 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G30" s="26" t="str">
@@ -2022,7 +2022,7 @@
         <v/>
       </c>
       <c r="F31" s="25" t="str">
-        <f aca="true">IF(K31 = "-", J31 * (Q31 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K31 = "-", (J31 * Q31 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G31" s="26" t="str">
@@ -2067,7 +2067,7 @@
         <v/>
       </c>
       <c r="F32" s="25" t="str">
-        <f aca="true">IF(K32 = "-", J32 * (Q32 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K32 = "-", (J32 * Q32 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G32" s="26" t="str">
@@ -2112,7 +2112,7 @@
         <v/>
       </c>
       <c r="F33" s="25" t="str">
-        <f aca="true">IF(K33 = "-", J33 * (Q33 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K33 = "-", (J33 * Q33 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G33" s="26" t="str">
@@ -2157,7 +2157,7 @@
         <v/>
       </c>
       <c r="F34" s="25" t="str">
-        <f aca="true">IF(K34 = "-", J34 * (Q34 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K34 = "-", (J34 * Q34 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G34" s="26" t="str">
@@ -2202,7 +2202,7 @@
         <v/>
       </c>
       <c r="F35" s="25" t="str">
-        <f aca="true">IF(K35 = "-", J35 * (Q35 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K35 = "-", (J35 * Q35 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G35" s="26" t="str">
@@ -2247,7 +2247,7 @@
         <v/>
       </c>
       <c r="F36" s="25" t="str">
-        <f aca="true">IF(K36 = "-", J36 * (Q36 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K36 = "-", (J36 * Q36 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G36" s="26" t="str">
@@ -2292,7 +2292,7 @@
         <v/>
       </c>
       <c r="F37" s="25" t="str">
-        <f aca="true">IF(K37 = "-", J37 * (Q37 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K37 = "-", (J37 * Q37 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G37" s="26" t="str">
@@ -2337,7 +2337,7 @@
         <v/>
       </c>
       <c r="F38" s="25" t="str">
-        <f aca="true">IF(K38 = "-", J38 * (Q38 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K38 = "-", (J38 * Q38 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G38" s="26" t="str">
@@ -2382,7 +2382,7 @@
         <v/>
       </c>
       <c r="F39" s="25" t="str">
-        <f aca="true">IF(K39 = "-", J39 * (Q39 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K39 = "-", (J39 * Q39 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G39" s="26" t="str">
@@ -2427,7 +2427,7 @@
         <v/>
       </c>
       <c r="F40" s="25" t="str">
-        <f aca="true">IF(K40 = "-", J40 * (Q40 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K40 = "-", (J40 * Q40 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G40" s="26" t="str">
@@ -2472,7 +2472,7 @@
         <v/>
       </c>
       <c r="F41" s="25" t="str">
-        <f aca="true">IF(K41 = "-", J41 * (Q41 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K41 = "-", (J41 * Q41 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G41" s="26" t="str">
@@ -2517,7 +2517,7 @@
         <v/>
       </c>
       <c r="F42" s="25" t="str">
-        <f aca="true">IF(K42 = "-", J42 * (Q42 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K42 = "-", (J42 * Q42 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G42" s="26" t="str">
@@ -2562,7 +2562,7 @@
         <v/>
       </c>
       <c r="F43" s="25" t="str">
-        <f aca="true">IF(K43 = "-", J43 * (Q43 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K43 = "-", (J43 * Q43 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G43" s="26" t="str">
@@ -2607,7 +2607,7 @@
         <v/>
       </c>
       <c r="F44" s="25" t="str">
-        <f aca="true">IF(K44 = "-", J44 * (Q44 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K44 = "-", (J44 * Q44 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G44" s="26" t="str">
@@ -2652,7 +2652,7 @@
         <v/>
       </c>
       <c r="F45" s="25" t="str">
-        <f aca="true">IF(K45 = "-", J45 * (Q45 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K45 = "-", (J45 * Q45 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G45" s="26" t="str">
@@ -2697,7 +2697,7 @@
         <v/>
       </c>
       <c r="F46" s="25" t="str">
-        <f aca="true">IF(K46 = "-", J46 * (Q46 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K46 = "-", (J46 * Q46 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G46" s="26" t="str">
@@ -2742,7 +2742,7 @@
         <v/>
       </c>
       <c r="F47" s="25" t="str">
-        <f aca="true">IF(K47 = "-", J47 * (Q47 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K47 = "-", (J47 * Q47 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G47" s="26" t="str">
@@ -2787,7 +2787,7 @@
         <v/>
       </c>
       <c r="F48" s="25" t="str">
-        <f aca="true">IF(K48 = "-", J48 * (Q48 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K48 = "-", (J48 * Q48 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G48" s="26" t="str">
@@ -2832,7 +2832,7 @@
         <v/>
       </c>
       <c r="F49" s="25" t="str">
-        <f aca="true">IF(K49 = "-", J49 * (Q49 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K49 = "-", (J49 * Q49 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G49" s="26" t="str">
@@ -2877,7 +2877,7 @@
         <v/>
       </c>
       <c r="F50" s="25" t="str">
-        <f aca="true">IF(K50 = "-", J50 * (Q50 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K50 = "-", (J50 * Q50 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G50" s="26" t="str">
@@ -2922,7 +2922,7 @@
         <v/>
       </c>
       <c r="F51" s="25" t="str">
-        <f aca="true">IF(K51 = "-", J51 * (Q51 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K51 = "-", (J51 * Q51 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G51" s="26" t="str">
@@ -2967,7 +2967,7 @@
         <v/>
       </c>
       <c r="F52" s="25" t="str">
-        <f aca="true">IF(K52 = "-", J52 * (Q52 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K52 = "-", (J52 * Q52 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G52" s="26" t="str">
@@ -3012,7 +3012,7 @@
         <v/>
       </c>
       <c r="F53" s="25" t="str">
-        <f aca="true">IF(K53 = "-", J53 * (Q53 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K53 = "-", (J53 * Q53 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G53" s="26" t="str">
@@ -3057,7 +3057,7 @@
         <v/>
       </c>
       <c r="F54" s="25" t="str">
-        <f aca="true">IF(K54 = "-", J54 * (Q54 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K54 = "-", (J54 * Q54 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G54" s="26" t="str">
@@ -3102,7 +3102,7 @@
         <v/>
       </c>
       <c r="F55" s="25" t="str">
-        <f aca="true">IF(K55 = "-", J55 * (Q55 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K55 = "-", (J55 * Q55 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G55" s="26" t="str">
@@ -3147,7 +3147,7 @@
         <v/>
       </c>
       <c r="F56" s="25" t="str">
-        <f aca="true">IF(K56 = "-", J56 * (Q56 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K56 = "-", (J56 * Q56 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G56" s="26" t="str">
@@ -3192,7 +3192,7 @@
         <v/>
       </c>
       <c r="F57" s="25" t="str">
-        <f aca="true">IF(K57 = "-", J57 * (Q57 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K57 = "-", (J57 * Q57 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G57" s="26" t="str">
@@ -3237,7 +3237,7 @@
         <v/>
       </c>
       <c r="F58" s="25" t="str">
-        <f aca="true">IF(K58 = "-", J58 * (Q58 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K58 = "-", (J58 * Q58 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G58" s="26" t="str">
@@ -3282,7 +3282,7 @@
         <v/>
       </c>
       <c r="F59" s="25" t="str">
-        <f aca="true">IF(K59 = "-", J59 * (Q59 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K59 = "-", (J59 * Q59 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G59" s="26" t="str">
@@ -3327,7 +3327,7 @@
         <v/>
       </c>
       <c r="F60" s="25" t="str">
-        <f aca="true">IF(K60 = "-", J60 * (Q60 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K60 = "-", (J60 * Q60 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G60" s="26" t="str">
@@ -3372,7 +3372,7 @@
         <v/>
       </c>
       <c r="F61" s="25" t="str">
-        <f aca="true">IF(K61 = "-", J61 * (Q61 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K61 = "-", (J61 * Q61 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G61" s="26" t="str">
@@ -3417,7 +3417,7 @@
         <v/>
       </c>
       <c r="F62" s="25" t="str">
-        <f aca="true">IF(K62 = "-", J62 * (Q62 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K62 = "-", (J62 * Q62 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G62" s="26" t="str">
@@ -3462,7 +3462,7 @@
         <v/>
       </c>
       <c r="F63" s="25" t="str">
-        <f aca="true">IF(K63 = "-", J63 * (Q63 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K63 = "-", (J63 * Q63 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G63" s="26" t="str">
@@ -3507,7 +3507,7 @@
         <v/>
       </c>
       <c r="F64" s="25" t="str">
-        <f aca="true">IF(K64 = "-", J64 * (Q64 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K64 = "-", (J64 * Q64 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G64" s="26" t="str">
@@ -3552,7 +3552,7 @@
         <v/>
       </c>
       <c r="F65" s="25" t="str">
-        <f aca="true">IF(K65 = "-", J65 * (Q65 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K65 = "-", (J65 * Q65 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G65" s="26" t="str">
@@ -3597,7 +3597,7 @@
         <v/>
       </c>
       <c r="F66" s="25" t="str">
-        <f aca="true">IF(K66 = "-", J66 * (Q66 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K66 = "-", (J66 * Q66 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G66" s="26" t="str">
@@ -3642,7 +3642,7 @@
         <v/>
       </c>
       <c r="F67" s="25" t="str">
-        <f aca="true">IF(K67 = "-", J67 * (Q67 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K67 = "-", (J67 * Q67 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G67" s="26" t="str">
@@ -3687,7 +3687,7 @@
         <v/>
       </c>
       <c r="F68" s="25" t="str">
-        <f aca="true">IF(K68 = "-", J68 * (Q68 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K68 = "-", (J68 * Q68 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G68" s="26" t="str">
@@ -3732,7 +3732,7 @@
         <v/>
       </c>
       <c r="F69" s="25" t="str">
-        <f aca="true">IF(K69 = "-", J69 * (Q69 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K69 = "-", (J69 * Q69 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G69" s="26" t="str">
@@ -3777,7 +3777,7 @@
         <v/>
       </c>
       <c r="F70" s="25" t="str">
-        <f aca="true">IF(K70 = "-", J70 * (Q70 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K70 = "-", (J70 * Q70 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G70" s="26" t="str">
@@ -3822,7 +3822,7 @@
         <v/>
       </c>
       <c r="F71" s="25" t="str">
-        <f aca="true">IF(K71 = "-", J71 * (Q71 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K71 = "-", (J71 * Q71 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G71" s="26" t="str">
@@ -3867,7 +3867,7 @@
         <v/>
       </c>
       <c r="F72" s="25" t="str">
-        <f aca="true">IF(K72 = "-", J72 * (Q72 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K72 = "-", (J72 * Q72 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G72" s="26" t="str">
@@ -3912,7 +3912,7 @@
         <v/>
       </c>
       <c r="F73" s="25" t="str">
-        <f aca="true">IF(K73 = "-", J73 * (Q73 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K73 = "-", (J73 * Q73 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G73" s="26" t="str">
@@ -3957,7 +3957,7 @@
         <v/>
       </c>
       <c r="F74" s="25" t="str">
-        <f aca="true">IF(K74 = "-", J74 * (Q74 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K74 = "-", (J74 * Q74 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G74" s="26" t="str">
@@ -4002,7 +4002,7 @@
         <v/>
       </c>
       <c r="F75" s="25" t="str">
-        <f aca="true">IF(K75 = "-", J75 * (Q75 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K75 = "-", (J75 * Q75 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G75" s="26" t="str">
@@ -4047,7 +4047,7 @@
         <v/>
       </c>
       <c r="F76" s="25" t="str">
-        <f aca="true">IF(K76 = "-", J76 * (Q76 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K76 = "-", (J76 * Q76 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G76" s="26" t="str">
@@ -4092,7 +4092,7 @@
         <v/>
       </c>
       <c r="F77" s="25" t="str">
-        <f aca="true">IF(K77 = "-", J77 * (Q77 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K77 = "-", (J77 * Q77 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G77" s="26" t="str">
@@ -4137,7 +4137,7 @@
         <v/>
       </c>
       <c r="F78" s="25" t="str">
-        <f aca="true">IF(K78 = "-", J78 * (Q78 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K78 = "-", (J78 * Q78 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G78" s="26" t="str">
@@ -4182,7 +4182,7 @@
         <v/>
       </c>
       <c r="F79" s="25" t="str">
-        <f aca="true">IF(K79 = "-", J79 * (Q79 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K79 = "-", (J79 * Q79 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G79" s="26" t="str">
@@ -4227,7 +4227,7 @@
         <v/>
       </c>
       <c r="F80" s="25" t="str">
-        <f aca="true">IF(K80 = "-", J80 * (Q80 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K80 = "-", (J80 * Q80 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G80" s="26" t="str">
@@ -4272,7 +4272,7 @@
         <v/>
       </c>
       <c r="F81" s="25" t="str">
-        <f aca="true">IF(K81 = "-", J81 * (Q81 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K81 = "-", (J81 * Q81 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G81" s="26" t="str">
@@ -4317,7 +4317,7 @@
         <v/>
       </c>
       <c r="F82" s="25" t="str">
-        <f aca="true">IF(K82 = "-", J82 * (Q82 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K82 = "-", (J82 * Q82 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G82" s="26" t="str">
@@ -4362,7 +4362,7 @@
         <v/>
       </c>
       <c r="F83" s="25" t="str">
-        <f aca="true">IF(K83 = "-", J83 * (Q83 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K83 = "-", (J83 * Q83 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G83" s="26" t="str">
@@ -4407,7 +4407,7 @@
         <v/>
       </c>
       <c r="F84" s="25" t="str">
-        <f aca="true">IF(K84 = "-", J84 * (Q84 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K84 = "-", (J84 * Q84 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G84" s="26" t="str">
@@ -4452,7 +4452,7 @@
         <v/>
       </c>
       <c r="F85" s="25" t="str">
-        <f aca="true">IF(K85 = "-", J85 * (Q85 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K85 = "-", (J85 * Q85 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G85" s="26" t="str">
@@ -4497,7 +4497,7 @@
         <v/>
       </c>
       <c r="F86" s="25" t="str">
-        <f aca="true">IF(K86 = "-", J86 * (Q86 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K86 = "-", (J86 * Q86 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G86" s="26" t="str">
@@ -4542,7 +4542,7 @@
         <v/>
       </c>
       <c r="F87" s="25" t="str">
-        <f aca="true">IF(K87 = "-", J87 * (Q87 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K87 = "-", (J87 * Q87 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G87" s="26" t="str">
@@ -4587,7 +4587,7 @@
         <v/>
       </c>
       <c r="F88" s="25" t="str">
-        <f aca="true">IF(K88 = "-", J88 * (Q88 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K88 = "-", (J88 * Q88 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G88" s="26" t="str">
@@ -4632,7 +4632,7 @@
         <v/>
       </c>
       <c r="F89" s="25" t="str">
-        <f aca="true">IF(K89 = "-", J89 * (Q89 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K89 = "-", (J89 * Q89 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G89" s="26" t="str">
@@ -4677,7 +4677,7 @@
         <v/>
       </c>
       <c r="F90" s="25" t="str">
-        <f aca="true">IF(K90 = "-", J90 * (Q90 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K90 = "-", (J90 * Q90 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G90" s="26" t="str">
@@ -4722,7 +4722,7 @@
         <v/>
       </c>
       <c r="F91" s="25" t="str">
-        <f aca="true">IF(K91 = "-", J91 * (Q91 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K91 = "-", (J91 * Q91 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G91" s="26" t="str">
@@ -4767,7 +4767,7 @@
         <v/>
       </c>
       <c r="F92" s="25" t="str">
-        <f aca="true">IF(K92 = "-", J92 * (Q92 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K92 = "-", (J92 * Q92 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G92" s="26" t="str">
@@ -4812,7 +4812,7 @@
         <v/>
       </c>
       <c r="F93" s="25" t="str">
-        <f aca="true">IF(K93 = "-", J93 * (Q93 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K93 = "-", (J93 * Q93 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G93" s="26" t="str">
@@ -4857,7 +4857,7 @@
         <v/>
       </c>
       <c r="F94" s="25" t="str">
-        <f aca="true">IF(K94 = "-", J94 * (Q94 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K94 = "-", (J94 * Q94 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G94" s="26" t="str">
@@ -4902,7 +4902,7 @@
         <v/>
       </c>
       <c r="F95" s="25" t="str">
-        <f aca="true">IF(K95 = "-", J95 * (Q95 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K95 = "-", (J95 * Q95 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G95" s="26" t="str">
@@ -4947,7 +4947,7 @@
         <v/>
       </c>
       <c r="F96" s="25" t="str">
-        <f aca="true">IF(K96 = "-", J96 * (Q96 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K96 = "-", (J96 * Q96 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G96" s="26" t="str">
@@ -4992,7 +4992,7 @@
         <v/>
       </c>
       <c r="F97" s="25" t="str">
-        <f aca="true">IF(K97 = "-", J97 * (Q97 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K97 = "-", (J97 * Q97 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G97" s="26" t="str">
@@ -5037,7 +5037,7 @@
         <v/>
       </c>
       <c r="F98" s="25" t="str">
-        <f aca="true">IF(K98 = "-", J98 * (Q98 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K98 = "-", (J98 * Q98 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G98" s="26" t="str">
@@ -5082,7 +5082,7 @@
         <v/>
       </c>
       <c r="F99" s="25" t="str">
-        <f aca="true">IF(K99 = "-", J99 * (Q99 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K99 = "-", (J99 * Q99 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G99" s="26" t="str">
@@ -5127,7 +5127,7 @@
         <v/>
       </c>
       <c r="F100" s="25" t="str">
-        <f aca="true">IF(K100 = "-", J100 * (Q100 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K100 = "-", (J100 * Q100 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G100" s="26" t="str">
@@ -5172,7 +5172,7 @@
         <v/>
       </c>
       <c r="F101" s="25" t="str">
-        <f aca="true">IF(K101 = "-", J101 * (Q101 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K101 = "-", (J101 * Q101 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G101" s="26" t="str">
@@ -5217,7 +5217,7 @@
         <v/>
       </c>
       <c r="F102" s="25" t="str">
-        <f aca="true">IF(K102 = "-", J102 * (Q102 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K102 = "-", (J102 * Q102 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G102" s="26" t="str">
@@ -5262,7 +5262,7 @@
         <v/>
       </c>
       <c r="F103" s="25" t="str">
-        <f aca="true">IF(K103 = "-", J103 * (Q103 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K103 = "-", (J103 * Q103 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G103" s="26" t="str">
@@ -5307,7 +5307,7 @@
         <v/>
       </c>
       <c r="F104" s="25" t="str">
-        <f aca="true">IF(K104 = "-", J104 * (Q104 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K104 = "-", (J104 * Q104 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G104" s="26" t="str">
@@ -5352,7 +5352,7 @@
         <v/>
       </c>
       <c r="F105" s="25" t="str">
-        <f aca="true">IF(K105 = "-", J105 * (Q105 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K105 = "-", (J105 * Q105 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G105" s="26" t="str">
@@ -5397,7 +5397,7 @@
         <v/>
       </c>
       <c r="F106" s="25" t="str">
-        <f aca="true">IF(K106 = "-", J106 * (Q106 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K106 = "-", (J106 * Q106 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G106" s="26" t="str">
@@ -5442,7 +5442,7 @@
         <v/>
       </c>
       <c r="F107" s="25" t="str">
-        <f aca="true">IF(K107 = "-", J107 * (Q107 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K107 = "-", (J107 * Q107 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G107" s="26" t="str">
@@ -5487,7 +5487,7 @@
         <v/>
       </c>
       <c r="F108" s="25" t="str">
-        <f aca="true">IF(K108 = "-", J108 * (Q108 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K108 = "-", (J108 * Q108 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G108" s="26" t="str">
@@ -5532,7 +5532,7 @@
         <v/>
       </c>
       <c r="F109" s="25" t="str">
-        <f aca="true">IF(K109 = "-", J109 * (Q109 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K109 = "-", (J109 * Q109 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G109" s="26" t="str">
@@ -5577,7 +5577,7 @@
         <v/>
       </c>
       <c r="F110" s="25" t="str">
-        <f aca="true">IF(K110 = "-", J110 * (Q110 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K110 = "-", (J110 * Q110 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G110" s="26" t="str">
@@ -5622,7 +5622,7 @@
         <v/>
       </c>
       <c r="F111" s="25" t="str">
-        <f aca="true">IF(K111 = "-", J111 * (Q111 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K111 = "-", (J111 * Q111 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G111" s="26" t="str">
@@ -5667,7 +5667,7 @@
         <v/>
       </c>
       <c r="F112" s="25" t="str">
-        <f aca="true">IF(K112 = "-", J112 * (Q112 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K112 = "-", (J112 * Q112 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G112" s="26" t="str">
@@ -5712,7 +5712,7 @@
         <v/>
       </c>
       <c r="F113" s="25" t="str">
-        <f aca="true">IF(K113 = "-", J113 * (Q113 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K113 = "-", (J113 * Q113 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G113" s="26" t="str">
@@ -5757,7 +5757,7 @@
         <v/>
       </c>
       <c r="F114" s="25" t="str">
-        <f aca="true">IF(K114 = "-", J114 * (Q114 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K114 = "-", (J114 * Q114 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G114" s="26" t="str">
@@ -5802,7 +5802,7 @@
         <v/>
       </c>
       <c r="F115" s="25" t="str">
-        <f aca="true">IF(K115 = "-", J115 * (Q115 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K115 = "-", (J115 * Q115 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G115" s="26" t="str">
@@ -5847,7 +5847,7 @@
         <v/>
       </c>
       <c r="F116" s="25" t="str">
-        <f aca="true">IF(K116 = "-", J116 * (Q116 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K116 = "-", (J116 * Q116 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G116" s="26" t="str">
@@ -5892,7 +5892,7 @@
         <v/>
       </c>
       <c r="F117" s="25" t="str">
-        <f aca="true">IF(K117 = "-", J117 * (Q117 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K117 = "-", (J117 * Q117 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G117" s="26" t="str">
@@ -5937,7 +5937,7 @@
         <v/>
       </c>
       <c r="F118" s="25" t="str">
-        <f aca="true">IF(K118 = "-", J118 * (Q118 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K118 = "-", (J118 * Q118 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G118" s="26" t="str">
@@ -5982,7 +5982,7 @@
         <v/>
       </c>
       <c r="F119" s="25" t="str">
-        <f aca="true">IF(K119 = "-", J119 * (Q119 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K119 = "-", (J119 * Q119 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G119" s="26" t="str">
@@ -6027,7 +6027,7 @@
         <v/>
       </c>
       <c r="F120" s="25" t="str">
-        <f aca="true">IF(K120 = "-", J120 * (Q120 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K120 = "-", (J120 * Q120 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G120" s="26" t="str">
@@ -6072,7 +6072,7 @@
         <v/>
       </c>
       <c r="F121" s="25" t="str">
-        <f aca="true">IF(K121 = "-", J121 * (Q121 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K121 = "-", (J121 * Q121 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G121" s="26" t="str">
@@ -6117,7 +6117,7 @@
         <v/>
       </c>
       <c r="F122" s="25" t="str">
-        <f aca="true">IF(K122 = "-", J122 * (Q122 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K122 = "-", (J122 * Q122 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G122" s="26" t="str">
@@ -6159,7 +6159,7 @@
         <v/>
       </c>
       <c r="F123" s="25" t="str">
-        <f aca="true">IF(K123 = "-", J123 * (Q123 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K123 = "-", (J123 * Q123 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G123" s="26" t="str">
@@ -6197,7 +6197,7 @@
         <v/>
       </c>
       <c r="F124" s="25" t="str">
-        <f aca="true">IF(K124 = "-", J124 * (Q124 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K124 = "-", (J124 * Q124 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G124" s="26" t="str">
@@ -6219,7 +6219,7 @@
         <v/>
       </c>
       <c r="F125" s="25" t="str">
-        <f aca="true">IF(K125 = "-", J125 * (Q125 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K125 = "-", (J125 * Q125 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G125" s="26" t="str">
@@ -6241,7 +6241,7 @@
         <v/>
       </c>
       <c r="F126" s="25" t="str">
-        <f aca="true">IF(K126 = "-", J126 * (Q126 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K126 = "-", (J126 * Q126 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G126" s="26" t="str">
@@ -6263,7 +6263,7 @@
         <v/>
       </c>
       <c r="F127" s="25" t="str">
-        <f aca="true">IF(K127 = "-", J127 * (Q127 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K127 = "-", (J127 * Q127 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G127" s="26" t="str">
@@ -6285,7 +6285,7 @@
         <v/>
       </c>
       <c r="F128" s="25" t="str">
-        <f aca="true">IF(K128 = "-", J128 * (Q128 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K128 = "-", (J128 * Q128 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G128" s="26" t="str">
@@ -6307,7 +6307,7 @@
         <v/>
       </c>
       <c r="F129" s="25" t="str">
-        <f aca="true">IF(K129 = "-", J129 * (Q129 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K129 = "-", (J129 * Q129 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G129" s="26" t="str">
@@ -6329,7 +6329,7 @@
         <v/>
       </c>
       <c r="F130" s="25" t="str">
-        <f aca="true">IF(K130 = "-", J130 * (Q130 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K130 = "-", (J130 * Q130 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G130" s="26" t="str">
@@ -6351,7 +6351,7 @@
         <v/>
       </c>
       <c r="F131" s="25" t="str">
-        <f aca="true">IF(K131 = "-", J131 * (Q131 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K131 = "-", (J131 * Q131 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G131" s="26" t="str">
@@ -6373,7 +6373,7 @@
         <v/>
       </c>
       <c r="F132" s="25" t="str">
-        <f aca="true">IF(K132 = "-", J132 * (Q132 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K132 = "-", (J132 * Q132 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G132" s="26" t="str">
@@ -6395,7 +6395,7 @@
         <v/>
       </c>
       <c r="F133" s="25" t="str">
-        <f aca="true">IF(K133 = "-", J133 * (Q133 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K133 = "-", (J133 * Q133 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G133" s="26" t="str">
@@ -6417,7 +6417,7 @@
         <v/>
       </c>
       <c r="F134" s="25" t="str">
-        <f aca="true">IF(K134 = "-", J134 * (Q134 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K134 = "-", (J134 * Q134 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G134" s="26" t="str">
@@ -6439,7 +6439,7 @@
         <v/>
       </c>
       <c r="F135" s="25" t="str">
-        <f aca="true">IF(K135 = "-", J135 * (Q135 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K135 = "-", (J135 * Q135 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G135" s="26" t="str">
@@ -6461,7 +6461,7 @@
         <v/>
       </c>
       <c r="F136" s="25" t="str">
-        <f aca="true">IF(K136 = "-", J136 * (Q136 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K136 = "-", (J136 * Q136 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G136" s="26" t="str">
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="F137" s="25" t="str">
-        <f aca="true">IF(K137 = "-", J137 * (Q137 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K137 = "-", (J137 * Q137 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G137" s="26" t="str">
@@ -6505,7 +6505,7 @@
         <v/>
       </c>
       <c r="F138" s="25" t="str">
-        <f aca="true">IF(K138 = "-", J138 * (Q138 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K138 = "-", (J138 * Q138 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G138" s="26" t="str">
@@ -6527,7 +6527,7 @@
         <v/>
       </c>
       <c r="F139" s="25" t="str">
-        <f aca="true">IF(K139 = "-", J139 * (Q139 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K139 = "-", (J139 * Q139 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G139" s="26" t="str">
@@ -6549,7 +6549,7 @@
         <v/>
       </c>
       <c r="F140" s="25" t="str">
-        <f aca="true">IF(K140 = "-", J140 * (Q140 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K140 = "-", (J140 * Q140 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G140" s="26" t="str">
@@ -6571,7 +6571,7 @@
         <v/>
       </c>
       <c r="F141" s="25" t="str">
-        <f aca="true">IF(K141 = "-", J141 * (Q141 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K141 = "-", (J141 * Q141 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G141" s="26" t="str">
@@ -6593,7 +6593,7 @@
         <v/>
       </c>
       <c r="F142" s="25" t="str">
-        <f aca="true">IF(K142 = "-", J142 * (Q142 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K142 = "-", (J142 * Q142 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G142" s="26" t="str">
@@ -6615,7 +6615,7 @@
         <v/>
       </c>
       <c r="F143" s="25" t="str">
-        <f aca="true">IF(K143 = "-", J143 * (Q143 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K143 = "-", (J143 * Q143 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G143" s="26" t="str">
@@ -6637,7 +6637,7 @@
         <v/>
       </c>
       <c r="F144" s="25" t="str">
-        <f aca="true">IF(K144 = "-", J144 * (Q144 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K144 = "-", (J144 * Q144 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G144" s="26" t="str">
@@ -6659,7 +6659,7 @@
         <v/>
       </c>
       <c r="F145" s="25" t="str">
-        <f aca="true">IF(K145 = "-", J145 * (Q145 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K145 = "-", (J145 * Q145 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G145" s="26" t="str">
@@ -6681,7 +6681,7 @@
         <v/>
       </c>
       <c r="F146" s="25" t="str">
-        <f aca="true">IF(K146 = "-", J146 * (Q146 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K146 = "-", (J146 * Q146 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G146" s="26" t="str">
@@ -6703,7 +6703,7 @@
         <v/>
       </c>
       <c r="F147" s="25" t="str">
-        <f aca="true">IF(K147 = "-", J147 * (Q147 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K147 = "-", (J147 * Q147 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G147" s="26" t="str">
@@ -6725,7 +6725,7 @@
         <v/>
       </c>
       <c r="F148" s="25" t="str">
-        <f aca="true">IF(K148 = "-", J148 * (Q148 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K148 = "-", (J148 * Q148 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G148" s="26" t="str">
@@ -6747,7 +6747,7 @@
         <v/>
       </c>
       <c r="F149" s="25" t="str">
-        <f aca="true">IF(K149 = "-", J149 * (Q149 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K149 = "-", (J149 * Q149 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G149" s="26" t="str">
@@ -6769,7 +6769,7 @@
         <v/>
       </c>
       <c r="F150" s="25" t="str">
-        <f aca="true">IF(K150 = "-", J150 * (Q150 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K150 = "-", (J150 * Q150 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G150" s="26" t="str">
@@ -6791,7 +6791,7 @@
         <v/>
       </c>
       <c r="F151" s="25" t="str">
-        <f aca="true">IF(K151 = "-", J151 * (Q151 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K151 = "-", (J151 * Q151 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G151" s="26" t="str">
@@ -6813,7 +6813,7 @@
         <v/>
       </c>
       <c r="F152" s="25" t="str">
-        <f aca="true">IF(K152 = "-", J152 * (Q152 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K152 = "-", (J152 * Q152 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G152" s="26" t="str">
@@ -6835,7 +6835,7 @@
         <v/>
       </c>
       <c r="F153" s="25" t="str">
-        <f aca="true">IF(K153 = "-", J153 * (Q153 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K153 = "-", (J153 * Q153 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G153" s="26" t="str">
@@ -6857,7 +6857,7 @@
         <v/>
       </c>
       <c r="F154" s="25" t="str">
-        <f aca="true">IF(K154 = "-", J154 * (Q154 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K154 = "-", (J154 * Q154 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G154" s="26" t="str">
@@ -6879,7 +6879,7 @@
         <v/>
       </c>
       <c r="F155" s="25" t="str">
-        <f aca="true">IF(K155 = "-", J155 * (Q155 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K155 = "-", (J155 * Q155 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G155" s="26" t="str">
@@ -6901,7 +6901,7 @@
         <v/>
       </c>
       <c r="F156" s="25" t="str">
-        <f aca="true">IF(K156 = "-", J156 * (Q156 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K156 = "-", (J156 * Q156 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G156" s="26" t="str">
@@ -6923,7 +6923,7 @@
         <v/>
       </c>
       <c r="F157" s="25" t="str">
-        <f aca="true">IF(K157 = "-", J157 * (Q157 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K157 = "-", (J157 * Q157 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G157" s="26" t="str">
@@ -6945,7 +6945,7 @@
         <v/>
       </c>
       <c r="F158" s="25" t="str">
-        <f aca="true">IF(K158 = "-", J158 * (Q158 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K158 = "-", (J158 * Q158 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G158" s="26" t="str">
@@ -6967,7 +6967,7 @@
         <v/>
       </c>
       <c r="F159" s="25" t="str">
-        <f aca="true">IF(K159 = "-", J159 * (Q159 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K159 = "-", (J159 * Q159 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G159" s="26" t="str">
@@ -6989,7 +6989,7 @@
         <v/>
       </c>
       <c r="F160" s="25" t="str">
-        <f aca="true">IF(K160 = "-", J160 * (Q160 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K160 = "-", (J160 * Q160 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G160" s="26" t="str">
@@ -7011,7 +7011,7 @@
         <v/>
       </c>
       <c r="F161" s="25" t="str">
-        <f aca="true">IF(K161 = "-", J161 * (Q161 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K161 = "-", (J161 * Q161 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G161" s="26" t="str">
@@ -7033,7 +7033,7 @@
         <v/>
       </c>
       <c r="F162" s="25" t="str">
-        <f aca="true">IF(K162 = "-", J162 * (Q162 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K162 = "-", (J162 * Q162 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G162" s="26" t="str">
@@ -7055,7 +7055,7 @@
         <v/>
       </c>
       <c r="F163" s="25" t="str">
-        <f aca="true">IF(K163 = "-", J163 * (Q163 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K163 = "-", (J163 * Q163 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G163" s="26" t="str">
@@ -7077,7 +7077,7 @@
         <v/>
       </c>
       <c r="F164" s="25" t="str">
-        <f aca="true">IF(K164 = "-", J164 * (Q164 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K164 = "-", (J164 * Q164 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G164" s="26" t="str">
@@ -7099,7 +7099,7 @@
         <v/>
       </c>
       <c r="F165" s="25" t="str">
-        <f aca="true">IF(K165 = "-", J165 * (Q165 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K165 = "-", (J165 * Q165 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G165" s="26" t="str">
@@ -7121,7 +7121,7 @@
         <v/>
       </c>
       <c r="F166" s="25" t="str">
-        <f aca="true">IF(K166 = "-", J166 * (Q166 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K166 = "-", (J166 * Q166 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G166" s="26" t="str">
@@ -7143,7 +7143,7 @@
         <v/>
       </c>
       <c r="F167" s="25" t="str">
-        <f aca="true">IF(K167 = "-", J167 * (Q167 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K167 = "-", (J167 * Q167 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G167" s="26" t="str">
@@ -7165,7 +7165,7 @@
         <v/>
       </c>
       <c r="F168" s="25" t="str">
-        <f aca="true">IF(K168 = "-", J168 * (Q168 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K168 = "-", (J168 * Q168 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G168" s="26" t="str">
@@ -7187,7 +7187,7 @@
         <v/>
       </c>
       <c r="F169" s="25" t="str">
-        <f aca="true">IF(K169 = "-", J169 * (Q169 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K169 = "-", (J169 * Q169 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G169" s="26" t="str">
@@ -7209,7 +7209,7 @@
         <v/>
       </c>
       <c r="F170" s="25" t="str">
-        <f aca="true">IF(K170 = "-", J170 * (Q170 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K170 = "-", (J170 * Q170 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G170" s="26" t="str">
@@ -7231,7 +7231,7 @@
         <v/>
       </c>
       <c r="F171" s="25" t="str">
-        <f aca="true">IF(K171 = "-", J171 * (Q171 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K171 = "-", (J171 * Q171 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G171" s="26" t="str">
@@ -7253,7 +7253,7 @@
         <v/>
       </c>
       <c r="F172" s="25" t="str">
-        <f aca="true">IF(K172 = "-", J172 * (Q172 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K172 = "-", (J172 * Q172 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G172" s="26" t="str">
@@ -7275,7 +7275,7 @@
         <v/>
       </c>
       <c r="F173" s="25" t="str">
-        <f aca="true">IF(K173 = "-", J173 * (Q173 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K173 = "-", (J173 * Q173 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G173" s="26" t="str">
@@ -7297,7 +7297,7 @@
         <v/>
       </c>
       <c r="F174" s="25" t="str">
-        <f aca="true">IF(K174 = "-", J174 * (Q174 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K174 = "-", (J174 * Q174 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G174" s="26" t="str">
@@ -7319,7 +7319,7 @@
         <v/>
       </c>
       <c r="F175" s="25" t="str">
-        <f aca="true">IF(K175 = "-", J175 * (Q175 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K175 = "-", (J175 * Q175 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G175" s="26" t="str">
@@ -7341,7 +7341,7 @@
         <v/>
       </c>
       <c r="F176" s="25" t="str">
-        <f aca="true">IF(K176 = "-", J176 * (Q176 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K176 = "-", (J176 * Q176 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G176" s="26" t="str">
@@ -7363,7 +7363,7 @@
         <v/>
       </c>
       <c r="F177" s="25" t="str">
-        <f aca="true">IF(K177 = "-", J177 * (Q177 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K177 = "-", (J177 * Q177 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G177" s="26" t="str">
@@ -7385,7 +7385,7 @@
         <v/>
       </c>
       <c r="F178" s="25" t="str">
-        <f aca="true">IF(K178 = "-", J178 * (Q178 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K178 = "-", (J178 * Q178 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G178" s="26" t="str">
@@ -7407,7 +7407,7 @@
         <v/>
       </c>
       <c r="F179" s="25" t="str">
-        <f aca="true">IF(K179 = "-", J179 * (Q179 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K179 = "-", (J179 * Q179 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G179" s="26" t="str">
@@ -7429,7 +7429,7 @@
         <v/>
       </c>
       <c r="F180" s="25" t="str">
-        <f aca="true">IF(K180 = "-", J180 * (Q180 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K180 = "-", (J180 * Q180 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G180" s="26" t="str">
@@ -7451,7 +7451,7 @@
         <v/>
       </c>
       <c r="F181" s="25" t="str">
-        <f aca="true">IF(K181 = "-", J181 * (Q181 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K181 = "-", (J181 * Q181 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G181" s="26" t="str">
@@ -7473,7 +7473,7 @@
         <v/>
       </c>
       <c r="F182" s="25" t="str">
-        <f aca="true">IF(K182 = "-", J182 * (Q182 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K182 = "-", (J182 * Q182 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G182" s="26" t="str">
@@ -7495,7 +7495,7 @@
         <v/>
       </c>
       <c r="F183" s="25" t="str">
-        <f aca="true">IF(K183 = "-", J183 * (Q183 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K183 = "-", (J183 * Q183 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G183" s="26" t="str">
@@ -7517,7 +7517,7 @@
         <v/>
       </c>
       <c r="F184" s="25" t="str">
-        <f aca="true">IF(K184 = "-", J184 * (Q184 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K184 = "-", (J184 * Q184 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G184" s="26" t="str">
@@ -7539,7 +7539,7 @@
         <v/>
       </c>
       <c r="F185" s="25" t="str">
-        <f aca="true">IF(K185 = "-", J185 * (Q185 - INDIRECT("O" &amp; ROW() - 1)), "")</f>
+        <f aca="true">IF(K185 = "-", (J185 * Q185 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G185" s="26" t="str">
@@ -7561,7 +7561,7 @@
         <v/>
       </c>
       <c r="F186" s="25" t="str">
-        <f aca="true">IF(G186="", IF(K186="","",(INDIRECT("N" &amp; ROW() - 1) - O186)),IF(K186="", "", INDIRECT("N" &amp; ROW() - 1) - O186))</f>
+        <f aca="true">IF(K186 = "-", (J186 * Q186 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G186" s="26" t="str">
@@ -7583,7 +7583,7 @@
         <v/>
       </c>
       <c r="F187" s="25" t="str">
-        <f aca="true">IF(G187="", IF(K187="","",(INDIRECT("N" &amp; ROW() - 1) - O187)),IF(K187="", "", INDIRECT("N" &amp; ROW() - 1) - O187))</f>
+        <f aca="true">IF(K187 = "-", (J187 * Q187 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G187" s="26" t="str">
@@ -7605,7 +7605,7 @@
         <v/>
       </c>
       <c r="F188" s="25" t="str">
-        <f aca="true">IF(G188="", IF(K188="","",(INDIRECT("N" &amp; ROW() - 1) - O188)),IF(K188="", "", INDIRECT("N" &amp; ROW() - 1) - O188))</f>
+        <f aca="true">IF(K188 = "-", (J188 * Q188 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G188" s="26" t="str">
@@ -7627,7 +7627,7 @@
         <v/>
       </c>
       <c r="F189" s="25" t="str">
-        <f aca="true">IF(G189="", IF(K189="","",(INDIRECT("N" &amp; ROW() - 1) - O189)),IF(K189="", "", INDIRECT("N" &amp; ROW() - 1) - O189))</f>
+        <f aca="true">IF(K189 = "-", (J189 * Q189 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G189" s="26" t="str">
@@ -7649,7 +7649,7 @@
         <v/>
       </c>
       <c r="F190" s="25" t="str">
-        <f aca="true">IF(G190="", IF(K190="","",(INDIRECT("N" &amp; ROW() - 1) - O190)),IF(K190="", "", INDIRECT("N" &amp; ROW() - 1) - O190))</f>
+        <f aca="true">IF(K190 = "-", (J190 * Q190 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G190" s="26" t="str">
@@ -7671,7 +7671,7 @@
         <v/>
       </c>
       <c r="F191" s="25" t="str">
-        <f aca="true">IF(G191="", IF(K191="","",(INDIRECT("N" &amp; ROW() - 1) - O191)),IF(K191="", "", INDIRECT("N" &amp; ROW() - 1) - O191))</f>
+        <f aca="true">IF(K191 = "-", (J191 * Q191 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G191" s="26" t="str">
@@ -7693,7 +7693,7 @@
         <v/>
       </c>
       <c r="F192" s="25" t="str">
-        <f aca="true">IF(G192="", IF(K192="","",(INDIRECT("N" &amp; ROW() - 1) - O192)),IF(K192="", "", INDIRECT("N" &amp; ROW() - 1) - O192))</f>
+        <f aca="true">IF(K192 = "-", (J192 * Q192 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G192" s="26" t="str">
@@ -7715,7 +7715,7 @@
         <v/>
       </c>
       <c r="F193" s="25" t="str">
-        <f aca="true">IF(G193="", IF(K193="","",(INDIRECT("N" &amp; ROW() - 1) - O193)),IF(K193="", "", INDIRECT("N" &amp; ROW() - 1) - O193))</f>
+        <f aca="true">IF(K193 = "-", (J193 * Q193 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G193" s="26" t="str">
@@ -7737,7 +7737,7 @@
         <v/>
       </c>
       <c r="F194" s="25" t="str">
-        <f aca="true">IF(G194="", IF(K194="","",(INDIRECT("N" &amp; ROW() - 1) - O194)),IF(K194="", "", INDIRECT("N" &amp; ROW() - 1) - O194))</f>
+        <f aca="true">IF(K194 = "-", (J194 * Q194 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G194" s="26" t="str">
@@ -7759,7 +7759,7 @@
         <v/>
       </c>
       <c r="F195" s="25" t="str">
-        <f aca="true">IF(G195="", IF(K195="","",(INDIRECT("N" &amp; ROW() - 1) - O195)),IF(K195="", "", INDIRECT("N" &amp; ROW() - 1) - O195))</f>
+        <f aca="true">IF(K195 = "-", (J195 * Q195 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G195" s="26" t="str">
@@ -7781,7 +7781,7 @@
         <v/>
       </c>
       <c r="F196" s="25" t="str">
-        <f aca="true">IF(G196="", IF(K196="","",(INDIRECT("N" &amp; ROW() - 1) - O196)),IF(K196="", "", INDIRECT("N" &amp; ROW() - 1) - O196))</f>
+        <f aca="true">IF(K196 = "-", (J196 * Q196 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G196" s="26" t="str">
@@ -7803,7 +7803,7 @@
         <v/>
       </c>
       <c r="F197" s="25" t="str">
-        <f aca="true">IF(G197="", IF(K197="","",(INDIRECT("N" &amp; ROW() - 1) - O197)),IF(K197="", "", INDIRECT("N" &amp; ROW() - 1) - O197))</f>
+        <f aca="true">IF(K197 = "-", (J197 * Q197 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G197" s="26" t="str">
@@ -7825,7 +7825,7 @@
         <v/>
       </c>
       <c r="F198" s="25" t="str">
-        <f aca="true">IF(G198="", IF(K198="","",(INDIRECT("N" &amp; ROW() - 1) - O198)),IF(K198="", "", INDIRECT("N" &amp; ROW() - 1) - O198))</f>
+        <f aca="true">IF(K198 = "-", (J198 * Q198 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G198" s="26" t="str">
@@ -7847,7 +7847,7 @@
         <v/>
       </c>
       <c r="F199" s="25" t="str">
-        <f aca="true">IF(G199="", IF(K199="","",(INDIRECT("N" &amp; ROW() - 1) - O199)),IF(K199="", "", INDIRECT("N" &amp; ROW() - 1) - O199))</f>
+        <f aca="true">IF(K199 = "-", (J199 * Q199 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G199" s="26" t="str">
@@ -7869,7 +7869,7 @@
         <v/>
       </c>
       <c r="F200" s="25" t="str">
-        <f aca="true">IF(G200="", IF(K200="","",(INDIRECT("N" &amp; ROW() - 1) - O200)),IF(K200="", "", INDIRECT("N" &amp; ROW() - 1) - O200))</f>
+        <f aca="true">IF(K200 = "-", (J200 * Q200 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G200" s="26" t="str">
@@ -7891,7 +7891,7 @@
         <v/>
       </c>
       <c r="F201" s="25" t="str">
-        <f aca="true">IF(G201="", IF(K201="","",(INDIRECT("N" &amp; ROW() - 1) - O201)),IF(K201="", "", INDIRECT("N" &amp; ROW() - 1) - O201))</f>
+        <f aca="true">IF(K201 = "-", (J201 * Q201 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G201" s="26" t="str">
@@ -7913,7 +7913,7 @@
         <v/>
       </c>
       <c r="F202" s="25" t="str">
-        <f aca="true">IF(G202="", IF(K202="","",(INDIRECT("N" &amp; ROW() - 1) - O202)),IF(K202="", "", INDIRECT("N" &amp; ROW() - 1) - O202))</f>
+        <f aca="true">IF(K202 = "-", (J202 * Q202 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G202" s="26" t="str">
@@ -7935,7 +7935,7 @@
         <v/>
       </c>
       <c r="F203" s="25" t="str">
-        <f aca="true">IF(G203="", IF(K203="","",(INDIRECT("N" &amp; ROW() - 1) - O203)),IF(K203="", "", INDIRECT("N" &amp; ROW() - 1) - O203))</f>
+        <f aca="true">IF(K203 = "-", (J203 * Q203 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G203" s="26" t="str">
@@ -7957,7 +7957,7 @@
         <v/>
       </c>
       <c r="F204" s="25" t="str">
-        <f aca="true">IF(G204="", IF(K204="","",(INDIRECT("N" &amp; ROW() - 1) - O204)),IF(K204="", "", INDIRECT("N" &amp; ROW() - 1) - O204))</f>
+        <f aca="true">IF(K204 = "-", (J204 * Q204 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G204" s="26" t="str">
@@ -7979,7 +7979,7 @@
         <v/>
       </c>
       <c r="F205" s="25" t="str">
-        <f aca="true">IF(G205="", IF(K205="","",(INDIRECT("N" &amp; ROW() - 1) - O205)),IF(K205="", "", INDIRECT("N" &amp; ROW() - 1) - O205))</f>
+        <f aca="true">IF(K205 = "-", (J205 * Q205 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G205" s="26" t="str">
@@ -8001,7 +8001,7 @@
         <v/>
       </c>
       <c r="F206" s="25" t="str">
-        <f aca="true">IF(G206="", IF(K206="","",(INDIRECT("N" &amp; ROW() - 1) - O206)),IF(K206="", "", INDIRECT("N" &amp; ROW() - 1) - O206))</f>
+        <f aca="true">IF(K206 = "-", (J206 * Q206 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G206" s="26" t="str">
@@ -8023,7 +8023,7 @@
         <v/>
       </c>
       <c r="F207" s="25" t="str">
-        <f aca="true">IF(G207="", IF(K207="","",(INDIRECT("N" &amp; ROW() - 1) - O207)),IF(K207="", "", INDIRECT("N" &amp; ROW() - 1) - O207))</f>
+        <f aca="true">IF(K207 = "-", (J207 * Q207 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G207" s="26" t="str">
@@ -8045,7 +8045,7 @@
         <v/>
       </c>
       <c r="F208" s="25" t="str">
-        <f aca="true">IF(G208="", IF(K208="","",(INDIRECT("N" &amp; ROW() - 1) - O208)),IF(K208="", "", INDIRECT("N" &amp; ROW() - 1) - O208))</f>
+        <f aca="true">IF(K208 = "-", (J208 * Q208 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G208" s="26" t="str">
@@ -8067,7 +8067,7 @@
         <v/>
       </c>
       <c r="F209" s="25" t="str">
-        <f aca="true">IF(G209="", IF(K209="","",(INDIRECT("N" &amp; ROW() - 1) - O209)),IF(K209="", "", INDIRECT("N" &amp; ROW() - 1) - O209))</f>
+        <f aca="true">IF(K209 = "-", (J209 * Q209 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G209" s="26" t="str">
@@ -8089,7 +8089,7 @@
         <v/>
       </c>
       <c r="F210" s="25" t="str">
-        <f aca="true">IF(G210="", IF(K210="","",(INDIRECT("N" &amp; ROW() - 1) - O210)),IF(K210="", "", INDIRECT("N" &amp; ROW() - 1) - O210))</f>
+        <f aca="true">IF(K210 = "-", (J210 * Q210 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G210" s="26" t="str">
@@ -8111,7 +8111,7 @@
         <v/>
       </c>
       <c r="F211" s="25" t="str">
-        <f aca="true">IF(G211="", IF(K211="","",(INDIRECT("N" &amp; ROW() - 1) - O211)),IF(K211="", "", INDIRECT("N" &amp; ROW() - 1) - O211))</f>
+        <f aca="true">IF(K211 = "-", (J211 * Q211 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G211" s="26" t="str">
@@ -8133,7 +8133,7 @@
         <v/>
       </c>
       <c r="F212" s="25" t="str">
-        <f aca="true">IF(G212="", IF(K212="","",(INDIRECT("N" &amp; ROW() - 1) - O212)),IF(K212="", "", INDIRECT("N" &amp; ROW() - 1) - O212))</f>
+        <f aca="true">IF(K212 = "-", (J212 * Q212 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G212" s="26" t="str">
@@ -8155,7 +8155,7 @@
         <v/>
       </c>
       <c r="F213" s="25" t="str">
-        <f aca="true">IF(G213="", IF(K213="","",(INDIRECT("N" &amp; ROW() - 1) - O213)),IF(K213="", "", INDIRECT("N" &amp; ROW() - 1) - O213))</f>
+        <f aca="true">IF(K213 = "-", (J213 * Q213 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G213" s="26" t="str">
@@ -8177,7 +8177,7 @@
         <v/>
       </c>
       <c r="F214" s="25" t="str">
-        <f aca="true">IF(G214="", IF(K214="","",(INDIRECT("N" &amp; ROW() - 1) - O214)),IF(K214="", "", INDIRECT("N" &amp; ROW() - 1) - O214))</f>
+        <f aca="true">IF(K214 = "-", (J214 * Q214 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G214" s="26" t="str">
@@ -8199,7 +8199,7 @@
         <v/>
       </c>
       <c r="F215" s="25" t="str">
-        <f aca="true">IF(G215="", IF(K215="","",(INDIRECT("N" &amp; ROW() - 1) - O215)),IF(K215="", "", INDIRECT("N" &amp; ROW() - 1) - O215))</f>
+        <f aca="true">IF(K215 = "-", (J215 * Q215 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G215" s="26" t="str">
@@ -8221,7 +8221,7 @@
         <v/>
       </c>
       <c r="F216" s="25" t="str">
-        <f aca="true">IF(G216="", IF(K216="","",(INDIRECT("N" &amp; ROW() - 1) - O216)),IF(K216="", "", INDIRECT("N" &amp; ROW() - 1) - O216))</f>
+        <f aca="true">IF(K216 = "-", (J216 * Q216 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G216" s="26" t="str">
@@ -8243,7 +8243,7 @@
         <v/>
       </c>
       <c r="F217" s="25" t="str">
-        <f aca="true">IF(G217="", IF(K217="","",(INDIRECT("N" &amp; ROW() - 1) - O217)),IF(K217="", "", INDIRECT("N" &amp; ROW() - 1) - O217))</f>
+        <f aca="true">IF(K217 = "-", (J217 * Q217 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G217" s="26" t="str">
@@ -8265,7 +8265,7 @@
         <v/>
       </c>
       <c r="F218" s="25" t="str">
-        <f aca="true">IF(G218="", IF(K218="","",(INDIRECT("N" &amp; ROW() - 1) - O218)),IF(K218="", "", INDIRECT("N" &amp; ROW() - 1) - O218))</f>
+        <f aca="true">IF(K218 = "-", (J218 * Q218 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G218" s="26" t="str">
@@ -8287,7 +8287,7 @@
         <v/>
       </c>
       <c r="F219" s="25" t="str">
-        <f aca="true">IF(G219="", IF(K219="","",(INDIRECT("N" &amp; ROW() - 1) - O219)),IF(K219="", "", INDIRECT("N" &amp; ROW() - 1) - O219))</f>
+        <f aca="true">IF(K219 = "-", (J219 * Q219 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G219" s="26" t="str">
@@ -8309,7 +8309,7 @@
         <v/>
       </c>
       <c r="F220" s="25" t="str">
-        <f aca="true">IF(G220="", IF(K220="","",(INDIRECT("N" &amp; ROW() - 1) - O220)),IF(K220="", "", INDIRECT("N" &amp; ROW() - 1) - O220))</f>
+        <f aca="true">IF(K220 = "-", (J220 * Q220 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G220" s="26" t="str">
@@ -8331,7 +8331,7 @@
         <v/>
       </c>
       <c r="F221" s="25" t="str">
-        <f aca="true">IF(G221="", IF(K221="","",(INDIRECT("N" &amp; ROW() - 1) - O221)),IF(K221="", "", INDIRECT("N" &amp; ROW() - 1) - O221))</f>
+        <f aca="true">IF(K221 = "-", (J221 * Q221 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G221" s="26" t="str">
@@ -8353,7 +8353,7 @@
         <v/>
       </c>
       <c r="F222" s="25" t="str">
-        <f aca="true">IF(G222="", IF(K222="","",(INDIRECT("N" &amp; ROW() - 1) - O222)),IF(K222="", "", INDIRECT("N" &amp; ROW() - 1) - O222))</f>
+        <f aca="true">IF(K222 = "-", (J222 * Q222 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G222" s="26" t="str">
@@ -8375,7 +8375,7 @@
         <v/>
       </c>
       <c r="F223" s="25" t="str">
-        <f aca="true">IF(G223="", IF(K223="","",(INDIRECT("N" &amp; ROW() - 1) - O223)),IF(K223="", "", INDIRECT("N" &amp; ROW() - 1) - O223))</f>
+        <f aca="true">IF(K223 = "-", (J223 * Q223 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G223" s="26" t="str">
@@ -8397,7 +8397,7 @@
         <v/>
       </c>
       <c r="F224" s="25" t="str">
-        <f aca="true">IF(G224="", IF(K224="","",(INDIRECT("N" &amp; ROW() - 1) - O224)),IF(K224="", "", INDIRECT("N" &amp; ROW() - 1) - O224))</f>
+        <f aca="true">IF(K224 = "-", (J224 * Q224 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G224" s="26" t="str">
@@ -8419,7 +8419,7 @@
         <v/>
       </c>
       <c r="F225" s="25" t="str">
-        <f aca="true">IF(G225="", IF(K225="","",(INDIRECT("N" &amp; ROW() - 1) - O225)),IF(K225="", "", INDIRECT("N" &amp; ROW() - 1) - O225))</f>
+        <f aca="true">IF(K225 = "-", (J225 * Q225 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G225" s="26" t="str">
@@ -8441,7 +8441,7 @@
         <v/>
       </c>
       <c r="F226" s="25" t="str">
-        <f aca="true">IF(G226="", IF(K226="","",(INDIRECT("N" &amp; ROW() - 1) - O226)),IF(K226="", "", INDIRECT("N" &amp; ROW() - 1) - O226))</f>
+        <f aca="true">IF(K226 = "-", (J226 * Q226 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G226" s="26" t="str">
@@ -8463,7 +8463,7 @@
         <v/>
       </c>
       <c r="F227" s="25" t="str">
-        <f aca="true">IF(G227="", IF(K227="","",(INDIRECT("N" &amp; ROW() - 1) - O227)),IF(K227="", "", INDIRECT("N" &amp; ROW() - 1) - O227))</f>
+        <f aca="true">IF(K227 = "-", (J227 * Q227 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G227" s="26" t="str">
@@ -8485,7 +8485,7 @@
         <v/>
       </c>
       <c r="F228" s="25" t="str">
-        <f aca="true">IF(G228="", IF(K228="","",(INDIRECT("N" &amp; ROW() - 1) - O228)),IF(K228="", "", INDIRECT("N" &amp; ROW() - 1) - O228))</f>
+        <f aca="true">IF(K228 = "-", (J228 * Q228 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G228" s="26" t="str">
@@ -8507,7 +8507,7 @@
         <v/>
       </c>
       <c r="F229" s="25" t="str">
-        <f aca="true">IF(G229="", IF(K229="","",(INDIRECT("N" &amp; ROW() - 1) - O229)),IF(K229="", "", INDIRECT("N" &amp; ROW() - 1) - O229))</f>
+        <f aca="true">IF(K229 = "-", (J229 * Q229 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G229" s="26" t="str">
@@ -8529,7 +8529,7 @@
         <v/>
       </c>
       <c r="F230" s="25" t="str">
-        <f aca="true">IF(G230="", IF(K230="","",(INDIRECT("N" &amp; ROW() - 1) - O230)),IF(K230="", "", INDIRECT("N" &amp; ROW() - 1) - O230))</f>
+        <f aca="true">IF(K230 = "-", (J230 * Q230 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G230" s="26" t="str">
@@ -8551,7 +8551,7 @@
         <v/>
       </c>
       <c r="F231" s="25" t="str">
-        <f aca="true">IF(G231="", IF(K231="","",(INDIRECT("N" &amp; ROW() - 1) - O231)),IF(K231="", "", INDIRECT("N" &amp; ROW() - 1) - O231))</f>
+        <f aca="true">IF(K231 = "-", (J231 * Q231 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G231" s="26" t="str">
@@ -8573,7 +8573,7 @@
         <v/>
       </c>
       <c r="F232" s="25" t="str">
-        <f aca="true">IF(G232="", IF(K232="","",(INDIRECT("N" &amp; ROW() - 1) - O232)),IF(K232="", "", INDIRECT("N" &amp; ROW() - 1) - O232))</f>
+        <f aca="true">IF(K232 = "-", (J232 * Q232 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G232" s="26" t="str">
@@ -8595,7 +8595,7 @@
         <v/>
       </c>
       <c r="F233" s="25" t="str">
-        <f aca="true">IF(G233="", IF(K233="","",(INDIRECT("N" &amp; ROW() - 1) - O233)),IF(K233="", "", INDIRECT("N" &amp; ROW() - 1) - O233))</f>
+        <f aca="true">IF(K233 = "-", (J233 * Q233 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G233" s="26" t="str">
@@ -8617,7 +8617,7 @@
         <v/>
       </c>
       <c r="F234" s="25" t="str">
-        <f aca="true">IF(G234="", IF(K234="","",(INDIRECT("N" &amp; ROW() - 1) - O234)),IF(K234="", "", INDIRECT("N" &amp; ROW() - 1) - O234))</f>
+        <f aca="true">IF(K234 = "-", (J234 * Q234 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G234" s="26" t="str">
@@ -8639,7 +8639,7 @@
         <v/>
       </c>
       <c r="F235" s="25" t="str">
-        <f aca="true">IF(G235="", IF(K235="","",(INDIRECT("N" &amp; ROW() - 1) - O235)),IF(K235="", "", INDIRECT("N" &amp; ROW() - 1) - O235))</f>
+        <f aca="true">IF(K235 = "-", (J235 * Q235 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G235" s="26" t="str">
@@ -8661,7 +8661,7 @@
         <v/>
       </c>
       <c r="F236" s="25" t="str">
-        <f aca="true">IF(G236="", IF(K236="","",(INDIRECT("N" &amp; ROW() - 1) - O236)),IF(K236="", "", INDIRECT("N" &amp; ROW() - 1) - O236))</f>
+        <f aca="true">IF(K236 = "-", (J236 * Q236 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G236" s="26" t="str">
@@ -8683,7 +8683,7 @@
         <v/>
       </c>
       <c r="F237" s="25" t="str">
-        <f aca="true">IF(G237="", IF(K237="","",(INDIRECT("N" &amp; ROW() - 1) - O237)),IF(K237="", "", INDIRECT("N" &amp; ROW() - 1) - O237))</f>
+        <f aca="true">IF(K237 = "-", (J237 * Q237 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G237" s="26" t="str">
@@ -8705,7 +8705,7 @@
         <v/>
       </c>
       <c r="F238" s="25" t="str">
-        <f aca="true">IF(G238="", IF(K238="","",(INDIRECT("N" &amp; ROW() - 1) - O238)),IF(K238="", "", INDIRECT("N" &amp; ROW() - 1) - O238))</f>
+        <f aca="true">IF(K238 = "-", (J238 * Q238 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G238" s="26" t="str">
@@ -8727,7 +8727,7 @@
         <v/>
       </c>
       <c r="F239" s="25" t="str">
-        <f aca="true">IF(G239="", IF(K239="","",(INDIRECT("N" &amp; ROW() - 1) - O239)),IF(K239="", "", INDIRECT("N" &amp; ROW() - 1) - O239))</f>
+        <f aca="true">IF(K239 = "-", (J239 * Q239 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G239" s="26" t="str">
@@ -8749,7 +8749,7 @@
         <v/>
       </c>
       <c r="F240" s="25" t="str">
-        <f aca="true">IF(G240="", IF(K240="","",(INDIRECT("N" &amp; ROW() - 1) - O240)),IF(K240="", "", INDIRECT("N" &amp; ROW() - 1) - O240))</f>
+        <f aca="true">IF(K240 = "-", (J240 * Q240 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G240" s="26" t="str">
@@ -8771,7 +8771,7 @@
         <v/>
       </c>
       <c r="F241" s="25" t="str">
-        <f aca="true">IF(G241="", IF(K241="","",(INDIRECT("N" &amp; ROW() - 1) - O241)),IF(K241="", "", INDIRECT("N" &amp; ROW() - 1) - O241))</f>
+        <f aca="true">IF(K241 = "-", (J241 * Q241 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G241" s="26" t="str">
@@ -8793,7 +8793,7 @@
         <v/>
       </c>
       <c r="F242" s="25" t="str">
-        <f aca="true">IF(G242="", IF(K242="","",(INDIRECT("N" &amp; ROW() - 1) - O242)),IF(K242="", "", INDIRECT("N" &amp; ROW() - 1) - O242))</f>
+        <f aca="true">IF(K242 = "-", (J242 * Q242 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G242" s="26" t="str">
@@ -8815,7 +8815,7 @@
         <v/>
       </c>
       <c r="F243" s="25" t="str">
-        <f aca="true">IF(G243="", IF(K243="","",(INDIRECT("N" &amp; ROW() - 1) - O243)),IF(K243="", "", INDIRECT("N" &amp; ROW() - 1) - O243))</f>
+        <f aca="true">IF(K243 = "-", (J243 * Q243 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G243" s="26" t="str">
@@ -8837,7 +8837,7 @@
         <v/>
       </c>
       <c r="F244" s="25" t="str">
-        <f aca="true">IF(G244="", IF(K244="","",(INDIRECT("N" &amp; ROW() - 1) - O244)),IF(K244="", "", INDIRECT("N" &amp; ROW() - 1) - O244))</f>
+        <f aca="true">IF(K244 = "-", (J244 * Q244 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G244" s="26" t="str">
@@ -8859,7 +8859,7 @@
         <v/>
       </c>
       <c r="F245" s="25" t="str">
-        <f aca="true">IF(G245="", IF(K245="","",(INDIRECT("N" &amp; ROW() - 1) - O245)),IF(K245="", "", INDIRECT("N" &amp; ROW() - 1) - O245))</f>
+        <f aca="true">IF(K245 = "-", (J245 * Q245 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G245" s="26" t="str">
@@ -8881,7 +8881,7 @@
         <v/>
       </c>
       <c r="F246" s="25" t="str">
-        <f aca="true">IF(G246="", IF(K246="","",(INDIRECT("N" &amp; ROW() - 1) - O246)),IF(K246="", "", INDIRECT("N" &amp; ROW() - 1) - O246))</f>
+        <f aca="true">IF(K246 = "-", (J246 * Q246 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G246" s="26" t="str">
@@ -8903,7 +8903,7 @@
         <v/>
       </c>
       <c r="F247" s="25" t="str">
-        <f aca="true">IF(G247="", IF(K247="","",(INDIRECT("N" &amp; ROW() - 1) - O247)),IF(K247="", "", INDIRECT("N" &amp; ROW() - 1) - O247))</f>
+        <f aca="true">IF(K247 = "-", (J247 * Q247 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G247" s="26" t="str">
@@ -8925,7 +8925,7 @@
         <v/>
       </c>
       <c r="F248" s="25" t="str">
-        <f aca="true">IF(G248="", IF(K248="","",(INDIRECT("N" &amp; ROW() - 1) - O248)),IF(K248="", "", INDIRECT("N" &amp; ROW() - 1) - O248))</f>
+        <f aca="true">IF(K248 = "-", (J248 * Q248 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G248" s="26" t="str">
@@ -8944,7 +8944,7 @@
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
       <c r="F249" s="25" t="str">
-        <f aca="true">IF(G249="", IF(K249="","",(INDIRECT("N" &amp; ROW() - 1) - O249)),IF(K249="", "", INDIRECT("N" &amp; ROW() - 1) - O249))</f>
+        <f aca="true">IF(K249 = "-", (J249 * Q249 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G249" s="26" t="str">
@@ -8963,7 +8963,7 @@
       <c r="B250" s="24"/>
       <c r="C250" s="24"/>
       <c r="F250" s="25" t="str">
-        <f aca="true">IF(G250="", IF(K250="","",(INDIRECT("N" &amp; ROW() - 1) - O250)),IF(K250="", "", INDIRECT("N" &amp; ROW() - 1) - O250))</f>
+        <f aca="true">IF(K250 = "-", (J250 * Q250 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G250" s="26" t="str">
@@ -8982,7 +8982,7 @@
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
       <c r="F251" s="25" t="str">
-        <f aca="true">IF(G251="", IF(K251="","",(INDIRECT("N" &amp; ROW() - 1) - O251)),IF(K251="", "", INDIRECT("N" &amp; ROW() - 1) - O251))</f>
+        <f aca="true">IF(K251 = "-", (J251 * Q251 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G251" s="26" t="str">
@@ -9001,7 +9001,7 @@
       <c r="B252" s="24"/>
       <c r="C252" s="24"/>
       <c r="F252" s="25" t="str">
-        <f aca="true">IF(G252="", IF(K252="","",(INDIRECT("N" &amp; ROW() - 1) - O252)),IF(K252="", "", INDIRECT("N" &amp; ROW() - 1) - O252))</f>
+        <f aca="true">IF(K252 = "-", (J252 * Q252 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G252" s="26" t="str">
@@ -9020,7 +9020,7 @@
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
       <c r="F253" s="25" t="str">
-        <f aca="true">IF(G253="", IF(K253="","",(INDIRECT("N" &amp; ROW() - 1) - O253)),IF(K253="", "", INDIRECT("N" &amp; ROW() - 1) - O253))</f>
+        <f aca="true">IF(K253 = "-", (J253 * Q253 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G253" s="26" t="str">
@@ -9039,7 +9039,7 @@
       <c r="B254" s="24"/>
       <c r="C254" s="24"/>
       <c r="F254" s="25" t="str">
-        <f aca="true">IF(G254="", IF(K254="","",(INDIRECT("N" &amp; ROW() - 1) - O254)),IF(K254="", "", INDIRECT("N" &amp; ROW() - 1) - O254))</f>
+        <f aca="true">IF(K254 = "-", (J254 * Q254 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G254" s="26" t="str">
@@ -9058,7 +9058,7 @@
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
       <c r="F255" s="25" t="str">
-        <f aca="true">IF(G255="", IF(K255="","",(INDIRECT("N" &amp; ROW() - 1) - O255)),IF(K255="", "", INDIRECT("N" &amp; ROW() - 1) - O255))</f>
+        <f aca="true">IF(K255 = "-", (J255 * Q255 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G255" s="26" t="str">
@@ -9077,7 +9077,7 @@
       <c r="B256" s="24"/>
       <c r="C256" s="24"/>
       <c r="F256" s="25" t="str">
-        <f aca="true">IF(G256="", IF(K256="","",(INDIRECT("N" &amp; ROW() - 1) - O256)),IF(K256="", "", INDIRECT("N" &amp; ROW() - 1) - O256))</f>
+        <f aca="true">IF(K256 = "-", (J256 * Q256 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G256" s="26" t="str">
@@ -9096,7 +9096,7 @@
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
       <c r="F257" s="25" t="str">
-        <f aca="true">IF(G257="", IF(K257="","",(INDIRECT("N" &amp; ROW() - 1) - O257)),IF(K257="", "", INDIRECT("N" &amp; ROW() - 1) - O257))</f>
+        <f aca="true">IF(K257 = "-", (J257 * Q257 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G257" s="26" t="str">
@@ -9115,7 +9115,7 @@
       <c r="B258" s="24"/>
       <c r="C258" s="24"/>
       <c r="F258" s="25" t="str">
-        <f aca="true">IF(G258="", IF(K258="","",(INDIRECT("N" &amp; ROW() - 1) - O258)),IF(K258="", "", INDIRECT("N" &amp; ROW() - 1) - O258))</f>
+        <f aca="true">IF(K258 = "-", (J258 * Q258 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G258" s="26" t="str">
@@ -9134,7 +9134,7 @@
       <c r="B259" s="24"/>
       <c r="C259" s="24"/>
       <c r="F259" s="25" t="str">
-        <f aca="true">IF(G259="", IF(K259="","",(INDIRECT("N" &amp; ROW() - 1) - O259)),IF(K259="", "", INDIRECT("N" &amp; ROW() - 1) - O259))</f>
+        <f aca="true">IF(K259 = "-", (J259 * Q259 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G259" s="26" t="str">
@@ -9153,7 +9153,7 @@
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
       <c r="F260" s="25" t="str">
-        <f aca="true">IF(G260="", IF(K260="","",(INDIRECT("N" &amp; ROW() - 1) - O260)),IF(K260="", "", INDIRECT("N" &amp; ROW() - 1) - O260))</f>
+        <f aca="true">IF(K260 = "-", (J260 * Q260 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G260" s="26" t="str">
@@ -9172,7 +9172,7 @@
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
       <c r="F261" s="25" t="str">
-        <f aca="true">IF(G261="", IF(K261="","",(INDIRECT("N" &amp; ROW() - 1) - O261)),IF(K261="", "", INDIRECT("N" &amp; ROW() - 1) - O261))</f>
+        <f aca="true">IF(K261 = "-", (J261 * Q261 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
         <v/>
       </c>
       <c r="G261" s="26" t="str">
